--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1128.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1128.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8091910046234552</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06473528036987641</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06274475832281941</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01274475832281941</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0121287616705498</v>
+        <v>0.01468364523438162</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001260719374638813</v>
+        <v>0.001278233775531261</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007366758176668563</v>
+        <v>0.0007946265938648324</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001289410822042203</v>
+        <v>0.003302471461406692</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007754511104256846</v>
+        <v>0.0007890802651243496</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003770709954251383</v>
+        <v>0.004757767762373244</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007570450871839431</v>
+        <v>0.0007897227817416024</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.005291101164881407</v>
+        <v>0.001278233775531261</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000715832259708404</v>
+        <v>0.0007946265938648324</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002482304192528359</v>
+        <v>0.002318074745749202</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001473351635333713</v>
+        <v>0.001589253187729665</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002538336075734768</v>
+        <v>0.007579344897500201</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001550902220851369</v>
+        <v>0.001578160530248699</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007281797886476843</v>
+        <v>0.01074456764127768</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001514090174367886</v>
+        <v>0.001579445563483205</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0107794101770744</v>
+        <v>0.002318074745749202</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001431664519416808</v>
+        <v>0.001589253187729665</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002639053220098435</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002210027453000569</v>
+        <v>0.002664666666666664</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003832920887759703</v>
+        <v>0.01096313313193628</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002326353331277054</v>
+        <v>0.002367240795373049</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01130673268618532</v>
+        <v>0.01630303034043101</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002271135261551829</v>
+        <v>0.002369168345224807</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01800000000000002</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002398200000000002</v>
+        <v>0.002664666666666664</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004705265223778808</v>
+        <v>0.00432151490544426</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002946703270667425</v>
+        <v>0.00317850637545933</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005259310384799015</v>
+        <v>0.01438634898837085</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003101804441702738</v>
+        <v>0.003156321060497398</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01451898324288589</v>
+        <v>0.02157578656355086</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003028180348735773</v>
+        <v>0.00315889112696641</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0195603219462715</v>
+        <v>0.00432151490544426</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002863329038833616</v>
+        <v>0.00317850637545933</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004042920556849934</v>
+        <v>0.002664666666666664</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.005456645820758228</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004042920556849934</v>
+        <v>0.003973132969324162</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006303649693534738</v>
+        <v>0.01738150529045979</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003877255552128423</v>
+        <v>0.003945401325621748</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01779201844608733</v>
+        <v>0.02600000000000002</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003785225435919716</v>
+        <v>0.003848962962962967</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02411243872617413</v>
+        <v>0.005456645820758228</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003579161298542021</v>
+        <v>0.003973132969324162</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006474534662099865</v>
+        <v>0.006360814860483448</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004420054906001138</v>
+        <v>0.004767759563188994</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007352083940648874</v>
+        <v>0.01999999999999999</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004652706662554107</v>
+        <v>0.004674853801169588</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02139930718529875</v>
+        <v>0.02924760991834258</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004542270523103659</v>
+        <v>0.004738336690449614</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02754884674075597</v>
+        <v>0.006360814860483448</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004294993558250424</v>
+        <v>0.004767759563188994</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007215615287910891</v>
+        <v>0.007234735508593028</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005156730723667994</v>
+        <v>0.005562386157053827</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008390758252823455</v>
+        <v>0.02201040896839954</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005428157772979792</v>
+        <v>0.005523561855870447</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.023614318350029</v>
+        <v>0.03410150956129421</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005299315610287602</v>
+        <v>0.005528059472191216</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03179435488823451</v>
+        <v>0.007234735508593028</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005010825817958828</v>
+        <v>0.005562386157053827</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.005897604087710548</v>
+        <v>0.007879121249060102</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005893406541334851</v>
+        <v>0.006357012750918659</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008999999999999994</v>
+        <v>0.02409715421768305</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005995499999999996</v>
+        <v>0.006312642120994797</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0261105208297871</v>
+        <v>0.03727863311257262</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006056360697471545</v>
+        <v>0.006317782253932819</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03567377206682731</v>
+        <v>0.007879121249060102</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005726658077667232</v>
+        <v>0.006357012750918659</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007530818996843006</v>
+        <v>0.008894685565857798</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006630082359001708</v>
+        <v>0.007151639344783492</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009921980341358418</v>
+        <v>0.0264523783794435</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006979059993831162</v>
+        <v>0.007101722386119146</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02816138351408198</v>
+        <v>0.04008569940683404</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006813405784655489</v>
+        <v>0.007107505035674422</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03791190717475174</v>
+        <v>0.008894685565857798</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006442490337375636</v>
+        <v>0.007151639344783492</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009125577950652414</v>
+        <v>0.009582141942959241</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007366758176668564</v>
+        <v>0.007946265938648325</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01025889870540517</v>
+        <v>0.02798623184117624</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007754511104256847</v>
+        <v>0.007890802651243495</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02999999999999997</v>
+        <v>0.044429427278735</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007401851851851843</v>
+        <v>0.007897227817416025</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0418335691102254</v>
+        <v>0.009582141942959241</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007158322597084041</v>
+        <v>0.007946265938648325</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.00869219888448295</v>
+        <v>0.01034220386433755</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00810343399433542</v>
+        <v>0.008740892532513157</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01093423039122841</v>
+        <v>0.02990886499037673</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008529962214682531</v>
+        <v>0.008679882916367846</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03171123106898785</v>
+        <v>0.04711653556293177</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008327495959023374</v>
+        <v>0.008686950599157625</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04476356677146576</v>
+        <v>0.01034220386433755</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007874154856792444</v>
+        <v>0.008740892532513157</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01024099973367879</v>
+        <v>0.01097558481396585</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008840109812002277</v>
+        <v>0.009535519126377989</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0116642679543994</v>
+        <v>0.03213042821454032</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009305413325108215</v>
+        <v>0.009468963181492195</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03215326003991145</v>
+        <v>0.05025374309408082</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009084541046207317</v>
+        <v>0.009476673380899229</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04752670905669032</v>
+        <v>0.01097558481396585</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008589987116500847</v>
+        <v>0.009535519126377989</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.008782298433584072</v>
+        <v>0.01178299827581728</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009576785629669132</v>
+        <v>0.01033014572024282</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01196530395048944</v>
+        <v>0.03326107190116234</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0100808644355339</v>
+        <v>0.01025804344661655</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03363728654908621</v>
+        <v>0.05304776870683842</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009841586133391261</v>
+        <v>0.01026639616264083</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0514478048641166</v>
+        <v>0.01178299827581728</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009305819376209253</v>
+        <v>0.01033014572024282</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01132641291954298</v>
+        <v>0.01256515773386495</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01031346144733599</v>
+        <v>0.01112477231410765</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0125536309350698</v>
+        <v>0.03491094643773826</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01085631554595958</v>
+        <v>0.01104712371174089</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03473192681290829</v>
+        <v>0.05510533123586098</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0105986312205752</v>
+        <v>0.01105611894438243</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05445166309196209</v>
+        <v>0.01256515773386495</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01002165163591766</v>
+        <v>0.01112477231410765</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01188366112689968</v>
+        <v>0.01322277667208199</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01105013726500285</v>
+        <v>0.01191939890797249</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01314554146371176</v>
+        <v>0.03689020221176342</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01163176665638527</v>
+        <v>0.01183620397686524</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03500579704777365</v>
+        <v>0.05823314951580494</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01135567630775915</v>
+        <v>0.01184584172612404</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05696309263844429</v>
+        <v>0.01322277667208199</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01073748389562606</v>
+        <v>0.01191939890797249</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01274475832281941</v>
+        <v>0.01395656857444152</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0121287616705498</v>
+        <v>0.01271402550183732</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01365732809198662</v>
+        <v>0.03810898961073317</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01240721776681095</v>
+        <v>0.01262528424198959</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03632751347007832</v>
+        <v>0.06003794238132654</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01211272139494309</v>
+        <v>0.01263556450786564</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05980690240178066</v>
+        <v>0.01395656857444152</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01145331615533446</v>
+        <v>0.01271402550183732</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0110822229077991</v>
+        <v>0.0142672469249167</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01252348890033656</v>
+        <v>0.01350865209570215</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01410528337546565</v>
+        <v>0.03900961661272245</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01318266887723664</v>
+        <v>0.01302601817886814</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03746569229621841</v>
+        <v>0.0625898336796849</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01286976648212703</v>
+        <v>0.01323659075225929</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0625898336796849</v>
+        <v>0.0142672469249167</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01191293167703336</v>
+        <v>0.01350865209570215</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01175716916068401</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01326016471800342</v>
+        <v>0.01468364523438162</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01470569986972016</v>
+        <v>0.04046649199685132</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01395811998766232</v>
+        <v>0.01420344477223829</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03900961661272245</v>
+        <v>0.06490311748107819</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01374968585547192</v>
+        <v>0.01421501007134884</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06681788009143513</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01288498067475127</v>
+        <v>0.01468364523438162</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01448222522906339</v>
+        <v>0.01562606874872977</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01399684053567027</v>
+        <v>0.01509790528343181</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.04206019013143736</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01468364523438162</v>
+        <v>0.01499252503736264</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04021441276133522</v>
+        <v>0.06759161177701101</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01438385665649492</v>
+        <v>0.01500473285309045</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06980375351478429</v>
+        <v>0.01562606874872977</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01360081293445968</v>
+        <v>0.01509790528343181</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01424713175255959</v>
+        <v>0.01620060613082977</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01473351635333713</v>
+        <v>0.01589253187729665</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01597692247381463</v>
+        <v>0.04336301428665401</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01550902220851369</v>
+        <v>0.01578160530248699</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04212474416726367</v>
+        <v>0.06889147377896243</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01514090174367886</v>
+        <v>0.01579445563483205</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07323597863261916</v>
+        <v>0.01620060613082977</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01431664519416808</v>
+        <v>0.01589253187729665</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01504162937079493</v>
+        <v>0.01668123151136852</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01547019217100398</v>
+        <v>0.01668715847116148</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01723142143209407</v>
+        <v>0.0448723013950921</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01628447331893938</v>
+        <v>0.01657068556761134</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04445969362662219</v>
+        <v>0.07199852476356933</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01589794683086281</v>
+        <v>0.01658417841657365</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07717481192102343</v>
+        <v>0.01668123151136852</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01503247745387648</v>
+        <v>0.01668715847116148</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01585545872339177</v>
+        <v>0.0173666299455425</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01620686798867084</v>
+        <v>0.01748178506502631</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01830817431861106</v>
+        <v>0.04638538838934231</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01705992442936506</v>
+        <v>0.01735976583273569</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04625661331622852</v>
+        <v>0.07350858600746824</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01665499191804675</v>
+        <v>0.01737390119831525</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08088050985608075</v>
+        <v>0.0173666299455425</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01574830971358489</v>
+        <v>0.01748178506502631</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0166783604499724</v>
+        <v>0.01785548648854811</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0169435438063377</v>
+        <v>0.01827641165889115</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01927678116411483</v>
+        <v>0.04739961220199551</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01783537553979074</v>
+        <v>0.01814884609786004</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04955285541290028</v>
+        <v>0.07681747878729589</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01741203700523069</v>
+        <v>0.01816362398005686</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08521332891387529</v>
+        <v>0.01785548648854811</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01646414197329329</v>
+        <v>0.01827641165889115</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01650007519015918</v>
+        <v>0.01834648619558182</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01768021962400455</v>
+        <v>0.01907103825275598</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02040684199935466</v>
+        <v>0.04931230976564238</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01861082665021643</v>
+        <v>0.01893792636298439</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05178577209345522</v>
+        <v>0.07922102437968892</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01816908209241463</v>
+        <v>0.01895334676179846</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08933352557049068</v>
+        <v>0.01834648619558182</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01717997423300169</v>
+        <v>0.01907103825275598</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01731034358357444</v>
+        <v>0.01923831412184004</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01841689544167141</v>
+        <v>0.01986566484662081</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02186795685507985</v>
+        <v>0.05042081801287379</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01938627776064212</v>
+        <v>0.01972700662810874</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0552927155347111</v>
+        <v>0.08131504406128404</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01892612717959858</v>
+        <v>0.01974306954354006</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0928013563020107</v>
+        <v>0.01923831412184004</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0178958064927101</v>
+        <v>0.01986566484662081</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01809890626984053</v>
+        <v>0.01972965532251925</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01915357125933826</v>
+        <v>0.02066029144048564</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02302972576203961</v>
+        <v>0.05202247387628042</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0201617288710678</v>
+        <v>0.02051608689323309</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05801103791348561</v>
+        <v>0.08339535910871781</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01968317226678252</v>
+        <v>0.02053279232528166</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09647707758451934</v>
+        <v>0.01972965532251925</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01861163875241851</v>
+        <v>0.02066029144048564</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01985550388857975</v>
+        <v>0.02021919485281587</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01989024707700512</v>
+        <v>0.02145491803435048</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02426174875098329</v>
+        <v>0.05341461428845312</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02093717998149348</v>
+        <v>0.02130516715835744</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06057809140659648</v>
+        <v>0.08525779079862705</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02044021735396646</v>
+        <v>0.02132251510702327</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09922094589410035</v>
+        <v>0.02021919485281587</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01932747101212691</v>
+        <v>0.02145491803435048</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02056987707941446</v>
+        <v>0.02090561776792632</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02062692289467198</v>
+        <v>0.02224954462821531</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0256336258526601</v>
+        <v>0.05469457618198262</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02171263109191917</v>
+        <v>0.02209424742348179</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06323122819086133</v>
+        <v>0.08789816040764836</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02119726244115041</v>
+        <v>0.02211223788876486</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1029932177068374</v>
+        <v>0.02090561776792632</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02004330327183531</v>
+        <v>0.02224954462821531</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02123176648196697</v>
+        <v>0.02128760912304707</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02136359871233883</v>
+        <v>0.02304417122208014</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02641495709781934</v>
+        <v>0.05645969648945975</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02248808220234486</v>
+        <v>0.02288332768860614</v>
       </c>
       <c r="L94" t="n">
-        <v>0.066107800443098</v>
+        <v>0.09001228921241838</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02195430752833435</v>
+        <v>0.02290196067050647</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1061541494988146</v>
+        <v>0.02128760912304707</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02075913553154372</v>
+        <v>0.02304417122208014</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02183091273585963</v>
+        <v>0.02186385397337455</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02210027453000569</v>
+        <v>0.02383879781594497</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02737534251721026</v>
+        <v>0.05740731214347522</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02326353331277054</v>
+        <v>0.02367240795373049</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06854516034012414</v>
+        <v>0.09149599848957379</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02271135261551829</v>
+        <v>0.02369168345224807</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1090639977461156</v>
+        <v>0.02186385397337455</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02147496779125212</v>
+        <v>0.02383879781594497</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02235705648071477</v>
+        <v>0.02243303737410519</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02283695034767255</v>
+        <v>0.02463342440980981</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02848438214158214</v>
+        <v>0.05893476007661985</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02403898442319622</v>
+        <v>0.02446148821885484</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07058066005875749</v>
+        <v>0.0939451095157513</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02346839770270224</v>
+        <v>0.02448140623398967</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1123830189248243</v>
+        <v>0.02243303737410519</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02219080005096052</v>
+        <v>0.02463342440980981</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02179993835615472</v>
+        <v>0.02309384438043544</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0235736261653394</v>
+        <v>0.02542805100367464</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02911167600168424</v>
+        <v>0.0599393772214844</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02481443553362191</v>
+        <v>0.02525056848397919</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07205165177581574</v>
+        <v>0.09675544356758753</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02422544278988618</v>
+        <v>0.02527112901573128</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1144714695110245</v>
+        <v>0.02309384438043544</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02290663231066893</v>
+        <v>0.02542805100367464</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02214929900180183</v>
+        <v>0.02364496004756172</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02431030198300626</v>
+        <v>0.02622267759753947</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02942682412826585</v>
+        <v>0.06151850051065963</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02558988664404759</v>
+        <v>0.02603964874910354</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07379548766811661</v>
+        <v>0.09872282192171911</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02498248787707013</v>
+        <v>0.02606085179747288</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1159896059807999</v>
+        <v>0.02364496004756172</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02362246457037733</v>
+        <v>0.02622267759753947</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0223948790572784</v>
+        <v>0.02428506943068053</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02504697780067312</v>
+        <v>0.0270173041914043</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02939942655207627</v>
+        <v>0.06286946687673636</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02636533775447327</v>
+        <v>0.02682872901422788</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07384951991247785</v>
+        <v>0.1008430658547828</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02573953296425406</v>
+        <v>0.02685057457921448</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1168976848102345</v>
+        <v>0.02428506943068053</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02433829683008574</v>
+        <v>0.0270173041914043</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0245264191622068</v>
+        <v>0.02461285758498824</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02578365361833997</v>
+        <v>0.02781193078526914</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02958907059732588</v>
+        <v>0.06418961325230532</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02714078886489896</v>
+        <v>0.02761780927935224</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07455626764980219</v>
+        <v>0.1025119966434152</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02649657805143801</v>
+        <v>0.02764029736095609</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1191559624754122</v>
+        <v>0.02461285758498824</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02505412908979414</v>
+        <v>0.02781193078526914</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02353875793996492</v>
+        <v>0.02522700956568133</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02652032943600683</v>
+        <v>0.02860655737913397</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02934046099921714</v>
+        <v>0.06497627656995725</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02791623997532465</v>
+        <v>0.02840688954447658</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07423768810195955</v>
+        <v>0.1038254355642531</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02725362313862196</v>
+        <v>0.02843002014269769</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1196246954524166</v>
+        <v>0.02522700956568133</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02576996134950255</v>
+        <v>0.02860655737913397</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0244676948474104</v>
+        <v>0.02592621042795622</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02725700525367368</v>
+        <v>0.0294011839729988</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02955909963472979</v>
+        <v>0.06612679376228303</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02869169108575033</v>
+        <v>0.02919596980960094</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07405270600358033</v>
+        <v>0.106079203893933</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0280106682258059</v>
+        <v>0.02921974292443929</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1193924506662888</v>
+        <v>0.02592621042795622</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02648579360921095</v>
+        <v>0.0294011839729988</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02233007827756762</v>
+        <v>0.02610914522700937</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02799368107134054</v>
+        <v>0.03019581056686363</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02914782397926895</v>
+        <v>0.06743850176187335</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02946714219617601</v>
+        <v>0.02998505007472528</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07361989695286025</v>
+        <v>0.1074691229090916</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02876771331298984</v>
+        <v>0.03000946570618089</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1184733392048721</v>
+        <v>0.02610914522700937</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02720162586891935</v>
+        <v>0.03019581056686363</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02213559760024565</v>
+        <v>0.02687449901803719</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0287303568890074</v>
+        <v>0.03099043716072846</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02920947150823963</v>
+        <v>0.06860873750131907</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0302425933066017</v>
+        <v>0.03077413033984963</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07295783654799498</v>
+        <v>0.1097910138863657</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02952475840017378</v>
+        <v>0.0307991884879225</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1184375859818642</v>
+        <v>0.02687449901803719</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02791745812862776</v>
+        <v>0.03099043716072846</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02389394218525359</v>
+        <v>0.02702095685623615</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02946703270667425</v>
+        <v>0.0317850637545933</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02894687969704693</v>
+        <v>0.06933483791321082</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03101804441702739</v>
+        <v>0.03156321060497398</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07238510038718024</v>
+        <v>0.1112406981023918</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03028180348735773</v>
+        <v>0.0315889112696641</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1177071423324671</v>
+        <v>0.02702095685623615</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02863329038833616</v>
+        <v>0.0317850637545933</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02261480140240048</v>
+        <v>0.02754720379680269</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03020370852434111</v>
+        <v>0.03257969034845813</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0286628860210959</v>
+        <v>0.07021413993013953</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03179349552745307</v>
+        <v>0.03235229087009833</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07172026406861165</v>
+        <v>0.1128139968338067</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03103884857454167</v>
+        <v>0.0323786340514057</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1165039595918828</v>
+        <v>0.02754720379680269</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02934912264804457</v>
+        <v>0.03257969034845813</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02130786462149543</v>
+        <v>0.02805192489493322</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03094038434200796</v>
+        <v>0.03337431694232296</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02846032795579159</v>
+        <v>0.07114398048469589</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03256894663787875</v>
+        <v>0.03314137113522268</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07068190319048495</v>
+        <v>0.1139067313572469</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03179589366172561</v>
+        <v>0.0331683568331473</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1166499890953129</v>
+        <v>0.02805192489493322</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03006495490775297</v>
+        <v>0.03337431694232296</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02298282121234752</v>
+        <v>0.02823380520582422</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03167706015967482</v>
+        <v>0.0341689435361878</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02844204297653906</v>
+        <v>0.07202169650947068</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03334439774830444</v>
+        <v>0.03393045140034703</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07008859335099585</v>
+        <v>0.1154147229493492</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03255293874890956</v>
+        <v>0.0339580796148889</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1146671821779596</v>
+        <v>0.02823380520582422</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03078078716746137</v>
+        <v>0.0341689435361878</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02264936054476581</v>
+        <v>0.02859152978467208</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03241373597734168</v>
+        <v>0.03496357013005263</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0281108685587434</v>
+        <v>0.07304462493705471</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03411984885873012</v>
+        <v>0.03471953166547138</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06925891014833993</v>
+        <v>0.1173337928867504</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03330998383609349</v>
+        <v>0.0347478023966305</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1143774901750246</v>
+        <v>0.02859152978467208</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03149661942716978</v>
+        <v>0.03496357013005263</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0213171719885594</v>
+        <v>0.02922378368667328</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03315041179500853</v>
+        <v>0.03575819672391746</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02796964217780964</v>
+        <v>0.07401010270003874</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0348952999691558</v>
+        <v>0.03550861193059573</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06791142918071297</v>
+        <v>0.1185597624460868</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03406702892327744</v>
+        <v>0.03553752517837211</v>
       </c>
       <c r="N110" t="n">
-        <v>0.11320286442171</v>
+        <v>0.02922378368667328</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03221245168687818</v>
+        <v>0.03575819672391746</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02099594491353735</v>
+        <v>0.02952925196702426</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03388708761267539</v>
+        <v>0.03655282331778229</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02782120130914285</v>
+        <v>0.07461546673101352</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03567075107958149</v>
+        <v>0.03629769219572008</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06716472604631063</v>
+        <v>0.1193884529039955</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03482407401046139</v>
+        <v>0.03632724796011371</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1115652562532176</v>
+        <v>0.02952925196702426</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03292828394658659</v>
+        <v>0.03655282331778229</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02069536868950876</v>
+        <v>0.02950661968092146</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03462376343034225</v>
+        <v>0.03734744991164712</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02726838342814811</v>
+        <v>0.07545805396256983</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03644620219000718</v>
+        <v>0.03708677246084443</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06623737634332857</v>
+        <v>0.1203156855371127</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03558111909764533</v>
+        <v>0.03711697074185531</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1099866170047494</v>
+        <v>0.02950661968092146</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03364411620629499</v>
+        <v>0.03734744991164712</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0204251326862827</v>
+        <v>0.02995457188356128</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03536043924800911</v>
+        <v>0.03814207650551196</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02701402601023045</v>
+        <v>0.0754352013272985</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03722165330043286</v>
+        <v>0.03787585272596878</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06534795566996254</v>
+        <v>0.1210372816220756</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03633816418482927</v>
+        <v>0.03790669352359691</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1082888980115072</v>
+        <v>0.02995457188356128</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03435994846600339</v>
+        <v>0.03814207650551196</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02119492627366825</v>
+        <v>0.0300717936301402</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03609711506567596</v>
+        <v>0.03893670309937679</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02686096653079494</v>
+        <v>0.0760442457577902</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03799710441085855</v>
+        <v>0.03866493299109313</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06471503962440817</v>
+        <v>0.1216490624355205</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03709520927201321</v>
+        <v>0.03869641630533852</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1068940506086931</v>
+        <v>0.0300717936301402</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0350757807257118</v>
+        <v>0.03893670309937679</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0200144388214745</v>
+        <v>0.03035696997585466</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03683379088334281</v>
+        <v>0.03973132969324162</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02661204246524666</v>
+        <v>0.07638252418663585</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03877255552128423</v>
+        <v>0.03945401325621748</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06355720380486116</v>
+        <v>0.123146849254084</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03785225435919716</v>
+        <v>0.03948613908708012</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1060240261315087</v>
+        <v>0.03035696997585466</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0357916129854202</v>
+        <v>0.03973132969324162</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0198933596995105</v>
+        <v>0.03040878597590108</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03757046670100967</v>
+        <v>0.04052595628710645</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02627009128899066</v>
+        <v>0.07714737354642606</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03954800663170992</v>
+        <v>0.04024309352134183</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06299302380951718</v>
+        <v>0.1233264633544029</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0386092994463811</v>
+        <v>0.04027586186882173</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1048007759151562</v>
+        <v>0.03040878597590108</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0365074452451286</v>
+        <v>0.04052595628710645</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01884137827758536</v>
+        <v>0.0304259266854759</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03830714251867653</v>
+        <v>0.04132058288097128</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02613795047743199</v>
+        <v>0.07713613076975173</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0403234577421356</v>
+        <v>0.04103217378646618</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06204107523657196</v>
+        <v>0.1238837260131141</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03936634453356504</v>
+        <v>0.04106558465056333</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1034462512948374</v>
+        <v>0.0304259266854759</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03722327750483701</v>
+        <v>0.04132058288097128</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01884968702433221</v>
+        <v>0.03050707715977559</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03904381833634338</v>
+        <v>0.04211520947483612</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02601845750597571</v>
+        <v>0.07754613278920361</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04109890885256128</v>
+        <v>0.04182125405159053</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06231993368422115</v>
+        <v>0.1240144585068539</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04012338962074899</v>
+        <v>0.04185530743230493</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1022824036057542</v>
+        <v>0.03050707715977559</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03793910976454542</v>
+        <v>0.04211520947483612</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01888616411685458</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03978049415401024</v>
+        <v>0.04290983606870095</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0259144498500269</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04187435996298697</v>
+        <v>0.04261033431671488</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06154817475066043</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04088043470793293</v>
+        <v>0.04264503021404653</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1004311841831087</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03865494202425382</v>
+        <v>0.04290983606870095</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02094814065422591</v>
+        <v>0.03075854838159205</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0405171699716771</v>
+        <v>0.04370446266256579</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02572876498499062</v>
+        <v>0.07781921894684898</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04264981107341265</v>
+        <v>0.04339941458183923</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06184437403408555</v>
+        <v>0.1250796532626445</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04163747979511687</v>
+        <v>0.04343475299578813</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1003145443621025</v>
+        <v>0.03075854838159205</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03937077428396222</v>
+        <v>0.04370446266256579</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02103375760355033</v>
+        <v>0.03065531443166632</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04125384578934396</v>
+        <v>0.04449908925643062</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02556424038627192</v>
+        <v>0.07780572467964739</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04342526218383833</v>
+        <v>0.04418849484696358</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06169223485067341</v>
+        <v>0.1239589024754159</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04239452488230082</v>
+        <v>0.04422447577752973</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09925443547793766</v>
+        <v>0.03065531443166632</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04008660654367063</v>
+        <v>0.04449908925643062</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02114115593193201</v>
+        <v>0.03074837230538845</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04199052160701081</v>
+        <v>0.04529371585029545</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02532371352927586</v>
+        <v>0.07786498794311242</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04420071329426403</v>
+        <v>0.04497757511208793</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06184798894927207</v>
+        <v>0.1241995216265601</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04315156996948476</v>
+        <v>0.04501419855927134</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0991728088658162</v>
+        <v>0.03074837230538845</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04080243880337903</v>
+        <v>0.04529371585029545</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02026847660647507</v>
+        <v>0.03063775219949649</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04272719742467766</v>
+        <v>0.04608834244416028</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02521002188940751</v>
+        <v>0.07779822795096505</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04497616440468971</v>
+        <v>0.04576665537721227</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0624036820043965</v>
+        <v>0.1249026412811806</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0439086150566687</v>
+        <v>0.04580392134101294</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09839161586093981</v>
+        <v>0.03063775219949649</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04151827106308743</v>
+        <v>0.04608834244416028</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0204138605942837</v>
+        <v>0.03072348431072855</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04346387324234452</v>
+        <v>0.04688296903802511</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02502600294207191</v>
+        <v>0.07780665431597114</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04575161551511539</v>
+        <v>0.04655573564233663</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06275155143111116</v>
+        <v>0.12376939200438</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04466566014385265</v>
+        <v>0.04659364412275454</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09793280779851055</v>
+        <v>0.03072348431072855</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04223410332279584</v>
+        <v>0.04688296903802511</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01957544886246202</v>
+        <v>0.03080559883582269</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04420054906001138</v>
+        <v>0.04767759563188995</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02487449416267416</v>
+        <v>0.07729147665089647</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04652706662554108</v>
+        <v>0.04734481590746097</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06258383464448061</v>
+        <v>0.1237009043612612</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04542270523103659</v>
+        <v>0.04738336690449614</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09800677388807999</v>
+        <v>0.03080559883582269</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04294993558250424</v>
+        <v>0.04767759563188995</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0217513823781142</v>
+        <v>0.03068412597151697</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04493722487767824</v>
+        <v>0.04847222222575478</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0250584249106043</v>
+        <v>0.07705390456850683</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04730251773596676</v>
+        <v>0.04813389617258532</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0634927690595693</v>
+        <v>0.1240983089169275</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04617975031822053</v>
+        <v>0.04817308968623774</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09869250069300789</v>
+        <v>0.03068412597151697</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04366576784221264</v>
+        <v>0.04847222222575478</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02193980210834436</v>
+        <v>0.0306590959145495</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04567390069534509</v>
+        <v>0.04926684881961961</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02500332932041049</v>
+        <v>0.07669514768156804</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04807796884639245</v>
+        <v>0.04892297643770967</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06367059209144182</v>
+        <v>0.1237627362364815</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04693679540540447</v>
+        <v>0.04896281246797934</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09847269267219977</v>
+        <v>0.0306590959145495</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04438160010192105</v>
+        <v>0.04926684881961961</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02213884902025667</v>
+        <v>0.03043053886165835</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04641057651301195</v>
+        <v>0.05006147541348444</v>
       </c>
       <c r="J128" t="n">
-        <v>0.025122183892788</v>
+        <v>0.07671641560284587</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04885341995681813</v>
+        <v>0.04971205670283402</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06430954115516269</v>
+        <v>0.1239953168850264</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04769384049258842</v>
+        <v>0.04975253524972095</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09953032331988665</v>
+        <v>0.03043053886165835</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04509743236162946</v>
+        <v>0.05006147541348444</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02034666408095528</v>
+        <v>0.03069848500958158</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0471472523306788</v>
+        <v>0.05085610200734927</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02550709604211873</v>
+        <v>0.07641891794510608</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04962887106724381</v>
+        <v>0.05050113696795838</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06490185366579632</v>
+        <v>0.123497181427665</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04845088557977236</v>
+        <v>0.05054225803146255</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09984836613029935</v>
+        <v>0.03069848500958158</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04581326462133786</v>
+        <v>0.05085610200734927</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02056138825754435</v>
+        <v>0.03066296455505729</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04788392814834566</v>
+        <v>0.05165072860121411</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02555017318278455</v>
+        <v>0.07660386432111455</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0504043221776695</v>
+        <v>0.05129021723308272</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06623976703840728</v>
+        <v>0.1224694604295003</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0492079306669563</v>
+        <v>0.05133198081320416</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1012097945976687</v>
+        <v>0.03066296455505729</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04652909688104626</v>
+        <v>0.05165072860121411</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02178116251712799</v>
+        <v>0.03042400769482352</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04862060396601252</v>
+        <v>0.05244535519507894</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02584352272916737</v>
+        <v>0.076472464343637</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05117977328809518</v>
+        <v>0.05207929749820708</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06691551868806012</v>
+        <v>0.1229132844556353</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04996497575414025</v>
+        <v>0.05212170359494576</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1018975822162257</v>
+        <v>0.03042400769482352</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04724492914075467</v>
+        <v>0.05244535519507894</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02200412782681038</v>
+        <v>0.03048164462561838</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04935727978367938</v>
+        <v>0.05323998178894377</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02637925209564912</v>
+        <v>0.07562592762543924</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05195522439852087</v>
+        <v>0.05286837776333142</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06772134602981933</v>
+        <v>0.122629784071173</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05072202084132419</v>
+        <v>0.05291142637668736</v>
       </c>
       <c r="N132" t="n">
-        <v>0.103994702480201</v>
+        <v>0.03048164462561838</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04796076140046307</v>
+        <v>0.05323998178894377</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02222842515369568</v>
+        <v>0.03053590554417993</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05009395560134623</v>
+        <v>0.05403460838280861</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02674946869661167</v>
+        <v>0.07586546377928707</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05273067550894655</v>
+        <v>0.05365745802845576</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0687494864787494</v>
+        <v>0.1217200898412162</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05147906592850813</v>
+        <v>0.05370114915842896</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1054841288838257</v>
+        <v>0.03053590554417993</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04867659366017147</v>
+        <v>0.05403460838280861</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.021452195464888</v>
+        <v>0.03048682064724625</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05083063141901309</v>
+        <v>0.05482923497667343</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02714627994643694</v>
+        <v>0.07579228241794631</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05350612661937224</v>
+        <v>0.05444653829358013</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06899217744991487</v>
+        <v>0.1214853323308679</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05223611101569207</v>
+        <v>0.05449087194017057</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1062488349213306</v>
+        <v>0.03048682064724625</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04939242591987988</v>
+        <v>0.05482923497667343</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02367357972749151</v>
+        <v>0.03013442013155543</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05156730723667995</v>
+        <v>0.05562386157053827</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02736179325950683</v>
+        <v>0.07490759315418272</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05428157772979792</v>
+        <v>0.05523561855870447</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06984165635838022</v>
+        <v>0.1210266421052312</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05299315610287601</v>
+        <v>0.05528059472191217</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1081717940869465</v>
+        <v>0.03013442013155543</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05010825817958828</v>
+        <v>0.05562386157053827</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02189071890861037</v>
+        <v>0.03037873419384551</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0523039830543468</v>
+        <v>0.0564184881644031</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02798811605020324</v>
+        <v>0.07481260560076208</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05505702884022361</v>
+        <v>0.05602469882382882</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07069016061921002</v>
+        <v>0.1196451497294089</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05375020119005997</v>
+        <v>0.05607031750365377</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1096359798749044</v>
+        <v>0.03037873419384551</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05082409043929668</v>
+        <v>0.0564184881644031</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02310175397534873</v>
+        <v>0.0301197930308546</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05304065887201366</v>
+        <v>0.05721311475826794</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02811735573290806</v>
+        <v>0.07440852937045025</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05583247995064929</v>
+        <v>0.05681377908895317</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07152992764746874</v>
+        <v>0.119241985768504</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05450724627724391</v>
+        <v>0.05686004028539537</v>
       </c>
       <c r="N137" t="n">
-        <v>0.111124365779435</v>
+        <v>0.0301197930308546</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05153992269900509</v>
+        <v>0.05721311475826794</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02230482589481071</v>
+        <v>0.02995762683932078</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05377733468968051</v>
+        <v>0.05800774135213277</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02884161972200322</v>
+        <v>0.07419657407601299</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05660793106107498</v>
+        <v>0.05760285935407752</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07245319485822085</v>
+        <v>0.1198182807876194</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05526429136442785</v>
+        <v>0.05764976306713698</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1116199252947694</v>
+        <v>0.02995762683932078</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0522557549587135</v>
+        <v>0.05800774135213277</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02449807563410049</v>
+        <v>0.03009226581598211</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05451401050734737</v>
+        <v>0.0588023679459976</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02925301543187057</v>
+        <v>0.07357794933021605</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05738338217150066</v>
+        <v>0.05839193961920187</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07345219966653097</v>
+        <v>0.1188751653518582</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05602133645161179</v>
+        <v>0.05843948584887858</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1136056319151382</v>
+        <v>0.03009226581598211</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0529715872184219</v>
+        <v>0.0588023679459976</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0236796441603222</v>
+        <v>0.02992374015757665</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05525068632501422</v>
+        <v>0.05959699453986243</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02944365027689207</v>
+        <v>0.07345386474582533</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05815883328192634</v>
+        <v>0.05918101988432622</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07411917948746349</v>
+        <v>0.1186137700263232</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05677838153879573</v>
+        <v>0.05922920863062018</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1146644591347725</v>
+        <v>0.02992374015757665</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05368741947813031</v>
+        <v>0.05959699453986243</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02284767244058</v>
+        <v>0.02975208006084253</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05598736214268108</v>
+        <v>0.06039162113372726</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0297056316714496</v>
+        <v>0.07322552993560649</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05893428439235202</v>
+        <v>0.05997010014945057</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07504637173608306</v>
+        <v>0.1180352253761174</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05753542662597968</v>
+        <v>0.06001893141236179</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1163793804479029</v>
+        <v>0.02975208006084253</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05440325173783871</v>
+        <v>0.06039162113372726</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02400030144197804</v>
+        <v>0.02967731572251776</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05672403796034794</v>
+        <v>0.0611862477275921</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03013106702992503</v>
+        <v>0.07329415451232546</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05970973550277772</v>
+        <v>0.06075918041457491</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0756260138274541</v>
+        <v>0.1174406619663438</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05829247171316362</v>
+        <v>0.06080865419410339</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1177333693487606</v>
+        <v>0.02967731572251776</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05511908399754711</v>
+        <v>0.0611862477275921</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02413567213162048</v>
+        <v>0.02989947733934045</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0574607137780148</v>
+        <v>0.06198087432145692</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03041206376670033</v>
+        <v>0.07236094808874793</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0604851866132034</v>
+        <v>0.06154826067969927</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07635034317664111</v>
+        <v>0.1167312103621054</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05904951680034757</v>
+        <v>0.06159837697584499</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1192093993315763</v>
+        <v>0.02989947733934045</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05583491625725551</v>
+        <v>0.06198087432145692</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02525192547661144</v>
+        <v>0.0298185951080487</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05819738959568165</v>
+        <v>0.06277550091532176</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03085879909152003</v>
+        <v>0.07202712027763974</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06126063772362909</v>
+        <v>0.06233734094482362</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0770115971987087</v>
+        <v>0.115108001128505</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05980656188753151</v>
+        <v>0.06238809975758659</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1197904438905809</v>
+        <v>0.0298185951080487</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05655074851696391</v>
+        <v>0.06277550091532176</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02434720244405508</v>
+        <v>0.02953469922538055</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05893406541334851</v>
+        <v>0.0635701275091866</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0308357769116757</v>
+        <v>0.07219388069176666</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06203608883405477</v>
+        <v>0.06312642120994796</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0773020133087213</v>
+        <v>0.1144721648306457</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06056360697471545</v>
+        <v>0.0631778225393282</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1218594765200052</v>
+        <v>0.02953469922538055</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05726658077667233</v>
+        <v>0.0635701275091866</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02441964400105555</v>
+        <v>0.0293478198880741</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05967074123101537</v>
+        <v>0.06436475410305142</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03103133268661168</v>
+        <v>0.07186243894389452</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06281153994448045</v>
+        <v>0.06391550147507231</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07801923322544491</v>
+        <v>0.1143248320336304</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06132065206189939</v>
+        <v>0.06396754532106978</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1218994707140801</v>
+        <v>0.0293478198880741</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05798241303638072</v>
+        <v>0.06436475410305142</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02546739111471702</v>
+        <v>0.02925798729286741</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06040741704868222</v>
+        <v>0.06515938069691626</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03132701445401484</v>
+        <v>0.0713340046467891</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06358699105490613</v>
+        <v>0.06470458174019666</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07778307113708777</v>
+        <v>0.113567133302562</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06207769714908334</v>
+        <v>0.06475726810281139</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1237933999670366</v>
+        <v>0.02925798729286741</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05869824529608914</v>
+        <v>0.06515938069691626</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02548951664563881</v>
+        <v>0.02946523163649854</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06114409286634907</v>
+        <v>0.06595400729078109</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03152217915569683</v>
+        <v>0.07070978741321618</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06436244216533182</v>
+        <v>0.06549366200532102</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07855305102688803</v>
+        <v>0.1125001992025435</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06283474223626728</v>
+        <v>0.065546990884553</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1234242377731054</v>
+        <v>0.02946523163649854</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05941407755579754</v>
+        <v>0.06595400729078109</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02348878428218738</v>
+        <v>0.02926958311570561</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06188076868401593</v>
+        <v>0.06674863388464593</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03151618373346925</v>
+        <v>0.07069099685594157</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0651378932757575</v>
+        <v>0.06628274227044537</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07912312856149706</v>
+        <v>0.1128251602986779</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06359178732345122</v>
+        <v>0.06633671366629459</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1241749576265175</v>
+        <v>0.02926958311570561</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06012990981550594</v>
+        <v>0.06674863388464593</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02348554531486412</v>
+        <v>0.02897107192722667</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06261744450168279</v>
+        <v>0.06754326047851075</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03180838512914373</v>
+        <v>0.07067884258773108</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0659133443861832</v>
+        <v>0.06707182253556972</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07899265430669564</v>
+        <v>0.1121431471560681</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06434883241063517</v>
+        <v>0.0671264364480362</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1251796673593698</v>
+        <v>0.02897107192722667</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06084574207521434</v>
+        <v>0.06754326047851075</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02547980154450781</v>
+        <v>0.02886972826779981</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06335412031934964</v>
+        <v>0.06833788707237559</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03199814028453191</v>
+        <v>0.06977453422135044</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06668879549660887</v>
+        <v>0.06786090280069405</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07926097882826447</v>
+        <v>0.1106552903398171</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06510587749781911</v>
+        <v>0.0679161592297778</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1242792565279444</v>
+        <v>0.02886972826779981</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06156157433492274</v>
+        <v>0.06833788707237559</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02447164126540294</v>
+        <v>0.02896558233416309</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0640907961370165</v>
+        <v>0.06913251366624043</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0320848061414454</v>
+        <v>0.06997928136956552</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06746424660703457</v>
+        <v>0.06864998306581842</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08012745269198443</v>
+        <v>0.1101627204150277</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06586292258500305</v>
+        <v>0.06870588201151941</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1248727612257638</v>
+        <v>0.02896558233416309</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06227740659463116</v>
+        <v>0.06913251366624043</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02346115277183401</v>
+        <v>0.02875866432305459</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06482747195468336</v>
+        <v>0.06992714026010526</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03246773964169584</v>
+        <v>0.06978999803213407</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06823969771746025</v>
+        <v>0.06943906333094277</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08009142646363615</v>
+        <v>0.1099665679468031</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06661996767218699</v>
+        <v>0.069495604793261</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1245584990912235</v>
+        <v>0.02875866432305459</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06299323885433955</v>
+        <v>0.06992714026010526</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02544842435808556</v>
+        <v>0.0286490044312124</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06556414777235021</v>
+        <v>0.07072176685397009</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03264629772709488</v>
+        <v>0.06899989248663932</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06901514882788592</v>
+        <v>0.07022814359606711</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08055225070900046</v>
+        <v>0.1094679635002462</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06737701275937094</v>
+        <v>0.07028532757500261</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1248366373643988</v>
+        <v>0.0286490044312124</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06370907111404796</v>
+        <v>0.07072176685397009</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02343354431844206</v>
+        <v>0.02873663285537457</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06630082359001706</v>
+        <v>0.07151639344783492</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03291983733945411</v>
+        <v>0.06880871136462019</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0697905999383116</v>
+        <v>0.07101722386119146</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08100927599385815</v>
+        <v>0.1079680376404598</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06813405784655488</v>
+        <v>0.07107505035674422</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1240073432853652</v>
+        <v>0.02873663285537457</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06442490337375636</v>
+        <v>0.07151639344783492</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02341660094718805</v>
+        <v>0.02832157979227923</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06703749940768393</v>
+        <v>0.07231102004169976</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03288771542058516</v>
+        <v>0.06881631184308712</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0705660510487373</v>
+        <v>0.07180630412631582</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08116185288399</v>
+        <v>0.107167920932547</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06889110293373883</v>
+        <v>0.07186477313848581</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1247707840941978</v>
+        <v>0.02832157979227923</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06514073563346476</v>
+        <v>0.07231102004169976</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02439768253860801</v>
+        <v>0.02840387543866439</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06777417522535079</v>
+        <v>0.07310564663556458</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03324928891229968</v>
+        <v>0.06802255109905048</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07134150215916298</v>
+        <v>0.07259538439144016</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08170933194517668</v>
+        <v>0.1063687439416106</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06964814802092277</v>
+        <v>0.07265449592022742</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1243271270309723</v>
+        <v>0.02840387543866439</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06585656789317318</v>
+        <v>0.07310564663556458</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02337687738698645</v>
+        <v>0.02828354999126817</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06851085104301764</v>
+        <v>0.07390027322942942</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03330391475640929</v>
+        <v>0.06782728630952076</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07211695326958867</v>
+        <v>0.07338446465656451</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08205106374319907</v>
+        <v>0.1058716372327537</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07040519310810671</v>
+        <v>0.07344421870196902</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1243765393357638</v>
+        <v>0.02828354999126817</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06657240015288157</v>
+        <v>0.07390027322942942</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0243542737866079</v>
+        <v>0.02806063364682862</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0692475268606845</v>
+        <v>0.07469489982329425</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03335094989472559</v>
+        <v>0.06733037465150837</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07289240438001436</v>
+        <v>0.07417354492168886</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08258639884383784</v>
+        <v>0.1059777313710792</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07116223819529066</v>
+        <v>0.07423394148371062</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1248191882486477</v>
+        <v>0.02806063364682862</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06728823241258998</v>
+        <v>0.07469489982329425</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02432996003175683</v>
+        <v>0.02813515660208385</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06998420267835136</v>
+        <v>0.07548952641715907</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03358975126906026</v>
+        <v>0.06753167330202375</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07366785549044004</v>
+        <v>0.07496262518681322</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08231468781287382</v>
+        <v>0.1042881569216901</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0719192832824746</v>
+        <v>0.07502366426545222</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1245552410096995</v>
+        <v>0.02813515660208385</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06800406467229839</v>
+        <v>0.07548952641715907</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02430402441671776</v>
+        <v>0.0277071490537719</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07072087849601821</v>
+        <v>0.07628415301102391</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03371967582122487</v>
+        <v>0.06703103943807734</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07444330660086572</v>
+        <v>0.07575170545193756</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08283528121608774</v>
+        <v>0.1037040444496893</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07267632836965854</v>
+        <v>0.07581338704719383</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1240848648589945</v>
+        <v>0.0277071490537719</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06871989693200678</v>
+        <v>0.07628415301102391</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02327655523577521</v>
+        <v>0.02767664119863086</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07145755431368507</v>
+        <v>0.07707877960488874</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03374008049303107</v>
+        <v>0.06652833023667962</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0752187577112914</v>
+        <v>0.07654078571706191</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08344752961926039</v>
+        <v>0.1037265245201798</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07343337345684248</v>
+        <v>0.07660310982893544</v>
       </c>
       <c r="N162" t="n">
-        <v>0.124208227036608</v>
+        <v>0.02767664119863086</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06943572919171519</v>
+        <v>0.07707877960488874</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02524764078321368</v>
+        <v>0.02754366323339882</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07219423013135193</v>
+        <v>0.07787340619875358</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03395032222629052</v>
+        <v>0.0663234028748409</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07599420882171709</v>
+        <v>0.07732986598218626</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08325078358817256</v>
+        <v>0.102953411795337</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07419041854402643</v>
+        <v>0.07739283261067703</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1236254947826155</v>
+        <v>0.02754366323339882</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07015156145142359</v>
+        <v>0.07787340619875358</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02521736935331764</v>
+        <v>0.02760824535481386</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07293090594901877</v>
+        <v>0.0786680327926184</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0339497579628148</v>
+        <v>0.06601611452957173</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07676965993214277</v>
+        <v>0.0781189462473106</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08374439368860495</v>
+        <v>0.1018591472307934</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07494746363121037</v>
+        <v>0.07818255539241864</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1234368353370924</v>
+        <v>0.02760824535481386</v>
       </c>
       <c r="O164" t="n">
-        <v>0.070867393711132</v>
+        <v>0.0786680327926184</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02318582924037164</v>
+        <v>0.02727041775961403</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07366758176668563</v>
+        <v>0.07946265938648324</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03403774464441557</v>
+        <v>0.06620632237788249</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07754511104256846</v>
+        <v>0.07890802651243496</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08452771048633836</v>
+        <v>0.1009388644300022</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07570450871839432</v>
+        <v>0.07897227817416023</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1233424159401139</v>
+        <v>0.02727041775961403</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07158322597084039</v>
+        <v>0.07946265938648324</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02315310873866018</v>
+        <v>0.02703021064453742</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07440425758435248</v>
+        <v>0.08025728598034808</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03431363921290444</v>
+        <v>0.0656938835967836</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07832056215299414</v>
+        <v>0.07969710677755931</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08430008454715357</v>
+        <v>0.1001934665236298</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07646155380557826</v>
+        <v>0.07976200095590184</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1236424038317554</v>
+        <v>0.02703021064453742</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07229905823054882</v>
+        <v>0.08025728598034808</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02411929614246777</v>
+        <v>0.02688765420632211</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07514093340201934</v>
+        <v>0.0810519125742129</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03437679861009305</v>
+        <v>0.06537865536328555</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07909601326341983</v>
+        <v>0.08048618704268366</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08496086643683129</v>
+        <v>0.09952385664234287</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0772185988927622</v>
+        <v>0.08055172373764345</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1240369662520923</v>
+        <v>0.02688765420632211</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07301489049025721</v>
+        <v>0.0810519125742129</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02308447974607888</v>
+        <v>0.02704277864170615</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0758776092196862</v>
+        <v>0.08184653916807774</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03432657977779299</v>
+        <v>0.06516049485439876</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07987146437384551</v>
+        <v>0.081275267307808</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08530940672115236</v>
+        <v>0.09953093791680784</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07797564397994614</v>
+        <v>0.08134144651938505</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1240262704412001</v>
+        <v>0.02704277864170615</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07373072274996562</v>
+        <v>0.08184653916807774</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02404874784377807</v>
+        <v>0.02669561414742765</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07661428503735306</v>
+        <v>0.08264116576194257</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03416233965781595</v>
+        <v>0.06443925924713362</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08064691548427119</v>
+        <v>0.08206434757293236</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0851450559658975</v>
+        <v>0.09761561347769143</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07873268906713009</v>
+        <v>0.08213116930112666</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1231104836391539</v>
+        <v>0.02669561414742765</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07444655500967402</v>
+        <v>0.08264116576194257</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02301218872984979</v>
+        <v>0.02644619092022468</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07735096085501991</v>
+        <v>0.08343579235580741</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03428343519197349</v>
+        <v>0.0640148057185006</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08142236659469688</v>
+        <v>0.08285342783805671</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08576716473684748</v>
+        <v>0.09737878645566012</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07948973415431404</v>
+        <v>0.08292089208286825</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1234897730860293</v>
+        <v>0.02644619092022468</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07516238726938242</v>
+        <v>0.08343579235580741</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0239748906985786</v>
+        <v>0.0263945391568353</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07808763667268677</v>
+        <v>0.08423041894967223</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03418921216712502</v>
+        <v>0.06428699144551012</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08219781770512256</v>
+        <v>0.08364250810318105</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08527508359978306</v>
+        <v>0.09672135998138054</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08024677924149798</v>
+        <v>0.08371061486460986</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1228643060219016</v>
+        <v>0.0263945391568353</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07587821952909084</v>
+        <v>0.08423041894967223</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02293694204424895</v>
+        <v>0.02623929534047573</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07882431249035363</v>
+        <v>0.08502504554353707</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03437849283843851</v>
+        <v>0.06385567360517264</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08297326881554826</v>
+        <v>0.0844315883683054</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08586816312048504</v>
+        <v>0.09624423718551922</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08100382432868192</v>
+        <v>0.08450033764635145</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1225342496868462</v>
+        <v>0.02623929534047573</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07659405178879923</v>
+        <v>0.08502504554353707</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02289843106114539</v>
+        <v>0.02622602101326267</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07956098830802048</v>
+        <v>0.08581967213740191</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03415123298990758</v>
+        <v>0.06302070937449858</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08374871992597394</v>
+        <v>0.08522066863342975</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08564575386473414</v>
+        <v>0.09454832119874262</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08176086941586586</v>
+        <v>0.08529006042809306</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1231997713209382</v>
+        <v>0.02622602101326267</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07730988404850764</v>
+        <v>0.08581967213740191</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02385944604355242</v>
+        <v>0.02573500816707464</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08029766412568734</v>
+        <v>0.08661429873126673</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03410803881535597</v>
+        <v>0.06268195593049833</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08452417103639963</v>
+        <v>0.0860097488985541</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0859072063983112</v>
+        <v>0.09403451515171751</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08251791450304979</v>
+        <v>0.08607978320983467</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1221610381642534</v>
+        <v>0.02573500816707464</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07802571630821604</v>
+        <v>0.08661429873126673</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02482007528575453</v>
+        <v>0.0254777401801</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0810343399433542</v>
+        <v>0.08740892532513157</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03404951650860748</v>
+        <v>0.06253927045018234</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08529962214682531</v>
+        <v>0.08679882916367845</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08595187128699688</v>
+        <v>0.09320372217511036</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08327495959023375</v>
+        <v>0.08686950599157627</v>
       </c>
       <c r="N175" t="n">
-        <v>0.122518217456867</v>
+        <v>0.0254777401801</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07874154856792444</v>
+        <v>0.08740892532513157</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02478040708203622</v>
+        <v>0.02496570043052714</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08177101576102105</v>
+        <v>0.0882035519189964</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03407627226348586</v>
+        <v>0.06199251011056117</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08607507325725099</v>
+        <v>0.0875879094288028</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08607909909657208</v>
+        <v>0.09245684539958787</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08403200467741768</v>
+        <v>0.08765922877331787</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1230714764388542</v>
+        <v>0.02496570043052714</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07945738082763285</v>
+        <v>0.0882035519189964</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02474052972668202</v>
+        <v>0.02451037229654449</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08250769157868791</v>
+        <v>0.08899817851286124</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03418891227381492</v>
+        <v>0.06194153208864511</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08685052436767667</v>
+        <v>0.08837698969392715</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08688824039281742</v>
+        <v>0.09069478795581637</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08478904976460164</v>
+        <v>0.08844895155505945</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1220209823502906</v>
+        <v>0.02451037229654449</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08017321308734125</v>
+        <v>0.08899817851286124</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02470053151397643</v>
+        <v>0.02392323915634045</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08324436739635477</v>
+        <v>0.08979280510672606</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0337880427334184</v>
+        <v>0.0612861935614446</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08762597547810236</v>
+        <v>0.08916606995905151</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08647864574151376</v>
+        <v>0.0899184529744626</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08554609485178558</v>
+        <v>0.08923867433680106</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1217669024312514</v>
+        <v>0.02392323915634045</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08088904534704966</v>
+        <v>0.08979280510672606</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02266050073820394</v>
+        <v>0.02371578438810336</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08398104321402163</v>
+        <v>0.0905874317005909</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0338742698361201</v>
+        <v>0.06122635170597013</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08840142658852805</v>
+        <v>0.08995515022417586</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0863496657084418</v>
+        <v>0.08912874358619305</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08630313993896951</v>
+        <v>0.09002839711854267</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1224094039218121</v>
+        <v>0.02371578438810336</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08160487760675805</v>
+        <v>0.0905874317005909</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02462052569364907</v>
+        <v>0.02319949137002167</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08471771903168848</v>
+        <v>0.09138205829445574</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03364819977574376</v>
+        <v>0.06116186369923213</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08917687769895373</v>
+        <v>0.09074423048930021</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0871006508593824</v>
+        <v>0.08802656292167438</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08706018502615347</v>
+        <v>0.09081811990028427</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1217486540620479</v>
+        <v>0.02319949137002167</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08232070986646647</v>
+        <v>0.09138205829445574</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02458069467459632</v>
+        <v>0.02258584348028377</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08545439484935533</v>
+        <v>0.09217668488832056</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03351043874611323</v>
+        <v>0.06039258671824096</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08995232880937942</v>
+        <v>0.09153331075442454</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08673095176011625</v>
+        <v>0.08751281411157308</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08781723011333741</v>
+        <v>0.09160784268202588</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1214848200920344</v>
+        <v>0.02258584348028377</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08303654212617487</v>
+        <v>0.09217668488832056</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02254109597533022</v>
+        <v>0.02188632409707801</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08619107066702218</v>
+        <v>0.0929713114821854</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0333615929410522</v>
+        <v>0.06021837794000715</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0907277799198051</v>
+        <v>0.09232239101954891</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08713957828919419</v>
+        <v>0.08598840028655574</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08857427520052134</v>
+        <v>0.09239756546376747</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1212180692518468</v>
+        <v>0.02188632409707801</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08375237438588327</v>
+        <v>0.0929713114821854</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02450181789013524</v>
+        <v>0.02171241659859285</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08692774648468904</v>
+        <v>0.09376593807605023</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03330226855438452</v>
+        <v>0.05983909454154107</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09150323103023078</v>
+        <v>0.09311147128467326</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08697554001447466</v>
+        <v>0.08465422457728888</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0893313202877053</v>
+        <v>0.09318728824550908</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1210485687815605</v>
+        <v>0.02171241659859285</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08446820664559168</v>
+        <v>0.09376593807605023</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02346294871329591</v>
+        <v>0.02127560436301663</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0876644223023559</v>
+        <v>0.09456056466991507</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03303307177993392</v>
+        <v>0.05945459369985323</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09227868214065646</v>
+        <v>0.0939005515497976</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08670753696767516</v>
+        <v>0.08331119011443916</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09008836537488923</v>
+        <v>0.09397701102725069</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1208764859212508</v>
+        <v>0.02127560436301663</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08518403890530007</v>
+        <v>0.09456056466991507</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02242452354832843</v>
+        <v>0.0207873707685378</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08840109812002277</v>
+        <v>0.09535519126377989</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03305460881152417</v>
+        <v>0.05856473259195399</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09305413325108215</v>
+        <v>0.09468963181492195</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08604259610895129</v>
+        <v>0.08286020002867317</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09084541046207317</v>
+        <v>0.09476673380899228</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1213019879109932</v>
+        <v>0.0207873707685378</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08589987116500848</v>
+        <v>0.09535519126377989</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02238613099315609</v>
+        <v>0.02035919919334474</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08913777393768962</v>
+        <v>0.09614981785764472</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03286748584297906</v>
+        <v>0.05856936839485383</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09382958436150783</v>
+        <v>0.0954787120800463</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08558774439845868</v>
+        <v>0.08170215745065734</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09160245554925713</v>
+        <v>0.09555645659073389</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1213252419908631</v>
+        <v>0.02035919919334474</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08661570342471689</v>
+        <v>0.09614981785764472</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02334757831471494</v>
+        <v>0.02000257301562583</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08987444975535648</v>
+        <v>0.09694444445150956</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03247230906812237</v>
+        <v>0.05816835828556313</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09460503547193352</v>
+        <v>0.09626779234517065</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08575000879635286</v>
+        <v>0.0801379655110584</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09235950063644106</v>
+        <v>0.09634617937247549</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1210464154009358</v>
+        <v>0.02000257301562583</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08733153568442528</v>
+        <v>0.09694444445150956</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02430875719612438</v>
+        <v>0.01982897561356947</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09061112557302334</v>
+        <v>0.09773907104537438</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03226968468077789</v>
+        <v>0.05796155944109238</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0953804865823592</v>
+        <v>0.097056872610295</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08503641626278943</v>
+        <v>0.08016852734054269</v>
       </c>
       <c r="M188" t="n">
-        <v>0.093116545723625</v>
+        <v>0.09713590215421709</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1203656753812866</v>
+        <v>0.01982897561356947</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0880473679441337</v>
+        <v>0.09773907104537438</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02326955932050381</v>
+        <v>0.02004488677796705</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09134780139069018</v>
+        <v>0.09853369763923922</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03206021887476937</v>
+        <v>0.05694882903845197</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0961559376927849</v>
+        <v>0.09784595287541935</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08415399375792398</v>
+        <v>0.07839474606977703</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09387359081080894</v>
+        <v>0.09792562493595869</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1201831891719909</v>
+        <v>0.02004488677796705</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0887632002038421</v>
+        <v>0.09853369763923922</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02322987637097268</v>
+        <v>0.01998780648711715</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09208447720835704</v>
+        <v>0.09932832423310405</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03184451784392059</v>
+        <v>0.05703002425465237</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09693138880321057</v>
+        <v>0.0986350331405437</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08360976824191205</v>
+        <v>0.07769053583180796</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09463063589799289</v>
+        <v>0.0987153477177003</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1196991240131241</v>
+        <v>0.01998780648711715</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0894790324635505</v>
+        <v>0.09932832423310405</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02418960003065035</v>
+        <v>0.01973551244420908</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09282115302602389</v>
+        <v>0.1001229508269689</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03162318778205533</v>
+        <v>0.056705002266704</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09770683991363625</v>
+        <v>0.09942411340566805</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08271076667490929</v>
+        <v>0.07626695484060986</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09538768098517685</v>
+        <v>0.09950507049944191</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1197136471447616</v>
+        <v>0.01973551244420908</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09019486472325891</v>
+        <v>0.1001229508269689</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02214862198265626</v>
+        <v>0.01988768822561321</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09355782884369075</v>
+        <v>0.1009175774208337</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03129683488299738</v>
+        <v>0.05597362025161726</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09848229102406195</v>
+        <v>0.1002131936707924</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08226401601707126</v>
+        <v>0.07483025096472573</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09614472607236078</v>
+        <v>0.1002947932811835</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1195268946586482</v>
+        <v>0.01988768822561321</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09091069698296732</v>
+        <v>0.1009175774208337</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02410683391010982</v>
+        <v>0.01984401740769981</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09429450466135761</v>
+        <v>0.1017122040146985</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03136606534057047</v>
+        <v>0.05543573538640265</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09925774213448763</v>
+        <v>0.1010022739359168</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08187654322855356</v>
+        <v>0.07339550621639512</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09690177115954472</v>
+        <v>0.1010845160629251</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1197316100681557</v>
+        <v>0.01984401740769981</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09162652924267571</v>
+        <v>0.1017122040146985</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02406412749613043</v>
+        <v>0.01960418356683916</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09503118047902447</v>
+        <v>0.1025068306085634</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03083148534859843</v>
+        <v>0.05539120484807056</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1000331932449133</v>
+        <v>0.1017913542010411</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08085537526951173</v>
+        <v>0.0722778026078576</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09765881624672866</v>
+        <v>0.1018742388446667</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1192220928015529</v>
+        <v>0.01960418356683916</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09234236150238412</v>
+        <v>0.1025068306085634</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02202039442383751</v>
+        <v>0.01946787027940161</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09576785629669132</v>
+        <v>0.1033014572024282</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03059370110090499</v>
+        <v>0.05443988581363143</v>
       </c>
       <c r="K195" t="n">
-        <v>0.100808644355339</v>
+        <v>0.1025804344661654</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08000753910010136</v>
+        <v>0.07029222215135289</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0984158613339126</v>
+        <v>0.1026639616264083</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1185982757757801</v>
+        <v>0.01946787027940161</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09305819376209253</v>
+        <v>0.1033014572024282</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02297552637635047</v>
+        <v>0.01943476112175739</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09650453211435818</v>
+        <v>0.1040960837962931</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03045331879131394</v>
+        <v>0.05418163546009566</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1015840954657647</v>
+        <v>0.1033695147312898</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07934006168047808</v>
+        <v>0.06925384685912045</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09917290642109655</v>
+        <v>0.1034536844081499</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1185600919077776</v>
+        <v>0.01943476112175739</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09377402602180092</v>
+        <v>0.1040960837962931</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02292941503678871</v>
+        <v>0.01950453967027685</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09724120793202504</v>
+        <v>0.1048907103901579</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03031094461364911</v>
+        <v>0.05369883859730962</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1023595465761904</v>
+        <v>0.1041585949964142</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07785996997079744</v>
+        <v>0.06667775874339987</v>
       </c>
       <c r="M197" t="n">
-        <v>0.0999299515082805</v>
+        <v>0.1042434071898915</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1180074741144856</v>
+        <v>0.01950453967027685</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09448985828150934</v>
+        <v>0.1048907103901579</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02388195208827164</v>
+        <v>0.01967688950133029</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09797788374969189</v>
+        <v>0.1056853369840227</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02996718476173418</v>
+        <v>0.05317684295663755</v>
       </c>
       <c r="K198" t="n">
-        <v>0.103134997686616</v>
+        <v>0.1049476752615385</v>
       </c>
       <c r="L198" t="n">
-        <v>0.077174290931215</v>
+        <v>0.06517903981643086</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1006869965954644</v>
+        <v>0.1050331299716331</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1177403553128443</v>
+        <v>0.01967688950133029</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09520569054121773</v>
+        <v>0.1056853369840227</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02383302921391869</v>
+        <v>0.01945149419128799</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09871455956735875</v>
+        <v>0.1064799635778875</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02982264542939299</v>
+        <v>0.05252061590323107</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1039104487970417</v>
+        <v>0.1057367555266628</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07619005152188643</v>
+        <v>0.06367277209045291</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1014440416826484</v>
+        <v>0.1058228527533747</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1176586684197941</v>
+        <v>0.01945149419128799</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09592152280092614</v>
+        <v>0.1064799635778875</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02178253809684925</v>
+        <v>0.01932803731652027</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09945123538502561</v>
+        <v>0.1072745901717524</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02937793281044931</v>
+        <v>0.05213512547375038</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1046858999074674</v>
+        <v>0.1065258357917872</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07531427870296722</v>
+        <v>0.06227403757770555</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1022010867698323</v>
+        <v>0.1066125755351163</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1177623463522752</v>
+        <v>0.01932803731652027</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09663735506063455</v>
+        <v>0.1072745901717524</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02173037042018276</v>
+        <v>0.01950620245339743</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1001879112026925</v>
+        <v>0.1080692167656172</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02943365309872691</v>
+        <v>0.05152533970485573</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1054613510178931</v>
+        <v>0.1073149160569115</v>
       </c>
       <c r="L201" t="n">
-        <v>0.074753999434613</v>
+        <v>0.0599979182904285</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1029581318570163</v>
+        <v>0.1074022983168579</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1168513220272278</v>
+        <v>0.01950620245339743</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09735318732034294</v>
+        <v>0.1080692167656172</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0226764178670386</v>
+        <v>0.01928567317828975</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1009245870203593</v>
+        <v>0.108863843359482</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02899041248804952</v>
+        <v>0.05089622663320731</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1062368021283188</v>
+        <v>0.1081039963220359</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07411624067697936</v>
+        <v>0.05815949624086131</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1037151769442002</v>
+        <v>0.1081920210985995</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1173255283615922</v>
+        <v>0.01928567317828975</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09806901958005136</v>
+        <v>0.108863843359482</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02262057212053617</v>
+        <v>0.01956613306756753</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1016612628380262</v>
+        <v>0.1096584699533469</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02874881717224101</v>
+        <v>0.04995275429546547</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1070122532387445</v>
+        <v>0.1088930765871603</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07300802939022183</v>
+        <v>0.05657385344124338</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1044722220313841</v>
+        <v>0.1089817438803411</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1170848982723085</v>
+        <v>0.01956613306756753</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09878485183975975</v>
+        <v>0.1096584699533469</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0215627248637949</v>
+        <v>0.01924726569760112</v>
       </c>
       <c r="G204" t="n">
-        <v>0.102397938655693</v>
+        <v>0.1104530965472117</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02850947334512507</v>
+        <v>0.04979989072829039</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1077877043491701</v>
+        <v>0.1096821568522846</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07233639253449606</v>
+        <v>0.05595607190381457</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1052292671185681</v>
+        <v>0.1097714666620827</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1166293646763172</v>
+        <v>0.01924726569760112</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09950068409946816</v>
+        <v>0.1104530965472117</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02150276777993422</v>
+        <v>0.01952875464476075</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1031346144733599</v>
+        <v>0.1112477231410765</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02827298720052551</v>
+        <v>0.04864260396834227</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1085631554595958</v>
+        <v>0.1104712371174089</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07160835706995763</v>
+        <v>0.05452123364081429</v>
       </c>
       <c r="M205" t="n">
-        <v>0.105986312205752</v>
+        <v>0.1105611894438243</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1154588604905585</v>
+        <v>0.01952875464476075</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1002165163591766</v>
+        <v>0.1112477231410765</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02344059255207351</v>
+        <v>0.01931028348541677</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1038712902910267</v>
+        <v>0.1120423497349414</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0281399649322661</v>
+        <v>0.04788586205228146</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1093386065700215</v>
+        <v>0.1112603173825333</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07063094995676206</v>
+        <v>0.05228442066448219</v>
       </c>
       <c r="M206" t="n">
-        <v>0.106743357292936</v>
+        <v>0.1113509122255659</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1152733186319725</v>
+        <v>0.01931028348541677</v>
       </c>
       <c r="O206" t="n">
-        <v>0.100932348618885</v>
+        <v>0.1120423497349414</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02137609086333221</v>
+        <v>0.01949153579593947</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1046079661086936</v>
+        <v>0.1128369763288062</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02771101273417065</v>
+        <v>0.04773463301676811</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1101140576804472</v>
+        <v>0.1120493976476576</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07021119815506496</v>
+        <v>0.05186071498705785</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1075004023801199</v>
+        <v>0.1121406350073075</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1151726720174995</v>
+        <v>0.01949153579593947</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1016481808785934</v>
+        <v>0.1128369763288062</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02230915439682969</v>
+        <v>0.01927219515269914</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1053446419263604</v>
+        <v>0.113631602922671</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02748673680006287</v>
+        <v>0.04729388489846251</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1108895087908729</v>
+        <v>0.112838477912782</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06945612862502198</v>
+        <v>0.0510651986207809</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1082574474673039</v>
+        <v>0.1129303577890491</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1153568535640799</v>
+        <v>0.01927219515269914</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1023640131383018</v>
+        <v>0.113631602922671</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0212396748356854</v>
+        <v>0.01935194513206608</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1060813177440273</v>
+        <v>0.1144262295165359</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02736774332376658</v>
+        <v>0.0464685857340249</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1116649599012986</v>
+        <v>0.1136275581779063</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06917276832678862</v>
+        <v>0.04911295357789086</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1090144925544878</v>
+        <v>0.1137200805707907</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1150257961886539</v>
+        <v>0.01935194513206608</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1030798453980102</v>
+        <v>0.1144262295165359</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02216754386301871</v>
+        <v>0.01943046931041062</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1068179935616942</v>
+        <v>0.1152208561104007</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02705339429384088</v>
+        <v>0.04546370356011548</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1124404110117243</v>
+        <v>0.1144166384430307</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06876814422052052</v>
+        <v>0.04861906187062726</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1097715376416717</v>
+        <v>0.1145098033525324</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1140794328081616</v>
+        <v>0.01943046931041062</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1037956776577186</v>
+        <v>0.1152208561104007</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02109265316194907</v>
+        <v>0.01920745126410302</v>
       </c>
       <c r="G211" t="n">
-        <v>0.107554669379361</v>
+        <v>0.1160154827042655</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02713787786628721</v>
+        <v>0.04498420641339451</v>
       </c>
       <c r="K211" t="n">
-        <v>0.11321586212215</v>
+        <v>0.115205718708155</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06864928326637323</v>
+        <v>0.04789860551122982</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1105285827288557</v>
+        <v>0.115299526134274</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1130176963395434</v>
+        <v>0.01920745126410302</v>
       </c>
       <c r="O211" t="n">
-        <v>0.104511509917427</v>
+        <v>0.1160154827042655</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02301489441559587</v>
+        <v>0.01918257456951361</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1082913451970279</v>
+        <v>0.1168101092981304</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02682037886096936</v>
+        <v>0.04463506233052228</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1139913132325757</v>
+        <v>0.1159947989732794</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06822321242450236</v>
+        <v>0.04766666651193813</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1112856278160396</v>
+        <v>0.1160892489160156</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1129405196997396</v>
+        <v>0.01918257456951361</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1052273421771354</v>
+        <v>0.1168101092981304</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02293415930707854</v>
+        <v>0.01915552280301265</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1090280210146947</v>
+        <v>0.1176047358919952</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02660090303944132</v>
+        <v>0.04391960299375328</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1147667643430013</v>
+        <v>0.1167838792384037</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06767647815128786</v>
+        <v>0.04743832688499167</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1120426729032236</v>
+        <v>0.1168789716977572</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1121478358056902</v>
+        <v>0.01915552280301265</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1059431744368438</v>
+        <v>0.1176047358919952</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02185033951951645</v>
+        <v>0.01932597954097051</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1097646968323616</v>
+        <v>0.11839936248586</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02647945616325717</v>
+        <v>0.04371480145196271</v>
       </c>
       <c r="K214" t="n">
-        <v>0.115542215453427</v>
+        <v>0.1175729595035281</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06783871188253743</v>
+        <v>0.04680022294022534</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1127997179904075</v>
+        <v>0.1176686944794988</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1122395775743357</v>
+        <v>0.01932597954097051</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1066590066965522</v>
+        <v>0.11839936248586</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02176332673602904</v>
+        <v>0.01909362835975745</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1105013726500284</v>
+        <v>0.1191939890797249</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02605604399397095</v>
+        <v>0.04311181715527568</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1163176665638527</v>
+        <v>0.1183620397686524</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06790333103394405</v>
+        <v>0.04779042819693097</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1135567630775915</v>
+        <v>0.1184584172612404</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1117156779226163</v>
+        <v>0.01909362835975745</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1073748389562606</v>
+        <v>0.1191939890797249</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02167149081990551</v>
+        <v>0.01915815283574374</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1112380484676953</v>
+        <v>0.1199886156735897</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02583067229313669</v>
+        <v>0.04281075959245365</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1170931176742784</v>
+        <v>0.1191511200337768</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06757034944939422</v>
+        <v>0.04768089664867725</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1143138081647754</v>
+        <v>0.119248140042982</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1109760697674723</v>
+        <v>0.01915815283574374</v>
       </c>
       <c r="O216" t="n">
-        <v>0.108090671215969</v>
+        <v>0.1199886156735897</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02056823487880295</v>
+        <v>0.01911923654529973</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1119747242853622</v>
+        <v>0.1207832422674545</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02560334682230846</v>
+        <v>0.0421117382522582</v>
       </c>
       <c r="K217" t="n">
-        <v>0.117868568784704</v>
+        <v>0.1199402002989011</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06763978097277445</v>
+        <v>0.04757162560170325</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1150708532519594</v>
+        <v>0.1200378628247236</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1108206860258437</v>
+        <v>0.01911923654529973</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1088065034756774</v>
+        <v>0.1207832422674545</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02145295857506699</v>
+        <v>0.0188765630647957</v>
       </c>
       <c r="G218" t="n">
-        <v>0.112711400103029</v>
+        <v>0.1215778688613194</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02527407334304033</v>
+        <v>0.04181486262345072</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1186440198951297</v>
+        <v>0.1207292805640255</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06701163944797123</v>
+        <v>0.04786261236224765</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1158278983391433</v>
+        <v>0.1208275856064652</v>
       </c>
       <c r="N218" t="n">
-        <v>0.110349459614671</v>
+        <v>0.0188765630647957</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1095223357353858</v>
+        <v>0.1215778688613194</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02132583570809431</v>
+        <v>0.0189299046102694</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1134480759206959</v>
+        <v>0.1223724954551842</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02504285761688627</v>
+        <v>0.04122024219479284</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1194194710055554</v>
+        <v>0.1215183608291498</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06758593871887103</v>
+        <v>0.04725385423654965</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1165849434263272</v>
+        <v>0.1216173083882068</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1086623234508945</v>
+        <v>0.0189299046102694</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1102381679950942</v>
+        <v>0.1223724954551842</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02218704007728149</v>
+        <v>0.01887946195364133</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1141847517383627</v>
+        <v>0.123167122049049</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02480970540540037</v>
+        <v>0.04052798645504604</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1201949221159811</v>
+        <v>0.1223074410942742</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06716269262936045</v>
+        <v>0.04684534853084793</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1173419885135112</v>
+        <v>0.1224070311699484</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1080568316187625</v>
+        <v>0.01887946195364133</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1109540002548026</v>
+        <v>0.123167122049049</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02203674548202515</v>
+        <v>0.01882531439557625</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1149214275560296</v>
+        <v>0.1239617486429138</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02487462247013669</v>
+        <v>0.03983820489297188</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1209703732264068</v>
+        <v>0.1230965213593985</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0668419150233259</v>
+        <v>0.04723709255138148</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1180990336006951</v>
+        <v>0.12319675395169</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1074015725559937</v>
+        <v>0.01882531439557625</v>
       </c>
       <c r="O221" t="n">
-        <v>0.111669832514511</v>
+        <v>0.1239617486429138</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02187512572172195</v>
+        <v>0.01876751258175159</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1156581033736964</v>
+        <v>0.1247563752367787</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02443761457264927</v>
+        <v>0.03985100699733185</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1217458243368325</v>
+        <v>0.1238856016245229</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06692361974465399</v>
+        <v>0.04702908360438929</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1188560786878791</v>
+        <v>0.1239864767334316</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1067874566752665</v>
+        <v>0.01876751258175159</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1123856647742194</v>
+        <v>0.1247563752367787</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0217023545957685</v>
+        <v>0.01890610715784476</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1163947791913633</v>
+        <v>0.1255510018306435</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02419868747449214</v>
+        <v>0.03906650225688743</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1225212754472582</v>
+        <v>0.1246746818896472</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06710782063723111</v>
+        <v>0.04772131899611021</v>
       </c>
       <c r="M223" t="n">
-        <v>0.119613123775063</v>
+        <v>0.1247761995151732</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1062153222811331</v>
+        <v>0.01890610715784476</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1131014970339278</v>
+        <v>0.1255510018306435</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02151860590356142</v>
+        <v>0.01884114876953318</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1171314550090301</v>
+        <v>0.1263456284245084</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02395784693721935</v>
+        <v>0.03868480016040018</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1232967265576839</v>
+        <v>0.1254637621547716</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06629453154494386</v>
+        <v>0.04671379603278314</v>
       </c>
       <c r="M224" t="n">
-        <v>0.120370168862247</v>
+        <v>0.1255659222969148</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1058860076781462</v>
+        <v>0.01884114876953318</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1138173292936362</v>
+        <v>0.1263456284245084</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01932405344449734</v>
+        <v>0.01877268806249427</v>
       </c>
       <c r="G225" t="n">
-        <v>0.117868130826697</v>
+        <v>0.1271402550183732</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02381509872238498</v>
+        <v>0.03840601019663165</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1240721776681095</v>
+        <v>0.1262528424198959</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06688376631167872</v>
+        <v>0.046906512020647</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1211272139494309</v>
+        <v>0.1263556450786564</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1045003511708582</v>
+        <v>0.01877268806249427</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1145331615533447</v>
+        <v>0.1271402550183732</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02111887101797289</v>
+        <v>0.01860077568240544</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1186048066443639</v>
+        <v>0.127934881612238</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02347044859154304</v>
+        <v>0.03743024185434327</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1248476287785352</v>
+        <v>0.1270419226850203</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06617553878132221</v>
+        <v>0.04739946426594072</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1218842590366148</v>
+        <v>0.127145367860398</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1038591910638216</v>
+        <v>0.01860077568240544</v>
       </c>
       <c r="O226" t="n">
-        <v>0.115248993813053</v>
+        <v>0.127934881612238</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01990323242338469</v>
+        <v>0.01862546227494412</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1193414824620307</v>
+        <v>0.1287295082061028</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0231239023062476</v>
+        <v>0.03685760462229665</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1256230798889609</v>
+        <v>0.1278310029501446</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06626986279776079</v>
+        <v>0.04789265007490329</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1226413041237988</v>
+        <v>0.1279350906421396</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1029633656615887</v>
+        <v>0.01862546227494412</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1159648260727614</v>
+        <v>0.1287295082061028</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01867731146012938</v>
+        <v>0.01834679848578771</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1200781582796976</v>
+        <v>0.1295241347999677</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02287546562805268</v>
+        <v>0.03648820798925323</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1263985309993866</v>
+        <v>0.128620083215269</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06656675220488101</v>
+        <v>0.0477860667537735</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1233983492109827</v>
+        <v>0.1287248134238812</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1021137132687122</v>
+        <v>0.01834679848578771</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1166806583324698</v>
+        <v>0.1295241347999677</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02044128192760358</v>
+        <v>0.01826483496061367</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1208148340973644</v>
+        <v>0.1303187613938325</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02272514431851234</v>
+        <v>0.03642216144397459</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1271739821098123</v>
+        <v>0.1294091634803933</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06616622084656942</v>
+        <v>0.04667971160879036</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1241553942981667</v>
+        <v>0.1295145362056228</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1002110721897445</v>
+        <v>0.01826483496061367</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1173964905921783</v>
+        <v>0.1303187613938325</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01819531762520391</v>
+        <v>0.01837962234509936</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1215515099150313</v>
+        <v>0.1311133879876973</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02267294413918064</v>
+        <v>0.03575957447522218</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1279494332202379</v>
+        <v>0.1301982437455177</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06636828256671243</v>
+        <v>0.04687358194619268</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1249124393853506</v>
+        <v>0.1303042589873644</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09975628072923792</v>
+        <v>0.01837962234509936</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1181123228518867</v>
+        <v>0.1311133879876973</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01793959235232698</v>
+        <v>0.01799121128492227</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1222881857326981</v>
+        <v>0.1319080145815622</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02211887085161161</v>
+        <v>0.03540055657175761</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1287248843306636</v>
+        <v>0.130987324010642</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06587295120919656</v>
+        <v>0.04746767507221944</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1256694844725346</v>
+        <v>0.131093981769106</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09835017719174521</v>
+        <v>0.01799121128492227</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1188281551115951</v>
+        <v>0.1319080145815622</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01967427990836945</v>
+        <v>0.01809965242575973</v>
       </c>
       <c r="G232" t="n">
-        <v>0.123024861550365</v>
+        <v>0.132702641175427</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02186293021735931</v>
+        <v>0.03494521722234237</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1295003354410893</v>
+        <v>0.1317764042757664</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06558024061790843</v>
+        <v>0.04696198829310966</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1264265295597185</v>
+        <v>0.1318837045508476</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0969935998818186</v>
+        <v>0.01809965242575973</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1195439873713035</v>
+        <v>0.132702641175427</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01939955409272793</v>
+        <v>0.01800499641328923</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1237615373680319</v>
+        <v>0.1334972677692919</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02180512799797778</v>
+        <v>0.03449366591573794</v>
       </c>
       <c r="K233" t="n">
-        <v>0.130275786551515</v>
+        <v>0.1325654845408907</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06569016463673441</v>
+        <v>0.0476565189151022</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1271835746469024</v>
+        <v>0.1326734273325892</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09528738710401069</v>
+        <v>0.01800499641328923</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1202598196310119</v>
+        <v>0.1334972677692919</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01911558870479903</v>
+        <v>0.01770729389318816</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1244982131856987</v>
+        <v>0.1342918943631567</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02164546995502105</v>
+        <v>0.03384601214070582</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1310512376619407</v>
+        <v>0.1333545648060151</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06530273710956114</v>
+        <v>0.04745126424443585</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1279406197340864</v>
+        <v>0.1334631501143308</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09443237716287378</v>
+        <v>0.01770729389318816</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1209756518907203</v>
+        <v>0.1342918943631567</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01882255754397941</v>
+        <v>0.01780659551113395</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1252348890033656</v>
+        <v>0.1350865209570215</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0210839618500432</v>
+        <v>0.03320236538600757</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1318266887723664</v>
+        <v>0.1341436450711394</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06541797188027498</v>
+        <v>0.04774622158734965</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1286976648212703</v>
+        <v>0.1342528728960724</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09312940836296058</v>
+        <v>0.01780659551113395</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1216914841504287</v>
+        <v>0.1350865209570215</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01752063440966567</v>
+        <v>0.01760295191280398</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1259715648210324</v>
+        <v>0.1358811475508863</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02102060944459823</v>
+        <v>0.03346283514040474</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1326021398827921</v>
+        <v>0.1349327253362638</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06553588279276254</v>
+        <v>0.04764138825008252</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1294547099084543</v>
+        <v>0.135042595677814</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09207931900882343</v>
+        <v>0.01760295191280398</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1224073164101371</v>
+        <v>0.1358811475508863</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01720999310125444</v>
+        <v>0.01769641374387572</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1267082406386993</v>
+        <v>0.1366757741447512</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02055541850024026</v>
+        <v>0.03302753089265878</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1333775909932177</v>
+        <v>0.1357218056013881</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06515648369091034</v>
+        <v>0.04783676153887328</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1302117549956382</v>
+        <v>0.1358323184595556</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09058294740501482</v>
+        <v>0.01769641374387572</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1231231486698455</v>
+        <v>0.1366757741447512</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01789080741814236</v>
+        <v>0.01738703165002656</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1274449164563661</v>
+        <v>0.137470400738616</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02058839477852324</v>
+        <v>0.03219656213153124</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1341530421036434</v>
+        <v>0.1365108858665125</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06547978841860477</v>
+        <v>0.04773233875996097</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1309688000828222</v>
+        <v>0.1366220412412972</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08834113185608727</v>
+        <v>0.01738703165002656</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1238389809295539</v>
+        <v>0.137470400738616</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01556325115972603</v>
+        <v>0.01727485627693393</v>
       </c>
       <c r="G239" t="n">
-        <v>0.128181592274033</v>
+        <v>0.1382650273324809</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02021954404100131</v>
+        <v>0.03217003834578369</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1349284932140691</v>
+        <v>0.1372999661316368</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06560581081973252</v>
+        <v>0.04732811721958435</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1317258451700061</v>
+        <v>0.1374117640230388</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08745471066659316</v>
+        <v>0.01727485627693393</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1245548131892623</v>
+        <v>0.1382650273324809</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01522749812540211</v>
+        <v>0.01735993827027525</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1289182680916998</v>
+        <v>0.1390596539263457</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01994887204922846</v>
+        <v>0.03144806902417754</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1357039443244948</v>
+        <v>0.1380890463967612</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06503456473817992</v>
+        <v>0.04692409422398247</v>
       </c>
       <c r="M240" t="n">
-        <v>0.13248289025719</v>
+        <v>0.1382014868047804</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08532452214108505</v>
+        <v>0.01735993827027525</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1252706454489707</v>
+        <v>0.1390596539263457</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01488372211456718</v>
+        <v>0.01714232827572792</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1296549439093667</v>
+        <v>0.1398542805202105</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01967638456475876</v>
+        <v>0.0309307636554744</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1364793954349205</v>
+        <v>0.1388781266618855</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06526606401783355</v>
+        <v>0.04712026707939432</v>
       </c>
       <c r="M241" t="n">
-        <v>0.133239935344374</v>
+        <v>0.138991209586522</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08355140458411536</v>
+        <v>0.01714232827572792</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1259864777086791</v>
+        <v>0.1398542805202105</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01553209692661792</v>
+        <v>0.01682207693896939</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1303916197270336</v>
+        <v>0.1406489071140753</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01920208734914626</v>
+        <v>0.03061823172843572</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1372548465453462</v>
+        <v>0.1396672069270099</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06520032250257998</v>
+        <v>0.04681663309205852</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1339969804315579</v>
+        <v>0.1397809323682636</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08223619630023654</v>
+        <v>0.01682207693896939</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1267023099683875</v>
+        <v>0.1406489071140753</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01517279636095092</v>
+        <v>0.01699923490567704</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1311282955447004</v>
+        <v>0.1414435337079402</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01912598616394498</v>
+        <v>0.0303105827318231</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1380302976557718</v>
+        <v>0.1404562871921342</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06503735403630562</v>
+        <v>0.04761318956821425</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1347540255187419</v>
+        <v>0.1405706551500052</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08017973559400116</v>
+        <v>0.01699923490567704</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1274181422280959</v>
+        <v>0.1414435337079402</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01480599421696283</v>
+        <v>0.0167738528215283</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1318649713623673</v>
+        <v>0.142238160301805</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01874808677070898</v>
+        <v>0.03000792615439798</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1388057487661975</v>
+        <v>0.1412453674572586</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06457717246289704</v>
+        <v>0.04730993381410037</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1355110706059258</v>
+        <v>0.1413603779317468</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0787828607699616</v>
+        <v>0.0167738528215283</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1281339744878043</v>
+        <v>0.142238160301805</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01443186429405025</v>
+        <v>0.0166459813322006</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1326016471800341</v>
+        <v>0.1430327868956698</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01836839493099234</v>
+        <v>0.02901037148492192</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1395811998766232</v>
+        <v>0.1420344477223829</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06461979162624074</v>
+        <v>0.04750686313595576</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1362681156931098</v>
+        <v>0.1421501007134884</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07674641013267031</v>
+        <v>0.0166459813322006</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1288498067475127</v>
+        <v>0.1430327868956698</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01405058039160981</v>
+        <v>0.01651567108337137</v>
       </c>
       <c r="G246" t="n">
-        <v>0.133338322997701</v>
+        <v>0.1438274134895347</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01828691640634905</v>
+        <v>0.0290180282121564</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1403566509870489</v>
+        <v>0.1428235279875073</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06496522537022315</v>
+        <v>0.04760397484001933</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1370251607802937</v>
+        <v>0.14293982349523</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07497122198667988</v>
+        <v>0.01651567108337137</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1295656390072211</v>
+        <v>0.1438274134895347</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01466231630903816</v>
+        <v>0.01628297272071799</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1340749988153679</v>
+        <v>0.1446220400833995</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01800365695833318</v>
+        <v>0.028831005824863</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1411321020974746</v>
+        <v>0.1436126082526316</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0645134875387309</v>
+        <v>0.04720126623253007</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1377822058674777</v>
+        <v>0.1437295462769716</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07285813463654267</v>
+        <v>0.01628297272071799</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1302814712669295</v>
+        <v>0.1446220400833995</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01426724584573189</v>
+        <v>0.01604793688991792</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1348116746330347</v>
+        <v>0.1454166666772643</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01761862234849879</v>
+        <v>0.0278494138118032</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1419075532079003</v>
+        <v>0.144401688517756</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0650645919756504</v>
+        <v>0.04669873461972684</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1385392509546616</v>
+        <v>0.1445192690587132</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07110798638681104</v>
+        <v>0.01604793688991792</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1309973035266379</v>
+        <v>0.1454166666772643</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01386554280108766</v>
+        <v>0.01611061423664854</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1355483504507016</v>
+        <v>0.1462112932711292</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01733181833839992</v>
+        <v>0.02757336166173854</v>
       </c>
       <c r="K249" t="n">
-        <v>0.142683004318326</v>
+        <v>0.1451907687828803</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06501855252486824</v>
+        <v>0.04759637730784855</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1392962960418455</v>
+        <v>0.1453089918404548</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06882161554203792</v>
+        <v>0.01611061423664854</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1317131357863464</v>
+        <v>0.1462112932711292</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01345738097450207</v>
+        <v>0.0159710554065873</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1362850262683684</v>
+        <v>0.147005919864994</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01714325068959061</v>
+        <v>0.02720295886343049</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1434584554287517</v>
+        <v>0.1459798490480047</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06427538303027083</v>
+        <v>0.0476941916031341</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1400533411290295</v>
+        <v>0.1460987146221965</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06729986040677527</v>
+        <v>0.0159710554065873</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1324289680460548</v>
+        <v>0.147005919864994</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01104293416537178</v>
+        <v>0.01572931104541161</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1370217020860353</v>
+        <v>0.1478005464588588</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01695292516362491</v>
+        <v>0.02693831490564058</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1442339065391773</v>
+        <v>0.146768929313129</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06483509733574477</v>
+        <v>0.04779217481182246</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1408103862162134</v>
+        <v>0.146888437403938</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06504355928557587</v>
+        <v>0.01572931104541161</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1331448003057631</v>
+        <v>0.1478005464588588</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01262237617309336</v>
+        <v>0.01558543179879886</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1377583779037022</v>
+        <v>0.1485951730527237</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01636084752205687</v>
+        <v>0.02707953927713039</v>
       </c>
       <c r="K252" t="n">
-        <v>0.145009357649603</v>
+        <v>0.1475580095782534</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06459770928517652</v>
+        <v>0.04699032424015254</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1415674313033974</v>
+        <v>0.1476781601856796</v>
       </c>
       <c r="N252" t="n">
-        <v>0.0620535504829921</v>
+        <v>0.01558543179879886</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1338606325654715</v>
+        <v>0.1485951730527237</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0111958807970635</v>
+        <v>0.0155394683124265</v>
       </c>
       <c r="G253" t="n">
-        <v>0.138495053721369</v>
+        <v>0.1493897996465885</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01636702352644054</v>
+        <v>0.02632674146666136</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1457848087600287</v>
+        <v>0.1483470898433777</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06446323272245258</v>
+        <v>0.04778863719436321</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1423244763905813</v>
+        <v>0.1484678829674212</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0602306723035762</v>
+        <v>0.0155394683124265</v>
       </c>
       <c r="O253" t="n">
-        <v>0.13457646482518</v>
+        <v>0.1493897996465885</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.009763621836678782</v>
+        <v>0.01549147123197196</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1392317295390358</v>
+        <v>0.1501844262404533</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01607145893832997</v>
+        <v>0.02618003096299509</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1465602598704544</v>
+        <v>0.1491361701085021</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06433168149145951</v>
+        <v>0.04688711098069342</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1430815214777653</v>
+        <v>0.1492576057491629</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05887576305188102</v>
+        <v>0.01549147123197196</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1352922970848884</v>
+        <v>0.1501844262404533</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.009325773091335837</v>
+        <v>0.01514149120311263</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1399684053567027</v>
+        <v>0.1509790528343181</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01577415951927917</v>
+        <v>0.02603951725489304</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1473357109808801</v>
+        <v>0.1499252503736264</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06410306943608376</v>
+        <v>0.04778574290538207</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1438385665649492</v>
+        <v>0.1500473285309044</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05598966103245889</v>
+        <v>0.01514149120311263</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1360081293445968</v>
+        <v>0.1509790528343181</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01088250836043132</v>
+        <v>0.01518957887152592</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1407050811743696</v>
+        <v>0.151773679428183</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01517513103084223</v>
+        <v>0.02560530983111672</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1481111620913058</v>
+        <v>0.1507143306387508</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06447741040021188</v>
+        <v>0.04718453027466812</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1445956116521331</v>
+        <v>0.150837051312646</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05427320454986229</v>
+        <v>0.01518957887152592</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1367239616043052</v>
+        <v>0.151773679428183</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.008434001443361816</v>
+        <v>0.01483578488288927</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1414417569920364</v>
+        <v>0.1525683060220478</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0148743792345732</v>
+        <v>0.0252775181804277</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1488866132017314</v>
+        <v>0.1515034109038751</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06405471822773035</v>
+        <v>0.04728347039479047</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1453526567393171</v>
+        <v>0.1516267740943877</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05222723190864365</v>
+        <v>0.01483578488288927</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1374397938640136</v>
+        <v>0.1525683060220478</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.007980426139523988</v>
+        <v>0.01488015988288011</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1421784328097033</v>
+        <v>0.1533629326159127</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01487190989202607</v>
+        <v>0.02475625179158747</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1496620643121571</v>
+        <v>0.1522924911689995</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0644350067625257</v>
+        <v>0.04678256057198799</v>
       </c>
       <c r="M258" t="n">
-        <v>0.146109701826501</v>
+        <v>0.1524164968761293</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04975258141335537</v>
+        <v>0.01488015988288011</v>
       </c>
       <c r="O258" t="n">
-        <v>0.138155626123722</v>
+        <v>0.1533629326159127</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.007521956248314421</v>
+        <v>0.01452275451717583</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1429151086273701</v>
+        <v>0.1541575592097775</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01436772876475494</v>
+        <v>0.02444162015335755</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1504375154225828</v>
+        <v>0.1530815714341238</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0640182898484844</v>
+        <v>0.04768179811249967</v>
       </c>
       <c r="M259" t="n">
-        <v>0.146866746913685</v>
+        <v>0.1532062196578709</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04775009136855007</v>
+        <v>0.01452275451717583</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1388714583834304</v>
+        <v>0.1541575592097775</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.008058765569129794</v>
+        <v>0.01456361943145384</v>
       </c>
       <c r="G260" t="n">
-        <v>0.143651784445037</v>
+        <v>0.1549521858036423</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01396184161431385</v>
+        <v>0.02383373275449943</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1512129665330085</v>
+        <v>0.1538706516992482</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06400458132949297</v>
+        <v>0.04678118032256434</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1476237920008689</v>
+        <v>0.1539959424396125</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04502060007878023</v>
+        <v>0.01456361943145384</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1395872906431388</v>
+        <v>0.1549521858036423</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.00759102790136669</v>
+        <v>0.01440280527139159</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1443884602627039</v>
+        <v>0.1557468123975072</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01375425420225682</v>
+        <v>0.02363269908377466</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1519884176434342</v>
+        <v>0.1546597319643725</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06419389504943798</v>
+        <v>0.04718070450842099</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1483808370880529</v>
+        <v>0.1547856652213541</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04206494584859816</v>
+        <v>0.01440280527139159</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1403031229028472</v>
+        <v>0.1557468123975072</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.008118917044421754</v>
+        <v>0.01424036268266653</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1451251360803707</v>
+        <v>0.156541438991372</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01344497229013791</v>
+        <v>0.02333862862994476</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1527638687538599</v>
+        <v>0.1554488122294969</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0643862448522059</v>
+        <v>0.04758036797630855</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1491378821752368</v>
+        <v>0.1555753880030957</v>
       </c>
       <c r="N262" t="n">
-        <v>0.03988396698255636</v>
+        <v>0.01424036268266653</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1410189551625556</v>
+        <v>0.156541438991372</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00764260679769161</v>
+        <v>0.01377634231095601</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1458618118980375</v>
+        <v>0.1573360655852368</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01303400163951121</v>
+        <v>0.02285163088177122</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1535393198642855</v>
+        <v>0.1562378924946212</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06468164458168316</v>
+        <v>0.04708016803246584</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1498949272624207</v>
+        <v>0.1563651107848373</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03827850178520753</v>
+        <v>0.01377634231095601</v>
       </c>
       <c r="O263" t="n">
-        <v>0.141734787422264</v>
+        <v>0.1573360655852368</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.006162270960572869</v>
+        <v>0.01361079480193744</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1465984877157044</v>
+        <v>0.1581306921791017</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0128213480119307</v>
+        <v>0.02307181532801558</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1543147709747112</v>
+        <v>0.1570269727597456</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06438010808175637</v>
+        <v>0.04748010198313185</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1506519723496047</v>
+        <v>0.1571548335665789</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03494938856110386</v>
+        <v>0.01361079480193744</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1424506196819724</v>
+        <v>0.1581306921791017</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1128.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1128.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8091910046234552</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06473528036987641</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08727573013870366</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.03727573013870365</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01468364523438162</v>
+        <v>0.02392286825766649</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001278233775531261</v>
+        <v>0.001036440247447756</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007946265938648324</v>
+        <v>0.0007463168510875403</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003302471461406692</v>
+        <v>0.0009782337755312592</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007890802651243496</v>
+        <v>0.0007946265938648324</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004757767762373244</v>
+        <v>0.003534353251791439</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007897227817416024</v>
+        <v>0.0007861242896532488</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001278233775531261</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007946265938648324</v>
+        <v>0.0007541509433962271</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002318074745749202</v>
+        <v>0.002082590698265094</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001589253187729665</v>
+        <v>0.001492633702175081</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007579344897500201</v>
+        <v>0.002418074745749198</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001578160530248699</v>
+        <v>0.001589253187729665</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01074456764127768</v>
+        <v>0.00712497209890442</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001579445563483205</v>
+        <v>0.001572248579306498</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002318074745749202</v>
+        <v>0.01029308143392599</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001589253187729665</v>
+        <v>0.001566539336751573</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.00313820822098855</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002664666666666664</v>
+        <v>0.002238950553262621</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01096313313193628</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002367240795373049</v>
+        <v>0.002664666666666664</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01630303034043101</v>
+        <v>0.01087503855702551</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002369168345224807</v>
+        <v>0.002358372868959746</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.0166018758371157</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002664666666666664</v>
+        <v>0.002349809005127359</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00432151490544426</v>
+        <v>0.004203049684154657</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00317850637545933</v>
+        <v>0.002985267404350161</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01438634898837085</v>
+        <v>0.00432151490544426</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003156321060497398</v>
+        <v>0.00317850637545933</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02157578656355086</v>
+        <v>0.01299999999999998</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00315889112696641</v>
+        <v>0.002830119825708057</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.00432151490544426</v>
+        <v>0.02090151561490744</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00317850637545933</v>
+        <v>0.003133078673503146</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002664666666666664</v>
+        <v>0.01617168222739975</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005456645820758228</v>
+        <v>0.005276871956299951</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003973132969324162</v>
+        <v>0.003731584255437701</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01738150529045979</v>
+        <v>0.005556645820758231</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003945401325621748</v>
+        <v>0.003973132969324162</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02600000000000002</v>
+        <v>0.01640167604187648</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003848962962962967</v>
+        <v>0.003930621448266244</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.005456645820758228</v>
+        <v>0.02596893367921327</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003973132969324162</v>
+        <v>0.003916348341878932</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006360814860483448</v>
+        <v>0.006359431905960965</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004767759563188994</v>
+        <v>0.004477901106525242</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01999999999999999</v>
+        <v>0.006160814860483449</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004674853801169588</v>
+        <v>0.004767759563188994</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02924760991834258</v>
+        <v>0.01896674841931542</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004738336690449614</v>
+        <v>0.004716745737919492</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.006360814860483448</v>
+        <v>0.0303810629419452</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004767759563188994</v>
+        <v>0.004699618010254719</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007234735508593028</v>
+        <v>0.007450486401674235</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005562386157053827</v>
+        <v>0.005224217957612782</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02201040896839954</v>
+        <v>0.007034735508593029</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005523561855870447</v>
+        <v>0.005562386157053827</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03410150956129421</v>
+        <v>0.02152608753168828</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005528059472191216</v>
+        <v>0.005502870027572741</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.007234735508593028</v>
+        <v>0.03541483631501513</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005562386157053827</v>
+        <v>0.005482887678630506</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007879121249060102</v>
+        <v>0.008549792311976286</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006357012750918659</v>
+        <v>0.005970534808700322</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02409715421768305</v>
+        <v>0.008079121249060101</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006312642120994797</v>
+        <v>0.006357012750918659</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03727863311257262</v>
+        <v>0.02427612500823703</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006317782253932819</v>
+        <v>0.00628899431722599</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.007879121249060102</v>
+        <v>0.04064718671033518</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006357012750918659</v>
+        <v>0.006266157347006292</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008894685565857798</v>
+        <v>0.009657106505403683</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007151639344783492</v>
+        <v>0.006716851659787863</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0264523783794435</v>
+        <v>0.008894685565857798</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007101722386119146</v>
+        <v>0.007151639344783492</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04008569940683404</v>
+        <v>0.02641329247820356</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007107505035674422</v>
+        <v>0.007075118606879239</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.008894685565857798</v>
+        <v>0.0448550470398173</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007151639344783492</v>
+        <v>0.007049427015382079</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009582141942959241</v>
+        <v>0.01077218585049291</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007946265938648325</v>
+        <v>0.007463168510875403</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02798623184117624</v>
+        <v>0.00978214194295924</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007890802651243495</v>
+        <v>0.007946265938648325</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.044429427278735</v>
+        <v>0.02863402157082984</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007897227817416025</v>
+        <v>0.007861242896532488</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.009582141942959241</v>
+        <v>0.04841535021537341</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007946265938648325</v>
+        <v>0.007832696683757865</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01034220386433755</v>
+        <v>0.01189478721578055</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008740892532513157</v>
+        <v>0.008209485361962943</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02990886499037673</v>
+        <v>0.01024220386433755</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008679882916367846</v>
+        <v>0.008740892532513157</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04711653556293177</v>
+        <v>0.03113474391535781</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008686950599157625</v>
+        <v>0.008647367186185737</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01034220386433755</v>
+        <v>0.05210502914891557</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008740892532513157</v>
+        <v>0.008615966352133653</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>0.01302466746980312</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.008955802213050484</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.01097558481396585</v>
       </c>
-      <c r="G77" t="n">
+      <c r="K77" t="n">
         <v>0.009535519126377989</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03213042821454032</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009468963181492195</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.05025374309408082</v>
+        <v>0.03271189114102938</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009476673380899229</v>
+        <v>0.009433491475838985</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01097558481396585</v>
+        <v>0.05590101675235587</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009535519126377989</v>
+        <v>0.009399236020509438</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
+        <v>0.01416158348109713</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.009702119064138023</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.01178299827581728</v>
       </c>
-      <c r="G78" t="n">
+      <c r="K78" t="n">
         <v>0.01033014572024282</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03326107190116234</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01025804344661655</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.05304776870683842</v>
+        <v>0.03436189487708646</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01026639616264083</v>
+        <v>0.01021961576549223</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01178299827581728</v>
+        <v>0.05808024593760619</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01033014572024282</v>
+        <v>0.01018250568888522</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01256515773386495</v>
+        <v>0.01530529211819916</v>
       </c>
       <c r="G79" t="n">
+        <v>0.01044843591522556</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01236515773386495</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01112477231410765</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03491094643773826</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01104712371174089</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.05510533123586098</v>
+        <v>0.03618118675277107</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01105611894438243</v>
+        <v>0.01100574005514548</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01256515773386495</v>
+        <v>0.0625898336796849</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01112477231410765</v>
+        <v>0.01123861478965411</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01322277667208199</v>
+        <v>0.01645555024964572</v>
       </c>
       <c r="G80" t="n">
+        <v>0.0111947527663131</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01312277667208199</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01191939890797249</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03689020221176342</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01183620397686524</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.05823314951580494</v>
+        <v>0.03900961661272245</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01184584172612404</v>
+        <v>0.01213207575482817</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01322277667208199</v>
+        <v>0.06307281494759898</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01191939890797249</v>
+        <v>0.0117490450256368</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
+        <v>0.01761211474397335</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01194106961740064</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.01395656857444152</v>
       </c>
-      <c r="G81" t="n">
+      <c r="K81" t="n">
         <v>0.01271402550183732</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03810898961073317</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01262528424198959</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06003794238132654</v>
+        <v>0.03913605995353051</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01263556450786564</v>
+        <v>0.01257798863445198</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01395656857444152</v>
+        <v>0.0656886224574359</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01271402550183732</v>
+        <v>0.01253231469401258</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
+        <v>0.01877474246971857</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01268738646848819</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.0142672469249167</v>
       </c>
-      <c r="G82" t="n">
+      <c r="K82" t="n">
         <v>0.01350865209570215</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03900961661272245</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01302601817886814</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.0625898336796849</v>
+        <v>0.04059306515297575</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01323659075225929</v>
+        <v>0.01336411292410523</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0142672469249167</v>
+        <v>0.06818637044902454</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01350865209570215</v>
+        <v>0.01331558436238837</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
+        <v>0.01994319029541793</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.01343370331957573</v>
+      </c>
+      <c r="J83" t="n">
         <v>0.01542939954576002</v>
       </c>
-      <c r="G83" t="n">
+      <c r="K83" t="n">
         <v>0.01468364523438162</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04046649199685132</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01420344477223829</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.06490311748107819</v>
+        <v>0.04254846534384735</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01421501007134884</v>
+        <v>0.01415023721375848</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.07076387790521016</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01468364523438162</v>
+        <v>0.01409885403076416</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01562606874872977</v>
+        <v>0.02111721508960795</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01418002017066326</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01542606874872977</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01509790528343181</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04206019013143736</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01499252503736264</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.06759161177701101</v>
+        <v>0.04360035084201858</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01500473285309045</v>
+        <v>0.01493636150341172</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01562606874872977</v>
+        <v>0.0733189638088379</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01509790528343181</v>
+        <v>0.01488212369913994</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.02229657372082521</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01492633702175081</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.01620060613082977</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.01589253187729665</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04336301428665401</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01578160530248699</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.06889147377896243</v>
+        <v>0.04524681196336278</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01579445563483205</v>
+        <v>0.01572248579306498</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01620060613082977</v>
+        <v>0.07604944714275319</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01589253187729665</v>
+        <v>0.01566539336751573</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01668123151136852</v>
+        <v>0.02348102305760617</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01567265387283835</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01678123151136852</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01668715847116148</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.0448723013950921</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01657068556761134</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.07199852476356933</v>
+        <v>0.04648593902375334</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01658417841657365</v>
+        <v>0.01650861008271822</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01668123151136852</v>
+        <v>0.07825314688980134</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01668715847116148</v>
+        <v>0.01644866303589152</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0173666299455425</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01617168222739975</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01716662994554251</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01748178506502631</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04638538838934231</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01735976583273569</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.07350858600746824</v>
+        <v>0.04831582233906348</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01737390119831525</v>
+        <v>0.01729473437237147</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0173666299455425</v>
+        <v>0.07972788203282738</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01748178506502631</v>
+        <v>0.01723193270426731</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01785548648854811</v>
+        <v>0.02593576088195344</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01716528757501343</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01795548648854811</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01827641165889115</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.04739961220199551</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01814884609786004</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.07681747878729589</v>
+        <v>0.04933455222516661</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01816362398005686</v>
+        <v>0.01808085866202472</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01785548648854811</v>
+        <v>0.0817714715546769</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01827641165889115</v>
+        <v>0.01801520237264309</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01834648619558182</v>
+        <v>0.02726003324450393</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01791160442610097</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01864648619558182</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01907103825275598</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.04931230976564238</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01893792636298439</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.07922102437968892</v>
+        <v>0.05064021899793605</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01895334676179846</v>
+        <v>0.01886698295167797</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01834648619558182</v>
+        <v>0.0849817344381949</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01907103825275598</v>
+        <v>0.01879847204101888</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01923831412184004</v>
+        <v>0.0286236771061736</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01865792127718851</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01903831412184004</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01986566484662081</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05042081801287379</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01972700662810874</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.08131504406128404</v>
+        <v>0.05273091297324514</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01974306954354006</v>
+        <v>0.01965310724133122</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01923831412184004</v>
+        <v>0.0866564896662268</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01986566484662081</v>
+        <v>0.01958174170939466</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
+        <v>0.03000236048261457</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.01940423812827605</v>
+      </c>
+      <c r="J91" t="n">
         <v>0.01972965532251925</v>
       </c>
-      <c r="G91" t="n">
+      <c r="K91" t="n">
         <v>0.02066029144048564</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05202247387628042</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02051608689323309</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.08339535910871781</v>
+        <v>0.05370472446696714</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02053279232528166</v>
+        <v>0.02043923153098447</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01972965532251925</v>
+        <v>0.0886935562216179</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02066029144048564</v>
+        <v>0.02036501137777045</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
+        <v>0.03137175138947888</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02015055497936359</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.02021919485281587</v>
       </c>
-      <c r="G92" t="n">
+      <c r="K92" t="n">
         <v>0.02145491803435048</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05341461428845312</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02130516715835744</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.08525779079862705</v>
+        <v>0.05545974379497548</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02132251510702327</v>
+        <v>0.02122535582063772</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02021919485281587</v>
+        <v>0.09119075308721331</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02145491803435048</v>
+        <v>0.02114828104614623</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02090561776792632</v>
+        <v>0.03270751784241864</v>
       </c>
       <c r="G93" t="n">
+        <v>0.02089687183045113</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02100561776792632</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02224954462821531</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05469457618198262</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02209424742348179</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.08789816040764836</v>
+        <v>0.05629406127314346</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02211223788876486</v>
+        <v>0.02201148011029096</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02090561776792632</v>
+        <v>0.09244589924585844</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02224954462821531</v>
+        <v>0.02193155071452203</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02128760912304707</v>
+        <v>0.0339853278570859</v>
       </c>
       <c r="G94" t="n">
+        <v>0.02164318868153867</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02148760912304706</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02304417122208014</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05645969648945975</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02288332768860614</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.09001228921241838</v>
+        <v>0.05780576721734432</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02290196067050647</v>
+        <v>0.02279760439994421</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02128760912304707</v>
+        <v>0.09475681368039857</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02304417122208014</v>
+        <v>0.02271482038289781</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02186385397337455</v>
+        <v>0.03518084944913275</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02238950553262621</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02206385397337454</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02383879781594497</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.05740731214347522</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02367240795373049</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09149599848957379</v>
+        <v>0.0589929519434515</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02369168345224807</v>
+        <v>0.02358372868959746</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02186385397337455</v>
+        <v>0.09742131537367898</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02383879781594497</v>
+        <v>0.0234980900512736</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02243303737410519</v>
+        <v>0.03626975063421127</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02313582238371375</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02263303737410519</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02463342440980981</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.05893476007661985</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02446148821885484</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.0939451095157513</v>
+        <v>0.06015370576733831</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02448140623398967</v>
+        <v>0.02436985297925071</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02243303737410519</v>
+        <v>0.0987372233085449</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02463342440980981</v>
+        <v>0.02428135971964938</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02309384438043544</v>
+        <v>0.03727573013870365</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02392286825766649</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02329384438043544</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02542805100367464</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.0599393772214844</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02525056848397919</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.09675544356758753</v>
+        <v>0.06188611900487806</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02527112901573128</v>
+        <v>0.02515597726890396</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02309384438043544</v>
+        <v>0.1012023564678416</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02542805100367464</v>
+        <v>0.02506462938802517</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02364496004756172</v>
+        <v>0.03809896305391379</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02462845608588883</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02384496004756173</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02622267759753947</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06151850051065963</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02603964874910354</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.09872282192171911</v>
+        <v>0.06268828197194404</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02606085179747288</v>
+        <v>0.02594210155855721</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02364496004756172</v>
+        <v>0.1023145338344144</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02622267759753947</v>
+        <v>0.02584789905640096</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02428506943068053</v>
+        <v>0.03895735168677736</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02537477293697637</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02438506943068053</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.0270173041914043</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.06286946687673636</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02682872901422788</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1008430658547828</v>
+        <v>0.06355828498440966</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02685057457921448</v>
+        <v>0.02672822584821046</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02428506943068053</v>
+        <v>0.1044715743911084</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0270173041914043</v>
+        <v>0.02663116872477674</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02461285758498824</v>
+        <v>0.03980011407868253</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02612108978806391</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02491285758498823</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02781193078526914</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.06418961325230532</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02761780927935224</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1025119966434152</v>
+        <v>0.06489421835814821</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02764029736095609</v>
+        <v>0.02751435013786371</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02461285758498824</v>
+        <v>0.1060712971207692</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02781193078526914</v>
+        <v>0.02741443839315253</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02522700956568133</v>
+        <v>0.040624281012703</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02686740663915145</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02542700956568134</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02860655737913397</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.06497627656995725</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02840688954447658</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1038254355642531</v>
+        <v>0.06579417240903301</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02843002014269769</v>
+        <v>0.02830047442751695</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02522700956568133</v>
+        <v>0.1078115210062419</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02860655737913397</v>
+        <v>0.02819770806152832</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02592621042795622</v>
+        <v>0.04142688327191232</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02761372349023899</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02572621042795621</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.0294011839729988</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.06612679376228303</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02919596980960094</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.106079203893933</v>
+        <v>0.06685623745293739</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02921974292443929</v>
+        <v>0.0290865987171702</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02592621042795622</v>
+        <v>0.1096900650303717</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0294011839729988</v>
+        <v>0.0289809777299041</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
+        <v>0.04220495163938416</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.02836004034132653</v>
+      </c>
+      <c r="J103" t="n">
         <v>0.02610914522700937</v>
       </c>
-      <c r="G103" t="n">
+      <c r="K103" t="n">
         <v>0.03019581056686363</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.06743850176187335</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02998505007472528</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1074691229090916</v>
+        <v>0.06787850380573471</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03000946570618089</v>
+        <v>0.02987272300682345</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02610914522700937</v>
+        <v>0.1109047481760039</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03019581056686363</v>
+        <v>0.02976424739827989</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02687449901803719</v>
+        <v>0.04295551689819213</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02910635719241407</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02677449901803719</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03099043716072846</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.06860873750131907</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03077413033984963</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1097910138863657</v>
+        <v>0.06885906178329826</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0307991884879225</v>
+        <v>0.0306588472964767</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02687449901803719</v>
+        <v>0.1117533894259838</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03099043716072846</v>
+        <v>0.03054751706665568</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02702095685623615</v>
+        <v>0.04367560983140988</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02985267404350161</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02732095685623614</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.0317850637545933</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.06933483791321082</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03156321060497398</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1112406981023918</v>
+        <v>0.07039600170150143</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0315889112696641</v>
+        <v>0.03144497158612995</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02702095685623615</v>
+        <v>0.1136338077631568</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0317850637545933</v>
+        <v>0.03133078673503146</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02754720379680269</v>
+        <v>0.044362261222111</v>
       </c>
       <c r="G106" t="n">
+        <v>0.03059899089458916</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02764720379680269</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03257969034845813</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.07021413993013953</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03235229087009833</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1128139968338067</v>
+        <v>0.07088741387621747</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0323786340514057</v>
+        <v>0.0322310958757832</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02754720379680269</v>
+        <v>0.114443822170368</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03257969034845813</v>
+        <v>0.03211405640340725</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02805192489493322</v>
+        <v>0.04501250185336911</v>
       </c>
       <c r="G107" t="n">
+        <v>0.0313453077456767</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02785192489493322</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03337431694232296</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.07114398048469589</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03314137113522268</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1139067313572469</v>
+        <v>0.07173138862331979</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0331683568331473</v>
+        <v>0.03301722016543645</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02805192489493322</v>
+        <v>0.1158812516304628</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03337431694232296</v>
+        <v>0.03289732607178304</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02823380520582422</v>
+        <v>0.04562336250825788</v>
       </c>
       <c r="G108" t="n">
+        <v>0.03209162459676423</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02833380520582421</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.0341689435361878</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.07202169650947068</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03393045140034703</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1154147229493492</v>
+        <v>0.07252601625868166</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0339580796148889</v>
+        <v>0.03380334445508969</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02823380520582422</v>
+        <v>0.1171439151262864</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0341689435361878</v>
+        <v>0.03368059574015882</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
+        <v>0.04619187396985092</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.03283794144785177</v>
+      </c>
+      <c r="J109" t="n">
         <v>0.02859152978467208</v>
       </c>
-      <c r="G109" t="n">
+      <c r="K109" t="n">
         <v>0.03496357013005263</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.07304462493705471</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03471953166547138</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1173337928867504</v>
+        <v>0.07306938709817642</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0347478023966305</v>
+        <v>0.03458946874474295</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02859152978467208</v>
+        <v>0.1188296316406841</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03496357013005263</v>
+        <v>0.03446386540853461</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02922378368667328</v>
+        <v>0.04671506702122181</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03358425829893932</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02912378368667327</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03575819672391746</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.07401010270003874</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03550861193059573</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1185597624460868</v>
+        <v>0.07425959145767741</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03553752517837211</v>
+        <v>0.03537559303439619</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02922378368667328</v>
+        <v>0.1187362201565011</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03575819672391746</v>
+        <v>0.03524713507691039</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
+        <v>0.04718997244544425</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.03433057515002685</v>
+      </c>
+      <c r="J111" t="n">
         <v>0.02952925196702426</v>
       </c>
-      <c r="G111" t="n">
+      <c r="K111" t="n">
         <v>0.03655282331778229</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.07461546673101352</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03629769219572008</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1193884529039955</v>
+        <v>0.07469471965305796</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03632724796011371</v>
+        <v>0.03616171732404944</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02952925196702426</v>
+        <v>0.1208614996565828</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03655282331778229</v>
+        <v>0.03603040474528618</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02950661968092146</v>
+        <v>0.04761362102559182</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03507689200111439</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02960661968092144</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03734744991164712</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.07545805396256983</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03708677246084443</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1203156855371127</v>
+        <v>0.07507286200019145</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03711697074185531</v>
+        <v>0.03694784161370269</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02950661968092146</v>
+        <v>0.1208032891237743</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03734744991164712</v>
+        <v>0.03681367441366196</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02995457188356128</v>
+        <v>0.04798304354473815</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03582320885220194</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02985457188356128</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03814207650551196</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.0754352013272985</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03787585272596878</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1210372816220756</v>
+        <v>0.07599210881495114</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03790669352359691</v>
+        <v>0.03773396590335594</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02995457188356128</v>
+        <v>0.1219594075409212</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03814207650551196</v>
+        <v>0.03759694408203775</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0300717936301402</v>
+        <v>0.04829527078595686</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03656952570328947</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03017179363014021</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03893670309937679</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.0760442457577902</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03866493299109313</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1216490624355205</v>
+        <v>0.07615055041321039</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03869641630533852</v>
+        <v>0.03852009019300919</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0300717936301402</v>
+        <v>0.1219276738908684</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03893670309937679</v>
+        <v>0.03838021375041354</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03035696997585466</v>
+        <v>0.04856841604769462</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03731584255437701</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03015696997585467</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03973132969324162</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.07638252418663585</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03945401325621748</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.123146849254084</v>
+        <v>0.07684627711084246</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03948613908708012</v>
+        <v>0.03930621448266244</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03035696997585466</v>
+        <v>0.1234059071564614</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03973132969324162</v>
+        <v>0.03916348341878933</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03040878597590108</v>
+        <v>0.04883721909952647</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03806215940546456</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03050878597590108</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04052595628710645</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.07714737354642606</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04024309352134183</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1233264633544029</v>
+        <v>0.0767773792237208</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04027586186882173</v>
+        <v>0.04009233877231568</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03040878597590108</v>
+        <v>0.1241919263205454</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04052595628710645</v>
+        <v>0.03994675308716512</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0304259266854759</v>
+        <v>0.04910220787731077</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03880847625655209</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0307259266854759</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04132058288097128</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.07713613076975173</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04103217378646618</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1238837260131141</v>
+        <v>0.07704194706771866</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04106558465056333</v>
+        <v>0.04087846306196893</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0304259266854759</v>
+        <v>0.1233835503659657</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04132058288097128</v>
+        <v>0.0407300227555409</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
+        <v>0.04936330961812423</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.03955479310763964</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.03050707715977559</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.04211520947483612</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.07754613278920361</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04182125405159053</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1240144585068539</v>
+        <v>0.07773807095870941</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04185530743230493</v>
+        <v>0.04166458735162218</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03050707715977559</v>
+        <v>0.1247785982755675</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04211520947483612</v>
+        <v>0.04151329242391669</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04962045155904345</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.04030110995872718</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.03085879909152003</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04290983606870095</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.07801923322544491</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04261033431671488</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.1251796673593698</v>
-      </c>
       <c r="M119" t="n">
-        <v>0.04264503021404653</v>
+        <v>0.04245071164127543</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03085879909152003</v>
+        <v>0.1249748890321962</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04290983606870095</v>
+        <v>0.04229656209229247</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03075854838159205</v>
+        <v>0.04987356093714516</v>
       </c>
       <c r="G120" t="n">
+        <v>0.04104742680981471</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03085838766849103</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04370446266256579</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.07781921894684898</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04339941458183923</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1250796532626445</v>
+        <v>0.07741734814516282</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04343475299578813</v>
+        <v>0.04323683593092868</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03075854838159205</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04370446266256579</v>
+        <v>0.04307983176066826</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03065531443166632</v>
+        <v>0.050122564989506</v>
       </c>
       <c r="G121" t="n">
+        <v>0.04179374366090226</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03075311887280878</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04449908925643062</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.07780572467964739</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04418849484696358</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1239589024754159</v>
+        <v>0.07791312683192428</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04422447577752973</v>
+        <v>0.04402296022058193</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03065531443166632</v>
+        <v>0.1244748687128357</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04449908925643062</v>
+        <v>0.04386310142904405</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03074837230538845</v>
+        <v>0.05036739095320263</v>
       </c>
       <c r="G122" t="n">
+        <v>0.0425400605119898</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03074191774156272</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04529371585029545</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.07786498794311242</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04497757511208793</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1241995216265601</v>
+        <v>0.07768751536234333</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04501419855927134</v>
+        <v>0.04480908451023518</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03074837230538845</v>
+        <v>0.124643961415516</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04529371585029545</v>
+        <v>0.04464637109741983</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03063775219949649</v>
+        <v>0.05060796606531172</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04328637736307734</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03062495674737654</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04608834244416028</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.07779822795096505</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04576665537721227</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1249026412811806</v>
+        <v>0.07724247808750315</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04580392134101294</v>
+        <v>0.04559520879988842</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03063775219949649</v>
+        <v>0.1241852361575961</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04608834244416028</v>
+        <v>0.04542964076579562</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03072348431072855</v>
+        <v>0.05084421756290992</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04403269421416488</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03070240836287384</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04688296903802511</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.07780665431597114</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04655573564233663</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.12376939200438</v>
+        <v>0.07767861413945987</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04659364412275454</v>
+        <v>0.04638133308954168</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03072348431072855</v>
+        <v>0.1237996622940126</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04688296903802511</v>
+        <v>0.0462129104341714</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03080559883582269</v>
+        <v>0.05107607268307396</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04477901106525242</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03077444506067831</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04767759563188995</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.07729147665089647</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04734481590746097</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1237009043612612</v>
+        <v>0.07779652265026962</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04738336690449614</v>
+        <v>0.04716745737919492</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03080559883582269</v>
+        <v>0.1243882091797022</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04767759563188995</v>
+        <v>0.04699618010254719</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03068412597151697</v>
+        <v>0.05130345866288041</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04552532791633996</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03074123931341355</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04847222222575478</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.07705390456850683</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04813389617258532</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1240983089169275</v>
+        <v>0.07749680275198853</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04817308968623774</v>
+        <v>0.04795358166884817</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03068412597151697</v>
+        <v>0.1242518461696013</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04847222222575478</v>
+        <v>0.04777944977092298</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0306590959145495</v>
+        <v>0.05152630273940603</v>
       </c>
       <c r="G127" t="n">
+        <v>0.0462716447674275</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03070296359370321</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04926684881961961</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.07669514768156804</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04892297643770967</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1237627362364815</v>
+        <v>0.07748005357667281</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04896281246797934</v>
+        <v>0.04873970595850143</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0306590959145495</v>
+        <v>0.1243915426186465</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04926684881961961</v>
+        <v>0.04856271943929877</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03043053886165835</v>
+        <v>0.05174453214972743</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04701796161851504</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03035979037417097</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05006147541348444</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.07671641560284587</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04971205670283402</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1239953168850264</v>
+        <v>0.07684687425637854</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04975253524972095</v>
+        <v>0.04952583024815467</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03043053886165835</v>
+        <v>0.1240082678817745</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05006147541348444</v>
+        <v>0.04934598910767455</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03069848500958158</v>
+        <v>0.05195807413092128</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04776427846960258</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0304118921274404</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05085610200734927</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.07641891794510608</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05050113696795838</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.123497181427665</v>
+        <v>0.07699786392316182</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05054225803146255</v>
+        <v>0.05031195453780792</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03069848500958158</v>
+        <v>0.1239029913139217</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05085610200734927</v>
+        <v>0.05012925877605034</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03066296455505729</v>
+        <v>0.05216685592006426</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04851059532069012</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03035944132613522</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05165072860121411</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.07660386432111455</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05129021723308272</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1224694604295003</v>
+        <v>0.07663362170907889</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05133198081320416</v>
+        <v>0.05109807882746117</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03066296455505729</v>
+        <v>0.1239766822700248</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05165072860121411</v>
+        <v>0.05091252844442613</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03042400769482352</v>
+        <v>0.05237080475423306</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04925691217177766</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03030261044287903</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05244535519507894</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.076472464343637</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05207929749820708</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1229132844556353</v>
+        <v>0.07625474674618579</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05212170359494576</v>
+        <v>0.05188420311711441</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03042400769482352</v>
+        <v>0.1235303101050204</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05244535519507894</v>
+        <v>0.05169579811280191</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03048164462561838</v>
+        <v>0.0525698478705043</v>
       </c>
       <c r="G132" t="n">
+        <v>0.0500032290228652</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.03034157195029549</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05323998178894377</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.07562592762543924</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05286837776333142</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.122629784071173</v>
+        <v>0.07646183816653879</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05291142637668736</v>
+        <v>0.05267032740676767</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03048164462561838</v>
+        <v>0.1223648441738449</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05323998178894377</v>
+        <v>0.0524790677811777</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03053590554417993</v>
+        <v>0.05276391250595468</v>
       </c>
       <c r="G133" t="n">
+        <v>0.05074954587395274</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03007649832100824</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05403460838280861</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.07586546377928707</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05365745802845576</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1217200898412162</v>
+        <v>0.07615549510219385</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05370114915842896</v>
+        <v>0.05345645169642092</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03053590554417993</v>
+        <v>0.122681253831435</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05403460838280861</v>
+        <v>0.05326233744955348</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03048682064724625</v>
+        <v>0.05295292589766082</v>
       </c>
       <c r="G134" t="n">
+        <v>0.05149586272504028</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03030756202764091</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05482923497667343</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.07579228241794631</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05444653829358013</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1214853323308679</v>
+        <v>0.07593631668520728</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05449087194017057</v>
+        <v>0.05424257598607416</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03048682064724625</v>
+        <v>0.1226805084327273</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05482923497667343</v>
+        <v>0.05404560711792927</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03013442013155543</v>
+        <v>0.05313681528269945</v>
       </c>
       <c r="G135" t="n">
+        <v>0.05224217957612782</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03023493554281717</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05562386157053827</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.07490759315418272</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05523561855870447</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1210266421052312</v>
+        <v>0.07540490204763514</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05528059472191217</v>
+        <v>0.05502870027572741</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03013442013155543</v>
+        <v>0.1214635773326582</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05562386157053827</v>
+        <v>0.05482887678630506</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03037873419384551</v>
+        <v>0.05331550789814719</v>
       </c>
       <c r="G136" t="n">
+        <v>0.05298849642721536</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02985879133916064</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.0564184881644031</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.07481260560076208</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05602469882382882</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1196451497294089</v>
+        <v>0.07566185032153361</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05607031750365377</v>
+        <v>0.05581482456538066</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03037873419384551</v>
+        <v>0.1217314298861645</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0564184881644031</v>
+        <v>0.05561214645468084</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0301197930308546</v>
+        <v>0.05348893098108073</v>
       </c>
       <c r="G137" t="n">
+        <v>0.05373481327830291</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02987930188929495</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05721311475826794</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.07440852937045025</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05681377908895317</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.119241985768504</v>
+        <v>0.07550776063895878</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05686004028539537</v>
+        <v>0.05660094885503391</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0301197930308546</v>
+        <v>0.1206850354481827</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05721311475826794</v>
+        <v>0.05639541612305663</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02995762683932078</v>
+        <v>0.05365701176857675</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05448113012939045</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02989663966584379</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05800774135213277</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.07419657407601299</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05760285935407752</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1198182807876194</v>
+        <v>0.0749432321319668</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05764976306713698</v>
+        <v>0.05738707314468715</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02995762683932078</v>
+        <v>0.1207253633736492</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05800774135213277</v>
+        <v>0.05717868579143243</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03009226581598211</v>
+        <v>0.05381967749771187</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05522744698047798</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02971097714143076</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.0588023679459976</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.07357794933021605</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05839193961920187</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1188751653518582</v>
+        <v>0.07506886393261386</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05843948584887858</v>
+        <v>0.05817319743434041</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03009226581598211</v>
+        <v>0.1199533830175008</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0588023679459976</v>
+        <v>0.05796195545980821</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02992374015757665</v>
+        <v>0.0539768554055628</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05597376383156552</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02972248678867953</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05959699453986243</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.07345386474582533</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05918101988432622</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1186137700263232</v>
+        <v>0.07448525517295607</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05922920863062018</v>
+        <v>0.05895932172399365</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02992374015757665</v>
+        <v>0.1203700637346738</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05959699453986243</v>
+        <v>0.05874522512818399</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02975208006084253</v>
+        <v>0.05412847272920618</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05672008068265306</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02943134108021374</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06039162113372726</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.07322552993560649</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05997010014945057</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1180352253761174</v>
+        <v>0.07419300498504952</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06001893141236179</v>
+        <v>0.0597454460136469</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02975208006084253</v>
+        <v>0.1192763748801052</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06039162113372726</v>
+        <v>0.05952849479655977</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02967731572251776</v>
+        <v>0.05427445670571868</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05746639753374061</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.029537712488657</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.0611862477275921</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.07329415451232546</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06075918041457491</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1174406619663438</v>
+        <v>0.07389271250095042</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06080865419410339</v>
+        <v>0.06053157030330015</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02967731572251776</v>
+        <v>0.1198732858087312</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0611862477275921</v>
+        <v>0.06031176446493557</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02989947733934045</v>
+        <v>0.05441473457217698</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05821271438482815</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.029341773486633</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06198087432145692</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.07236094808874793</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06154826067969927</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1167312103621054</v>
+        <v>0.07348497685271488</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06159837697584499</v>
+        <v>0.06131769459295339</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02989947733934045</v>
+        <v>0.1183617658754885</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06198087432145692</v>
+        <v>0.06109503413331135</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0298185951080487</v>
+        <v>0.05454923356565775</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05895903123591568</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02914369654676535</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06277550091532176</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.07202712027763974</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06233734094482362</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.115108001128505</v>
+        <v>0.07317039717239904</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06238809975758659</v>
+        <v>0.06210381888260665</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0298185951080487</v>
+        <v>0.1186427844353137</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06277550091532176</v>
+        <v>0.06187830380168714</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02953469922538055</v>
+        <v>0.05467788092323761</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05970534808700322</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.0291436541416777</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.0635701275091866</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.07219388069176666</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06312642120994796</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1144721648306457</v>
+        <v>0.07294957259205909</v>
       </c>
       <c r="M145" t="n">
-        <v>0.0631778225393282</v>
+        <v>0.0628899431722599</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02953469922538055</v>
+        <v>0.1183173108431432</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0635701275091866</v>
+        <v>0.06266157347006292</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0293478198880741</v>
+        <v>0.05480060388199327</v>
       </c>
       <c r="G146" t="n">
+        <v>0.06045166493809076</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02914181874399371</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06436475410305142</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.07186243894389452</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06391550147507231</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1143248320336304</v>
+        <v>0.07272310224375109</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06396754532106978</v>
+        <v>0.06367606746191315</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0293478198880741</v>
+        <v>0.1175863144539139</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06436475410305142</v>
+        <v>0.06344484313843872</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02925798729286741</v>
+        <v>0.05491732967900141</v>
       </c>
       <c r="G147" t="n">
+        <v>0.06119798178917831</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02893836282633701</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06515938069691626</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.0713340046467891</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06470458174019666</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.113567133302562</v>
+        <v>0.07189158525953127</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06475726810281139</v>
+        <v>0.06446219175156639</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02925798729286741</v>
+        <v>0.1171507646225621</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06515938069691626</v>
+        <v>0.06422811280681449</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02946523163649854</v>
+        <v>0.05502798555133866</v>
       </c>
       <c r="G148" t="n">
+        <v>0.06194429864026585</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02903345886133124</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06595400729078109</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.07070978741321618</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06549366200532102</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1125001992025435</v>
+        <v>0.07205562077145569</v>
       </c>
       <c r="M148" t="n">
-        <v>0.065546990884553</v>
+        <v>0.06524831604121965</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02946523163649854</v>
+        <v>0.1167116307040245</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06595400729078109</v>
+        <v>0.06501138247519028</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02926958311570561</v>
+        <v>0.05513249873608171</v>
       </c>
       <c r="G149" t="n">
+        <v>0.06269061549135339</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02882727932160006</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06674863388464593</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.07069099685594157</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06628274227044537</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1128251602986779</v>
+        <v>0.07181580791158054</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06633671366629459</v>
+        <v>0.0660344403308729</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02926958311570561</v>
+        <v>0.1166698820532375</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06674863388464593</v>
+        <v>0.06579465214356607</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02897107192722667</v>
+        <v>0.05523079647030721</v>
       </c>
       <c r="G150" t="n">
+        <v>0.06343693234244092</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02861999667976708</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06754326047851075</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.07067884258773108</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06707182253556972</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1121431471560681</v>
+        <v>0.0708727458119619</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0671264364480362</v>
+        <v>0.06682056462052614</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02897107192722667</v>
+        <v>0.115826488025138</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06754326047851075</v>
+        <v>0.06657792181194186</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02886972826779981</v>
+        <v>0.05532280599109184</v>
       </c>
       <c r="G151" t="n">
+        <v>0.06418324919352847</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02861178340845598</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06833788707237559</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.06977453422135044</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06786090280069405</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1106552903398171</v>
+        <v>0.07092703360465599</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0679161592297778</v>
+        <v>0.06760668891017939</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02886972826779981</v>
+        <v>0.1158824179746621</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06833788707237559</v>
+        <v>0.06736119148031765</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02896558233416309</v>
+        <v>0.05540845453551224</v>
       </c>
       <c r="G152" t="n">
+        <v>0.06492956604461601</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02830281198029039</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06913251366624043</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.06997928136956552</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06864998306581842</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1101627204150277</v>
+        <v>0.07057927042171891</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06870588201151941</v>
+        <v>0.06839281319983263</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02896558233416309</v>
+        <v>0.1146386412567469</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06913251366624043</v>
+        <v>0.06814446114869342</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02875866432305459</v>
+        <v>0.05548766934064511</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06567588289570354</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02829325486789393</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06992714026010526</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.06978999803213407</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06943906333094277</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1099665679468031</v>
+        <v>0.07023005539520677</v>
       </c>
       <c r="M153" t="n">
-        <v>0.069495604793261</v>
+        <v>0.06917893748948589</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02875866432305459</v>
+        <v>0.1142961272263285</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06992714026010526</v>
+        <v>0.06892773081706922</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0286490044312124</v>
+        <v>0.05556037764356712</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06642219974679109</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02838328454389027</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07072176685397009</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.06899989248663932</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.07022814359606711</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1094679635002462</v>
+        <v>0.06947998765717578</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07028532757500261</v>
+        <v>0.06996506177913914</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0286490044312124</v>
+        <v>0.1138558452383439</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07072176685397009</v>
+        <v>0.069711000485445</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02873663285537457</v>
+        <v>0.0556265066813549</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06716851659787863</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02817307348090306</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07151639344783492</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.06880871136462019</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07101722386119146</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1079680376404598</v>
+        <v>0.06962966633968201</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07107505035674422</v>
+        <v>0.07075118606879238</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02873663285537457</v>
+        <v>0.1137187646477293</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07151639344783492</v>
+        <v>0.07049427015382079</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02832157979227923</v>
+        <v>0.05568598369108514</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06791483344896616</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02796279415155592</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07231102004169976</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.06881631184308712</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07180630412631582</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.107167920932547</v>
+        <v>0.06917969057478168</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07186477313848581</v>
+        <v>0.07153731035844563</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02832157979227923</v>
+        <v>0.1134858548094215</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07231102004169976</v>
+        <v>0.07127753982219658</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02840387543866439</v>
+        <v>0.05573873590983451</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06866115030005371</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02775261902847251</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07310564663556458</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.06802255109905048</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07259538439144016</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1063687439416106</v>
+        <v>0.06873065949453086</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07265449592022742</v>
+        <v>0.07232343464809887</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02840387543866439</v>
+        <v>0.112758085078357</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07310564663556458</v>
+        <v>0.07206080949057236</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02828354999126817</v>
+        <v>0.05578469057467966</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06940746715114125</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0276392142809037</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07390027322942942</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.06782728630952076</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07338446465656451</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1058716372327537</v>
+        <v>0.06836941735297605</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07344421870196902</v>
+        <v>0.07310955893775213</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02828354999126817</v>
+        <v>0.1130285238538247</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07390027322942942</v>
+        <v>0.07284407915894815</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02806063364682862</v>
+        <v>0.05582377492269727</v>
       </c>
       <c r="G159" t="n">
+        <v>0.07015378400222878</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02771690210770787</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07469489982329425</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.06733037465150837</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07417354492168886</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1059777313710792</v>
+        <v>0.06817394871911872</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07423394148371062</v>
+        <v>0.07389568322740539</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02806063364682862</v>
+        <v>0.1115845472585838</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07469489982329425</v>
+        <v>0.07362734882732393</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02813515660208385</v>
+        <v>0.055855916190964</v>
       </c>
       <c r="G160" t="n">
+        <v>0.07090010085331633</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02758593762769251</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07548952641715907</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.06753167330202375</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07496262518681322</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1042881569216901</v>
+        <v>0.06734568288547488</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07502366426545222</v>
+        <v>0.07468180751705863</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02813515660208385</v>
+        <v>0.111826266053782</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07548952641715907</v>
+        <v>0.07441061849569973</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0277071490537719</v>
+        <v>0.05588104161655652</v>
       </c>
       <c r="G161" t="n">
+        <v>0.07164641770440387</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02754667501484571</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07628415301102391</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.06703103943807734</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07575170545193756</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1037040444496893</v>
+        <v>0.06678643591908423</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07581338704719383</v>
+        <v>0.07546793180671188</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0277071490537719</v>
+        <v>0.1110539953058989</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07628415301102391</v>
+        <v>0.0751938881640755</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02767664119863086</v>
+        <v>0.05589907843655149</v>
       </c>
       <c r="G162" t="n">
+        <v>0.07239273455549142</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02719946844315552</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07707877960488874</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.06652833023667962</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07654078571706191</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1037265245201798</v>
+        <v>0.06639802388698682</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07660310982893544</v>
+        <v>0.07625405609636512</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02767664119863086</v>
+        <v>0.1106680500814139</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07707877960488874</v>
+        <v>0.07597715783245129</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02754366323339882</v>
+        <v>0.05590995388802558</v>
       </c>
       <c r="G163" t="n">
+        <v>0.07313905140657895</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02694467208661006</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07787340619875358</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.0663234028748409</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07732986598218626</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.102953411795337</v>
+        <v>0.06608226285622235</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07739283261067703</v>
+        <v>0.07704018038601838</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02754366323339882</v>
+        <v>0.1100687454468068</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07787340619875358</v>
+        <v>0.07676042750082708</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02760824535481386</v>
+        <v>0.05591359520805547</v>
       </c>
       <c r="G164" t="n">
+        <v>0.07388536825766649</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02678264011919734</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.0786680327926184</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.06601611452957173</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.0781189462473106</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1018591472307934</v>
+        <v>0.0652409688938308</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07818255539241864</v>
+        <v>0.07782630467567163</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02760824535481386</v>
+        <v>0.1091563964685571</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0786680327926184</v>
+        <v>0.07754369716920287</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02727041775961403</v>
+        <v>0.05591359520805547</v>
       </c>
       <c r="G165" t="n">
+        <v>0.07388536825766649</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02691372671490552</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07946265938648324</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.06620632237788249</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07890802651243496</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1009388644300022</v>
+        <v>0.06467595806685189</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07897227817416023</v>
+        <v>0.07861242896532487</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02727041775961403</v>
+        <v>0.1086313182131447</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07946265938648324</v>
+        <v>0.07832696683757866</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02703021064453742</v>
+        <v>0.05498418505406943</v>
       </c>
       <c r="G166" t="n">
+        <v>0.07388509972920247</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02663828604772264</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08025728598034808</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.0656938835967836</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07969710677755931</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1001934665236298</v>
+        <v>0.06408904644232558</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07976200095590184</v>
+        <v>0.07939855325497812</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02703021064453742</v>
+        <v>0.108493825747049</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08025728598034808</v>
+        <v>0.07911023650595443</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02688765420632211</v>
+        <v>0.05406506834258551</v>
       </c>
       <c r="G167" t="n">
+        <v>0.07388483120073847</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02655667229163679</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.0810519125742129</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.06537865536328555</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08048618704268366</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.09952385664234287</v>
+        <v>0.06418205008729166</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08055172373764345</v>
+        <v>0.08018467754463136</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02688765420632211</v>
+        <v>0.1081442341367495</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0810519125742129</v>
+        <v>0.07989350617433023</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02704277864170615</v>
+        <v>0.05315670670349808</v>
       </c>
       <c r="G168" t="n">
+        <v>0.07388456267227443</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02606923962063608</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08184653916807774</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.06516049485439876</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.081275267307808</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.09953093791680784</v>
+        <v>0.06295678506879002</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08134144651938505</v>
+        <v>0.08097080183428462</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02704277864170615</v>
+        <v>0.1070828584487261</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08184653916807774</v>
+        <v>0.08067677584270601</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02669561414742765</v>
+        <v>0.05225956176681984</v>
       </c>
       <c r="G169" t="n">
+        <v>0.07388429414381043</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02617634220870853</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08264116576194257</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.06443925924713362</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08206434757293236</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.09761561347769143</v>
+        <v>0.06231506745386045</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08213116930112666</v>
+        <v>0.08175692612393787</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02669561414742765</v>
+        <v>0.1074100137494583</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08264116576194257</v>
+        <v>0.0814600455110818</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02644619092022468</v>
+        <v>0.05137409516244469</v>
       </c>
       <c r="G170" t="n">
+        <v>0.0738840256153464</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02597833422984228</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08343579235580741</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.0640148057185006</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08285342783805671</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.09737878645566012</v>
+        <v>0.06165871330954287</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08292089208286825</v>
+        <v>0.08254305041359111</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02644619092022468</v>
+        <v>0.1067260151054257</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08343579235580741</v>
+        <v>0.0822433151794576</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0263945391568353</v>
+        <v>0.05050076852030627</v>
       </c>
       <c r="G171" t="n">
+        <v>0.0738837570868824</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02577556985802537</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08423041894967223</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.06428699144551012</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08364250810318105</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.09672135998138054</v>
+        <v>0.06148953870287707</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08371061486460986</v>
+        <v>0.08332917470324436</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0263945391568353</v>
+        <v>0.105031177583108</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08423041894967223</v>
+        <v>0.08302658484783337</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02623929534047573</v>
+        <v>0.04964004347030106</v>
       </c>
       <c r="G172" t="n">
+        <v>0.07388348855841836</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02526840326724594</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08502504554353707</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.06385567360517264</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.0844315883683054</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.09624423718551922</v>
+        <v>0.06050935970090293</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08450033764635145</v>
+        <v>0.08411529899289762</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02623929534047573</v>
+        <v>0.1054258162489848</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08502504554353707</v>
+        <v>0.08380985451620916</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02622602101326267</v>
+        <v>0.04879238164243767</v>
       </c>
       <c r="G173" t="n">
+        <v>0.07388322002995436</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.025257188631492</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08581967213740191</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.06302070937449858</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08522066863342975</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.09454832119874262</v>
+        <v>0.05951999237066033</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08529006042809306</v>
+        <v>0.08490142328255086</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02622602101326267</v>
+        <v>0.1044102461695358</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08581967213740191</v>
+        <v>0.08459312418458494</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02573500816707464</v>
+        <v>0.04795824466661194</v>
       </c>
       <c r="G174" t="n">
+        <v>0.07388295150149034</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02514228012475168</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08661429873126673</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.06268195593049833</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.0860097488985541</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.09403451515171751</v>
+        <v>0.05882325277918909</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08607978320983467</v>
+        <v>0.08568754757220412</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02573500816707464</v>
+        <v>0.1037847824112404</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08661429873126673</v>
+        <v>0.08537639385296074</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0254777401801</v>
+        <v>0.04713809417275758</v>
       </c>
       <c r="G175" t="n">
+        <v>0.07388268297302632</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02482403192101304</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08740892532513157</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.06253927045018234</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08679882916367845</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.09320372217511036</v>
+        <v>0.0583209569935291</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08686950599157627</v>
+        <v>0.08647367186185737</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0254777401801</v>
+        <v>0.1035497400405784</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08740892532513157</v>
+        <v>0.08615966352133653</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02496570043052714</v>
+        <v>0.04633239179077346</v>
       </c>
       <c r="G176" t="n">
+        <v>0.0738824144445623</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02460279819426418</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.0882035519189964</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.06199251011056117</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.0875879094288028</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.09245684539958787</v>
+        <v>0.05801492108072012</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08765922877331787</v>
+        <v>0.08725979615151061</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02496570043052714</v>
+        <v>0.1031054341240294</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0882035519189964</v>
+        <v>0.0869429331897123</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02451037229654449</v>
+        <v>0.04554159915066339</v>
       </c>
       <c r="G177" t="n">
+        <v>0.07388214591609828</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.0244789331184932</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08899817851286124</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.06194153208864511</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08837698969392715</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.09069478795581637</v>
+        <v>0.05690696110780208</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08844895155505945</v>
+        <v>0.08804592044116386</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02451037229654449</v>
+        <v>0.1017521797280731</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08899817851286124</v>
+        <v>0.0877262028580881</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02392323915634045</v>
+        <v>0.04476617788232565</v>
       </c>
       <c r="G178" t="n">
+        <v>0.07388187738763427</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02415279086768812</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08979280510672606</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.0612861935614446</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08916606995905151</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.0899184529744626</v>
+        <v>0.05639889314181482</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08923867433680106</v>
+        <v>0.08883204473081711</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02392323915634045</v>
+        <v>0.1017902919191889</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08979280510672606</v>
+        <v>0.08850947252646388</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02371578438810336</v>
+        <v>0.04400658961569386</v>
       </c>
       <c r="G179" t="n">
+        <v>0.07388160885917025</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02372472561583708</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.0905874317005909</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.06122635170597013</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08995515022417586</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.08912874358619305</v>
+        <v>0.05539253324979818</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09002839711854267</v>
+        <v>0.08961816902047036</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02371578438810336</v>
+        <v>0.1011200857638567</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0905874317005909</v>
+        <v>0.08929274219483967</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02319949137002167</v>
+        <v>0.04326329598066971</v>
       </c>
       <c r="G180" t="n">
+        <v>0.07388134033070623</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02349509153692811</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09138205829445574</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.06116186369923213</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09074423048930021</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.08802656292167438</v>
+        <v>0.05518969749879202</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09081811990028427</v>
+        <v>0.0904042933101236</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02319949137002167</v>
+        <v>0.09924187632855602</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09138205829445574</v>
+        <v>0.09007601186321545</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02258584348028377</v>
+        <v>0.04253675860725153</v>
       </c>
       <c r="G181" t="n">
+        <v>0.07388107180224221</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02336424280494934</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09217668488832056</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.06039258671824096</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09153331075442454</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.08751281411157308</v>
+        <v>0.05459220195583614</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09160784268202588</v>
+        <v>0.09119041759977685</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02258584348028377</v>
+        <v>0.09895597867976635</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09217668488832056</v>
+        <v>0.09085928153159124</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02188632409707801</v>
+        <v>0.04182743912534029</v>
       </c>
       <c r="G182" t="n">
+        <v>0.0738808032737782</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02333253359388882</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.0929713114821854</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.06021837794000715</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09232239101954891</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.08598840028655574</v>
+        <v>0.05320186268797047</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09239756546376747</v>
+        <v>0.09197654188943009</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02188632409707801</v>
+        <v>0.09826270788396746</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0929713114821854</v>
+        <v>0.09164255119996703</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02171241659859285</v>
+        <v>0.04113579916486965</v>
       </c>
       <c r="G183" t="n">
+        <v>0.07388053474531418</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02300031807773464</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09376593807605023</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.05983909454154107</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09311147128467326</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.08465422457728888</v>
+        <v>0.05292049576223484</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09318728824550908</v>
+        <v>0.09276266617908335</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02171241659859285</v>
+        <v>0.09836237900763894</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09376593807605023</v>
+        <v>0.09242582086834281</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02127560436301663</v>
+        <v>0.04046230035574432</v>
       </c>
       <c r="G184" t="n">
+        <v>0.07388026621685016</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02276795043047491</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09456056466991507</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.05945459369985323</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.0939005515497976</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.08331119011443916</v>
+        <v>0.05214991724566906</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09397701102725069</v>
+        <v>0.0935487904687366</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02127560436301663</v>
+        <v>0.09725530711726049</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09456056466991507</v>
+        <v>0.09320909053671859</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0207873707685378</v>
+        <v>0.03980740432795657</v>
       </c>
       <c r="G185" t="n">
+        <v>0.07387999768838614</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02263578482609768</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09535519126377989</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.05856473259195399</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09468963181492195</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.08286020002867317</v>
+        <v>0.05139194320531298</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09476673380899228</v>
+        <v>0.09433491475838984</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0207873707685378</v>
+        <v>0.0966418072793116</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09535519126377989</v>
+        <v>0.09399236020509438</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02035919919334474</v>
+        <v>0.03917157271141039</v>
       </c>
       <c r="G186" t="n">
+        <v>0.07387972915992214</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02230417543859105</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09614981785764472</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.05856936839485383</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.0954787120800463</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.08170215745065734</v>
+        <v>0.05064838970820659</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09555645659073389</v>
+        <v>0.0951210390480431</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02035919919334474</v>
+        <v>0.09512219456027199</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09614981785764472</v>
+        <v>0.09477562987347017</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02000257301562583</v>
+        <v>0.03855526713603939</v>
       </c>
       <c r="G187" t="n">
+        <v>0.07387946063145812</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02207347644194307</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09694444445150956</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.05816835828556313</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09626779234517065</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.0801379655110584</v>
+        <v>0.0504210728213895</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09634617937247549</v>
+        <v>0.09590716333769635</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02000257301562583</v>
+        <v>0.09429678402662128</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09694444445150956</v>
+        <v>0.09555889954184596</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01982897561356947</v>
+        <v>0.03795894923175173</v>
       </c>
       <c r="G188" t="n">
+        <v>0.0738791921029941</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02194404201014187</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09773907104537438</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.05796155944109238</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.097056872610295</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.08016852734054269</v>
+        <v>0.04981180861190179</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09713590215421709</v>
+        <v>0.09669328762734959</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01982897561356947</v>
+        <v>0.09386589074483892</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09773907104537438</v>
+        <v>0.09634216921022175</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02004488677796705</v>
+        <v>0.03738308062853297</v>
       </c>
       <c r="G189" t="n">
+        <v>0.07387892357453008</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.0217162263171755</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09853369763923922</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.05694882903845197</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09784595287541935</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.07839474606977703</v>
+        <v>0.04942241314678317</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09792562493595869</v>
+        <v>0.09747941191700285</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02004488677796705</v>
+        <v>0.09332982978140486</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09853369763923922</v>
+        <v>0.09712543887859754</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01998780648711715</v>
+        <v>0.03682623796739447</v>
       </c>
       <c r="G190" t="n">
+        <v>0.07387865504606606</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02149038353703205</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09932832423310405</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.05703002425465237</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.0986350331405437</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.07769053583180796</v>
+        <v>0.04885470249307358</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0987153477177003</v>
+        <v>0.0982655362066561</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01998780648711715</v>
+        <v>0.09298891620279848</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09932832423310405</v>
+        <v>0.09790870854697331</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01973551244420908</v>
+        <v>0.03627757294489535</v>
       </c>
       <c r="G191" t="n">
+        <v>0.07387838651760205</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02096686784369958</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1001229508269689</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.056705002266704</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09942411340566805</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.07626695484060986</v>
+        <v>0.04821049271781278</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09950507049944191</v>
+        <v>0.09905166049630934</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01973551244420908</v>
+        <v>0.09134346507549956</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1001229508269689</v>
+        <v>0.0986919782153491</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01988768822561321</v>
+        <v>0.03573566220205028</v>
       </c>
       <c r="G192" t="n">
+        <v>0.07387811798913801</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02074603341116622</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1009175774208337</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.05597362025161726</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1002131936707924</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.07483025096472573</v>
+        <v>0.04729159988804069</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1002947932811835</v>
+        <v>0.09983778478596259</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01988768822561321</v>
+        <v>0.09149379146598752</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1009175774208337</v>
+        <v>0.0994752478837249</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01984401740769981</v>
+        <v>0.03520096736884007</v>
       </c>
       <c r="G193" t="n">
+        <v>0.07387784946067401</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02082012955294769</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1017122040146985</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.05543573538640265</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1010022739359168</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.07339550621639512</v>
+        <v>0.04688620782640365</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1010845160629251</v>
+        <v>0.1006239090756158</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01984401740769981</v>
+        <v>0.09071621717981232</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1017122040146985</v>
+        <v>0.1002585175521007</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01960418356683916</v>
+        <v>0.03467395007517463</v>
       </c>
       <c r="G194" t="n">
+        <v>0.07387758093220999</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02028005245659902</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1025068306085634</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.05539120484807056</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1017913542010411</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.0722778026078576</v>
+        <v>0.04657815985419428</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1018742388446667</v>
+        <v>0.1014100333652691</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01960418356683916</v>
+        <v>0.09018339530573821</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1025068306085634</v>
+        <v>0.1010417872204765</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01946787027940161</v>
+        <v>0.03415507195098763</v>
       </c>
       <c r="G195" t="n">
+        <v>0.07387731240374598</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02012688900226253</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1033014572024282</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.05443988581363143</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1025804344661654</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.07029222215135289</v>
+        <v>0.04566797977099488</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1026639616264083</v>
+        <v>0.1021961576549223</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01946787027940161</v>
+        <v>0.08879902805618894</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1033014572024282</v>
+        <v>0.1018250568888523</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01943476112175739</v>
+        <v>0.03364479462619069</v>
       </c>
       <c r="G196" t="n">
+        <v>0.07387704387528195</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01976175160488064</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1040960837962931</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.05418163546009566</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1033695147312898</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.06925384685912045</v>
+        <v>0.04515624706735893</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1034536844081499</v>
+        <v>0.1029822819445756</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01943476112175739</v>
+        <v>0.08796690621945846</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1040960837962931</v>
+        <v>0.102608326557228</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01950453967027685</v>
+        <v>0.03314357973076187</v>
       </c>
       <c r="G197" t="n">
+        <v>0.07387677534681794</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01968575267939564</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1048907103901579</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.05369883859730962</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1041585949964142</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.06667775874339987</v>
+        <v>0.04524354123384008</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1042434071898915</v>
+        <v>0.1037684062342288</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01950453967027685</v>
+        <v>0.08709082058384077</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1048907103901579</v>
+        <v>0.1033915962256038</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01967688950133029</v>
+        <v>0.03265188889461246</v>
       </c>
       <c r="G198" t="n">
+        <v>0.07387650681835392</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01920000464074996</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1056853369840227</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.05317684295663755</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1049476752615385</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.06517903981643086</v>
+        <v>0.0444304417609919</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1050331299716331</v>
+        <v>0.1045545305238821</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01967688950133029</v>
+        <v>0.08527456193762978</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1056853369840227</v>
+        <v>0.1041748658939796</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01945149419128799</v>
+        <v>0.03217018374767608</v>
       </c>
       <c r="G199" t="n">
+        <v>0.07387623828988991</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01900561990388591</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1064799635778875</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.05252061590323107</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1057367555266628</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.06367277209045291</v>
+        <v>0.04361752813936784</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1058228527533747</v>
+        <v>0.1053406548135353</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01945149419128799</v>
+        <v>0.08522192106911936</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1064799635778875</v>
+        <v>0.1049581355623554</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01932803731652027</v>
+        <v>0.0316989259198661</v>
       </c>
       <c r="G200" t="n">
+        <v>0.07387596976142588</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01870371088374589</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1072745901717524</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.05213512547375038</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1065258357917872</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.06227403757770555</v>
+        <v>0.04300537985952146</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1066125755351163</v>
+        <v>0.1061267791031886</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01932803731652027</v>
+        <v>0.08373668876660345</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1072745901717524</v>
+        <v>0.1057414052307312</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01950620245339743</v>
+        <v>0.03123857704115719</v>
       </c>
       <c r="G201" t="n">
+        <v>0.07387570123296187</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01859538999527226</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1080692167656172</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.05152533970485573</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1073149160569115</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.0599979182904285</v>
+        <v>0.04249457641200641</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1074022983168579</v>
+        <v>0.1069129033928418</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01950620245339743</v>
+        <v>0.08262265581837591</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1080692167656172</v>
+        <v>0.106524674899107</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01928567317828975</v>
+        <v>0.0307895987414623</v>
       </c>
       <c r="G202" t="n">
+        <v>0.07387543270449785</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01808176965340737</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.108863843359482</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.05089622663320731</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1081039963220359</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.05815949624086131</v>
+        <v>0.04228569728737613</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1081920210985995</v>
+        <v>0.1076990276824951</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01928567317828975</v>
+        <v>0.08198361301273083</v>
       </c>
       <c r="O202" t="n">
-        <v>0.108863843359482</v>
+        <v>0.1073079445674828</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01956613306756753</v>
+        <v>0.03035245265071505</v>
       </c>
       <c r="G203" t="n">
+        <v>0.07387516417603383</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.0178639622730936</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1096584699533469</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.04995275429546547</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1088930765871603</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.05657385344124338</v>
+        <v>0.04157932197618433</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1089817438803411</v>
+        <v>0.1084851519721483</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01956613306756753</v>
+        <v>0.07962335113796198</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1096584699533469</v>
+        <v>0.1080912142358585</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01924726569760112</v>
+        <v>0.02992760039883088</v>
       </c>
       <c r="G204" t="n">
+        <v>0.07387489564756981</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01734308026927329</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1104530965472117</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.04979989072829039</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1096821568522846</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.05595607190381457</v>
+        <v>0.04137602996898443</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1097714666620827</v>
+        <v>0.1092712762618016</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01924726569760112</v>
+        <v>0.0787456609823633</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1104530965472117</v>
+        <v>0.1088744839042343</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01952875464476075</v>
+        <v>0.02951550361578041</v>
       </c>
       <c r="G205" t="n">
+        <v>0.07387462711910579</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01732023605688882</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1112477231410765</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.04864260396834227</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1104712371174089</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.05452123364081429</v>
+        <v>0.04117640075632997</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1105611894438243</v>
+        <v>0.1100574005514548</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01952875464476075</v>
+        <v>0.07795433333422874</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1112477231410765</v>
+        <v>0.1096577535726101</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01931028348541677</v>
+        <v>0.02911662393147857</v>
       </c>
       <c r="G206" t="n">
+        <v>0.07387435859064179</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01669654205088256</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1120423497349414</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.04788586205228146</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1112603173825333</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.05228442066448219</v>
+        <v>0.04028101382877455</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1113509122255659</v>
+        <v>0.1108435248411081</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01931028348541677</v>
+        <v>0.07615315898185226</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1120423497349414</v>
+        <v>0.1104410232409859</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01949153579593947</v>
+        <v>0.02873142297585896</v>
       </c>
       <c r="G207" t="n">
+        <v>0.07387409006217777</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01667311066619684</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1128369763288062</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.04773463301676811</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1120493976476576</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.05186071498705785</v>
+        <v>0.0396904486768718</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1121406350073075</v>
+        <v>0.1116296491307613</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01949153579593947</v>
+        <v>0.07504592871352767</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1128369763288062</v>
+        <v>0.1112242929093617</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01927219515269914</v>
+        <v>0.0283603623788394</v>
       </c>
       <c r="G208" t="n">
+        <v>0.07387382153371375</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01615105431777407</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.113631602922671</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.04729388489846251</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.112838477912782</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.0510651986207809</v>
+        <v>0.03960528479117514</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1129303577890491</v>
+        <v>0.1124157734204146</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01927219515269914</v>
+        <v>0.07433643331754902</v>
       </c>
       <c r="O208" t="n">
-        <v>0.113631602922671</v>
+        <v>0.1120075625777375</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01935194513206608</v>
+        <v>0.02800390377038589</v>
       </c>
       <c r="G209" t="n">
+        <v>0.07387355300524973</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01593148542055658</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1144262295165359</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.0464685857340249</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1136275581779063</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.04911295357789086</v>
+        <v>0.03922610166223817</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1137200805707907</v>
+        <v>0.1132018977100678</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01935194513206608</v>
+        <v>0.07242846358221017</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1144262295165359</v>
+        <v>0.1127908322461133</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01943046931041062</v>
+        <v>0.02766250878041557</v>
       </c>
       <c r="G210" t="n">
+        <v>0.07387328447678572</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01541551638948678</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1152208561104007</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.04546370356011548</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1144166384430307</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.04861906187062726</v>
+        <v>0.03815347878061445</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1145098033525324</v>
+        <v>0.1139880219997211</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01943046931041062</v>
+        <v>0.07242581029580497</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1152208561104007</v>
+        <v>0.113574101914489</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01920745126410302</v>
+        <v>0.02733663903886212</v>
       </c>
       <c r="G211" t="n">
+        <v>0.0738730159483217</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01510425963950696</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1160154827042655</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.04498420641339451</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.115205718708155</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.04789860551122982</v>
+        <v>0.03818799563685757</v>
       </c>
       <c r="M211" t="n">
-        <v>0.115299526134274</v>
+        <v>0.1147741462893743</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01920745126410302</v>
+        <v>0.0705322642466274</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1160154827042655</v>
+        <v>0.1143573715828649</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01918257456951361</v>
+        <v>0.02702675617564605</v>
       </c>
       <c r="G212" t="n">
+        <v>0.07387274741985768</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01499882758555954</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1168101092981304</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.04463506233052228</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1159947989732794</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.04766666651193813</v>
+        <v>0.03723023172152101</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1160892489160156</v>
+        <v>0.1155602705790276</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01918257456951361</v>
+        <v>0.06935161622297137</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1168101092981304</v>
+        <v>0.1151406412512406</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01915552280301265</v>
+        <v>0.02673332182072799</v>
       </c>
       <c r="G213" t="n">
+        <v>0.07387247889139366</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01460033264258687</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1176047358919952</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.04391960299375328</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1167838792384037</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.04743832688499167</v>
+        <v>0.03668076652515834</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1168789716977572</v>
+        <v>0.1163463948686808</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01915552280301265</v>
+        <v>0.06828765701313083</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1176047358919952</v>
+        <v>0.1159239109196164</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01932597954097051</v>
+        <v>0.02645679760402773</v>
       </c>
       <c r="G214" t="n">
+        <v>0.07387221036292964</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01420988722553132</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.11839936248586</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.04371480145196271</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1175729595035281</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.04680022294022534</v>
+        <v>0.03644017953832313</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1176686944794988</v>
+        <v>0.1171325191583341</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01932597954097051</v>
+        <v>0.0670441774053997</v>
       </c>
       <c r="O214" t="n">
-        <v>0.11839936248586</v>
+        <v>0.1167071805879922</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01909362835975745</v>
+        <v>0.02645679760402773</v>
       </c>
       <c r="G215" t="n">
+        <v>0.07387221036292964</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01402860374933522</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1191939890797249</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.04311181715527568</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1183620397686524</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.04779042819693097</v>
+        <v>0.03580905025156894</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1184584172612404</v>
+        <v>0.1179186434479873</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01909362835975745</v>
+        <v>0.06552496818807185</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1191939890797249</v>
+        <v>0.117490450256368</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01915815283574374</v>
+        <v>0.02579306998278365</v>
       </c>
       <c r="G216" t="n">
+        <v>0.07375548109638627</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01365759462894099</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1199886156735897</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.04281075959245365</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1191511200337768</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.04768089664867725</v>
+        <v>0.03548795815544936</v>
       </c>
       <c r="M216" t="n">
-        <v>0.119248140042982</v>
+        <v>0.1187047677376405</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01915815283574374</v>
+        <v>0.06543382014944127</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1199886156735897</v>
+        <v>0.1182737199247438</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01911923654529973</v>
+        <v>0.02513655201413816</v>
       </c>
       <c r="G217" t="n">
+        <v>0.07363875182984291</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01349797227929093</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1207832422674545</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.0421117382522582</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1199402002989011</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.04757162560170325</v>
+        <v>0.03537748274051786</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1200378628247236</v>
+        <v>0.1194908920272938</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01911923654529973</v>
+        <v>0.06407452407780173</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1207832422674545</v>
+        <v>0.1190569895931195</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0188765630647957</v>
+        <v>0.02448754385231323</v>
       </c>
       <c r="G218" t="n">
+        <v>0.07352202256329954</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01315084911532748</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1215778688613194</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.04181486262345072</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1207292805640255</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.04786261236224765</v>
+        <v>0.03477820349732799</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1208275856064652</v>
+        <v>0.1202770163169471</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0188765630647957</v>
+        <v>0.06335087076144735</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1215778688613194</v>
+        <v>0.1198402592614954</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0189299046102694</v>
+        <v>0.02384634565153088</v>
       </c>
       <c r="G219" t="n">
+        <v>0.07340529329675616</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01311733755199292</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1223724954551842</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.04122024219479284</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1215183608291498</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.04725385423654965</v>
+        <v>0.03479069991643338</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1216173083882068</v>
+        <v>0.1210631406066003</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0189299046102694</v>
+        <v>0.06156665098867192</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1223724954551842</v>
+        <v>0.1206235289298711</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01887946195364133</v>
+        <v>0.02321325756601322</v>
       </c>
       <c r="G220" t="n">
+        <v>0.07328856403021279</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01269855000422969</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.123167122049049</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.04052798645504604</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1223074410942742</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.04684534853084793</v>
+        <v>0.03411555148838757</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1224070311699484</v>
+        <v>0.1218492648962535</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01887946195364133</v>
+        <v>0.06102565554776945</v>
       </c>
       <c r="O220" t="n">
-        <v>0.123167122049049</v>
+        <v>0.1214067985982469</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01882531439557625</v>
+        <v>0.02258857974998224</v>
       </c>
       <c r="G221" t="n">
+        <v>0.07317183476366942</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01269559888698009</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1239617486429138</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03983820489297188</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1230965213593985</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.04723709255138148</v>
+        <v>0.03385333770374407</v>
       </c>
       <c r="M221" t="n">
-        <v>0.12319675395169</v>
+        <v>0.1226353891859068</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01882531439557625</v>
+        <v>0.05943167522703374</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1239617486429138</v>
+        <v>0.1221900682666227</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01876751258175159</v>
+        <v>0.02197261235765997</v>
       </c>
       <c r="G222" t="n">
+        <v>0.07305510549712606</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01230959661518653</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1247563752367787</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03985100699733185</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1238856016245229</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.04702908360438929</v>
+        <v>0.03360463805305641</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1239864767334316</v>
+        <v>0.1234215134755601</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01876751258175159</v>
+        <v>0.05868850081475885</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1247563752367787</v>
+        <v>0.1229733379349985</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01890610715784476</v>
+        <v>0.02136565554326841</v>
       </c>
       <c r="G223" t="n">
+        <v>0.07293837623058268</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01244165560379134</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1255510018306435</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.03906650225688743</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1246746818896472</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.04772131899611021</v>
+        <v>0.0327700320268782</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1247761995151732</v>
+        <v>0.1242076377652133</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01890610715784476</v>
+        <v>0.05849992309923852</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1255510018306435</v>
+        <v>0.1237566076033743</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01884114876953318</v>
+        <v>0.02076800946102961</v>
       </c>
       <c r="G224" t="n">
+        <v>0.07282164696403931</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01229288826773691</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1263456284245084</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.03868480016040018</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1254637621547716</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.04671379603278314</v>
+        <v>0.03245009911576299</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1255659222969148</v>
+        <v>0.1249937620548666</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01884114876953318</v>
+        <v>0.05796973286876683</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1263456284245084</v>
+        <v>0.12453987727175</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01877268806249427</v>
+        <v>0.02017997426516558</v>
       </c>
       <c r="G225" t="n">
+        <v>0.07270491769749594</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.0120644070219656</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1271402550183732</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03840601019663165</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1262528424198959</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.046906512020647</v>
+        <v>0.03224541881026433</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1263556450786564</v>
+        <v>0.1257798863445198</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01877268806249427</v>
+        <v>0.05680172091163771</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1271402550183732</v>
+        <v>0.1253231469401258</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01860077568240544</v>
+        <v>0.01960185010989832</v>
       </c>
       <c r="G226" t="n">
+        <v>0.07258818843095256</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01185732428141976</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.127934881612238</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.03743024185434327</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1270419226850203</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.04739946426594072</v>
+        <v>0.03245657060093576</v>
       </c>
       <c r="M226" t="n">
-        <v>0.127145367860398</v>
+        <v>0.1265660106341731</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01860077568240544</v>
+        <v>0.05629967801614494</v>
       </c>
       <c r="O226" t="n">
-        <v>0.127934881612238</v>
+        <v>0.1261064166085016</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01862546227494412</v>
+        <v>0.01903393714944993</v>
       </c>
       <c r="G227" t="n">
+        <v>0.0724714591644092</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01197275246104176</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1287295082061028</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.03685760462229665</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1278310029501446</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.04789265007490329</v>
+        <v>0.03158413397833079</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1279350906421396</v>
+        <v>0.1273521349238263</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01862546227494412</v>
+        <v>0.05626739497058253</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1287295082061028</v>
+        <v>0.1268896862768774</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01834679848578771</v>
+        <v>0.0184765355380424</v>
       </c>
       <c r="G228" t="n">
+        <v>0.07235472989786583</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01171180397577397</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1295241347999677</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.03648820798925323</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.128620083215269</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.0477860667537735</v>
+        <v>0.03182868843300302</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1287248134238812</v>
+        <v>0.1281382592134795</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01834679848578771</v>
+        <v>0.05550866256324444</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1295241347999677</v>
+        <v>0.1276729559452532</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01826483496061367</v>
+        <v>0.01792994542989777</v>
       </c>
       <c r="G229" t="n">
+        <v>0.07223800063132246</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01157559124055874</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1303187613938325</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03642216144397459</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1294091634803933</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.04667971160879036</v>
+        <v>0.03149081345550603</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1295145362056228</v>
+        <v>0.1289243835031328</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01826483496061367</v>
+        <v>0.05542727158242439</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1303187613938325</v>
+        <v>0.128456225613629</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01837962234509936</v>
+        <v>0.01739446697923806</v>
       </c>
       <c r="G230" t="n">
+        <v>0.07212127136477908</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01156506719730162</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1311133879876973</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.03575957447522218</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1301982437455177</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.04687358194619268</v>
+        <v>0.03127097544355883</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1303042589873644</v>
+        <v>0.129710507792786</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01837962234509936</v>
+        <v>0.05502642639559613</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1311133879876973</v>
+        <v>0.1292394952820048</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01799121128492227</v>
+        <v>0.01687040034028528</v>
       </c>
       <c r="G231" t="n">
+        <v>0.07200454209823572</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01176508024475239</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1319080145815622</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.03540055657175761</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.130987324010642</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.04746767507221944</v>
+        <v>0.03115867273307438</v>
       </c>
       <c r="M231" t="n">
-        <v>0.131093981769106</v>
+        <v>0.1304966320824393</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01799121128492227</v>
+        <v>0.05506012427945123</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1319080145815622</v>
+        <v>0.1300227649503806</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01809965242575973</v>
+        <v>0.01635804566726146</v>
       </c>
       <c r="G232" t="n">
+        <v>0.07188781283169235</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01176515701246796</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.132702641175427</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.03494521722234237</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1317764042757664</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.04696198829310966</v>
+        <v>0.03044698722087186</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1318837045508476</v>
+        <v>0.1312827563720926</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01809965242575973</v>
+        <v>0.0541977472253119</v>
       </c>
       <c r="O232" t="n">
-        <v>0.132702641175427</v>
+        <v>0.1308060346187563</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01800499641328923</v>
+        <v>0.0158577031143886</v>
       </c>
       <c r="G233" t="n">
+        <v>0.07177108356514897</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01166535496128748</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1334972677692919</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.03449366591573794</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1325654845408907</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.0476565189151022</v>
+        <v>0.03053625580103994</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1326734273325892</v>
+        <v>0.1320688806617458</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01800499641328923</v>
+        <v>0.05343954289858943</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1334972677692919</v>
+        <v>0.1315893042871321</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01770729389318816</v>
+        <v>0.01536967283588881</v>
       </c>
       <c r="G234" t="n">
+        <v>0.0716543542986056</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01156573155205011</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1342918943631567</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.03384601214070582</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1333545648060151</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.04745126424443585</v>
+        <v>0.03072681536766725</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1334631501143308</v>
+        <v>0.132855004951399</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01770729389318816</v>
+        <v>0.05428575896469529</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1342918943631567</v>
+        <v>0.1323725739555079</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01780659551113395</v>
+        <v>0.01489425498598407</v>
       </c>
       <c r="G235" t="n">
+        <v>0.07153762503206224</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01156634424559499</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1350865209570215</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.03320236538600757</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1341436450711394</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.04774622158734965</v>
+        <v>0.03011900281484239</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1342528728960724</v>
+        <v>0.1336411292410523</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01780659551113395</v>
+        <v>0.05343664308904111</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1350865209570215</v>
+        <v>0.1331558436238837</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01760295191280398</v>
+        <v>0.01443174971889639</v>
       </c>
       <c r="G236" t="n">
+        <v>0.07142089576551887</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01166725050276128</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1358811475508863</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.03346283514040474</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1349327253362638</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.04764138825008252</v>
+        <v>0.03021315503665417</v>
       </c>
       <c r="M236" t="n">
-        <v>0.135042595677814</v>
+        <v>0.1344272535307055</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01760295191280398</v>
+        <v>0.05359244293703813</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1358811475508863</v>
+        <v>0.1339391132922595</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01769641374387572</v>
+        <v>0.01398245718884784</v>
       </c>
       <c r="G237" t="n">
+        <v>0.07130416649897549</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01156850778438812</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1366757741447512</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.03302753089265878</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1357218056013881</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.04783676153887328</v>
+        <v>0.029609608927191</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1358323184595556</v>
+        <v>0.1352133778203588</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01769641374387572</v>
+        <v>0.05255340617409793</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1366757741447512</v>
+        <v>0.1347223829606353</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01738703165002656</v>
+        <v>0.01354667755006039</v>
       </c>
       <c r="G238" t="n">
+        <v>0.07118743723243212</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01187017355131466</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.137470400738616</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.03219656213153124</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1365108858665125</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.04773233875996097</v>
+        <v>0.02920870138054169</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1366220412412972</v>
+        <v>0.135999502110012</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01738703165002656</v>
+        <v>0.05211978046563182</v>
       </c>
       <c r="O238" t="n">
-        <v>0.137470400738616</v>
+        <v>0.1355056526290111</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01727485627693393</v>
+        <v>0.01312471095675612</v>
       </c>
       <c r="G239" t="n">
+        <v>0.07107070796588875</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01187230526438005</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1382650273324809</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.03217003834578369</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1372999661316368</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.04732811721958435</v>
+        <v>0.0296107692907949</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1374117640230388</v>
+        <v>0.1367856263996653</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01727485627693393</v>
+        <v>0.05229181347705125</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1382650273324809</v>
+        <v>0.1362889222973868</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01735993827027525</v>
+        <v>0.01271563193341704</v>
       </c>
       <c r="G240" t="n">
+        <v>0.07095397869934537</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01157496038442343</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1390596539263457</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.03144806902417754</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1380890463967612</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.04692409422398247</v>
+        <v>0.02931614955203915</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1382014868047804</v>
+        <v>0.1375717506893185</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01735993827027525</v>
+        <v>0.05266975287376785</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1390596539263457</v>
+        <v>0.1370721919657626</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01714232827572792</v>
+        <v>0.01231238685582561</v>
       </c>
       <c r="G241" t="n">
+        <v>0.07083724943280201</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01157819637228397</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1398542805202105</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.0309307636554744</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1388781266618855</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.04712026707939432</v>
+        <v>0.02912517905836323</v>
       </c>
       <c r="M241" t="n">
-        <v>0.138991209586522</v>
+        <v>0.1383578749789718</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01714232827572792</v>
+        <v>0.05265384632119291</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1398542805202105</v>
+        <v>0.1378554616341384</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01682207693896939</v>
+        <v>0.01191405024846388</v>
       </c>
       <c r="G242" t="n">
+        <v>0.07072052016625864</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01158207068880081</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1406489071140753</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.03061823172843572</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1396672069270099</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.04681663309205852</v>
+        <v>0.02883819470385568</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1397809323682636</v>
+        <v>0.139143999268625</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01682207693896939</v>
+        <v>0.05134434148473782</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1406489071140753</v>
+        <v>0.1386387313025142</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01699923490567704</v>
+        <v>0.01152092226555385</v>
       </c>
       <c r="G243" t="n">
+        <v>0.07060379089971527</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01188664079481309</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1414435337079402</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.0303105827318231</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1404562871921342</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.04761318956821425</v>
+        <v>0.02855553338260519</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1405706551500052</v>
+        <v>0.1399301235582783</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01699923490567704</v>
+        <v>0.05184148602981403</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1414435337079402</v>
+        <v>0.13942200097089</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0167738528215283</v>
+        <v>0.01113330306131758</v>
       </c>
       <c r="G244" t="n">
+        <v>0.07048706163317191</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01169196415115997</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.142238160301805</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.03000792615439798</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1412453674572586</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.04730993381410037</v>
+        <v>0.02857753198870042</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1413603779317468</v>
+        <v>0.1407162478479315</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0167738528215283</v>
+        <v>0.05184552762183314</v>
       </c>
       <c r="O244" t="n">
-        <v>0.142238160301805</v>
+        <v>0.1402052706392658</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0166459813322006</v>
+        <v>0.01075149278997708</v>
       </c>
       <c r="G245" t="n">
+        <v>0.07037033236662853</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01159809821868059</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1430327868956698</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02901037148492192</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1420344477223829</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.04750686313595576</v>
+        <v>0.02860452741623001</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1421501007134884</v>
+        <v>0.1415023721375848</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0166459813322006</v>
+        <v>0.05105671392620637</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1430327868956698</v>
+        <v>0.1409885403076416</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01651567108337137</v>
+        <v>0.01037579160575438</v>
       </c>
       <c r="G246" t="n">
+        <v>0.07025360310008516</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01170510045821411</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1438274134895347</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.0290180282121564</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1428235279875073</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.04760397484001933</v>
+        <v>0.02773685655928257</v>
       </c>
       <c r="M246" t="n">
-        <v>0.14293982349523</v>
+        <v>0.142288496427238</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01651567108337137</v>
+        <v>0.05097529260834538</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1438274134895347</v>
+        <v>0.1417718099760173</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01628297272071799</v>
+        <v>0.01000649966287146</v>
       </c>
       <c r="G247" t="n">
+        <v>0.07013687383354178</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01191302833059966</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1446220400833995</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.028831005824863</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1436126082526316</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.04720126623253007</v>
+        <v>0.02777485631194682</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1437295462769716</v>
+        <v>0.1430746207168913</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01628297272071799</v>
+        <v>0.0508015113336614</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1446220400833995</v>
+        <v>0.1425550796443932</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01604793688991792</v>
+        <v>0.009643917115550439</v>
       </c>
       <c r="G248" t="n">
+        <v>0.07002014456699841</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01182193929667641</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1454166666772643</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.0278494138118032</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.144401688517756</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.04669873461972684</v>
+        <v>0.02801886356831135</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1445192690587132</v>
+        <v>0.1438607450065445</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01604793688991792</v>
+        <v>0.05083561776756595</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1454166666772643</v>
+        <v>0.143338349312769</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01611061423664854</v>
+        <v>0.009288344118013298</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06990341530045505</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.0118318908172835</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1462112932711292</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02757336166173854</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1451907687828803</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.04759637730784855</v>
+        <v>0.02786921522246483</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1453089918404548</v>
+        <v>0.1446468692961977</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01611061423664854</v>
+        <v>0.05057785957547056</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1462112932711292</v>
+        <v>0.1441216189811447</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0159710554065873</v>
+        <v>0.008940080824482062</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06978668603391168</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01174294035326009</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.147005919864994</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02720295886343049</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1459798490480047</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.0476941916031341</v>
+        <v>0.02762624816849582</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1460987146221965</v>
+        <v>0.145432993585851</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0159710554065873</v>
+        <v>0.05062848442278656</v>
       </c>
       <c r="O250" t="n">
-        <v>0.147005919864994</v>
+        <v>0.1449048886495205</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01572931104541161</v>
+        <v>0.008599427389178765</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06966995676736831</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.0118551453654453</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1478005464588588</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02693831490564058</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.146768929313129</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.04779217481182246</v>
+        <v>0.0271902993004931</v>
       </c>
       <c r="M251" t="n">
-        <v>0.146888437403938</v>
+        <v>0.1462191178755043</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01572931104541161</v>
+        <v>0.04988773997492546</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1478005464588588</v>
+        <v>0.1456881583178963</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01558543179879886</v>
+        <v>0.008266683966325419</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06955322750082493</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01176856331467831</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1485951730527237</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.02707953927713039</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1475580095782534</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.04699032424015254</v>
+        <v>0.02746170551254529</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1476781601856796</v>
+        <v>0.1470052421651575</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01558543179879886</v>
+        <v>0.04995587389729855</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1485951730527237</v>
+        <v>0.1464714279862721</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0155394683124265</v>
+        <v>0.007942150710144064</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06943649823428157</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01168325166179825</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1493897996465885</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02632674146666136</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1483470898433777</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.04778863719436321</v>
+        <v>0.02724080369874096</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1484678829674212</v>
+        <v>0.1477913664548108</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0155394683124265</v>
+        <v>0.05063313385531754</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1493897996465885</v>
+        <v>0.1472546976546479</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01549147123197196</v>
+        <v>0.007626127774856689</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06931976896773819</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01199926786764429</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1501844262404533</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.02618003096299509</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1491361701085021</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.04688711098069342</v>
+        <v>0.02712793075316883</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1492576057491629</v>
+        <v>0.148577490744464</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01549147123197196</v>
+        <v>0.04941976751439359</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1501844262404533</v>
+        <v>0.1480379673230237</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01514149120311263</v>
+        <v>0.007318915314685398</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06920303970119482</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01171666939305555</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1509790528343181</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.02603951725489304</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1499252503736264</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.04778574290538207</v>
+        <v>0.02662342356991756</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1500473285309044</v>
+        <v>0.1493636150341173</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01514149120311263</v>
+        <v>0.05041602253993838</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1509790528343181</v>
+        <v>0.1488212369913995</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01518957887152592</v>
+        <v>0.007020813483852167</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06908631043465145</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.0119355136988712</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.151773679428183</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.02560530983111672</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1507143306387508</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.04718453027466812</v>
+        <v>0.02712761904307573</v>
       </c>
       <c r="M256" t="n">
-        <v>0.150837051312646</v>
+        <v>0.1501497393237705</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01518957887152592</v>
+        <v>0.04982214659736312</v>
       </c>
       <c r="O256" t="n">
-        <v>0.151773679428183</v>
+        <v>0.1496045066597752</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01483578488288927</v>
+        <v>0.00673212243657903</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06896958116810809</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01185585824593039</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1525683060220478</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.0252775181804277</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1515034109038751</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.04728347039479047</v>
+        <v>0.02654085406673201</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1516267740943877</v>
+        <v>0.1509358636134238</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01483578488288927</v>
+        <v>0.05023838735207936</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1525683060220478</v>
+        <v>0.150387776328151</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01488015988288011</v>
+        <v>0.006453142327088018</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06885285190156472</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01177776049507225</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1533629326159127</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.02475625179158747</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1522924911689995</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.04678256057198799</v>
+        <v>0.02626346553497508</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1524164968761293</v>
+        <v>0.151721987903077</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01488015988288011</v>
+        <v>0.04956499246949858</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1533629326159127</v>
+        <v>0.1511710459965268</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01452275451717583</v>
+        <v>0.006184173309601158</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06873612263502134</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01190127790713595</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1541575592097775</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.02444162015335755</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1530815714341238</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.04768179811249967</v>
+        <v>0.02619579034189354</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1532062196578709</v>
+        <v>0.1525081121927302</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01452275451717583</v>
+        <v>0.04920220961503219</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1541575592097775</v>
+        <v>0.1519543156649026</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01456361943145384</v>
+        <v>0.005925515538340476</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06861939336847797</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01202646794296063</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1549521858036423</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.02383373275449943</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1538706516992482</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.04678118032256434</v>
+        <v>0.0268381653815761</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1539959424396125</v>
+        <v>0.1532942364823835</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01456361943145384</v>
+        <v>0.04945028645409161</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1549521858036423</v>
+        <v>0.1527375853332784</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01440280527139159</v>
+        <v>0.005677469167527961</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06850266410193459</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01205338806338543</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1557468123975072</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.02363269908377466</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1546597319643725</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.04718070450842099</v>
+        <v>0.02639092754811134</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1547856652213541</v>
+        <v>0.1540803607720368</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01440280527139159</v>
+        <v>0.04950947065208827</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1557468123975072</v>
+        <v>0.1535208550016542</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01424036268266653</v>
+        <v>0.005440334351385703</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06838593483539122</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01188209572924952</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.156541438991372</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.02333862862994476</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1554488122294969</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.04758036797630855</v>
+        <v>0.02675441373558793</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1555753880030957</v>
+        <v>0.15486648506169</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01424036268266653</v>
+        <v>0.04988000987443358</v>
       </c>
       <c r="O262" t="n">
-        <v>0.156541438991372</v>
+        <v>0.15430412467003</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01377634231095601</v>
+        <v>0.005214411244135714</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06826920556884786</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01201264840139204</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1573360655852368</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.02285163088177122</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1562378924946212</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.04708016803246584</v>
+        <v>0.02622896083809456</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1563651107848373</v>
+        <v>0.1556526093513433</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01377634231095601</v>
+        <v>0.04926215178653909</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1573360655852368</v>
+        <v>0.1550873943384057</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01361079480193744</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06815247630230449</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01224510354065213</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1581306921791017</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.02307181532801558</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1570269727597456</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.04748010198313185</v>
+        <v>0.0262149057497198</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1571548335665789</v>
+        <v>0.1564387336409965</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01361079480193744</v>
+        <v>0.04975614405381623</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1581306921791017</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1558706640067815</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06813931840756764</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005697576959336523</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06813958693603166</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006391430729381871</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06813985546449568</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007081521170242293</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0681401239929597</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007767808141934021</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06814039252142372</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008450251504563473</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06814066104988772</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009128811118206952</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06814092957835174</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009803446842970027</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06814119810681576</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01047411853887028</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06814146663527978</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01114078606601346</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06814173516374379</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01180340928447585</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06814200369220781</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01246194805436234</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06814227222067183</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01311636223569191</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06814254074913585</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.0137666116885696</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06814280927759986</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01441265627307171</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06814307780606388</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01505445584930237</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0681433463345279</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01569197027728204</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06814361486299192</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01632515941711503</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06814388339145594</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01695398312887764</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06814415191991995</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01757840127267325</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06814442044838398</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01819837370852381</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06814468897684799</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01881386029653289</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06814495750531201</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01942482089677679</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06814522603377601</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0200312153693581</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06814549456224005</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02063300357430035</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06814576309070405</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02123030927639477</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06814603161916807</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02182407576384832</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06814630014763208</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02241442680145134</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06814656867609611</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02300132224922875</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06814683720456012</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02358472196728262</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06814710573302414</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02416458581568925</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06814737426148816</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02474087365454991</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06814764278995218</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0253135453438908</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0681479113184162</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02588256074381334</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06814817984688021</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02644787971439383</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06814844837534423</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02700946211573292</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06814871690380825</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02756726780785806</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06814898543227227</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02812125665087005</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06814925396073628</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02867138850484521</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0681495224892003</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0292176232298835</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06814979101766432</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02975992068601369</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06815005954612834</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03029824073333594</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06815032807459236</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03083254323192655</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06815059660305636</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03136278804188479</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.0681508651315204</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03188893502324082</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0681511336599844</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03241094403609411</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06815140218844842</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03292877494052097</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06815167071691243</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03344238759661992</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06815193924537646</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03395174186442261</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06815220777384047</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03445679760402774</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06815247630230449</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03445679760402774</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06813931840756764</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03501091116567497</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06825658473103906</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03556017974396172</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06837385105451045</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03610448766880411</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06849111737798186</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03664371927011811</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06860838370145327</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03717775887781966</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06872565002492466</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03770649082182487</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06884291634839608</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03822979943204967</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06896018267186747</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03874756903841013</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06907744899533888</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03925968397082225</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06919471531881029</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03976602855920194</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06931198164228169</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04026648713346537</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0694292479657531</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04076094402352845</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06954651428922451</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04124928355930715</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0696637806126959</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04173139007071759</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06978104693616731</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04220714788767574</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06989831325963873</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04267644134009753</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.07001557958311012</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04313915475789908</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.07013284590658153</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04359517247099629</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.07025011223005292</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04404437880930528</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.07036737855352433</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04448665810274201</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.07048464487699575</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04492189468122243</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.07060191120046715</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04534997287466266</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.07071917752393855</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04577077701297863</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.07083644384740996</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04618419142608636</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.07095371017088137</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04659057276341151</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.07107097649435277</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04699263927192786</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.07118824281782417</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04739074760106107</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.07130550914129558</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04778478208072715</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.07142277546476698</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04817462704084204</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.07154004178823839</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04856016681132184</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0716573081117098</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04894128572208255</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0717745744351812</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04931786810304009</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0718918407586526</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04968979828411058</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.072009107082124</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05005696059520993</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.07212637340559541</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05041923936625424</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.07224363972906682</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05077651892715948</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.07236090605253823</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05112868360784162</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.07247817237600962</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05147561773821673</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.07259543869948104</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05181720564820078</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.07271270502295245</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05215333166770977</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.07282997134642384</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05248388012665976</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.07294723766989525</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05280873535496673</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.07306450399336666</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05312778168254664</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.07318177031683806</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0534409034393156</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.07329903664030947</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05374798495518951</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.07341630296378086</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05404891056008447</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.07353356928725227</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05434356458391645</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.07365083561072368</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05463183135660142</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.07376810193419508</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05491359520805547</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.07388536825766649</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05027573013870365</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.07388536825766649</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05501797319019827</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07607453903744162</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05511482292192506</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07826370981721673</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05520442617863862</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.08045288059699185</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05528706473574166</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.08264205137676699</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05536302036863694</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08483122215654211</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05543257485272717</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08702039293631723</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05549600996341514</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08920956371609234</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05555360747610355</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.09139873449586747</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05560564916619519</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.09358790527564259</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05565241680909275</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0957770760554177</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05569419218019898</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09796624683519284</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05573125705491667</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.100155417614968</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05576389320864851</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1023445883947431</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05579238241679725</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1045337591745182</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05581700645476567</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1067229299542933</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05583804709795646</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1089121007340685</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05585578612177239</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1111012715138436</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05587050530161619</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1132904422936187</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05588248641289062</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1154796130733938</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05589201123099841</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1176687838531689</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0558993615313423</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.119857954632944</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05590481908932503</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1220471254127192</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05590866568034936</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1242362961924943</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.055911183079818</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1264254669722694</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05591265306313371</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1286146377520445</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05591335740569923</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1308038085318197</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05591357788291731</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1329929793115948</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05590935737280876</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1351821500913699</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05582853873954897</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.137371320871145</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05565102272986573</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1395604916509201</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05538461912586647</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1417496624306953</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05503713770965858</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1439388332104704</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.0546163882633495</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1461280039902455</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.0541301805690466</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1483171747700206</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05358632440885733</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05299262956488904</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1526955163295709</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05235690581924919</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.154884687109346</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05168696295404515</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1570738578891211</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05099061075138435</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1592630286688962</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.0502756589933742</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1614521994486714</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.0495499174621221</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1636413702284465</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04882119593973544</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1658305410082216</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04809730420832169</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1680197117879967</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04738605204998815</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1702088825677719</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04669524924684233</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.172398053347547</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.0460327055809916</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1745872241273221</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04540623083454333</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1767763949070972</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04482363478960497</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1789655656868724</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04429272722828395</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1811547364666475</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04382131793268762</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1833439072464226</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0434172166849234</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1855330780261977</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04305476209667335</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1877222488059729</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04270174112149798</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1899114195857479</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04235784074921041</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1921005903655231</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04202275047830545</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1942897611452982</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04169615980727788</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1964789319250733</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04137775823462249</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1986681027048485</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04106723525883409</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2008572734846236</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04076428037840747</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2030464442643987</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0404685830918374</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2052356150441738</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04017983289761871</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.207424785823949</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03989771929424621</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2096139566037241</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03962193178021464</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2118031273834992</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03935215985401883</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2139922981632743</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03908809301415357</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2161814689430494</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03882942075911365</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2183706397228246</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03857583258739387</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2205598105025997</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03832701799748903</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2227489812823748</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03808266648789392</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2249381520621499</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03784246755710331</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2271273228419251</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03760611070361204</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2293164936217002</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03737328542591489</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2315056644014753</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03714368122250664</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2336948351812504</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03691698759188208</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2358840059610255</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03669289403253605</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2380731767408006</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03647109004296331</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2402623475205758</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03625147000971289</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2424515183003509</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03603442018870551</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.244640689080126</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03582004861043449</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2468298598599011</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03560844596668818</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2490190306396763</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03539970294925483</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2512082014194514</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.0351939102499228</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2533973721992265</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03499115856048034</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2555865429790016</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03479153857271577</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2577757137587768</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03459514097841739</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2599648845385519</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03440205646937348</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.262154055318327</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03421237573737235</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2643432260981021</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03402618947420233</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2665323968778772</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03384358837165168</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2687215676576524</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0336646631215087</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2709107384374275</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03348950441556171</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2730999092172026</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03331820294559901</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2752890799969777</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.0331508494034089</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2774782507767529</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03298753448077966</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.279667421556528</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03282834886949958</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2818565923363031</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03267338326135701</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2840457631160782</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03252272834814018</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2862349338958534</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03237647482163745</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2884241046756285</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03223471337363709</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2906132754554036</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1128.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1128.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08727573013870366</v>
+        <v>0.06274475832281941</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03727573013870365</v>
+        <v>0.01274475832281941</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02392286825766649</v>
+        <v>0.0121287616705498</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001036440247447756</v>
+        <v>0.001755644145826164</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007463168510875403</v>
+        <v>0.001643170704461308</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.0009782337755312592</v>
+        <v>0.002619322484532546</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007946265938648324</v>
+        <v>0.001657542505111811</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003534353251791439</v>
+        <v>0.008955190816728159</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007861242896532488</v>
+        <v>0.00165261500546404</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006000000000000005</v>
+        <v>0.01532517704986813</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007541509433962271</v>
+        <v>0.00165261500546404</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002082590698265094</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001492633702175081</v>
+        <v>0.004042920556849934</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002418074745749198</v>
+        <v>0.00528023032594372</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001589253187729665</v>
+        <v>0.003315085010223623</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.00712497209890442</v>
+        <v>0.01734312607884622</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001572248579306498</v>
+        <v>0.00330523001092808</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01029308143392599</v>
+        <v>0.02862279429019438</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001566539336751573</v>
+        <v>0.00330523001092808</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00313820822098855</v>
+        <v>0.006011404239829293</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002238950553262621</v>
+        <v>0.004929512113383923</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002664666666666664</v>
+        <v>0.004996249999999995</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01087503855702551</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002358372868959746</v>
+        <v>0.004669392523364483</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0166018758371157</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002349809005127359</v>
+        <v>0.004669392523364483</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004203049684154657</v>
+        <v>0.007593482204073104</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002985267404350161</v>
+        <v>0.006572682817845231</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00432151490544426</v>
+        <v>0.009043797287306241</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00317850637545933</v>
+        <v>0.006630170020447246</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01299999999999998</v>
+        <v>0.02714820408953891</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002830119825708057</v>
+        <v>0.00661046002185616</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02090151561490744</v>
+        <v>0.04378724805317025</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003133078673503146</v>
+        <v>0.00661046002185616</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01617168222739975</v>
+        <v>0.004042920556849934</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005276871956299951</v>
+        <v>0.007988565338597237</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003731584255437701</v>
+        <v>0.00821585352230654</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.005556645820758231</v>
+        <v>0.01031111659456106</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003973132969324162</v>
+        <v>0.008287712525559057</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01640167604187648</v>
+        <v>0.02978638869826178</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003930621448266244</v>
+        <v>0.008263075027320198</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02596893367921327</v>
+        <v>0.04943891450682381</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003916348341878932</v>
+        <v>0.008263075027320198</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006359431905960965</v>
+        <v>0.009228440744380645</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004477901106525242</v>
+        <v>0.009859024226767847</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006160814860483449</v>
+        <v>0.01162252835752611</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004767759563188994</v>
+        <v>0.009945255030670869</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01896674841931542</v>
+        <v>0.03273651587713289</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004716745737919492</v>
+        <v>0.009915690032784238</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0303810629419452</v>
+        <v>0.05279625690737927</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004699618010254719</v>
+        <v>0.009915690032784238</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007450486401674235</v>
+        <v>0.01274475832281941</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005224217957612782</v>
+        <v>0.0121287616705498</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007034735508593029</v>
+        <v>0.01292402390482258</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005562386157053827</v>
+        <v>0.01160279753578268</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02152608753168828</v>
+        <v>0.03534944545487551</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005502870027572741</v>
+        <v>0.01156830503824828</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03541483631501513</v>
+        <v>0.05659722475870294</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005482887678630506</v>
+        <v>0.01156830503824828</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008549792311976286</v>
+        <v>0.01238243836404134</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005970534808700322</v>
+        <v>0.01314536563569046</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008079121249060101</v>
+        <v>0.01396159456507166</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006357012750918659</v>
+        <v>0.01326034004089449</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02427612500823703</v>
+        <v>0.03900961661272245</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00628899431722599</v>
+        <v>0.01400817757009345</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04064718671033518</v>
+        <v>0.0625898336796849</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006266157347006292</v>
+        <v>0.01400817757009345</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009657106505403683</v>
+        <v>0.01240436395917111</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006716851659787863</v>
+        <v>0.01478853634015177</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.008894685565857798</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007151639344783492</v>
+        <v>0.01498874999999998</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02641329247820356</v>
+        <v>0.04022727616792413</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007075118606879239</v>
+        <v>0.01487353504917636</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0448550470398173</v>
+        <v>0.06450671403919345</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007049427015382079</v>
+        <v>0.01487353504917636</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01077218585049291</v>
+        <v>0.01540839115439257</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007463168510875403</v>
+        <v>0.01643170704461308</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.00978214194295924</v>
+        <v>0.01632287484897386</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007946265938648325</v>
+        <v>0.01657542505111811</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02863402157082984</v>
+        <v>0.04322197007724507</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007861242896532488</v>
+        <v>0.0165261500546404</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04841535021537341</v>
+        <v>0.06890689842905035</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007832696683757865</v>
+        <v>0.0165261500546404</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01189478721578055</v>
+        <v>0.0153864401711102</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008209485361962943</v>
+        <v>0.01807487774907439</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01024220386433755</v>
+        <v>0.01758640877114512</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008740892532513157</v>
+        <v>0.01823296755622993</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03113474391535781</v>
+        <v>0.04589430224681773</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008647367186185737</v>
+        <v>0.01817876506010444</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05210502914891557</v>
+        <v>0.07256256505766379</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008615966352133653</v>
+        <v>0.01817876506010444</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01302466746980312</v>
+        <v>0.01633043123072851</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008955802213050484</v>
+        <v>0.01971804845353569</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01097558481396585</v>
+        <v>0.01885680752706019</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009535519126377989</v>
+        <v>0.01989051006134174</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03271189114102938</v>
+        <v>0.04850030738845665</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009433491475838985</v>
+        <v>0.01983138006556848</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05590101675235587</v>
+        <v>0.07719873150551704</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009399236020509438</v>
+        <v>0.01983138006556848</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01416158348109713</v>
+        <v>0.018232284554652</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009702119064138023</v>
+        <v>0.021361219157997</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01178299827581728</v>
+        <v>0.01991903869139611</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01033014572024282</v>
+        <v>0.02154805256645355</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03436189487708646</v>
+        <v>0.05189602021397632</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01021961576549223</v>
+        <v>0.02148399507103252</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05808024593760619</v>
+        <v>0.08234041535309317</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01018250568888522</v>
+        <v>0.02148399507103252</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01530529211819916</v>
+        <v>0.01708392036428517</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01044843591522556</v>
+        <v>0.02300438986245831</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01236515773386495</v>
+        <v>0.02085806983882986</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01112477231410765</v>
+        <v>0.02320559507156536</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03618118675277107</v>
+        <v>0.05413747543519135</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01100574005514548</v>
+        <v>0.02313661007649656</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0625898336796849</v>
+        <v>0.08651263418087551</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01123861478965411</v>
+        <v>0.02313661007649656</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01645555024964572</v>
+        <v>0.01787725888103252</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0111947527663131</v>
+        <v>0.02464756056691962</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01312277667208199</v>
+        <v>0.02215886854403849</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01191939890797249</v>
+        <v>0.02486313757667717</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03900961661272245</v>
+        <v>0.05728070776391617</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01213207575482817</v>
+        <v>0.0247892250819606</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06307281494759898</v>
+        <v>0.09194040556934713</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0117490450256368</v>
+        <v>0.0247892250819606</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01761211474397335</v>
+        <v>0.01960422032629854</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01194106961740064</v>
+        <v>0.02629073127138093</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01395656857444152</v>
+        <v>0.023306402381699</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01271402550183732</v>
+        <v>0.02652068008178898</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03913605995353051</v>
+        <v>0.05938175191196537</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01257798863445198</v>
+        <v>0.02644184008742464</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0656886224574359</v>
+        <v>0.09594874709899132</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01253231469401258</v>
+        <v>0.02644184008742464</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01877474246971857</v>
+        <v>0.02125672492148773</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01268738646848819</v>
+        <v>0.02793390197584223</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0142672469249167</v>
+        <v>0.02418563892648841</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01350865209570215</v>
+        <v>0.02817822258690079</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04059306515297575</v>
+        <v>0.06189664259115352</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01336411292410523</v>
+        <v>0.02809445509288868</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06818637044902454</v>
+        <v>0.09946267635029116</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01331558436238837</v>
+        <v>0.02809445509288868</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01994319029541793</v>
+        <v>0.0218266928880046</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01343370331957573</v>
+        <v>0.02957707268030354</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.02518154575308371</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01468364523438162</v>
+        <v>0.02983576509201261</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04254846534384735</v>
+        <v>0.06448141451329503</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01415023721375848</v>
+        <v>0.02974707009835272</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07076387790521016</v>
+        <v>0.10270721090373</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01409885403076416</v>
+        <v>0.02974707009835272</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02111721508960795</v>
+        <v>0.02230604444725362</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01418002017066326</v>
+        <v>0.03122024338476485</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01542606874872977</v>
+        <v>0.02567909043616196</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01509790528343181</v>
+        <v>0.03149330759712442</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04360035084201858</v>
+        <v>0.06639210239020454</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01493636150341172</v>
+        <v>0.03139968510381676</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0733189638088379</v>
+        <v>0.1063073683397908</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01488212369913994</v>
+        <v>0.03139968510381676</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02229657372082521</v>
+        <v>0.02068669982063931</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01492633702175081</v>
+        <v>0.03286341408922616</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01620060613082977</v>
+        <v>0.02646324055040013</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01589253187729665</v>
+        <v>0.03315085010223623</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04524681196336278</v>
+        <v>0.06778474093369657</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01572248579306498</v>
+        <v>0.03305230010928079</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07604944714275319</v>
+        <v>0.108588166238957</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01566539336751573</v>
+        <v>0.03305230010928079</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02348102305760617</v>
+        <v>0.02199519245311794</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01567265387283835</v>
+        <v>0.03450658479368746</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01678123151136852</v>
+        <v>0.02721896367047527</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01668715847116148</v>
+        <v>0.03480839260734804</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04648593902375334</v>
+        <v>0.06941536485558558</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01650861008271822</v>
+        <v>0.03470491511474484</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07825314688980134</v>
+        <v>0.1103746221817116</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01644866303589152</v>
+        <v>0.03470491511474484</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.02229359625701323</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01617168222739975</v>
+        <v>0.03614975549814878</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01716662994554251</v>
+        <v>0.02743655134887954</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01748178506502631</v>
+        <v>0.03646593511245985</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04831582233906348</v>
+        <v>0.06996844461055504</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01729473437237147</v>
+        <v>0.03635753012020888</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07972788203282738</v>
+        <v>0.1128041920149593</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01723193270426731</v>
+        <v>0.03635753012020888</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02593576088195344</v>
+        <v>0.02158154306397209</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01716528757501343</v>
+        <v>0.03779292620261008</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01795548648854811</v>
+        <v>0.02800688108732285</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01827641165889115</v>
+        <v>0.03812347761757166</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04933455222516661</v>
+        <v>0.07078747617981468</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01808085866202472</v>
+        <v>0.03801014512567292</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0817714715546769</v>
+        <v>0.1132787523429267</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01801520237264309</v>
+        <v>0.03801014512567292</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02726003324450393</v>
+        <v>0.02185701639448838</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01791160442610097</v>
+        <v>0.03943609690707139</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01864648619558182</v>
+        <v>0.02826566852651741</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01907103825275598</v>
+        <v>0.03978102012268347</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05064021899793605</v>
+        <v>0.07167420389942794</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01886698295167797</v>
+        <v>0.03966276013113695</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0849817344381949</v>
+        <v>0.114801482051879</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01879847204101888</v>
+        <v>0.03966276013113695</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0286236771061736</v>
+        <v>0.02311799976905597</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01865792127718851</v>
+        <v>0.0410792676115327</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01903831412184004</v>
+        <v>0.02871040780414666</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01986566484662081</v>
+        <v>0.04143856262779529</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05273091297324514</v>
+        <v>0.07242234861856595</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01965310724133122</v>
+        <v>0.041315375136601</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0866564896662268</v>
+        <v>0.1168623064207562</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01958174170939466</v>
+        <v>0.041315375136601</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03000236048261457</v>
+        <v>0.0243624767081688</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01940423812827605</v>
+        <v>0.042722438315994</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01972965532251925</v>
+        <v>0.02873859305789402</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02066029144048564</v>
+        <v>0.0430961051329071</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05370472446696714</v>
+        <v>0.07362563118639989</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02043923153098447</v>
+        <v>0.04296799014206504</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0886935562216179</v>
+        <v>0.1174511507284985</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02036501137777045</v>
+        <v>0.04296799014206504</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03137175138947888</v>
+        <v>0.0245884307323207</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02015055497936359</v>
+        <v>0.04436560902045531</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02021919485281587</v>
+        <v>0.02904771842544294</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02145491803435048</v>
+        <v>0.04475364763801891</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05545974379497548</v>
+        <v>0.07387777245210098</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02122535582063772</v>
+        <v>0.04462060514752907</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09119075308721331</v>
+        <v>0.1193579402540461</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02114828104614623</v>
+        <v>0.04462060514752907</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03270751784241864</v>
+        <v>0.0247938453620056</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02089687183045113</v>
+        <v>0.04600877972491663</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02100561776792632</v>
+        <v>0.02963527804447688</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02224954462821531</v>
+        <v>0.04641119014313072</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05629406127314346</v>
+        <v>0.07517249326484043</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02201148011029096</v>
+        <v>0.04627322015299312</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09244589924585844</v>
+        <v>0.120472600276339</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02193155071452203</v>
+        <v>0.04627322015299312</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0339853278570859</v>
+        <v>0.02297670411771738</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02164318868153867</v>
+        <v>0.04765195042937793</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02148760912304706</v>
+        <v>0.02969876605267927</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02304417122208014</v>
+        <v>0.04806873264824253</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05780576721734432</v>
+        <v>0.0758035144737893</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02279760439994421</v>
+        <v>0.04792583515845716</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09475681368039857</v>
+        <v>0.1216850560743174</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02271482038289781</v>
+        <v>0.04792583515845716</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03518084944913275</v>
+        <v>0.02313499051994994</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02238950553262621</v>
+        <v>0.04929512113383924</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02206385397337454</v>
+        <v>0.03013567658773353</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02383879781594497</v>
+        <v>0.04972627515335434</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0589929519434515</v>
+        <v>0.07646455692811882</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02358372868959746</v>
+        <v>0.0495784501639212</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09742131537367898</v>
+        <v>0.1215852329269214</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0234980900512736</v>
+        <v>0.0495784501639212</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03626975063421127</v>
+        <v>0.02326668808919714</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02313582238371375</v>
+        <v>0.05093829183830054</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02263303737410519</v>
+        <v>0.03014350378732314</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02463342440980981</v>
+        <v>0.05138381765846615</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06015370576733831</v>
+        <v>0.07674934147700013</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02436985297925071</v>
+        <v>0.05123106516938523</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0987372233085449</v>
+        <v>0.122763056113091</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02428135971964938</v>
+        <v>0.05123106516938523</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03727573013870365</v>
+        <v>0.02436978034595291</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02392286825766649</v>
+        <v>0.05258146254276185</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02329384438043544</v>
+        <v>0.03021974178913152</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02542805100367464</v>
+        <v>0.05304136016357797</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06188611900487806</v>
+        <v>0.07725158896960443</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02515597726890396</v>
+        <v>0.05288368017484928</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1012023564678416</v>
+        <v>0.1229084509117664</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02506462938802517</v>
+        <v>0.05288368017484928</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03809896305391379</v>
+        <v>0.02444225081071109</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02462845608588883</v>
+        <v>0.05422463324722317</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02384496004756173</v>
+        <v>0.0306618847308421</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02622267759753947</v>
+        <v>0.05469890266868978</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06268828197194404</v>
+        <v>0.07746502025510291</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02594210155855721</v>
+        <v>0.05453629518031331</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1023145338344144</v>
+        <v>0.1244113426018879</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02584789905640096</v>
+        <v>0.05453629518031331</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03895735168677736</v>
+        <v>0.02548951664563881</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02537477293697637</v>
+        <v>0.05586780395168447</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02438506943068053</v>
+        <v>0.03076742675013833</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0270173041914043</v>
+        <v>0.05635644517380159</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06355828498440966</v>
+        <v>0.07768335618266672</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02672822584821046</v>
+        <v>0.05618891018577735</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1044715743911084</v>
+        <v>0.1247616564623953</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02663116872477674</v>
+        <v>0.05618891018577735</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03980011407868253</v>
+        <v>0.02548842585615733</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02612108978806391</v>
+        <v>0.05751097465614578</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02491285758498823</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02781193078526914</v>
+        <v>0.0580139876789134</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06489421835814821</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02751435013786371</v>
+        <v>0.0578415251912414</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1060712971207692</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02741443839315253</v>
+        <v>0.0578415251912414</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.040624281012703</v>
+        <v>0.0254738215244335</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02686740663915145</v>
+        <v>0.05915414536060708</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02542700956568134</v>
+        <v>0.0308586845722215</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02860655737913397</v>
+        <v>0.05967153018402521</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06579417240903301</v>
+        <v>0.07801459954601483</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02830047442751695</v>
+        <v>0.05949414019670543</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1078115210062419</v>
+        <v>0.1239722327509313</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02819770806152832</v>
+        <v>0.05949414019670543</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04142688327191232</v>
+        <v>0.02444303037270386</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02761372349023899</v>
+        <v>0.06079731606506839</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02572621042795621</v>
+        <v>0.03064962495808422</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0294011839729988</v>
+        <v>0.06132907268913703</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06685623745293739</v>
+        <v>0.07726625240782328</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0290865987171702</v>
+        <v>0.06114675520216947</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1096900650303717</v>
+        <v>0.1245946611262639</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0289809777299041</v>
+        <v>0.06114675520216947</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04220495163938416</v>
+        <v>0.02439711514382015</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02836004034132653</v>
+        <v>0.06244048676952971</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02610914522700937</v>
+        <v>0.03052002046746043</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03019581056686363</v>
+        <v>0.06298661519424884</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06787850380573471</v>
+        <v>0.07746801556297095</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02987272300682345</v>
+        <v>0.06279937020763351</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1109047481760039</v>
+        <v>0.1247370428691669</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02976424739827989</v>
+        <v>0.06279937020763351</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04295551689819213</v>
+        <v>0.02333713858063415</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02910635719241407</v>
+        <v>0.06408365747399102</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02677449901803719</v>
+        <v>0.03057124999349323</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03099043716072846</v>
+        <v>0.06464415769936065</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06885906178329826</v>
+        <v>0.0775231983050253</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0306588472964767</v>
+        <v>0.06445198521309754</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1117533894259838</v>
+        <v>0.1235046876481773</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03054751706665568</v>
+        <v>0.06445198521309754</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04367560983140988</v>
+        <v>0.02326416342599764</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02985267404350161</v>
+        <v>0.06572682817845232</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02732095685623614</v>
+        <v>0.0306046341978886</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0317850637545933</v>
+        <v>0.06630170020447246</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07039600170150143</v>
+        <v>0.07753510992755375</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03144497158612995</v>
+        <v>0.06610460021856158</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1136338077631568</v>
+        <v>0.1234029051318327</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03133078673503146</v>
+        <v>0.06610460021856158</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.044362261222111</v>
+        <v>0.02517925242276238</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03059899089458916</v>
+        <v>0.06736999888291362</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02764720379680269</v>
+        <v>0.03052149374235238</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03257969034845813</v>
+        <v>0.06795924270958427</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07088741387621747</v>
+        <v>0.07700705972412381</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0322310958757832</v>
+        <v>0.06775721522402564</v>
       </c>
       <c r="N106" t="n">
-        <v>0.114443822170368</v>
+        <v>0.1236370049886704</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03211405640340725</v>
+        <v>0.06775721522402564</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04501250185336911</v>
+        <v>0.0240834683137801</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0313453077456767</v>
+        <v>0.06901316958737493</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02785192489493322</v>
+        <v>0.03032314928859049</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03337431694232296</v>
+        <v>0.06961678521469608</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07173138862331979</v>
+        <v>0.07674235698830292</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03301722016543645</v>
+        <v>0.06940983022948968</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1158812516304628</v>
+        <v>0.1228122968872281</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03289732607178304</v>
+        <v>0.06940983022948968</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04562336250825788</v>
+        <v>0.0249778738419026</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03209162459676423</v>
+        <v>0.07065634029183623</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02833380520582421</v>
+        <v>0.0302109214983088</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0341689435361878</v>
+        <v>0.07127432771980789</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07252601625868166</v>
+        <v>0.07664431101365857</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03380334445508969</v>
+        <v>0.07106244523495371</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1171439151262864</v>
+        <v>0.1222340904960428</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03368059574015882</v>
+        <v>0.07106244523495371</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04619187396985092</v>
+        <v>0.02286353174998164</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03283794144785177</v>
+        <v>0.07229951099629756</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02859152978467208</v>
+        <v>0.0299861310332132</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03496357013005263</v>
+        <v>0.0729318702249197</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07306938709817642</v>
+        <v>0.07601623109375816</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03458946874474295</v>
+        <v>0.07271506024041775</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1188296316406841</v>
+        <v>0.1223076954836521</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03446386540853461</v>
+        <v>0.07271506024041775</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04671506702122181</v>
+        <v>0.02274150478086899</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03358425829893932</v>
+        <v>0.07394268170075886</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02912378368667327</v>
+        <v>0.02985009855500957</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03575819672391746</v>
+        <v>0.07458941273003152</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07425959145767741</v>
+        <v>0.07586142652216923</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03537559303439619</v>
+        <v>0.0743676752458818</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1187362201565011</v>
+        <v>0.1218384215185935</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03524713507691039</v>
+        <v>0.0743676752458818</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04718997244544425</v>
+        <v>0.02261285567741639</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03433057515002685</v>
+        <v>0.07558585240522016</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02952925196702426</v>
+        <v>0.0300041447254038</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03655282331778229</v>
+        <v>0.07624695523514333</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07469471965305796</v>
+        <v>0.07498320659245919</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03616171732404944</v>
+        <v>0.07602029025134584</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1208614996565828</v>
+        <v>0.1205315782694041</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03603040474528618</v>
+        <v>0.07602029025134584</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04761362102559182</v>
+        <v>0.02447864718247562</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03507689200111439</v>
+        <v>0.07722902310968147</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02960661968092144</v>
+        <v>0.0298495902061018</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03734744991164712</v>
+        <v>0.07790449774025514</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07507286200019145</v>
+        <v>0.07508488059819551</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03694784161370269</v>
+        <v>0.07767290525680988</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1208032891237743</v>
+        <v>0.1202924754046217</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03681367441366196</v>
+        <v>0.07767290525680988</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04798304354473815</v>
+        <v>0.02233994203889847</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03582320885220194</v>
+        <v>0.07887219381414277</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02985457188356128</v>
+        <v>0.02958775565880944</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03814207650551196</v>
+        <v>0.07956204024536695</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07599210881495114</v>
+        <v>0.07466975783294572</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03773396590335594</v>
+        <v>0.07932552026227391</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1219594075409212</v>
+        <v>0.1198264225927833</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03759694408203775</v>
+        <v>0.07932552026227391</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04829527078595686</v>
+        <v>0.02419780298953665</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03656952570328947</v>
+        <v>0.08051536451860408</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03017179363014021</v>
+        <v>0.02931996174523264</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03893670309937679</v>
+        <v>0.08121958275047876</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07615055041321039</v>
+        <v>0.07424114759027714</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03852009019300919</v>
+        <v>0.08097813526773795</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1219276738908684</v>
+        <v>0.1185387295024266</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03838021375041354</v>
+        <v>0.08097813526773795</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04856841604769462</v>
+        <v>0.02205329277724198</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03731584255437701</v>
+        <v>0.0821585352230654</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03015696997585467</v>
+        <v>0.02914752912707724</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03973132969324162</v>
+        <v>0.08287712525559057</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07684627711084246</v>
+        <v>0.0739023591637574</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03930621448266244</v>
+        <v>0.08263075027320199</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1234059071564614</v>
+        <v>0.1177347058020889</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03916348341878933</v>
+        <v>0.08263075027320199</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04883721909952647</v>
+        <v>0.02390747414486621</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03806215940546456</v>
+        <v>0.08380170592752671</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03050878597590108</v>
+        <v>0.02887177846604919</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04052595628710645</v>
+        <v>0.08453466776070238</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0767773792237208</v>
+        <v>0.07325670184695385</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04009233877231568</v>
+        <v>0.08428336527866603</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1241919263205454</v>
+        <v>0.1177196611603076</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03994675308716512</v>
+        <v>0.08428336527866603</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04910220787731077</v>
+        <v>0.02176140983526108</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03880847625655209</v>
+        <v>0.08544487663198801</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0307259266854759</v>
+        <v>0.02869403042385432</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04132058288097128</v>
+        <v>0.0861922102658142</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07704194706771866</v>
+        <v>0.07280748493343395</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04087846306196893</v>
+        <v>0.08593598028413008</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1233835503659657</v>
+        <v>0.1164989052456202</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0407300227555409</v>
+        <v>0.08593598028413008</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04936330961812423</v>
+        <v>0.02261616259127837</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03955479310763964</v>
+        <v>0.08708804733644931</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03050707715977559</v>
+        <v>0.02871560566219855</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04211520947483612</v>
+        <v>0.08784975277092601</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07773807095870941</v>
+        <v>0.07245801771676524</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04166458735162218</v>
+        <v>0.0875885952895941</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1247785982755675</v>
+        <v>0.116477747726564</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04151329242391669</v>
+        <v>0.0875885952895941</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04962045155904345</v>
+        <v>0.02247225157486235</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04030110995872718</v>
+        <v>0.08873121804091062</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03085879909152003</v>
+        <v>0.02853782484278777</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04290983606870095</v>
+        <v>0.08950729527603782</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07801923322544491</v>
+        <v>0.07191160949051512</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04245071164127543</v>
+        <v>0.08924121029505815</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1249748890321962</v>
+        <v>0.1152614982716764</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04229656209229247</v>
+        <v>0.08924121029505815</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04987356093714516</v>
+        <v>0.02231345422062432</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04104742680981471</v>
+        <v>0.09037438874537193</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03085838766849103</v>
+        <v>0.02846200862732785</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04370446266256579</v>
+        <v>0.09116483778114963</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07741734814516282</v>
+        <v>0.07166584460512793</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04323683593092868</v>
+        <v>0.09089382530052219</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1251796673593698</v>
+        <v>0.1142462810391253</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04307983176066826</v>
+        <v>0.09089382530052219</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.050122564989506</v>
+        <v>0.02213433104656636</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04179374366090226</v>
+        <v>0.09201755944983325</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03075311887280878</v>
+        <v>0.02797503466595766</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04449908925643062</v>
+        <v>0.09282238028626144</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07791312683192428</v>
+        <v>0.07076526950687068</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04402296022058193</v>
+        <v>0.09254644030598624</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1244748687128357</v>
+        <v>0.1137431223601985</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04386310142904405</v>
+        <v>0.09254644030598624</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05036739095320263</v>
+        <v>0.0219383445959347</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0425400605119898</v>
+        <v>0.09366073015429455</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03074191774156272</v>
+        <v>0.02806200892289989</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04529371585029545</v>
+        <v>0.09447992279137325</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07768751536234333</v>
+        <v>0.07050367241481539</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04480908451023518</v>
+        <v>0.09419905531145027</v>
       </c>
       <c r="N122" t="n">
-        <v>0.124643961415516</v>
+        <v>0.112642055606949</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04464637109741983</v>
+        <v>0.09419905531145027</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05060796606531172</v>
+        <v>0.0217289574119756</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04328637736307734</v>
+        <v>0.09530390085875586</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03062495674737654</v>
+        <v>0.02782717681608322</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04608834244416028</v>
+        <v>0.09613746529648506</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07724247808750315</v>
+        <v>0.06969183540298193</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04559520879988842</v>
+        <v>0.09585167031691431</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1241852361575961</v>
+        <v>0.1118603803141638</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04542964076579562</v>
+        <v>0.09585167031691431</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05084421756290992</v>
+        <v>0.02050963203793531</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04403269421416488</v>
+        <v>0.09694707156321716</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03070240836287384</v>
+        <v>0.02737484121921099</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04688296903802511</v>
+        <v>0.09779500780159688</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07767861413945987</v>
+        <v>0.06914054054539037</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04638133308954168</v>
+        <v>0.09750428532237836</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1237996622940126</v>
+        <v>0.1114153960166305</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0462129104341714</v>
+        <v>0.09750428532237836</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05107607268307396</v>
+        <v>0.02128383101706011</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04477901106525242</v>
+        <v>0.09859024226767847</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03077444506067831</v>
+        <v>0.02710930500598661</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04767759563188995</v>
+        <v>0.09945255030670869</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07779652265026962</v>
+        <v>0.06846056991606053</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04716745737919492</v>
+        <v>0.0991569003278424</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1243882091797022</v>
+        <v>0.1098244022491361</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04699618010254719</v>
+        <v>0.0991569003278424</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05130345866288041</v>
+        <v>0.02105501689259624</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04552532791633996</v>
+        <v>0.1002334129721398</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03074123931341355</v>
+        <v>0.02673487105011346</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04847222222575478</v>
+        <v>0.1011100928118205</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07749680275198853</v>
+        <v>0.06746270558901243</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04795358166884817</v>
+        <v>0.1008095153333064</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1242518461696013</v>
+        <v>0.109104698546468</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04777944977092298</v>
+        <v>0.1008095153333064</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05152630273940603</v>
+        <v>0.02082665220778997</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0462716447674275</v>
+        <v>0.1018765836766011</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03070296359370321</v>
+        <v>0.02665584222529489</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04926684881961961</v>
+        <v>0.1027676353169323</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07748005357667281</v>
+        <v>0.06675772963826596</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04873970595850143</v>
+        <v>0.1024621303387705</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1243915426186465</v>
+        <v>0.1077735844434136</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04856271943929877</v>
+        <v>0.1024621303387705</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05174453214972743</v>
+        <v>0.01960219950588753</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04701796161851504</v>
+        <v>0.1035197543810624</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03035979037417097</v>
+        <v>0.02637652140523432</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05006147541348444</v>
+        <v>0.1044251778220441</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07684687425637854</v>
+        <v>0.06665642413784109</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04952583024815467</v>
+        <v>0.1041147453442345</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1240082678817745</v>
+        <v>0.10594835947476</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04934598910767455</v>
+        <v>0.1041147453442345</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05195807413092128</v>
+        <v>0.0203851213301352</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04776427846960258</v>
+        <v>0.1051629250855237</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0304118921274404</v>
+        <v>0.02590121146363512</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05085610200734927</v>
+        <v>0.1060827203271559</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07699786392316182</v>
+        <v>0.06526957116175777</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05031195453780792</v>
+        <v>0.1057673603496986</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1239029913139217</v>
+        <v>0.1048463231752945</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05012925877605034</v>
+        <v>0.1057673603496986</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05216685592006426</v>
+        <v>0.02017826909467652</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04851059532069012</v>
+        <v>0.106806095789985</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03035944132613522</v>
+        <v>0.02573421527420064</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05165072860121411</v>
+        <v>0.1077402628322677</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07663362170907889</v>
+        <v>0.06500795278403593</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05109807882746117</v>
+        <v>0.1074199753551626</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1239766822700248</v>
+        <v>0.1036847750798044</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05091252844442613</v>
+        <v>0.1074199753551626</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05237080475423306</v>
+        <v>0.01896086907845233</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04925691217177766</v>
+        <v>0.1084492664944463</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03030261044287903</v>
+        <v>0.02547982972544983</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05244535519507894</v>
+        <v>0.1093978053373796</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07625474674618579</v>
+        <v>0.06397237287530566</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05188420311711441</v>
+        <v>0.1090725903606266</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1235303101050204</v>
+        <v>0.1035650049761269</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05169579811280191</v>
+        <v>0.1090725903606266</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0525698478705043</v>
+        <v>0.02072492132799134</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0500032290228652</v>
+        <v>0.1100924371989076</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03034157195029549</v>
+        <v>0.02511849404726001</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05323998178894377</v>
+        <v>0.1110553478424914</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07646183816653879</v>
+        <v>0.06398812985925295</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05267032740676767</v>
+        <v>0.1107252053660907</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1223648441738449</v>
+        <v>0.1024671562841902</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0524790677811777</v>
+        <v>0.1107252053660907</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05276391250595468</v>
+        <v>0.02047538247496493</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05074954587395274</v>
+        <v>0.1117356079033689</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03007649832100824</v>
+        <v>0.0251333655630568</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05403460838280861</v>
+        <v>0.1127128903476032</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07615549510219385</v>
+        <v>0.06305016410427586</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05345645169642092</v>
+        <v>0.1123778203715547</v>
       </c>
       <c r="N133" t="n">
-        <v>0.122681253831435</v>
+        <v>0.1014831109672656</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05326233744955348</v>
+        <v>0.1123778203715547</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05295292589766082</v>
+        <v>0.01921720915104447</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05149586272504028</v>
+        <v>0.1133787786078302</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03030756202764091</v>
+        <v>0.02463060383780716</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05482923497667343</v>
+        <v>0.114370432852715</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07593631668520728</v>
+        <v>0.06177391015249267</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05424257598607416</v>
+        <v>0.1140304353770187</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1226805084327273</v>
+        <v>0.1000376333144691</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05404560711792927</v>
+        <v>0.1140304353770187</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05313681528269945</v>
+        <v>0.01895535798790134</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05224217957612782</v>
+        <v>0.1150219493122916</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03023493554281717</v>
+        <v>0.024316368436478</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05562386157053827</v>
+        <v>0.1160279753578268</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07540490204763514</v>
+        <v>0.06107480254602152</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05502870027572741</v>
+        <v>0.1156830503824828</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1214635773326582</v>
+        <v>0.0979554876149164</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05482887678630506</v>
+        <v>0.1156830503824828</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05331550789814719</v>
+        <v>0.01869478561720691</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05298849642721536</v>
+        <v>0.1166651200167529</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02985879133916064</v>
+        <v>0.02399681892403623</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0564184881644031</v>
+        <v>0.1176855178629386</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07566185032153361</v>
+        <v>0.06066827582698056</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05581482456538066</v>
+        <v>0.1173356653879468</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1217314298861645</v>
+        <v>0.09696143815772357</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05561214645468084</v>
+        <v>0.1173356653879468</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05348893098108073</v>
+        <v>0.01944044867063253</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05373481327830291</v>
+        <v>0.1183082907212142</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02987930188929495</v>
+        <v>0.02387811486544879</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05721311475826794</v>
+        <v>0.1193430603680504</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07550776063895878</v>
+        <v>0.05956976453748797</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05660094885503391</v>
+        <v>0.1189882803934109</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1206850354481827</v>
+        <v>0.09598024923200643</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05639541612305663</v>
+        <v>0.1189882803934109</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05365701176857675</v>
+        <v>0.01719730377984961</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05448113012939045</v>
+        <v>0.1199514614256755</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02989663966584379</v>
+        <v>0.02326641582568258</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05800774135213277</v>
+        <v>0.1210006028731622</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0749432321319668</v>
+        <v>0.05859470321966195</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05738707314468715</v>
+        <v>0.1206408953988749</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1207253633736492</v>
+        <v>0.09493668512688092</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05717868579143243</v>
+        <v>0.1206408953988749</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05381967749771187</v>
+        <v>0.01697030757652948</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05522744698047798</v>
+        <v>0.1215946321301368</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02971097714143076</v>
+        <v>0.02296788136970454</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0588023679459976</v>
+        <v>0.1226581453782741</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07506886393261386</v>
+        <v>0.05835852641562062</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05817319743434041</v>
+        <v>0.1222935104043389</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1199533830175008</v>
+        <v>0.09275551013146299</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05796195545980821</v>
+        <v>0.1222935104043389</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0539768554055628</v>
+        <v>0.01776441669234354</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05597376383156552</v>
+        <v>0.1232378028345981</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02972248678867953</v>
+        <v>0.02298867106248158</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05959699453986243</v>
+        <v>0.1243156878833859</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07448525517295607</v>
+        <v>0.05717666866748222</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05895932172399365</v>
+        <v>0.123946125409803</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1203700637346738</v>
+        <v>0.09206148853486851</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05874522512818399</v>
+        <v>0.123946125409803</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05412847272920618</v>
+        <v>0.01658458775896315</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05672008068265306</v>
+        <v>0.1248809735390594</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02943134108021374</v>
+        <v>0.02253494446898062</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06039162113372726</v>
+        <v>0.1259732303884977</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07419300498504952</v>
+        <v>0.05696456451736487</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0597454460136469</v>
+        <v>0.125598740415267</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1192763748801052</v>
+        <v>0.09147938462621347</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05952849479655977</v>
+        <v>0.125598740415267</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05427445670571868</v>
+        <v>0.0164357774080597</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05746639753374061</v>
+        <v>0.1265241442435207</v>
       </c>
       <c r="J142" t="n">
-        <v>0.029537712488657</v>
+        <v>0.02221286115416861</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0611862477275921</v>
+        <v>0.1276307728936095</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07389271250095042</v>
+        <v>0.05623764850738674</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06053157030330015</v>
+        <v>0.1272513554207311</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1198732858087312</v>
+        <v>0.09103396269461372</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06031176446493557</v>
+        <v>0.1272513554207311</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05441473457217698</v>
+        <v>0.01832294227130454</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05821271438482815</v>
+        <v>0.128167314947982</v>
       </c>
       <c r="J143" t="n">
-        <v>0.029341773486633</v>
+        <v>0.02202858068301243</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06198087432145692</v>
+        <v>0.1292883153987213</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07348497685271488</v>
+        <v>0.05591135517966603</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06131769459295339</v>
+        <v>0.1289039704261951</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1183617658754885</v>
+        <v>0.08994998702918511</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06109503413331135</v>
+        <v>0.1289039704261951</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05454923356565775</v>
+        <v>0.01825103898036905</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05895903123591568</v>
+        <v>0.1298104856524433</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02914369654676535</v>
+        <v>0.02188826262047903</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06277550091532176</v>
+        <v>0.1309458579038331</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07317039717239904</v>
+        <v>0.05590111907632087</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06210381888260665</v>
+        <v>0.1305565854316591</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1186427844353137</v>
+        <v>0.08935222191904368</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06187830380168714</v>
+        <v>0.1305565854316591</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05467788092323761</v>
+        <v>0.0172250241669246</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05970534808700322</v>
+        <v>0.1314536563569046</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0291436541416777</v>
+        <v>0.02209806653153532</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0635701275091866</v>
+        <v>0.1326034004089449</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07294957259205909</v>
+        <v>0.05582237473946941</v>
       </c>
       <c r="M145" t="n">
-        <v>0.0628899431722599</v>
+        <v>0.1322092004371232</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1183173108431432</v>
+        <v>0.08886543165330529</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06266157347006292</v>
+        <v>0.1322092004371232</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05480060388199327</v>
+        <v>0.01722846158178917</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06045166493809076</v>
+        <v>0.1330968270613659</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02914181874399371</v>
+        <v>0.02196415198114821</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06436475410305142</v>
+        <v>0.1342609429140567</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07272310224375109</v>
+        <v>0.05548472997028642</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06367606746191315</v>
+        <v>0.1338618154425872</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1175863144539139</v>
+        <v>0.08830503167897419</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06344484313843872</v>
+        <v>0.1338618154425872</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05491732967900141</v>
+        <v>0.01723899615001302</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06119798178917831</v>
+        <v>0.1347399977658272</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02893836282633701</v>
+        <v>0.02206802986633573</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06515938069691626</v>
+        <v>0.1359184854191685</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07189158525953127</v>
+        <v>0.05550256238547482</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06446219175156639</v>
+        <v>0.1355144304480513</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1171507646225621</v>
+        <v>0.08873364328805067</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06422811280681449</v>
+        <v>0.1355144304480513</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05502798555133866</v>
+        <v>0.01825624678089391</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06194429864026585</v>
+        <v>0.1363831684702886</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02903345886133124</v>
+        <v>0.02208073497831677</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06595400729078109</v>
+        <v>0.1375760279242803</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07205562077145569</v>
+        <v>0.0558419468578201</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06524831604121965</v>
+        <v>0.1371670454535153</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1167116307040245</v>
+        <v>0.08899683456721974</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06501138247519028</v>
+        <v>0.1371670454535153</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05513249873608171</v>
+        <v>0.01827984926294218</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06269061549135339</v>
+        <v>0.1380263391747499</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02882727932160006</v>
+        <v>0.02200172026310793</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06674863388464593</v>
+        <v>0.1392335704293922</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07181580791158054</v>
+        <v>0.05560174926278974</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0660344403308729</v>
+        <v>0.1388196604589794</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1166698820532375</v>
+        <v>0.08949278584553799</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06579465214356607</v>
+        <v>0.1388196604589794</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05523079647030721</v>
+        <v>0.01630943938466815</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06343693234244092</v>
+        <v>0.1396695098792112</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02861999667976708</v>
+        <v>0.02193053311811916</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06754326047851075</v>
+        <v>0.140891112934504</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0708727458119619</v>
+        <v>0.05588083547585121</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06682056462052614</v>
+        <v>0.1404722754644434</v>
       </c>
       <c r="N150" t="n">
-        <v>0.115826488025138</v>
+        <v>0.08901967745206196</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06657792181194186</v>
+        <v>0.1404722754644434</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05532280599109184</v>
+        <v>0.01734465293458216</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06418324919352847</v>
+        <v>0.1413126805836725</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02861178340845598</v>
+        <v>0.02216672094076043</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06833788707237559</v>
+        <v>0.1425486554396158</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07092703360465599</v>
+        <v>0.05587807137247194</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06760668891017939</v>
+        <v>0.1421248904699074</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1158824179746621</v>
+        <v>0.08967568971584838</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06736119148031765</v>
+        <v>0.1421248904699074</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05540845453551224</v>
+        <v>0.01738512570119453</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06492956604461601</v>
+        <v>0.1429558512881338</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02830281198029039</v>
+        <v>0.02190983112844168</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06913251366624043</v>
+        <v>0.1442061979447276</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07057927042171891</v>
+        <v>0.05589232282811948</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06839281319983263</v>
+        <v>0.1437775054753715</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1146386412567469</v>
+        <v>0.08945900296595366</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06814446114869342</v>
+        <v>0.1437775054753715</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05548766934064511</v>
+        <v>0.0184304934730156</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06567588289570354</v>
+        <v>0.1445990219925951</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02829325486789393</v>
+        <v>0.0219594110785729</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06992714026010526</v>
+        <v>0.1458637404498394</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07023005539520677</v>
+        <v>0.05632245571826125</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06917893748948589</v>
+        <v>0.1454301204808355</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1142961272263285</v>
+        <v>0.08916779753143461</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06892773081706922</v>
+        <v>0.1454301204808355</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05556037764356712</v>
+        <v>0.01648039203855569</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06642219974679109</v>
+        <v>0.1462421926970564</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02838328454389027</v>
+        <v>0.02221500818856402</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07072176685397009</v>
+        <v>0.1475212829549512</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06947998765717578</v>
+        <v>0.05576733591836469</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06996506177913914</v>
+        <v>0.1470827354862995</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1138558452383439</v>
+        <v>0.08980025374134765</v>
       </c>
       <c r="O154" t="n">
-        <v>0.069711000485445</v>
+        <v>0.1470827354862995</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0556265066813549</v>
+        <v>0.01853445718632514</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06716851659787863</v>
+        <v>0.1478853634015177</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02817307348090306</v>
+        <v>0.02237616985582505</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07151639344783492</v>
+        <v>0.149178825460063</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06962966633968201</v>
+        <v>0.0562258293038973</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07075118606879238</v>
+        <v>0.1487353504917636</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1137187646477293</v>
+        <v>0.08995455192474944</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07049427015382079</v>
+        <v>0.1487353504917636</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05568598369108514</v>
+        <v>0.01859232470483427</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06791483344896616</v>
+        <v>0.149528534105979</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02796279415155592</v>
+        <v>0.02224244347776591</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07231102004169976</v>
+        <v>0.1508363679651748</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06917969057478168</v>
+        <v>0.05679680175032659</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07153731035844563</v>
+        <v>0.1503879654972276</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1134858548094215</v>
+        <v>0.09112887241069667</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07127753982219658</v>
+        <v>0.1503879654972276</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05573873590983451</v>
+        <v>0.01665363170477028</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06866115030005371</v>
+        <v>0.1511717048104403</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02775261902847251</v>
+        <v>0.02221337645179662</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07310564663556458</v>
+        <v>0.1524939104702867</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06873065949453086</v>
+        <v>0.05687911913311997</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07232343464809887</v>
+        <v>0.1520405805026917</v>
       </c>
       <c r="N157" t="n">
-        <v>0.112758085078357</v>
+        <v>0.09042139552824591</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07206080949057236</v>
+        <v>0.1520405805026917</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05578469057467966</v>
+        <v>0.01774897720323373</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06940746715114125</v>
+        <v>0.1528148755149016</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0276392142809037</v>
+        <v>0.02258876130860953</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07390027322942942</v>
+        <v>0.1541514529753985</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06836941735297605</v>
+        <v>0.05648692920924672</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07310955893775213</v>
+        <v>0.1536931955081557</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1130285238538247</v>
+        <v>0.09075482095590048</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07284407915894815</v>
+        <v>0.1536931955081557</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05582377492269727</v>
+        <v>0.0179010501411332</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07015378400222878</v>
+        <v>0.1544580462193629</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02771690210770787</v>
+        <v>0.02271102152597629</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07469489982329425</v>
+        <v>0.1558089954805103</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06817394871911872</v>
+        <v>0.05695320624655834</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07389568322740539</v>
+        <v>0.1553458105136198</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1115845472585838</v>
+        <v>0.09184250216983331</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07362734882732393</v>
+        <v>0.1553458105136198</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.055855916190964</v>
+        <v>0.01809885585265134</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07090010085331633</v>
+        <v>0.1561012169238243</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02758593762769251</v>
+        <v>0.02260205959740082</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07548952641715907</v>
+        <v>0.1574665379856221</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06734568288547488</v>
+        <v>0.05758162114046436</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07468180751705863</v>
+        <v>0.1569984255190838</v>
       </c>
       <c r="N160" t="n">
-        <v>0.111826266053782</v>
+        <v>0.09279032901857659</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07441061849569973</v>
+        <v>0.1569984255190838</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05588104161655652</v>
+        <v>0.01933139967197079</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07164641770440387</v>
+        <v>0.1577443876282855</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02754667501484571</v>
+        <v>0.02294821254308518</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07628415301102391</v>
+        <v>0.1591240804907339</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06678643591908423</v>
+        <v>0.05873793740863484</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07546793180671188</v>
+        <v>0.1586510405245478</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1110539953058989</v>
+        <v>0.09364337002828149</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0751938881640755</v>
+        <v>0.1586510405245478</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05589907843655149</v>
+        <v>0.01858768693327419</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07239273455549142</v>
+        <v>0.1593875583327469</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02719946844315552</v>
+        <v>0.02343581738323154</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07707877960488874</v>
+        <v>0.1607816229958457</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06639802388698682</v>
+        <v>0.0592879185687398</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07625405609636512</v>
+        <v>0.1603036555300119</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1106680500814139</v>
+        <v>0.09514669372509926</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07597715783245129</v>
+        <v>0.1603036555300119</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05590995388802558</v>
+        <v>0.01885672297074418</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07313905140657895</v>
+        <v>0.1610307290372082</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02694467208661006</v>
+        <v>0.02355121113804196</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07787340619875358</v>
+        <v>0.1624391655009575</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06608226285622235</v>
+        <v>0.05999732813844927</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07704018038601838</v>
+        <v>0.1619562705354759</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1100687454468068</v>
+        <v>0.09574536863518129</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07676042750082708</v>
+        <v>0.1619562705354759</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05591359520805547</v>
+        <v>0.02012751311856342</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07388536825766649</v>
+        <v>0.1626738997416695</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02678264011919734</v>
+        <v>0.02398073082771851</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0786680327926184</v>
+        <v>0.1640967080060693</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0652409688938308</v>
+        <v>0.06043192963543323</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07782630467567163</v>
+        <v>0.1636088855409399</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1091563964685571</v>
+        <v>0.09748446328467864</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07754369716920287</v>
+        <v>0.1636088855409399</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05591359520805547</v>
+        <v>0.01938906271091453</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07388536825766649</v>
+        <v>0.1643170704461308</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02691372671490552</v>
+        <v>0.02431071347246332</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07946265938648324</v>
+        <v>0.1657542505111811</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06467595806685189</v>
+        <v>0.06155748657736165</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07861242896532487</v>
+        <v>0.165261500546404</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1086313182131447</v>
+        <v>0.09890904619974267</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07832696683757866</v>
+        <v>0.165261500546404</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05498418505406943</v>
+        <v>0.01863037708198018</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07388509972920247</v>
+        <v>0.1659602411505921</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02663828604772264</v>
+        <v>0.02452749609247848</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08025728598034808</v>
+        <v>0.167411793016293</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06408904644232558</v>
+        <v>0.0622397624819046</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07939855325497812</v>
+        <v>0.166914115551868</v>
       </c>
       <c r="N166" t="n">
-        <v>0.108493825747049</v>
+        <v>0.09966418590652465</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07911023650595443</v>
+        <v>0.166914115551868</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05406506834258551</v>
+        <v>0.01984049268489311</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07388483120073847</v>
+        <v>0.1676034118550534</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02655667229163679</v>
+        <v>0.02481741570796607</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0810519125742129</v>
+        <v>0.1690693355214048</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06418205008729166</v>
+        <v>0.06344452086673208</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08018467754463136</v>
+        <v>0.1685667305573321</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1081442341367495</v>
+        <v>0.1007949509311758</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07989350617433023</v>
+        <v>0.1685667305573321</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05315670670349808</v>
+        <v>0.01903032861346499</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07388456267227443</v>
+        <v>0.1692465825595147</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02606923962063608</v>
+        <v>0.0251677289373312</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08184653916807774</v>
+        <v>0.1707268780265166</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06295678506879002</v>
+        <v>0.06405164165273422</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08097080183428462</v>
+        <v>0.1702193455627961</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1070828584487261</v>
+        <v>0.1027690591721411</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08067677584270601</v>
+        <v>0.1702193455627961</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05225956176681984</v>
+        <v>0.02021542538646242</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07388429414381043</v>
+        <v>0.170889753263976</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02617634220870853</v>
+        <v>0.02549858097714559</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08264116576194257</v>
+        <v>0.1723844205316284</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06231506745386045</v>
+        <v>0.0646293243749643</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08175692612393787</v>
+        <v>0.1718719605682602</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1074100137494583</v>
+        <v>0.1029959348669978</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0814600455110818</v>
+        <v>0.1718719605682602</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05137409516244469</v>
+        <v>0.02139613178777668</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0738840256153464</v>
+        <v>0.1725329239684373</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02597833422984228</v>
+        <v>0.02562366742617639</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08343579235580741</v>
+        <v>0.1740419630367402</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06165871330954287</v>
+        <v>0.0646928243322154</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08254305041359111</v>
+        <v>0.1735245755737242</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1067260151054257</v>
+        <v>0.1037000547139832</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0822433151794576</v>
+        <v>0.1735245755737242</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05050076852030627</v>
+        <v>0.01957279660129906</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0738837570868824</v>
+        <v>0.1741760946728986</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02577556985802537</v>
+        <v>0.02564342171526546</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08423041894967223</v>
+        <v>0.175699505541852</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06148953870287707</v>
+        <v>0.06544322760875151</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08332917470324436</v>
+        <v>0.1751771905791882</v>
       </c>
       <c r="N171" t="n">
-        <v>0.105031177583108</v>
+        <v>0.1052831613047799</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08302658484783337</v>
+        <v>0.1751771905791882</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04964004347030106</v>
+        <v>0.01974576861092087</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07388348855841836</v>
+        <v>0.17581926537736</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02526840326724594</v>
+        <v>0.02615827727525454</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08502504554353707</v>
+        <v>0.1773570480469638</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06050935970090293</v>
+        <v>0.06628162028883647</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08411529899289762</v>
+        <v>0.1768298055846522</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1054258162489848</v>
+        <v>0.1056469972310702</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08380985451620916</v>
+        <v>0.1768298055846522</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04879238164243767</v>
+        <v>0.02091539660053338</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07388322002995436</v>
+        <v>0.1774624360818212</v>
       </c>
       <c r="J173" t="n">
-        <v>0.025257188631492</v>
+        <v>0.02636866753698547</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08581967213740191</v>
+        <v>0.1790145905520756</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05951999237066033</v>
+        <v>0.06610908845673422</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08490142328255086</v>
+        <v>0.1784824205901163</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1044102461695358</v>
+        <v>0.1063933050845362</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08459312418458494</v>
+        <v>0.1784824205901163</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04795824466661194</v>
+        <v>0.02108202935402789</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07388295150149034</v>
+        <v>0.1791056067862826</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02514228012475168</v>
+        <v>0.02637502593130003</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08661429873126673</v>
+        <v>0.1806721330571875</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05882325277918909</v>
+        <v>0.06692671819670862</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08568754757220412</v>
+        <v>0.1801350355955803</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1037847824112404</v>
+        <v>0.1075238274568605</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08537639385296074</v>
+        <v>0.1801350355955803</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04713809417275758</v>
+        <v>0.02224601565529571</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07388268297302632</v>
+        <v>0.1807487774907439</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02482403192101304</v>
+        <v>0.02677778588904006</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08740892532513157</v>
+        <v>0.1823296755622993</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0583209569935291</v>
+        <v>0.0677355955930237</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08647367186185737</v>
+        <v>0.1817876506010444</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1035497400405784</v>
+        <v>0.1081403069397253</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08615966352133653</v>
+        <v>0.1817876506010444</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04633239179077346</v>
+        <v>0.02140770428822809</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0738824144445623</v>
+        <v>0.1823919481952052</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02460279819426418</v>
+        <v>0.02687738084104734</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0882035519189964</v>
+        <v>0.1839872180674111</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05801492108072012</v>
+        <v>0.06823680672994328</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08725979615151061</v>
+        <v>0.1834402656065084</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1031054341240294</v>
+        <v>0.1095444861248129</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0869429331897123</v>
+        <v>0.1834402656065084</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04554159915066339</v>
+        <v>0.02056744403671637</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07388214591609828</v>
+        <v>0.1840351188996665</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0244789331184932</v>
+        <v>0.02687424421816369</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08899817851286124</v>
+        <v>0.1856447605725229</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05690696110780208</v>
+        <v>0.06863143769173125</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08804592044116386</v>
+        <v>0.1850928806119725</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1017521797280731</v>
+        <v>0.1092381076038058</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0877262028580881</v>
+        <v>0.1850928806119725</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04476617788232565</v>
+        <v>0.02172558368465181</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07388187738763427</v>
+        <v>0.1856782896041278</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02415279086768812</v>
+        <v>0.02706880945123087</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08979280510672606</v>
+        <v>0.1873023030776347</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05639889314181482</v>
+        <v>0.06902057456265162</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08883204473081711</v>
+        <v>0.1867454956174365</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1017902919191889</v>
+        <v>0.1103229139683862</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08850947252646388</v>
+        <v>0.1867454956174365</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04400658961569386</v>
+        <v>0.02188706800449397</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07388160885917025</v>
+        <v>0.1873214603085891</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02372472561583708</v>
+        <v>0.02756155931302323</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0905874317005909</v>
+        <v>0.1889598455827465</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05539253324979818</v>
+        <v>0.06930774078517207</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08961816902047036</v>
+        <v>0.1883981106229005</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1011200857638567</v>
+        <v>0.1117045584829845</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08929274219483967</v>
+        <v>0.1883981106229005</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04326329598066971</v>
+        <v>0.02205772647152564</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07388134033070623</v>
+        <v>0.1889646310130504</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02349509153692811</v>
+        <v>0.02766215093500039</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09138205829445574</v>
+        <v>0.1906173880878583</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05518969749879202</v>
+        <v>0.06962127769574869</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0904042933101236</v>
+        <v>0.1900507256283646</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09924187632855602</v>
+        <v>0.1122285140255491</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09007601186321545</v>
+        <v>0.1900507256283646</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04253675860725153</v>
+        <v>0.02223183609487496</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07388107180224221</v>
+        <v>0.1906078017175117</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02336424280494934</v>
+        <v>0.02797241690205753</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09217668488832056</v>
+        <v>0.1922749305929701</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05459220195583614</v>
+        <v>0.07065445591986583</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09119041759977685</v>
+        <v>0.1917033406338286</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09895597867976635</v>
+        <v>0.1134839835037658</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09085928153159124</v>
+        <v>0.1917033406338286</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04182743912534029</v>
+        <v>0.02240340538244953</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0738808032737782</v>
+        <v>0.192250972421973</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02333253359388882</v>
+        <v>0.02808491163678666</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0929713114821854</v>
+        <v>0.1939324730980819</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05320186268797047</v>
+        <v>0.07078861844542705</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09197654188943009</v>
+        <v>0.1933559556392927</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09826270788396746</v>
+        <v>0.1137410322659905</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09164255119996703</v>
+        <v>0.1933559556392927</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04113579916486965</v>
+        <v>0.02256644284215699</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07388053474531418</v>
+        <v>0.1938941431264343</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02300031807773464</v>
+        <v>0.02819218956177992</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09376593807605023</v>
+        <v>0.1955900156031938</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05292049576223484</v>
+        <v>0.07160510826033584</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09276266617908335</v>
+        <v>0.1950085706447567</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09836237900763894</v>
+        <v>0.114469725660579</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09242582086834281</v>
+        <v>0.1950085706447567</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04046230035574432</v>
+        <v>0.02371495698190496</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07388026621685016</v>
+        <v>0.1955373138308956</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02276795043047491</v>
+        <v>0.02828680509962934</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09456056466991507</v>
+        <v>0.1972475581083055</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05214991724566906</v>
+        <v>0.07228526835249577</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0935487904687366</v>
+        <v>0.1966611856502208</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09725530711726049</v>
+        <v>0.1159401290358871</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09320909053671859</v>
+        <v>0.1966611856502208</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03980740432795657</v>
+        <v>0.02184295630960106</v>
       </c>
       <c r="G185" t="n">
-        <v>0.07387999768838614</v>
+        <v>0.1971804845353569</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02263578482609768</v>
+        <v>0.02876131267292702</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09535519126377989</v>
+        <v>0.1989051006134174</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05139194320531298</v>
+        <v>0.07241044170981037</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09433491475838984</v>
+        <v>0.1983138006556848</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0966418072793116</v>
+        <v>0.1158223077402703</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09399236020509438</v>
+        <v>0.1983138006556848</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03917157271141039</v>
+        <v>0.02394444933315291</v>
       </c>
       <c r="G186" t="n">
-        <v>0.07387972915992214</v>
+        <v>0.1988236552398183</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02230417543859105</v>
+        <v>0.02890826670426498</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09614981785764472</v>
+        <v>0.2005626431185292</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05064838970820659</v>
+        <v>0.07306197132018322</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0951210390480431</v>
+        <v>0.1999664156611488</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09512219456027199</v>
+        <v>0.1172863271220846</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09477562987347017</v>
+        <v>0.1999664156611488</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03855526713603939</v>
+        <v>0.02401564976221852</v>
       </c>
       <c r="G187" t="n">
-        <v>0.07387946063145812</v>
+        <v>0.2004668259442796</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02207347644194307</v>
+        <v>0.02902022161623533</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09694444445150956</v>
+        <v>0.202220185623641</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0504210728213895</v>
+        <v>0.07342120017151779</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09590716333769635</v>
+        <v>0.2016190306666129</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09429678402662128</v>
+        <v>0.1171022525296857</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09555889954184596</v>
+        <v>0.2016190306666129</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03795894923175173</v>
+        <v>0.02207839003125012</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0738791921029941</v>
+        <v>0.2021099966487409</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02194404201014187</v>
+        <v>0.02900011834571013</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09773907104537438</v>
+        <v>0.2038777281287528</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04981180861190179</v>
+        <v>0.07331663753097617</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09669328762734959</v>
+        <v>0.2032716456720769</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09386589074483892</v>
+        <v>0.1180158262811207</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09634216921022175</v>
+        <v>0.2032716456720769</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03738308062853297</v>
+        <v>0.0231397460923396</v>
       </c>
       <c r="G189" t="n">
-        <v>0.07387892357453008</v>
+        <v>0.2037531673532022</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0217162263171755</v>
+        <v>0.02887616783203992</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09853369763923922</v>
+        <v>0.2055352706338646</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04942241314678317</v>
+        <v>0.0731073752061199</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09747941191700285</v>
+        <v>0.2049242606775409</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09332982978140486</v>
+        <v>0.1180218595211347</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09712543887859754</v>
+        <v>0.2049242606775409</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03682623796739447</v>
+        <v>0.02319969589598531</v>
       </c>
       <c r="G190" t="n">
-        <v>0.07387865504606606</v>
+        <v>0.2053963380576635</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02149038353703205</v>
+        <v>0.02905050274455397</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09932832423310405</v>
+        <v>0.2071928131389764</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04885470249307358</v>
+        <v>0.07339378836467053</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0982655362066561</v>
+        <v>0.206576875683005</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09298891620279848</v>
+        <v>0.1177209541957947</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09790870854697331</v>
+        <v>0.206576875683005</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03627757294489535</v>
+        <v>0.02325821739268562</v>
       </c>
       <c r="G191" t="n">
-        <v>0.07387838651760205</v>
+        <v>0.2070395087621248</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02096686784369958</v>
+        <v>0.0290230956825199</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1001229508269689</v>
+        <v>0.2088503556440882</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04821049271781278</v>
+        <v>0.07387580834629895</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09905166049630934</v>
+        <v>0.208229490688469</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09134346507549956</v>
+        <v>0.1182130001415316</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0986919782153491</v>
+        <v>0.208229490688469</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03573566220205028</v>
+        <v>0.02331528853293886</v>
       </c>
       <c r="G192" t="n">
-        <v>0.07387811798913801</v>
+        <v>0.2086826794665861</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02074603341116622</v>
+        <v>0.02919391924520534</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1009175774208337</v>
+        <v>0.2105078981492</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04729159988804069</v>
+        <v>0.074353366490676</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09983778478596259</v>
+        <v>0.2098821056939331</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09149379146598752</v>
+        <v>0.1192978871947771</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0994752478837249</v>
+        <v>0.2098821056939331</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03520096736884007</v>
+        <v>0.0223708872672434</v>
       </c>
       <c r="G193" t="n">
-        <v>0.07387784946067401</v>
+        <v>0.2103258501710474</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02082012955294769</v>
+        <v>0.02916294603187794</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1017122040146985</v>
+        <v>0.2121654406543119</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04688620782640365</v>
+        <v>0.07432639413747252</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1006239090756158</v>
+        <v>0.2115347206993971</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09071621717981232</v>
+        <v>0.1184755051919622</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1002585175521007</v>
+        <v>0.2115347206993971</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03467395007517463</v>
+        <v>0.02442499154609758</v>
       </c>
       <c r="G194" t="n">
-        <v>0.07387758093220999</v>
+        <v>0.2119690208755087</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02028005245659902</v>
+        <v>0.02933014864180529</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1025068306085634</v>
+        <v>0.2138229831594237</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04657815985419428</v>
+        <v>0.07399482262635948</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1014100333652691</v>
+        <v>0.2131873357048611</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09018339530573821</v>
+        <v>0.1196457439695183</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1010417872204765</v>
+        <v>0.2131873357048611</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03415507195098763</v>
+        <v>0.02247757931999973</v>
       </c>
       <c r="G195" t="n">
-        <v>0.07387731240374598</v>
+        <v>0.21361219157997</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02012688900226253</v>
+        <v>0.02959549967425505</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1033014572024282</v>
+        <v>0.2154805256645355</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04566797977099488</v>
+        <v>0.07445858329700769</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1021961576549223</v>
+        <v>0.2148399507103252</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08879902805618894</v>
+        <v>0.1190084933638768</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1018250568888523</v>
+        <v>0.2148399507103252</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03364479462619069</v>
+        <v>0.02252862853944822</v>
       </c>
       <c r="G196" t="n">
-        <v>0.07387704387528195</v>
+        <v>0.2152553622844313</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01976175160488064</v>
+        <v>0.0296589717284948</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1040960837962931</v>
+        <v>0.2171380681696473</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04515624706735893</v>
+        <v>0.07461760748908799</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1029822819445756</v>
+        <v>0.2164925657157892</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08796690621945846</v>
+        <v>0.1201636432114687</v>
       </c>
       <c r="O196" t="n">
-        <v>0.102608326557228</v>
+        <v>0.2164925657157892</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03314357973076187</v>
+        <v>0.0235781171549414</v>
       </c>
       <c r="G197" t="n">
-        <v>0.07387677534681794</v>
+        <v>0.2168985329888927</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01968575267939564</v>
+        <v>0.02972053740379221</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1048907103901579</v>
+        <v>0.2187956106747591</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04524354123384008</v>
+        <v>0.07477182654227138</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1037684062342288</v>
+        <v>0.2181451807212532</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08709082058384077</v>
+        <v>0.1206110833487254</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1033915962256038</v>
+        <v>0.2181451807212532</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03265188889461246</v>
+        <v>0.0226260231169776</v>
       </c>
       <c r="G198" t="n">
-        <v>0.07387650681835392</v>
+        <v>0.2185417036933539</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01920000464074996</v>
+        <v>0.02968016929941486</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1056853369840227</v>
+        <v>0.2204531531798709</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0444304417609919</v>
+        <v>0.07502117179622861</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1045545305238821</v>
+        <v>0.2197977957267173</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08527456193762978</v>
+        <v>0.1203507036120781</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1041748658939796</v>
+        <v>0.2197977957267173</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03217018374767608</v>
+        <v>0.02267232437605519</v>
       </c>
       <c r="G199" t="n">
-        <v>0.07387623828988991</v>
+        <v>0.2201848743978153</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01900561990388591</v>
+        <v>0.02973784001463042</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1064799635778875</v>
+        <v>0.2221106956849827</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04361752813936784</v>
+        <v>0.07486557459063062</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1053406548135353</v>
+        <v>0.2214504107321813</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08522192106911936</v>
+        <v>0.1203823938379584</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1049581355623554</v>
+        <v>0.2214504107321813</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0316989259198661</v>
+        <v>0.02371699888267252</v>
       </c>
       <c r="G200" t="n">
-        <v>0.07387596976142588</v>
+        <v>0.2218280451022766</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01870371088374589</v>
+        <v>0.02989352214870651</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1072745901717524</v>
+        <v>0.2237682381900945</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04300537985952146</v>
+        <v>0.0749049662651482</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1061267791031886</v>
+        <v>0.2231030257376454</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08373668876660345</v>
+        <v>0.1201060438627972</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1057414052307312</v>
+        <v>0.2231030257376454</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03123857704115719</v>
+        <v>0.02376002458732793</v>
       </c>
       <c r="G201" t="n">
-        <v>0.07387570123296187</v>
+        <v>0.2234712158067379</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01859538999527226</v>
+        <v>0.02964718830091072</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1080692167656172</v>
+        <v>0.2254257806952064</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04249457641200641</v>
+        <v>0.07503927815945227</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1069129033928418</v>
+        <v>0.2247556407431094</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08262265581837591</v>
+        <v>0.1204215435230261</v>
       </c>
       <c r="O201" t="n">
-        <v>0.106524674899107</v>
+        <v>0.2247556407431094</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0307895987414623</v>
+        <v>0.02280137944051974</v>
       </c>
       <c r="G202" t="n">
-        <v>0.07387543270449785</v>
+        <v>0.2251143865111992</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01808176965340737</v>
+        <v>0.02989881107051072</v>
       </c>
       <c r="K202" t="n">
-        <v>0.108863843359482</v>
+        <v>0.2270833232003182</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04228569728737613</v>
+        <v>0.07516844161321376</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1076990276824951</v>
+        <v>0.2264082557485735</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08198361301273083</v>
+        <v>0.1206287826550761</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1073079445674828</v>
+        <v>0.2264082557485735</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03035245265071505</v>
+        <v>0.02384104139274636</v>
       </c>
       <c r="G203" t="n">
-        <v>0.07387516417603383</v>
+        <v>0.2267575572156605</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0178639622730936</v>
+        <v>0.03004836305677409</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1096584699533469</v>
+        <v>0.22874086570543</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04157932197618433</v>
+        <v>0.07539238796610354</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1084851519721483</v>
+        <v>0.2280608707540375</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07962335113796198</v>
+        <v>0.1209276510953786</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1080912142358585</v>
+        <v>0.2280608707540375</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02992760039883088</v>
+        <v>0.0248789883945061</v>
       </c>
       <c r="G204" t="n">
-        <v>0.07387489564756981</v>
+        <v>0.2284007279201218</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01734308026927329</v>
+        <v>0.0298958168589685</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1104530965472117</v>
+        <v>0.2303984082105418</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04137602996898443</v>
+        <v>0.07581104855779236</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1092712762618016</v>
+        <v>0.2297134857595015</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0787456609823633</v>
+        <v>0.1216180386803649</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1088744839042343</v>
+        <v>0.2297134857595015</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02951550361578041</v>
+        <v>0.02491519839629731</v>
       </c>
       <c r="G205" t="n">
-        <v>0.07387462711910579</v>
+        <v>0.2300438986245831</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01732023605688882</v>
+        <v>0.03004114507636153</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1112477231410765</v>
+        <v>0.2320559507156536</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04117640075632997</v>
+        <v>0.07572435472795119</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1100574005514548</v>
+        <v>0.2313661007649656</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07795433333422874</v>
+        <v>0.1216998352464663</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1096577535726101</v>
+        <v>0.2313661007649656</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02911662393147857</v>
+        <v>0.02494964934861836</v>
       </c>
       <c r="G206" t="n">
-        <v>0.07387435859064179</v>
+        <v>0.2316870693290444</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01669654205088256</v>
+        <v>0.03018432030822085</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1120423497349414</v>
+        <v>0.2337134932207654</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04028101382877455</v>
+        <v>0.07613223781625092</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1108435248411081</v>
+        <v>0.2330187157704296</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07615315898185226</v>
+        <v>0.1214729306301141</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1104410232409859</v>
+        <v>0.2330187157704296</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02873142297585896</v>
+        <v>0.02498231920196757</v>
       </c>
       <c r="G207" t="n">
-        <v>0.07387409006217777</v>
+        <v>0.2333302400335057</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01667311066619684</v>
+        <v>0.02992531515381407</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1128369763288062</v>
+        <v>0.2353710357258772</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0396904486768718</v>
+        <v>0.07613462916236238</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1116296491307613</v>
+        <v>0.2346713307758936</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07504592871352767</v>
+        <v>0.1220372146677394</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1112242929093617</v>
+        <v>0.2346713307758936</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0283603623788394</v>
+        <v>0.0250131859068433</v>
       </c>
       <c r="G208" t="n">
-        <v>0.07387382153371375</v>
+        <v>0.234973410737967</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01615105431777407</v>
+        <v>0.0301641022124088</v>
       </c>
       <c r="K208" t="n">
-        <v>0.113631602922671</v>
+        <v>0.237028578230989</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03960528479117514</v>
+        <v>0.0764314601059565</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1124157734204146</v>
+        <v>0.2363239457813577</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07433643331754902</v>
+        <v>0.1215925771957737</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1120075625777375</v>
+        <v>0.2363239457813577</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02800390377038589</v>
+        <v>0.02504222741374393</v>
       </c>
       <c r="G209" t="n">
-        <v>0.07387355300524973</v>
+        <v>0.2366165814424283</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01593148542055658</v>
+        <v>0.03010065408327267</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1144262295165359</v>
+        <v>0.2386861207361008</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03922610166223817</v>
+        <v>0.07632266198670404</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1132018977100678</v>
+        <v>0.2379765607868217</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07242846358221017</v>
+        <v>0.1226389080506481</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1127908322461133</v>
+        <v>0.2379765607868217</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02766250878041557</v>
+        <v>0.02306942167316775</v>
       </c>
       <c r="G210" t="n">
-        <v>0.07387328447678572</v>
+        <v>0.2382597521468897</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01541551638948678</v>
+        <v>0.03003494336567332</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1152208561104007</v>
+        <v>0.2403436632412126</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03815347878061445</v>
+        <v>0.07660816614427599</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1139880219997211</v>
+        <v>0.2396291757922858</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07242581029580497</v>
+        <v>0.1222760970687941</v>
       </c>
       <c r="O210" t="n">
-        <v>0.113574101914489</v>
+        <v>0.2396291757922858</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02733663903886212</v>
+        <v>0.02309474663561317</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0738730159483217</v>
+        <v>0.239902922851351</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01510425963950696</v>
+        <v>0.03036694265887836</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1160154827042655</v>
+        <v>0.2420012057463245</v>
       </c>
       <c r="L211" t="n">
-        <v>0.03818799563685757</v>
+        <v>0.07678790391834317</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1147741462893743</v>
+        <v>0.2412817907977498</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0705322642466274</v>
+        <v>0.1230040340866428</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1143573715828649</v>
+        <v>0.2412817907977498</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02702675617564605</v>
+        <v>0.02411818025157848</v>
       </c>
       <c r="G212" t="n">
-        <v>0.07387274741985768</v>
+        <v>0.2415460935558123</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01499882758555954</v>
+        <v>0.03019662456215542</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1168101092981304</v>
+        <v>0.2436587482514363</v>
       </c>
       <c r="L212" t="n">
-        <v>0.03723023172152101</v>
+        <v>0.07666180664857647</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1155602705790276</v>
+        <v>0.2429344058032138</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06935161622297137</v>
+        <v>0.1222226089406256</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1151406412512406</v>
+        <v>0.2429344058032138</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02673332182072799</v>
+        <v>0.02313970047156209</v>
       </c>
       <c r="G213" t="n">
-        <v>0.07387247889139366</v>
+        <v>0.2431892642602735</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01460033264258687</v>
+        <v>0.03022396167477213</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1176047358919952</v>
+        <v>0.2453162907565481</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03668076652515834</v>
+        <v>0.07672980567464674</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1163463948686808</v>
+        <v>0.2445870208086779</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06828765701313083</v>
+        <v>0.1225317114671736</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1159239109196164</v>
+        <v>0.2445870208086779</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02645679760402773</v>
+        <v>0.02315928524606231</v>
       </c>
       <c r="G214" t="n">
-        <v>0.07387221036292964</v>
+        <v>0.2448324349647349</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01420988722553132</v>
+        <v>0.03014892659599615</v>
       </c>
       <c r="K214" t="n">
-        <v>0.11839936248586</v>
+        <v>0.2469738332616599</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03644017953832313</v>
+        <v>0.07699183233622486</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1171325191583341</v>
+        <v>0.2462396358141419</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0670441774053997</v>
+        <v>0.1230312315027183</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1167071805879922</v>
+        <v>0.2462396358141419</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02645679760402773</v>
+        <v>0.02317691252557751</v>
       </c>
       <c r="G215" t="n">
-        <v>0.07387221036292964</v>
+        <v>0.2464756056691962</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01402860374933522</v>
+        <v>0.03037149192509501</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1191939890797249</v>
+        <v>0.2486313757667717</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03580905025156894</v>
+        <v>0.07654781797298171</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1179186434479873</v>
+        <v>0.247892250819606</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06552496818807185</v>
+        <v>0.1232210588836908</v>
       </c>
       <c r="O215" t="n">
-        <v>0.117490450256368</v>
+        <v>0.247892250819606</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02579306998278365</v>
+        <v>0.02519256026060601</v>
       </c>
       <c r="G216" t="n">
-        <v>0.07375548109638627</v>
+        <v>0.2481187763736575</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01365759462894099</v>
+        <v>0.03029163026133644</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1199886156735897</v>
+        <v>0.2502889182718835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03548795815544936</v>
+        <v>0.07709769392458818</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1187047677376405</v>
+        <v>0.24954486582507</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06543382014944127</v>
+        <v>0.1231010834465225</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1182737199247438</v>
+        <v>0.24954486582507</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02513655201413816</v>
+        <v>0.0242062064016462</v>
       </c>
       <c r="G217" t="n">
-        <v>0.07363875182984291</v>
+        <v>0.2497619470781188</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01349797227929093</v>
+        <v>0.03020931420398799</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1207832422674545</v>
+        <v>0.2519464607769953</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03537748274051786</v>
+        <v>0.07654139153071515</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1194908920272938</v>
+        <v>0.2511974808305341</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06407452407780173</v>
+        <v>0.1234711950276446</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1190569895931195</v>
+        <v>0.2511974808305341</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02448754385231323</v>
+        <v>0.02321782889919637</v>
       </c>
       <c r="G218" t="n">
-        <v>0.07352202256329954</v>
+        <v>0.2514051177825801</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01315084911532748</v>
+        <v>0.03042451635231733</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1215778688613194</v>
+        <v>0.2536040032821071</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03477820349732799</v>
+        <v>0.07697884213103345</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1202770163169471</v>
+        <v>0.2528500958359981</v>
       </c>
       <c r="N218" t="n">
-        <v>0.06335087076144735</v>
+        <v>0.1227312834634884</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1198402592614954</v>
+        <v>0.2528500958359981</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02384634565153088</v>
+        <v>0.02322740570375494</v>
       </c>
       <c r="G219" t="n">
-        <v>0.07340529329675616</v>
+        <v>0.2530482884870414</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01311733755199292</v>
+        <v>0.03023720930559208</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1223724954551842</v>
+        <v>0.255261545787219</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03479069991643338</v>
+        <v>0.07650997706521398</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1210631406066003</v>
+        <v>0.2545027108414621</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06156665098867192</v>
+        <v>0.1232812385904853</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1206235289298711</v>
+        <v>0.2545027108414621</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02321325756601322</v>
+        <v>0.02323491476582019</v>
       </c>
       <c r="G220" t="n">
-        <v>0.07328856403021279</v>
+        <v>0.2546914591915027</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01269855000422969</v>
+        <v>0.03034736566307983</v>
       </c>
       <c r="K220" t="n">
-        <v>0.123167122049049</v>
+        <v>0.2569190882923308</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03411555148838757</v>
+        <v>0.07723472767292761</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1218492648962535</v>
+        <v>0.2561553258469262</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06102565554776945</v>
+        <v>0.1231209502450664</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1214067985982469</v>
+        <v>0.2561553258469262</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02258857974998224</v>
+        <v>0.02524033403589054</v>
       </c>
       <c r="G221" t="n">
-        <v>0.07317183476366942</v>
+        <v>0.2563346298959641</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01269559888698009</v>
+        <v>0.03025495802404826</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1239617486429138</v>
+        <v>0.2585766307974426</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03385333770374407</v>
+        <v>0.07685302529384522</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1226353891859068</v>
+        <v>0.2578079408523902</v>
       </c>
       <c r="N221" t="n">
-        <v>0.05943167522703374</v>
+        <v>0.1232503082636632</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1221900682666227</v>
+        <v>0.2578079408523902</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02197261235765997</v>
+        <v>0.02324364146446427</v>
       </c>
       <c r="G222" t="n">
-        <v>0.07305510549712606</v>
+        <v>0.2579778006004253</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01230959661518653</v>
+        <v>0.03035995898776493</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1247563752367787</v>
+        <v>0.2602341733025544</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03360463805305641</v>
+        <v>0.07656480126763768</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1234215134755601</v>
+        <v>0.2594605558578542</v>
       </c>
       <c r="N222" t="n">
-        <v>0.05868850081475885</v>
+        <v>0.1237692024827068</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1229733379349985</v>
+        <v>0.2594605558578542</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02136565554326841</v>
+        <v>0.0232448150020398</v>
       </c>
       <c r="G223" t="n">
-        <v>0.07293837623058268</v>
+        <v>0.2596209713048866</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01244165560379134</v>
+        <v>0.03056234115349754</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1255510018306435</v>
+        <v>0.2618917158076662</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0327700320268782</v>
+        <v>0.07716998693397586</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1242076377652133</v>
+        <v>0.2611131708633183</v>
       </c>
       <c r="N223" t="n">
-        <v>0.05849992309923852</v>
+        <v>0.1230775227386284</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1237566076033743</v>
+        <v>0.2611131708633183</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02076800946102961</v>
+        <v>0.02521475273971026</v>
       </c>
       <c r="G224" t="n">
-        <v>0.07282164696403931</v>
+        <v>0.2612641420093479</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01229288826773691</v>
+        <v>0.03054778111661005</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1263456284245084</v>
+        <v>0.263549258312778</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03245009911576299</v>
+        <v>0.07661681274897694</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1249937620548666</v>
+        <v>0.2627657858687823</v>
       </c>
       <c r="N224" t="n">
-        <v>0.05796973286876683</v>
+        <v>0.1228922062529994</v>
       </c>
       <c r="O224" t="n">
-        <v>0.12453987727175</v>
+        <v>0.2627657858687823</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02017997426516558</v>
+        <v>0.02312306178257852</v>
       </c>
       <c r="G225" t="n">
-        <v>0.07270491769749594</v>
+        <v>0.2629073127138093</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0120644070219656</v>
+        <v>0.03036089356453237</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1271402550183732</v>
+        <v>0.2652068008178898</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03224541881026433</v>
+        <v>0.07647582327142816</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1257798863445198</v>
+        <v>0.2644184008742463</v>
       </c>
       <c r="N225" t="n">
-        <v>0.05680172091163771</v>
+        <v>0.1226055454081088</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1253231469401258</v>
+        <v>0.2644184008742463</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01960185010989832</v>
+        <v>0.02297654580742646</v>
       </c>
       <c r="G226" t="n">
-        <v>0.07258818843095256</v>
+        <v>0.2645504834182706</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01185732428141976</v>
+        <v>0.03030357766016961</v>
       </c>
       <c r="K226" t="n">
-        <v>0.127934881612238</v>
+        <v>0.2668643433230016</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03245657060093576</v>
+        <v>0.07646031831658823</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1265660106341731</v>
+        <v>0.2660710158797104</v>
       </c>
       <c r="N226" t="n">
-        <v>0.05629967801614494</v>
+        <v>0.1226388793838127</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1261064166085016</v>
+        <v>0.2660710158797104</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01903393714944993</v>
+        <v>0.02378207860048133</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0724714591644092</v>
+        <v>0.2661936541227319</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01197275246104176</v>
+        <v>0.02998437540051542</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1287295082061028</v>
+        <v>0.2685218858281134</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03158413397833079</v>
+        <v>0.07549170228770305</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1273521349238263</v>
+        <v>0.2677236308851745</v>
       </c>
       <c r="N227" t="n">
-        <v>0.05626739497058253</v>
+        <v>0.1207265509436528</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1268896862768774</v>
+        <v>0.2677236308851745</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0184765355380424</v>
+        <v>0.02254653394797031</v>
       </c>
       <c r="G228" t="n">
-        <v>0.07235472989786583</v>
+        <v>0.2678368248271932</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01171180397577397</v>
+        <v>0.02961182878256335</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1295241347999677</v>
+        <v>0.2701794283332253</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03182868843300302</v>
+        <v>0.07489137958801861</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1281382592134795</v>
+        <v>0.2693762458906385</v>
       </c>
       <c r="N228" t="n">
-        <v>0.05550866256324444</v>
+        <v>0.1199029028511703</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1276729559452532</v>
+        <v>0.2693762458906385</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01792994542989777</v>
+        <v>0.02427678563612065</v>
       </c>
       <c r="G229" t="n">
-        <v>0.07223800063132246</v>
+        <v>0.2694799955316545</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01157559124055874</v>
+        <v>0.0292944798033071</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1303187613938325</v>
+        <v>0.2718369708383371</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03149081345550603</v>
+        <v>0.07428075462078074</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1289243835031328</v>
+        <v>0.2710288608961026</v>
       </c>
       <c r="N229" t="n">
-        <v>0.05542727158242439</v>
+        <v>0.1188022778699068</v>
       </c>
       <c r="O229" t="n">
-        <v>0.128456225613629</v>
+        <v>0.2710288608961026</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01739446697923806</v>
+        <v>0.02197970745115961</v>
       </c>
       <c r="G230" t="n">
-        <v>0.07212127136477908</v>
+        <v>0.2711231662361158</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01156506719730162</v>
+        <v>0.02914087045974026</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1311133879876973</v>
+        <v>0.2734945133434489</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03127097544355883</v>
+        <v>0.07338123178923536</v>
       </c>
       <c r="M230" t="n">
-        <v>0.129710507792786</v>
+        <v>0.2726814759015666</v>
       </c>
       <c r="N230" t="n">
-        <v>0.05502642639559613</v>
+        <v>0.1170590187634037</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1292394952820048</v>
+        <v>0.2726814759015666</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01687040034028528</v>
+        <v>0.02166217317931438</v>
       </c>
       <c r="G231" t="n">
-        <v>0.07200454209823572</v>
+        <v>0.2727663369405771</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01176508024475239</v>
+        <v>0.02865954274885642</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1319080145815622</v>
+        <v>0.2751520558485607</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03115867273307438</v>
+        <v>0.07241421549662841</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1304966320824393</v>
+        <v>0.2743340909070306</v>
       </c>
       <c r="N231" t="n">
-        <v>0.05506012427945123</v>
+        <v>0.1164074682952027</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1300227649503806</v>
+        <v>0.2743340909070306</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01635804566726146</v>
+        <v>0.0223310566068122</v>
       </c>
       <c r="G232" t="n">
-        <v>0.07188781283169235</v>
+        <v>0.2744095076450384</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01176515701246796</v>
+        <v>0.02805903866764924</v>
       </c>
       <c r="K232" t="n">
-        <v>0.132702641175427</v>
+        <v>0.2768095983536725</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03044698722087186</v>
+        <v>0.07110111014620571</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1312827563720926</v>
+        <v>0.2759867059124947</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0541977472253119</v>
+        <v>0.1138819692288449</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1308060346187563</v>
+        <v>0.2759867059124947</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0158577031143886</v>
+        <v>0.02199323151988029</v>
       </c>
       <c r="G233" t="n">
-        <v>0.07177108356514897</v>
+        <v>0.2760526783494997</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01166535496128748</v>
+        <v>0.0278479002131123</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1334972677692919</v>
+        <v>0.2784671408587843</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03053625580103994</v>
+        <v>0.06996332014121329</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1320688806617458</v>
+        <v>0.2776393209179587</v>
       </c>
       <c r="N233" t="n">
-        <v>0.05343954289858943</v>
+        <v>0.112916864327872</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1315893042871321</v>
+        <v>0.2776393209179587</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01536967283588881</v>
+        <v>0.0216555717047459</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0716543542986056</v>
+        <v>0.2776958490539611</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01156573155205011</v>
+        <v>0.02743466938223925</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1342918943631567</v>
+        <v>0.2801246833638961</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03072681536766725</v>
+        <v>0.06952224988489686</v>
       </c>
       <c r="M234" t="n">
-        <v>0.132855004951399</v>
+        <v>0.2792919359234228</v>
       </c>
       <c r="N234" t="n">
-        <v>0.05428575896469529</v>
+        <v>0.1111464963558253</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1323725739555079</v>
+        <v>0.2792919359234228</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01489425498598407</v>
+        <v>0.02032495094763623</v>
       </c>
       <c r="G235" t="n">
-        <v>0.07153762503206224</v>
+        <v>0.2793390197584223</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01156634424559499</v>
+        <v>0.02712788817202372</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1350865209570215</v>
+        <v>0.2817822258690079</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03011900281484239</v>
+        <v>0.06779930378050247</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1336411292410523</v>
+        <v>0.2809445509288868</v>
       </c>
       <c r="N235" t="n">
-        <v>0.05343664308904111</v>
+        <v>0.1091052080762465</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1331558436238837</v>
+        <v>0.2809445509288868</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01443174971889639</v>
+        <v>0.02000824303477852</v>
       </c>
       <c r="G236" t="n">
-        <v>0.07142089576551887</v>
+        <v>0.2809821904628837</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01166725050276128</v>
+        <v>0.0267360985794593</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1358811475508863</v>
+        <v>0.2834397683741198</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03021315503665417</v>
+        <v>0.067015886231276</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1344272535307055</v>
+        <v>0.2825971659343509</v>
       </c>
       <c r="N236" t="n">
-        <v>0.05359244293703813</v>
+        <v>0.1077273422526768</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1339391132922595</v>
+        <v>0.2825971659343509</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01398245718884784</v>
+        <v>0.01971232175240002</v>
       </c>
       <c r="G237" t="n">
-        <v>0.07130416649897549</v>
+        <v>0.2826253611673449</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01156850778438812</v>
+        <v>0.02616784260153962</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1366757741447512</v>
+        <v>0.2850973108792316</v>
       </c>
       <c r="L237" t="n">
-        <v>0.029609608927191</v>
+        <v>0.06589340164046331</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1352133778203588</v>
+        <v>0.2842497809398148</v>
       </c>
       <c r="N237" t="n">
-        <v>0.05255340617409793</v>
+        <v>0.1064472416486579</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1347223829606353</v>
+        <v>0.2842497809398148</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01354667755006039</v>
+        <v>0.02044142990690567</v>
       </c>
       <c r="G238" t="n">
-        <v>0.07118743723243212</v>
+        <v>0.2842685318718063</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01187017355131466</v>
+        <v>0.02583109758517813</v>
       </c>
       <c r="K238" t="n">
-        <v>0.137470400738616</v>
+        <v>0.2867548533843434</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02920870138054169</v>
+        <v>0.06575017343340894</v>
       </c>
       <c r="M238" t="n">
-        <v>0.135999502110012</v>
+        <v>0.2859023959452789</v>
       </c>
       <c r="N238" t="n">
-        <v>0.05211978046563182</v>
+        <v>0.1047943056852642</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1355056526290111</v>
+        <v>0.2859023959452789</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01312471095675612</v>
+        <v>0.02017528848885698</v>
       </c>
       <c r="G239" t="n">
-        <v>0.07107070796588875</v>
+        <v>0.2859117025762676</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01187230526438005</v>
+        <v>0.02540635023667058</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1382650273324809</v>
+        <v>0.2884123958894552</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0296107692907949</v>
+        <v>0.06463133022537729</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1367856263996653</v>
+        <v>0.2875550109507429</v>
       </c>
       <c r="N239" t="n">
-        <v>0.05229181347705125</v>
+        <v>0.1036804947675807</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1362889222973868</v>
+        <v>0.2875550109507429</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01271563193341704</v>
+        <v>0.02090813112223597</v>
       </c>
       <c r="G240" t="n">
-        <v>0.07095397869934537</v>
+        <v>0.2875548732807289</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01157496038442343</v>
+        <v>0.02528035571047561</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1390596539263457</v>
+        <v>0.290069938394567</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02931614955203915</v>
+        <v>0.06350934876098863</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1375717506893185</v>
+        <v>0.289207625956207</v>
       </c>
       <c r="N240" t="n">
-        <v>0.05266975287376785</v>
+        <v>0.1025616486057578</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1370721919657626</v>
+        <v>0.289207625956207</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01231238685582561</v>
+        <v>0.02063994152278814</v>
       </c>
       <c r="G241" t="n">
-        <v>0.07083724943280201</v>
+        <v>0.2891980439851902</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01157819637228397</v>
+        <v>0.02505309377028561</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1398542805202105</v>
+        <v>0.2917274808996788</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02912517905836323</v>
+        <v>0.06308417833241783</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1383578749789718</v>
+        <v>0.290860240961671</v>
       </c>
       <c r="N241" t="n">
-        <v>0.05265384632119291</v>
+        <v>0.1007376858405151</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1378554616341384</v>
+        <v>0.290860240961671</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01191405024846388</v>
+        <v>0.01837070340625904</v>
       </c>
       <c r="G242" t="n">
-        <v>0.07072052016625864</v>
+        <v>0.2908412146896515</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01158207068880081</v>
+        <v>0.02442454417979294</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1406489071140753</v>
+        <v>0.2933850234047906</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02883819470385568</v>
+        <v>0.06225576823183995</v>
       </c>
       <c r="M242" t="n">
-        <v>0.139143999268625</v>
+        <v>0.2925128559671351</v>
       </c>
       <c r="N242" t="n">
-        <v>0.05134434148473782</v>
+        <v>0.0998085251125721</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1386387313025142</v>
+        <v>0.2925128559671351</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01152092226555385</v>
+        <v>0.02010040048839417</v>
       </c>
       <c r="G243" t="n">
-        <v>0.07060379089971527</v>
+        <v>0.2924843853941128</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01188664079481309</v>
+        <v>0.02439468670268993</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1414435337079402</v>
+        <v>0.2950425659099024</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02855553338260519</v>
+        <v>0.06142406775142986</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1399301235582783</v>
+        <v>0.2941654709725991</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05184148602981403</v>
+        <v>0.09777408506264867</v>
       </c>
       <c r="O243" t="n">
-        <v>0.13942200097089</v>
+        <v>0.2941654709725991</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01113330306131758</v>
+        <v>0.01882901648493908</v>
       </c>
       <c r="G244" t="n">
-        <v>0.07048706163317191</v>
+        <v>0.2941275560985741</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01169196415115997</v>
+        <v>0.02406350110266897</v>
       </c>
       <c r="K244" t="n">
-        <v>0.142238160301805</v>
+        <v>0.2967001084150143</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02857753198870042</v>
+        <v>0.06018902618336266</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1407162478479315</v>
+        <v>0.2958180859780631</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05184552762183314</v>
+        <v>0.09743428433146412</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1402052706392658</v>
+        <v>0.2958180859780631</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01075149278997708</v>
+        <v>0.01855653511163926</v>
       </c>
       <c r="G245" t="n">
-        <v>0.07037033236662853</v>
+        <v>0.2957707268030355</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01159809821868059</v>
+        <v>0.02373096714342239</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1430327868956698</v>
+        <v>0.2983576509201261</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02860452741623001</v>
+        <v>0.05935059281981317</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1415023721375848</v>
+        <v>0.2974707009835272</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05105671392620637</v>
+        <v>0.09578904155973822</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1409885403076416</v>
+        <v>0.2974707009835272</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01037579160575438</v>
+        <v>0.01828294008424026</v>
       </c>
       <c r="G246" t="n">
-        <v>0.07025360310008516</v>
+        <v>0.2974138975074967</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01170510045821411</v>
+        <v>0.02329706458864253</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1438274134895347</v>
+        <v>0.3000151934252379</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02773685655928257</v>
+        <v>0.05860871695295639</v>
       </c>
       <c r="M246" t="n">
-        <v>0.142288496427238</v>
+        <v>0.2991233159889912</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05097529260834538</v>
+        <v>0.09433827538819067</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1417718099760173</v>
+        <v>0.2991233159889912</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01000649966287146</v>
+        <v>0.0190082151184876</v>
       </c>
       <c r="G247" t="n">
-        <v>0.07013687383354178</v>
+        <v>0.299057068211958</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01191302833059966</v>
+        <v>0.0230617732020218</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1446220400833995</v>
+        <v>0.3016727359303497</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02777485631194682</v>
+        <v>0.05756334787496725</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1430746207168913</v>
+        <v>0.3007759309944553</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0508015113336614</v>
+        <v>0.09338190445754097</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1425550796443932</v>
+        <v>0.3007759309944553</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009643917115550439</v>
+        <v>0.01873234393012679</v>
       </c>
       <c r="G248" t="n">
-        <v>0.07002014456699841</v>
+        <v>0.3007002389164193</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01182193929667641</v>
+        <v>0.02252507274725248</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1454166666772643</v>
+        <v>0.3033302784354615</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02801886356831135</v>
+        <v>0.05691443487802081</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1438607450065445</v>
+        <v>0.3024285459999193</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05083561776756595</v>
+        <v>0.09091984740850884</v>
       </c>
       <c r="O248" t="n">
-        <v>0.143338349312769</v>
+        <v>0.3024285459999193</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009288344118013298</v>
+        <v>0.01645531023490336</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06990341530045505</v>
+        <v>0.3023434096208806</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0118318908172835</v>
+        <v>0.022286942988027</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1462112932711292</v>
+        <v>0.3049878209405733</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02786921522246483</v>
+        <v>0.05586192725429195</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1446468692961977</v>
+        <v>0.3040811610053833</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05057785957547056</v>
+        <v>0.08975202288181372</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1441216189811447</v>
+        <v>0.3040811610053833</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008940080824482062</v>
+        <v>0.01717709774856285</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06978668603391168</v>
+        <v>0.303986580325342</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01174294035326009</v>
+        <v>0.02174736368803766</v>
       </c>
       <c r="K250" t="n">
-        <v>0.147005919864994</v>
+        <v>0.3066453634456852</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02762624816849582</v>
+        <v>0.05530577429595565</v>
       </c>
       <c r="M250" t="n">
-        <v>0.145432993585851</v>
+        <v>0.3057337760108474</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05062848442278656</v>
+        <v>0.08927834951817543</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1449048886495205</v>
+        <v>0.3057337760108474</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008599427389178765</v>
+        <v>0.01689769018685076</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06966995676736831</v>
+        <v>0.3056297510298032</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0118551453654453</v>
+        <v>0.02150631461097685</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1478005464588588</v>
+        <v>0.3083029059507969</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0271902993004931</v>
+        <v>0.05454592529518687</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1462191178755043</v>
+        <v>0.3073863910163114</v>
       </c>
       <c r="N251" t="n">
-        <v>0.04988773997492546</v>
+        <v>0.08679874595831349</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1456881583178963</v>
+        <v>0.3073863910163114</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008266683966325419</v>
+        <v>0.01761707126551262</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06955322750082493</v>
+        <v>0.3072729217342646</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01176856331467831</v>
+        <v>0.0210637755205369</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1485951730527237</v>
+        <v>0.3099604484559088</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02746170551254529</v>
+        <v>0.05328232954416059</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1470052421651575</v>
+        <v>0.3090390060217755</v>
       </c>
       <c r="N252" t="n">
-        <v>0.04995587389729855</v>
+        <v>0.08661313084294758</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1464714279862721</v>
+        <v>0.3090390060217755</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007942150710144064</v>
+        <v>0.01733522470029396</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06943649823428157</v>
+        <v>0.3089160924387259</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01168325166179825</v>
+        <v>0.02071972618041018</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1493897996465885</v>
+        <v>0.3116179909610206</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02724080369874096</v>
+        <v>0.05241493633505173</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1477913664548108</v>
+        <v>0.3106916210272395</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05063313385531754</v>
+        <v>0.0843214228127972</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1472546976546479</v>
+        <v>0.3106916210272395</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007626127774856689</v>
+        <v>0.01605213420694032</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06931976896773819</v>
+        <v>0.3105592631431872</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01199926786764429</v>
+        <v>0.02047414635428903</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1501844262404533</v>
+        <v>0.3132755334661324</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02712793075316883</v>
+        <v>0.05194369496003531</v>
       </c>
       <c r="M254" t="n">
-        <v>0.148577490744464</v>
+        <v>0.3123442360327036</v>
       </c>
       <c r="N254" t="n">
-        <v>0.04941976751439359</v>
+        <v>0.08382354050858215</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1480379673230237</v>
+        <v>0.3123442360327036</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007318915314685398</v>
+        <v>0.01676778350119719</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06920303970119482</v>
+        <v>0.3122024338476485</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01171666939305555</v>
+        <v>0.02032701580586585</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1509790528343181</v>
+        <v>0.3149330759712441</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02662342356991756</v>
+        <v>0.05106855471128624</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1493636150341173</v>
+        <v>0.3139968510381676</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05041602253993838</v>
+        <v>0.081719402571022</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1488212369913995</v>
+        <v>0.3139968510381676</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007020813483852167</v>
+        <v>0.01648215629881011</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06908631043465145</v>
+        <v>0.3138456045521098</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0119355136988712</v>
+        <v>0.01967831429883293</v>
       </c>
       <c r="K256" t="n">
-        <v>0.151773679428183</v>
+        <v>0.316590618476356</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02712761904307573</v>
+        <v>0.0499894648809795</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1501497393237705</v>
+        <v>0.3156494660436316</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04982214659736312</v>
+        <v>0.08010892764083621</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1496045066597752</v>
+        <v>0.3156494660436316</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.00673212243657903</v>
+        <v>0.01619523631552461</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06896958116810809</v>
+        <v>0.3154887752565711</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01185585824593039</v>
+        <v>0.01932802159688267</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1525683060220478</v>
+        <v>0.3182481609814678</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02654085406673201</v>
+        <v>0.04950637476129002</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1509358636134238</v>
+        <v>0.3173020810490956</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05023838735207936</v>
+        <v>0.07919203435874456</v>
       </c>
       <c r="O257" t="n">
-        <v>0.150387776328151</v>
+        <v>0.3173020810490956</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006453142327088018</v>
+        <v>0.01390700726708619</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06885285190156472</v>
+        <v>0.3171319459610324</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01177776049507225</v>
+        <v>0.01897611746370742</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1533629326159127</v>
+        <v>0.3199057034865796</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02626346553497508</v>
+        <v>0.04801923364439278</v>
       </c>
       <c r="M258" t="n">
-        <v>0.151721987903077</v>
+        <v>0.3189546960545597</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04956499246949858</v>
+        <v>0.07796864136546672</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1511710459965268</v>
+        <v>0.3189546960545597</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006184173309601158</v>
+        <v>0.0136174528692404</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06873612263502134</v>
+        <v>0.3187751166654937</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01190127790713595</v>
+        <v>0.0187225816629995</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1541575592097775</v>
+        <v>0.3215632459916914</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02619579034189354</v>
+        <v>0.04782799082246278</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1525081121927302</v>
+        <v>0.3206073110600237</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04920220961503219</v>
+        <v>0.0760386673017221</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1519543156649026</v>
+        <v>0.3206073110600237</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005925515538340476</v>
+        <v>0.01532655683773276</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06861939336847797</v>
+        <v>0.320418287369955</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01202646794296063</v>
+        <v>0.01826739395845134</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1549521858036423</v>
+        <v>0.3232207884968032</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0268381653815761</v>
+        <v>0.04693259558767493</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1532942364823835</v>
+        <v>0.3222599260654878</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04945028645409161</v>
+        <v>0.07420203080823057</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1527375853332784</v>
+        <v>0.3222599260654878</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005677469167527961</v>
+        <v>0.01503430288830879</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06850266410193459</v>
+        <v>0.3220614580744163</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01205338806338543</v>
+        <v>0.01801053411375519</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1557468123975072</v>
+        <v>0.324878331001915</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02639092754811134</v>
+        <v>0.04583299723220421</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1540803607720368</v>
+        <v>0.3239125410709518</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04950947065208827</v>
+        <v>0.07315865052571152</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1535208550016542</v>
+        <v>0.3239125410709518</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005440334351385703</v>
+        <v>0.014740674736714</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06838593483539122</v>
+        <v>0.3237046287788776</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01188209572924952</v>
+        <v>0.01765198189260349</v>
       </c>
       <c r="K262" t="n">
-        <v>0.156541438991372</v>
+        <v>0.3265358735070268</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02675441373558793</v>
+        <v>0.0448291450482256</v>
       </c>
       <c r="M262" t="n">
-        <v>0.15486648506169</v>
+        <v>0.3255651560764158</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04988000987443358</v>
+        <v>0.07240844509488464</v>
       </c>
       <c r="O262" t="n">
-        <v>0.15430412467003</v>
+        <v>0.3255651560764158</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005214411244135714</v>
+        <v>0.01244565609869393</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06826920556884786</v>
+        <v>0.325347799483339</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01201264840139204</v>
+        <v>0.01719171705868858</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1573360655852368</v>
+        <v>0.3281934160121387</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02622896083809456</v>
+        <v>0.04382098832791403</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1556526093513433</v>
+        <v>0.3272177710818799</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04926215178653909</v>
+        <v>0.07075133315646975</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1550873943384057</v>
+        <v>0.3272177710818799</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01314923068999411</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06815247630230449</v>
+        <v>0.3269909701878003</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01224510354065213</v>
+        <v>0.01692971937570277</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1581306921791017</v>
+        <v>0.3298509585172504</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0262149057497198</v>
+        <v>0.04300847636344446</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1564387336409965</v>
+        <v>0.3288703860873439</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04975614405381623</v>
+        <v>0.06938723335118613</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1558706640067815</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06813931840756764</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005697576959336523</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06813958693603166</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006391430729381871</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06813985546449568</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007081521170242293</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.0681401239929597</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007767808141934021</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06814039252142372</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008450251504563473</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06814066104988772</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009128811118206952</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06814092957835174</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009803446842970027</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06814119810681576</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01047411853887028</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06814146663527978</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01114078606601346</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06814173516374379</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01180340928447585</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06814200369220781</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01246194805436234</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06814227222067183</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01311636223569191</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06814254074913585</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.0137666116885696</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06814280927759986</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01441265627307171</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06814307780606388</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01505445584930237</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.0681433463345279</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01569197027728204</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06814361486299192</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01632515941711503</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06814388339145594</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01695398312887764</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06814415191991995</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01757840127267325</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06814442044838398</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01819837370852381</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06814468897684799</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01881386029653289</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06814495750531201</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01942482089677679</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06814522603377601</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.0200312153693581</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06814549456224005</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02063300357430035</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06814576309070405</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02123030927639477</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06814603161916807</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02182407576384832</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06814630014763208</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02241442680145134</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06814656867609611</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02300132224922875</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06814683720456012</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02358472196728262</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06814710573302414</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02416458581568925</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06814737426148816</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02474087365454991</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06814764278995218</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.0253135453438908</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.0681479113184162</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02588256074381334</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06814817984688021</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02644787971439383</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06814844837534423</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02700946211573292</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06814871690380825</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02756726780785806</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06814898543227227</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02812125665087005</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06814925396073628</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02867138850484521</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.0681495224892003</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.0292176232298835</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06814979101766432</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02975992068601369</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06815005954612834</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03029824073333594</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06815032807459236</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03083254323192655</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06815059660305636</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03136278804188479</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.0681508651315204</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03188893502324082</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.0681511336599844</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03241094403609411</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06815140218844842</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03292877494052097</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06815167071691243</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03344238759661992</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06815193924537646</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03395174186442261</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06815220777384047</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03445679760402774</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06815247630230449</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03445679760402774</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06813931840756764</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03501091116567497</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06825658473103906</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03556017974396172</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06837385105451045</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03610448766880411</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06849111737798186</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03664371927011811</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06860838370145327</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03717775887781966</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06872565002492466</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03770649082182487</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06884291634839608</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03822979943204967</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06896018267186747</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03874756903841013</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06907744899533888</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03925968397082225</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06919471531881029</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03976602855920194</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06931198164228169</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04026648713346537</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.0694292479657531</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04076094402352845</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06954651428922451</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04124928355930715</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.0696637806126959</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04173139007071759</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06978104693616731</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04220714788767574</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06989831325963873</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04267644134009753</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.07001557958311012</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04313915475789908</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.07013284590658153</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04359517247099629</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.07025011223005292</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04404437880930528</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.07036737855352433</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04448665810274201</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.07048464487699575</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04492189468122243</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.07060191120046715</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04534997287466266</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.07071917752393855</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04577077701297863</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.07083644384740996</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04618419142608636</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.07095371017088137</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04659057276341151</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.07107097649435277</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04699263927192786</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.07118824281782417</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04739074760106107</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.07130550914129558</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04778478208072715</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.07142277546476698</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04817462704084204</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.07154004178823839</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04856016681132184</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.0716573081117098</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04894128572208255</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.0717745744351812</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04931786810304009</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.0718918407586526</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04968979828411058</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.072009107082124</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05005696059520993</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.07212637340559541</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05041923936625424</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.07224363972906682</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05077651892715948</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.07236090605253823</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05112868360784162</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.07247817237600962</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05147561773821673</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.07259543869948104</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05181720564820078</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.07271270502295245</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05215333166770977</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.07282997134642384</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05248388012665976</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.07294723766989525</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05280873535496673</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.07306450399336666</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05312778168254664</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.07318177031683806</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.0534409034393156</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.07329903664030947</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05374798495518951</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.07341630296378086</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05404891056008447</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.07353356928725227</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05434356458391645</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.07365083561072368</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05463183135660142</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.07376810193419508</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05491359520805547</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.07388536825766649</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05027573013870365</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.07388536825766649</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05501797319019827</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07607453903744162</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05511482292192506</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07826370981721673</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05520442617863862</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.08045288059699185</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05528706473574166</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.08264205137676699</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05536302036863694</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.08483122215654211</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05543257485272717</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08702039293631723</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05549600996341514</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.08920956371609234</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05555360747610355</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.09139873449586747</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05560564916619519</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.09358790527564259</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05565241680909275</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.0957770760554177</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05569419218019898</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.09796624683519284</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05573125705491667</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.100155417614968</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05576389320864851</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.1023445883947431</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05579238241679725</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.1045337591745182</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05581700645476567</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.1067229299542933</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05583804709795646</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.1089121007340685</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05585578612177239</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1111012715138436</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05587050530161619</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1132904422936187</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05588248641289062</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1154796130733938</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05589201123099841</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1176687838531689</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.0558993615313423</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.119857954632944</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05590481908932503</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1220471254127192</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05590866568034936</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1242362961924943</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.055911183079818</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1264254669722694</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05591265306313371</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1286146377520445</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05591335740569923</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1308038085318197</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05591357788291731</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1329929793115948</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05590935737280876</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1351821500913699</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05582853873954897</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.137371320871145</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05565102272986573</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1395604916509201</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05538461912586647</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1417496624306953</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05503713770965858</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1439388332104704</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.0546163882633495</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1461280039902455</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.0541301805690466</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1483171747700206</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05358632440885733</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05299262956488904</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1526955163295709</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05235690581924919</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.154884687109346</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05168696295404515</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1570738578891211</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05099061075138435</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1592630286688962</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.0502756589933742</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1614521994486714</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.0495499174621221</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1636413702284465</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04882119593973544</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1658305410082216</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04809730420832169</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1680197117879967</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04738605204998815</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1702088825677719</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04669524924684233</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.172398053347547</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.0460327055809916</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1745872241273221</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04540623083454333</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1767763949070972</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04482363478960497</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1789655656868724</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04429272722828395</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1811547364666475</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04382131793268762</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1833439072464226</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.0434172166849234</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1855330780261977</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04305476209667335</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1877222488059729</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04270174112149798</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1899114195857479</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04235784074921041</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1921005903655231</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04202275047830545</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1942897611452982</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04169615980727788</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1964789319250733</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04137775823462249</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1986681027048485</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04106723525883409</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.2008572734846236</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04076428037840747</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.2030464442643987</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.0404685830918374</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.2052356150441738</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04017983289761871</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.207424785823949</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03989771929424621</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.2096139566037241</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03962193178021464</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.2118031273834992</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03935215985401883</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.2139922981632743</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03908809301415357</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.2161814689430494</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03882942075911365</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.2183706397228246</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03857583258739387</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.2205598105025997</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03832701799748903</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.2227489812823748</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03808266648789392</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2249381520621499</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03784246755710331</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2271273228419251</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03760611070361204</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2293164936217002</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03737328542591489</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2315056644014753</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03714368122250664</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2336948351812504</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03691698759188208</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2358840059610255</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03669289403253605</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2380731767408006</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03647109004296331</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2402623475205758</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03625147000971289</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2424515183003509</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03603442018870551</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.244640689080126</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03582004861043449</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2468298598599011</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03560844596668818</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2490190306396763</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03539970294925483</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2512082014194514</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.0351939102499228</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2533973721992265</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03499115856048034</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2555865429790016</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03479153857271577</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2577757137587768</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03459514097841739</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2599648845385519</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03440205646937348</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.262154055318327</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03421237573737235</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2643432260981021</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03402618947420233</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2665323968778772</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03384358837165168</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2687215676576524</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.0336646631215087</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2709107384374275</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03348950441556171</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2730999092172026</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03331820294559901</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2752890799969777</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.0331508494034089</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2774782507767529</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03298753448077966</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.279667421556528</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03282834886949958</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2818565923363031</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03267338326135701</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2840457631160782</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03252272834814018</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2862349338958534</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03237647482163745</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2884241046756285</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03223471337363709</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2906132754554036</v>
-      </c>
-    </row>
+        <v>0.3288703860873439</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1128.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1128.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001755644145826164</v>
+        <v>0.0009034737114129374</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001643170704461308</v>
+        <v>0.0005262501178843414</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002619322484532546</v>
+        <v>0.00127947169339529</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001657542505111811</v>
+        <v>0.0008609836726477591</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008955190816728159</v>
+        <v>0.003561854347391369</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.00165261500546404</v>
+        <v>0.0008555311358242871</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01532517704986813</v>
+        <v>0.007824029125251541</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.00165261500546404</v>
+        <v>0.0008436719618702338</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.001790723128162294</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.004042920556849934</v>
+        <v>0.001052500235768683</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00528023032594372</v>
+        <v>0.002715134031021964</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003315085010223623</v>
+        <v>0.001721967345295518</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01734312607884622</v>
+        <v>0.008070613896501905</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00330523001092808</v>
+        <v>0.001711062271648574</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02862279429019438</v>
+        <v>0.01565997950889059</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00330523001092808</v>
+        <v>0.001687343923740468</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006011404239829293</v>
+        <v>0.002652379075366369</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004929512113383923</v>
+        <v>0.001578750353653024</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004180110118838683</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004996249999999995</v>
+        <v>0.002582951017943277</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01186582524788107</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004669392523364483</v>
+        <v>0.002566593407472861</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.02165403033258118</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004669392523364483</v>
+        <v>0.002531015885610702</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007593482204073104</v>
+        <v>0.003479072378143475</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006572682817845231</v>
+        <v>0.002105000471537366</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.009043797287306241</v>
+        <v>0.005547523062804087</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006630170020447246</v>
+        <v>0.003443934690591036</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02714820408953891</v>
+        <v>0.01528703500207843</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00661046002185616</v>
+        <v>0.003422124543297149</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04378724805317025</v>
+        <v>0.02835236077798731</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00661046002185616</v>
+        <v>0.003374687847480935</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007988565338597237</v>
+        <v>0.004261433861611909</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00821585352230654</v>
+        <v>0.002631250589421707</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01031111659456106</v>
+        <v>0.006690495968876796</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008287712525559057</v>
+        <v>0.004304918363238795</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02978638869826178</v>
+        <v>0.01817378975964354</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008263075027320198</v>
+        <v>0.004277655679121436</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04943891450682381</v>
+        <v>0.03400115002677295</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008263075027320198</v>
+        <v>0.004218359809351169</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009228440744380645</v>
+        <v>0.004990094350889984</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009859024226767847</v>
+        <v>0.003157500707306049</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01162252835752611</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009945255030670869</v>
+        <v>0.004996249999999995</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03273651587713289</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009915690032784238</v>
+        <v>0.005490384615384612</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05279625690737927</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009915690032784238</v>
+        <v>0.004713443396226413</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01274475832281941</v>
+        <v>0.005655684671095985</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.0121287616705498</v>
+        <v>0.00368375082519039</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01292402390482258</v>
+        <v>0.008573935507815954</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01160279753578268</v>
+        <v>0.006026885708534313</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03534944545487551</v>
+        <v>0.02384380028997748</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01156830503824828</v>
+        <v>0.00598871795077001</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05659722475870294</v>
+        <v>0.04280350021985696</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01156830503824828</v>
+        <v>0.005905703733091637</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01238243836404134</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01314536563569046</v>
+        <v>0.004042920556849934</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01396159456507166</v>
+        <v>0.009097194729339071</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01326034004089449</v>
+        <v>0.006887869381182072</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03900961661272245</v>
+        <v>0.02547145801026643</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01400817757009345</v>
+        <v>0.006844249086594297</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0625898336796849</v>
+        <v>0.04599533850659221</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01400817757009345</v>
+        <v>0.00674937569496187</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01240436395917111</v>
+        <v>0.006828643221638835</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01478853634015177</v>
+        <v>0.004736251060959072</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.01016342234761058</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01498874999999998</v>
+        <v>0.007748853053829831</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04022727616792413</v>
+        <v>0.02730502824174408</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01487353504917636</v>
+        <v>0.007699780222418584</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06450671403919345</v>
+        <v>0.04945908983504832</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01487353504917636</v>
+        <v>0.007593047656832106</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01540839115439257</v>
+        <v>0.007397743102514773</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01643170704461308</v>
+        <v>0.005262501178843413</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01632287484897386</v>
+        <v>0.01078222498075034</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01657542505111811</v>
+        <v>0.008609836726477591</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04322197007724507</v>
+        <v>0.02908237213090828</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.0165261500546404</v>
+        <v>0.008555311358242872</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06890689842905035</v>
+        <v>0.0519814337071382</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0165261500546404</v>
+        <v>0.008436719618702338</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0153864401711102</v>
+        <v>0.007956848392246765</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01807487774907439</v>
+        <v>0.005788751296727755</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01758640877114512</v>
+        <v>0.01146320924687822</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01823296755622993</v>
+        <v>0.009470820399125349</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04589430224681773</v>
+        <v>0.03104135082425696</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01817876506010444</v>
+        <v>0.009410842494067158</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07256256505766379</v>
+        <v>0.05494904962477526</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01817876506010444</v>
+        <v>0.009280391580572572</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01633043123072851</v>
+        <v>0.008502800595269339</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01971804845353569</v>
+        <v>0.006315001414612097</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01885680752706019</v>
+        <v>0.01191598176411409</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01989051006134174</v>
+        <v>0.01033180407177311</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04850030738845665</v>
+        <v>0.03281982546828804</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01983138006556848</v>
+        <v>0.01026637362989145</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07719873150551704</v>
+        <v>0.05854861708987252</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01983138006556848</v>
+        <v>0.01012406354244281</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.018232284554652</v>
+        <v>0.009032441216017026</v>
       </c>
       <c r="G78" t="n">
-        <v>0.021361219157997</v>
+        <v>0.006841251532496439</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01991903869139611</v>
+        <v>0.01275014915057786</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02154805256645355</v>
+        <v>0.01119278774442087</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05189602021397632</v>
+        <v>0.03375565720949938</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02148399507103252</v>
+        <v>0.01112190476571573</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08234041535309317</v>
+        <v>0.0625898336796849</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02148399507103252</v>
+        <v>0.01123861478965411</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01708392036428517</v>
+        <v>0.009542611758924346</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02300438986245831</v>
+        <v>0.00736750165038078</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02085806983882986</v>
+        <v>0.01347531802438937</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02320559507156536</v>
+        <v>0.01205377141706863</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05413747543519135</v>
+        <v>0.03548670719438896</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02313661007649656</v>
+        <v>0.01197743590154002</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08651263418087551</v>
+        <v>0.06358618565857788</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02313661007649656</v>
+        <v>0.01181140746618327</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01787725888103252</v>
+        <v>0.01003015372842583</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02464756056691962</v>
+        <v>0.007893751768265121</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02215886854403849</v>
+        <v>0.01390109500366848</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02486313757667717</v>
+        <v>0.01291475508971639</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05728070776391617</v>
+        <v>0.03715083656945461</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0247892250819606</v>
+        <v>0.01283296703736431</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09194040556934713</v>
+        <v>0.06763016578088177</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0247892250819606</v>
+        <v>0.01265507942805351</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01960422032629854</v>
+        <v>0.01049190862895601</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02629073127138093</v>
+        <v>0.008420001886149463</v>
       </c>
       <c r="J81" t="n">
-        <v>0.023306402381699</v>
+        <v>0.01443708670653511</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02652068008178898</v>
+        <v>0.01377573876236414</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05938175191196537</v>
+        <v>0.03900961661272245</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02644184008742464</v>
+        <v>0.01359859040651069</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09594874709899132</v>
+        <v>0.06977918463599647</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02644184008742464</v>
+        <v>0.01349875138992374</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02125672492148773</v>
+        <v>0.01092471796494941</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02793390197584223</v>
+        <v>0.008946252004033803</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02418563892648841</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02817822258690079</v>
+        <v>0.01468364523438162</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06189664259115352</v>
+        <v>0.04022412264576014</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02809445509288868</v>
+        <v>0.01454402930901288</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09946267635029116</v>
+        <v>0.07291275530648555</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02809445509288868</v>
+        <v>0.01434242335179398</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0218266928880046</v>
+        <v>0.01132542324084055</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02957707268030354</v>
+        <v>0.009472502121918145</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02518154575308371</v>
+        <v>0.01608278291014552</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02983576509201261</v>
+        <v>0.01549770610765966</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06448141451329503</v>
+        <v>0.04236083994559436</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02974707009835272</v>
+        <v>0.01539956044483717</v>
       </c>
       <c r="N83" t="n">
-        <v>0.10270721090373</v>
+        <v>0.07701039087491213</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02974707009835272</v>
+        <v>0.01518609531366421</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02230604444725362</v>
+        <v>0.01169086596106397</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03122024338476485</v>
+        <v>0.009998752239802487</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02567909043616196</v>
+        <v>0.01681225894842464</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03149330759712442</v>
+        <v>0.01635868978030742</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06639210239020454</v>
+        <v>0.04418122695654961</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03139968510381676</v>
+        <v>0.01625509158066146</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1063073683397908</v>
+        <v>0.08025160442383966</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03139968510381676</v>
+        <v>0.01602976727553444</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02068669982063931</v>
+        <v>0.01201788763005418</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03286341408922616</v>
+        <v>0.01052500235768683</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02646324055040013</v>
+        <v>0.01757540389233736</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03315085010223623</v>
+        <v>0.01721967345295518</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06778474093369657</v>
+        <v>0.04667040632510541</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03305230010928079</v>
+        <v>0.01711062271648574</v>
       </c>
       <c r="N85" t="n">
-        <v>0.108588166238957</v>
+        <v>0.08391590903583163</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03305230010928079</v>
+        <v>0.01687343923740468</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02199519245311794</v>
+        <v>0.01230332975224573</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03450658479368746</v>
+        <v>0.01105125247557117</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02721896367047527</v>
+        <v>0.01836627064563322</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03480839260734804</v>
+        <v>0.01808065712560294</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06941536485558558</v>
+        <v>0.04821350069774138</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03470491511474484</v>
+        <v>0.01796615385231003</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1103746221817116</v>
+        <v>0.08638281779345131</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03470491511474484</v>
+        <v>0.01771711119927491</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02229359625701323</v>
+        <v>0.01254403383207313</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03614975549814878</v>
+        <v>0.01157750259345551</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02743655134887954</v>
+        <v>0.01897891211206174</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03646593511245985</v>
+        <v>0.0189416407982507</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06996844461055504</v>
+        <v>0.05029563272093712</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03635753012020888</v>
+        <v>0.01882168498813432</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1128041920149593</v>
+        <v>0.089931843779262</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03635753012020888</v>
+        <v>0.01856078316114514</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02158154306397209</v>
+        <v>0.01274475832281941</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03779292620261008</v>
+        <v>0.0121287616705498</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02800688108732285</v>
+        <v>0.01980738119537248</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03812347761757166</v>
+        <v>0.01980262447089846</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07078747617981468</v>
+        <v>0.05250192504117213</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03801014512567292</v>
+        <v>0.0196772161239586</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1132787523429267</v>
+        <v>0.09344250007582727</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03801014512567292</v>
+        <v>0.01940445512301538</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02185701639448838</v>
+        <v>0.01290133110012927</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03943609690707139</v>
+        <v>0.01263000282922419</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02826566852651741</v>
+        <v>0.02054573079931496</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03978102012268347</v>
+        <v>0.02066360814354622</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07167420389942794</v>
+        <v>0.05471750030492609</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03966276013113695</v>
+        <v>0.02053274725978289</v>
       </c>
       <c r="N89" t="n">
-        <v>0.114801482051879</v>
+        <v>0.09719429976571031</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03966276013113695</v>
+        <v>0.02024812708488561</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02311799976905597</v>
+        <v>0.01306368132845953</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0410792676115327</v>
+        <v>0.01315625294710853</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02871040780414666</v>
+        <v>0.02148801382763869</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04143856262779529</v>
+        <v>0.02152459181619398</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07242234861856595</v>
+        <v>0.05682748115867847</v>
       </c>
       <c r="M90" t="n">
-        <v>0.041315375136601</v>
+        <v>0.02138827839560718</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1168623064207562</v>
+        <v>0.09956675593147457</v>
       </c>
       <c r="O90" t="n">
-        <v>0.041315375136601</v>
+        <v>0.02109179904675585</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0243624767081688</v>
+        <v>0.01322394495384658</v>
       </c>
       <c r="G91" t="n">
-        <v>0.042722438315994</v>
+        <v>0.01368250306499288</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02873859305789402</v>
+        <v>0.02222828318409327</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0430961051329071</v>
+        <v>0.02238557548884174</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07362563118639989</v>
+        <v>0.05911699024890887</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04296799014206504</v>
+        <v>0.02224380953143147</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1174511507284985</v>
+        <v>0.1033393816556834</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04296799014206504</v>
+        <v>0.02193547100862608</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0245884307323207</v>
+        <v>0.01338211945666699</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04436560902045531</v>
+        <v>0.01420875318287722</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02904771842544294</v>
+        <v>0.02326059177242816</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04475364763801891</v>
+        <v>0.0232465591614895</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07387777245210098</v>
+        <v>0.06077115022209692</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04462060514752907</v>
+        <v>0.02309934066725575</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1193579402540461</v>
+        <v>0.1055916900209002</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04462060514752907</v>
+        <v>0.02277914297049631</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0247938453620056</v>
+        <v>0.0135382023172973</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04600877972491663</v>
+        <v>0.01473500330076156</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02963527804447688</v>
+        <v>0.02417899249639292</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04641119014313072</v>
+        <v>0.02410754283413725</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07517249326484043</v>
+        <v>0.06287508372472214</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04627322015299312</v>
+        <v>0.02395487180308004</v>
       </c>
       <c r="N93" t="n">
-        <v>0.120472600276339</v>
+        <v>0.1086031941096882</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04627322015299312</v>
+        <v>0.02362281493236655</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02297670411771738</v>
+        <v>0.01369219101611407</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04765195042937793</v>
+        <v>0.0152612534186459</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02969876605267927</v>
+        <v>0.0248775382597371</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04806873264824253</v>
+        <v>0.02496852650678501</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0758035144737893</v>
+        <v>0.06461391340326419</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04792583515845716</v>
+        <v>0.02481040293890432</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1216850560743174</v>
+        <v>0.111853407004611</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04792583515845716</v>
+        <v>0.02446648689423678</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02313499051994994</v>
+        <v>0.01384408303349384</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04929512113383924</v>
+        <v>0.01578750353653024</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03013567658773353</v>
+        <v>0.02555028196621022</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04972627515335434</v>
+        <v>0.02582951017943277</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07646455692811882</v>
+        <v>0.06657276190420253</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0495784501639212</v>
+        <v>0.02566593407472861</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1215852329269214</v>
+        <v>0.1138218417882318</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0495784501639212</v>
+        <v>0.02531015885610701</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02326668808919714</v>
+        <v>0.01399387584981318</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05093829183830054</v>
+        <v>0.01631375365441458</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03014350378732314</v>
+        <v>0.02639127651956182</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05138381765846615</v>
+        <v>0.02669049385208053</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07674934147700013</v>
+        <v>0.06853675187401681</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05123106516938523</v>
+        <v>0.0265214652105529</v>
       </c>
       <c r="N96" t="n">
-        <v>0.122763056113091</v>
+        <v>0.1160880115431141</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05123106516938523</v>
+        <v>0.02615383081797725</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02436978034595291</v>
+        <v>0.01414156694544864</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05258146254276185</v>
+        <v>0.01684000377229893</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03021974178913152</v>
+        <v>0.02689457482354139</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05304136016357797</v>
+        <v>0.02755147752472829</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07725158896960443</v>
+        <v>0.06999100595918653</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05288368017484928</v>
+        <v>0.02737699634637719</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1229084509117664</v>
+        <v>0.1185314293518211</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05288368017484928</v>
+        <v>0.02699750277984748</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02444225081071109</v>
+        <v>0.01428715380077675</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05422463324722317</v>
+        <v>0.01736625389018327</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0306618847308421</v>
+        <v>0.02775422978189852</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05469890266868978</v>
+        <v>0.02841246119737605</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07746502025510291</v>
+        <v>0.07182064680619138</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05453629518031331</v>
+        <v>0.02823252748220147</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1244113426018879</v>
+        <v>0.1198316082969164</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05453629518031331</v>
+        <v>0.02784117474171771</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02548951664563881</v>
+        <v>0.01443063389617409</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05586780395168447</v>
+        <v>0.01789250400806761</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03076742675013833</v>
+        <v>0.02846429429838272</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05635644517380159</v>
+        <v>0.02927344487002381</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07768335618266672</v>
+        <v>0.07281079706151089</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05618891018577735</v>
+        <v>0.02908805861802576</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1247616564623953</v>
+        <v>0.121668061460963</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05618891018577735</v>
+        <v>0.02868484670358795</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02548842585615733</v>
+        <v>0.0145720047120172</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05751097465614578</v>
+        <v>0.01841875412595195</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03085879909152003</v>
+        <v>0.02871882127674352</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0580139876789134</v>
+        <v>0.03013442854267157</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07801923322544491</v>
+        <v>0.07414657937162458</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0578415251912414</v>
+        <v>0.02994358975385005</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1251796673593698</v>
+        <v>0.1221203019265247</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0578415251912414</v>
+        <v>0.02952851866545818</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0254738215244335</v>
+        <v>0.01471126372868264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05915414536060708</v>
+        <v>0.01894500424383629</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0308586845722215</v>
+        <v>0.02951186362073048</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05967153018402521</v>
+        <v>0.03099541221531932</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07801459954601483</v>
+        <v>0.0756131163830121</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05949414019670543</v>
+        <v>0.03079912088967434</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1239722327509313</v>
+        <v>0.1241678427761647</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05949414019670543</v>
+        <v>0.03037219062732842</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02444303037270386</v>
+        <v>0.01484840842654696</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06079731606506839</v>
+        <v>0.01947125436172063</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03064962495808422</v>
+        <v>0.02973747423409308</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06132907268913703</v>
+        <v>0.03185639588796708</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07726625240782328</v>
+        <v>0.07599553074215296</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06114675520216947</v>
+        <v>0.03165465202549862</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1245946611262639</v>
+        <v>0.1242901970924462</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06114675520216947</v>
+        <v>0.03121586258919865</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02439711514382015</v>
+        <v>0.0149834362859867</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06244048676952971</v>
+        <v>0.01999750447960497</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03052002046746043</v>
+        <v>0.03018970602058089</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06298661519424884</v>
+        <v>0.03271737956061484</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07746801556297095</v>
+        <v>0.07707894509552676</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06279937020763351</v>
+        <v>0.03251018316132291</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1247370428691669</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06279937020763351</v>
+        <v>0.03205953455106889</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02333713858063415</v>
+        <v>0.01511634478737844</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06408365747399102</v>
+        <v>0.02052375459748931</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03057124999349323</v>
+        <v>0.03036261188394344</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06464415769936065</v>
+        <v>0.0335783632332626</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0775231983050253</v>
+        <v>0.07724848208961313</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06445198521309754</v>
+        <v>0.0333657142971472</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1235046876481773</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06445198521309754</v>
+        <v>0.03290320651293912</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02326416342599764</v>
+        <v>0.01524713141109869</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06572682817845232</v>
+        <v>0.02105000471537365</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0306046341978886</v>
+        <v>0.03045024472793029</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06630170020447246</v>
+        <v>0.03443934690591036</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07753510992755375</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06610460021856158</v>
+        <v>0.03422124543297149</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1234029051318327</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06610460021856158</v>
+        <v>0.03374687847480935</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02517925242276238</v>
+        <v>0.01537579363752405</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06736999888291362</v>
+        <v>0.021576254833258</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03052149374235238</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06795924270958427</v>
+        <v>0.03530033057855812</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07700705972412381</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06775721522402564</v>
+        <v>0.03507677656879577</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1236370049886704</v>
+        <v>0.1242796673593698</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06775721522402564</v>
+        <v>0.03459055043667959</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0240834683137801</v>
+        <v>0.01550232894703103</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06901316958737493</v>
+        <v>0.02210250495114234</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03032314928859049</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06961678521469608</v>
+        <v>0.03616131425120588</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07674235698830292</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06940983022948968</v>
+        <v>0.03593230770462006</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1228122968872281</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06940983022948968</v>
+        <v>0.03543422239854982</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0249778738419026</v>
+        <v>0.01562673481999622</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07065634029183623</v>
+        <v>0.02262875506902668</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0302109214983088</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07127432771980789</v>
+        <v>0.03702229792385364</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07664431101365857</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07106244523495371</v>
+        <v>0.03678783884044435</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1222340904960428</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07106244523495371</v>
+        <v>0.03627789436042005</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02286353174998164</v>
+        <v>0.01574900873679615</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07229951099629756</v>
+        <v>0.02315500518691102</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0299861310332132</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0729318702249197</v>
+        <v>0.03788328159650139</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07601623109375816</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07271506024041775</v>
+        <v>0.03764336997626863</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1223076954836521</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07271506024041775</v>
+        <v>0.03712156632229029</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02274150478086899</v>
+        <v>0.01586914817780738</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07394268170075886</v>
+        <v>0.02368125530479536</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02985009855500957</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07458941273003152</v>
+        <v>0.03874426526914915</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07586142652216923</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0743676752458818</v>
+        <v>0.03849890111209292</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1218384215185935</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0743676752458818</v>
+        <v>0.03796523828416052</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02261285567741639</v>
+        <v>0.01598715062340646</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07558585240522016</v>
+        <v>0.0242075054226797</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0300041447254038</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07624695523514333</v>
+        <v>0.03960524894179691</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07498320659245919</v>
+        <v>0.07751923322544491</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07602029025134584</v>
+        <v>0.03935443224791721</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1205315782694041</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07602029025134584</v>
+        <v>0.03880891024603075</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02447864718247562</v>
+        <v>0.01610301355396995</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07722902310968147</v>
+        <v>0.02473375554056404</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0298495902061018</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07790449774025514</v>
+        <v>0.04046623261444467</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07508488059819551</v>
+        <v>0.07791923322544492</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07767290525680988</v>
+        <v>0.0402099633837415</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1202924754046217</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07767290525680988</v>
+        <v>0.03965258220790099</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02233994203889847</v>
+        <v>0.01621673444987438</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07887219381414277</v>
+        <v>0.02526000565844839</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02958775565880944</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07956204024536695</v>
+        <v>0.04132721628709243</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07466975783294572</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07932552026227391</v>
+        <v>0.04106549451956578</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1198264225927833</v>
+        <v>0.1241796673593698</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07932552026227391</v>
+        <v>0.04049625416977123</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02419780298953665</v>
+        <v>0.01632831079149633</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08051536451860408</v>
+        <v>0.02578625577633273</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02931996174523264</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08121958275047876</v>
+        <v>0.04218819995974019</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07424114759027714</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08097813526773795</v>
+        <v>0.04192102565539007</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1185387295024266</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08097813526773795</v>
+        <v>0.04133992613164145</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02205329277724198</v>
+        <v>0.01643774005921234</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0821585352230654</v>
+        <v>0.02631250589421707</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02914752912707724</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08287712525559057</v>
+        <v>0.04304918363238795</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0739023591637574</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08263075027320199</v>
+        <v>0.04277655679121436</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1177347058020889</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08263075027320199</v>
+        <v>0.04218359809351169</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02390747414486621</v>
+        <v>0.01654501973339897</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08380170592752671</v>
+        <v>0.02683875601210141</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02887177846604919</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08453466776070238</v>
+        <v>0.04391016730503571</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07325670184695385</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08428336527866603</v>
+        <v>0.04363208792703864</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1177196611603076</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08428336527866603</v>
+        <v>0.04302727005538193</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02176140983526108</v>
+        <v>0.01665014729443275</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08544487663198801</v>
+        <v>0.02736500612998576</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02869403042385432</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0861922102658142</v>
+        <v>0.04477115097768347</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07280748493343395</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08593598028413008</v>
+        <v>0.04448761906286294</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1164989052456202</v>
+        <v>0.1242796673593698</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08593598028413008</v>
+        <v>0.04387094201725216</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02261616259127837</v>
+        <v>0.01675312022269026</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08708804733644931</v>
+        <v>0.02789125624787009</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02871560566219855</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08784975277092601</v>
+        <v>0.04563213465033123</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07245801771676524</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0875885952895941</v>
+        <v>0.04534315019868722</v>
       </c>
       <c r="N118" t="n">
-        <v>0.116477747726564</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0875885952895941</v>
+        <v>0.04471461397912239</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02247225157486235</v>
+        <v>0.01685393599854804</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08873121804091062</v>
+        <v>0.02841750636575444</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02853782484278777</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08950729527603782</v>
+        <v>0.04649311832297899</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07191160949051512</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08924121029505815</v>
+        <v>0.04619868133451151</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1152614982716764</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08924121029505815</v>
+        <v>0.04555828594099263</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02231345422062432</v>
+        <v>0.01695259210238264</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09037438874537193</v>
+        <v>0.02894375648363878</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02846200862732785</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09116483778114963</v>
+        <v>0.04735410199562675</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07166584460512793</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09089382530052219</v>
+        <v>0.04705421247033579</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1142462810391253</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09089382530052219</v>
+        <v>0.04640195790286286</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02213433104656636</v>
+        <v>0.01704908601457062</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09201755944983325</v>
+        <v>0.02947000660152312</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02797503466595766</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09282238028626144</v>
+        <v>0.0482150856682745</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07076526950687068</v>
+        <v>0.07791923322544492</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09254644030598624</v>
+        <v>0.04790974360616008</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1137431223601985</v>
+        <v>0.1243796673593698</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09254644030598624</v>
+        <v>0.04724562986473309</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0219383445959347</v>
+        <v>0.01714341521548852</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09366073015429455</v>
+        <v>0.02999625671940746</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02806200892289989</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09447992279137325</v>
+        <v>0.04907606934092226</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07050367241481539</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09419905531145027</v>
+        <v>0.04876527474198437</v>
       </c>
       <c r="N122" t="n">
-        <v>0.112642055606949</v>
+        <v>0.1239796673593698</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09419905531145027</v>
+        <v>0.04808930182660333</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0217289574119756</v>
+        <v>0.01723557718551292</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09530390085875586</v>
+        <v>0.0305225068372918</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02782717681608322</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09613746529648506</v>
+        <v>0.04993705301357002</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06969183540298193</v>
+        <v>0.07791923322544492</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09585167031691431</v>
+        <v>0.04962080587780865</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1118603803141638</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09585167031691431</v>
+        <v>0.04893297378847356</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02050963203793531</v>
+        <v>0.01732556940502034</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09694707156321716</v>
+        <v>0.03104875695517614</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02737484121921099</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09779500780159688</v>
+        <v>0.05079803668621779</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06914054054539037</v>
+        <v>0.07751923322544491</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09750428532237836</v>
+        <v>0.05047633701363295</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1114153960166305</v>
+        <v>0.1242796673593698</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09750428532237836</v>
+        <v>0.0497766457503438</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02128383101706011</v>
+        <v>0.01741338935438736</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09859024226767847</v>
+        <v>0.03157500707306048</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02710930500598661</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09945255030670869</v>
+        <v>0.05165902035886555</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06846056991606053</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0991569003278424</v>
+        <v>0.05133186814945723</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1098244022491361</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0991569003278424</v>
+        <v>0.05062031771221403</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02105501689259624</v>
+        <v>0.01749903451399051</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1002334129721398</v>
+        <v>0.03210125719094483</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02673487105011346</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1011100928118205</v>
+        <v>0.0525200040315133</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06746270558901243</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1008095153333064</v>
+        <v>0.05218739928528152</v>
       </c>
       <c r="N126" t="n">
-        <v>0.109104698546468</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1008095153333064</v>
+        <v>0.05146398967408426</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02082665220778997</v>
+        <v>0.01758250236420635</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1018765836766011</v>
+        <v>0.03262750730882916</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02665584222529489</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1027676353169323</v>
+        <v>0.05338098770416106</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06675772963826596</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1024621303387705</v>
+        <v>0.05304293042110581</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1077735844434136</v>
+        <v>0.1249796673593698</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1024621303387705</v>
+        <v>0.0523076616359545</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01960219950588753</v>
+        <v>0.01766379038541144</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1035197543810624</v>
+        <v>0.0331537574267135</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02637652140523432</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1044251778220441</v>
+        <v>0.05424197137680882</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06665642413784109</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1041147453442345</v>
+        <v>0.05389846155693009</v>
       </c>
       <c r="N128" t="n">
-        <v>0.10594835947476</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1041147453442345</v>
+        <v>0.05315133359782473</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0203851213301352</v>
+        <v>0.01774289605798231</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1051629250855237</v>
+        <v>0.03368000754459785</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02590121146363512</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1060827203271559</v>
+        <v>0.05510295504945658</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06526957116175777</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1057673603496986</v>
+        <v>0.05475399269275438</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1048463231752945</v>
+        <v>0.1242796673593698</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1057673603496986</v>
+        <v>0.05399500555969496</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02017826909467652</v>
+        <v>0.01781981686229556</v>
       </c>
       <c r="G130" t="n">
-        <v>0.106806095789985</v>
+        <v>0.03420625766248219</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02573421527420064</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1077402628322677</v>
+        <v>0.05596393872210434</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06500795278403593</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1074199753551626</v>
+        <v>0.05560952382857866</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1036847750798044</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1074199753551626</v>
+        <v>0.0548386775215652</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01896086907845233</v>
+        <v>0.01789455027872769</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1084492664944463</v>
+        <v>0.03473250778036654</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02547982972544983</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1093978053373796</v>
+        <v>0.0568249223947521</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06397237287530566</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1090725903606266</v>
+        <v>0.05646505496440295</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1035650049761269</v>
+        <v>0.1245796673593698</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1090725903606266</v>
+        <v>0.05568234948343543</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02072492132799134</v>
+        <v>0.01796709378765529</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1100924371989076</v>
+        <v>0.03525875789825087</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02511849404726001</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1110553478424914</v>
+        <v>0.05768590606739985</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06398812985925295</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1107252053660907</v>
+        <v>0.05732058610022724</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1024671562841902</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1107252053660907</v>
+        <v>0.05652602144530566</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02047538247496493</v>
+        <v>0.01803744486945488</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1117356079033689</v>
+        <v>0.03578500801613521</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0251333655630568</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1127128903476032</v>
+        <v>0.05854688974004761</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06305016410427586</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1123778203715547</v>
+        <v>0.05817611723605152</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1014831109672656</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1123778203715547</v>
+        <v>0.0573696934071759</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01921720915104447</v>
+        <v>0.01810560100450305</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1133787786078302</v>
+        <v>0.03631125813401956</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02463060383780716</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K134" t="n">
-        <v>0.114370432852715</v>
+        <v>0.05940787341269537</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06177391015249267</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1140304353770187</v>
+        <v>0.05903164837187581</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1000376333144691</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1140304353770187</v>
+        <v>0.05821336536904613</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01895535798790134</v>
+        <v>0.01817155967317632</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1150219493122916</v>
+        <v>0.0368375082519039</v>
       </c>
       <c r="J135" t="n">
-        <v>0.024316368436478</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1160279753578268</v>
+        <v>0.06026885708534313</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06107480254602152</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1156830503824828</v>
+        <v>0.0598871795077001</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0979554876149164</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1156830503824828</v>
+        <v>0.05905703733091636</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01869478561720691</v>
+        <v>0.01823531835585126</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1166651200167529</v>
+        <v>0.03736375836978824</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02399681892403623</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1176855178629386</v>
+        <v>0.06112984075799089</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06066827582698056</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1173356653879468</v>
+        <v>0.06074271064352439</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09696143815772357</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1173356653879468</v>
+        <v>0.0599007092927866</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01944044867063253</v>
+        <v>0.01829687453290441</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1183082907212142</v>
+        <v>0.03789000848767258</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02387811486544879</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1193430603680504</v>
+        <v>0.06199082443063865</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05956976453748797</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1189882803934109</v>
+        <v>0.06159824177934867</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09598024923200643</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1189882803934109</v>
+        <v>0.06074438125465684</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01719730377984961</v>
+        <v>0.01835622568471234</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1199514614256755</v>
+        <v>0.03841625860555692</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02326641582568258</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1210006028731622</v>
+        <v>0.0628518081032864</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05859470321966195</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1206408953988749</v>
+        <v>0.06245377291517296</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09493668512688092</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1206408953988749</v>
+        <v>0.06158805321652707</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01697030757652948</v>
+        <v>0.01841336929165159</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1215946321301368</v>
+        <v>0.03894250872344127</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02296788136970454</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1226581453782741</v>
+        <v>0.06371279177593417</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05835852641562062</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1222935104043389</v>
+        <v>0.06330930405099724</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09275551013146299</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1222935104043389</v>
+        <v>0.0624317251783973</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01776441669234354</v>
+        <v>0.01846830283409872</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1232378028345981</v>
+        <v>0.03946875884132561</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02298867106248158</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1243156878833859</v>
+        <v>0.06457377544858194</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05717666866748222</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M140" t="n">
-        <v>0.123946125409803</v>
+        <v>0.06416483518682153</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09206148853486851</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O140" t="n">
-        <v>0.123946125409803</v>
+        <v>0.06327539714026754</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01658458775896315</v>
+        <v>0.01852102379243026</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1248809735390594</v>
+        <v>0.03999500895920995</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02253494446898062</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1259732303884977</v>
+        <v>0.06543475912122969</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05696456451736487</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M141" t="n">
-        <v>0.125598740415267</v>
+        <v>0.06502036632264582</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09147938462621347</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O141" t="n">
-        <v>0.125598740415267</v>
+        <v>0.06411906910213777</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0164357774080597</v>
+        <v>0.0185715296470228</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1265241442435207</v>
+        <v>0.04052125907709429</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02221286115416861</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1276307728936095</v>
+        <v>0.06629574279387745</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05623764850738674</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1272513554207311</v>
+        <v>0.06587589745847011</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09103396269461372</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1272513554207311</v>
+        <v>0.06496274106400801</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01832294227130454</v>
+        <v>0.01861981787825287</v>
       </c>
       <c r="G143" t="n">
-        <v>0.128167314947982</v>
+        <v>0.04104750919497863</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02202858068301243</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1292883153987213</v>
+        <v>0.06715672646652521</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05591135517966603</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1289039704261951</v>
+        <v>0.0667314285942944</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08994998702918511</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1289039704261951</v>
+        <v>0.06580641302587824</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01825103898036905</v>
+        <v>0.01866588596649702</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1298104856524433</v>
+        <v>0.04157375931286297</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02188826262047903</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1309458579038331</v>
+        <v>0.06801771013917297</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05590111907632087</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1305565854316591</v>
+        <v>0.06758695973011868</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08935222191904368</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1305565854316591</v>
+        <v>0.06665008498774846</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0172250241669246</v>
+        <v>0.01870973139213181</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1314536563569046</v>
+        <v>0.04210000943074731</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02209806653153532</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1326034004089449</v>
+        <v>0.06887869381182073</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05582237473946941</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1322092004371232</v>
+        <v>0.06844249086594298</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08886543165330529</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1322092004371232</v>
+        <v>0.06749375694961871</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01722846158178917</v>
+        <v>0.0187513516355338</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1330968270613659</v>
+        <v>0.04262625954863165</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02196415198114821</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1342609429140567</v>
+        <v>0.06973967748446848</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05548472997028642</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1338618154425872</v>
+        <v>0.06929802200176727</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08830503167897419</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1338618154425872</v>
+        <v>0.06833742891148895</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01723899615001302</v>
+        <v>0.01879074417707952</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1347399977658272</v>
+        <v>0.04315250966651599</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02206802986633573</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1359184854191685</v>
+        <v>0.07060066115711625</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05550256238547482</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1355144304480513</v>
+        <v>0.07015355313759154</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08873364328805067</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1355144304480513</v>
+        <v>0.06918110087335917</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01825624678089391</v>
+        <v>0.01882790649714555</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1363831684702886</v>
+        <v>0.04367875978440033</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02208073497831677</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1375760279242803</v>
+        <v>0.071461644829764</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0558419468578201</v>
+        <v>0.07791923322544492</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1371670454535153</v>
+        <v>0.07100908427341583</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08899683456721974</v>
+        <v>0.1243789144060659</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1371670454535153</v>
+        <v>0.07002477283522941</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01827984926294218</v>
+        <v>0.01886283607610843</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1380263391747499</v>
+        <v>0.04420500990228468</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02200172026310793</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1392335704293922</v>
+        <v>0.07232262850241176</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05560174926278974</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1388196604589794</v>
+        <v>0.07186461540924012</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08949278584553799</v>
+        <v>0.1241714548883663</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1388196604589794</v>
+        <v>0.07086844479709964</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01630943938466815</v>
+        <v>0.01889553039434468</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1396695098792112</v>
+        <v>0.04473126002016901</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02193053311811916</v>
+        <v>0.03055879072757672</v>
       </c>
       <c r="K150" t="n">
-        <v>0.140891112934504</v>
+        <v>0.07318361217505952</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05588083547585121</v>
+        <v>0.07781750525661293</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1404722754644434</v>
+        <v>0.07272014654506441</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08901967745206196</v>
+        <v>0.1245562593099197</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1404722754644434</v>
+        <v>0.07171211675896987</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01734465293458216</v>
+        <v>0.01892598693223091</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1413126805836725</v>
+        <v>0.04525751013805336</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02216672094076043</v>
+        <v>0.03055757128265719</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1425486554396158</v>
+        <v>0.07404459584770728</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05587807137247194</v>
+        <v>0.07751078954094306</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1421248904699074</v>
+        <v>0.0735756776808887</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08967568971584838</v>
+        <v>0.1251336336044194</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1421248904699074</v>
+        <v>0.07255578872084011</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01738512570119453</v>
+        <v>0.01895420317014365</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1429558512881338</v>
+        <v>0.0457837602559377</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02190983112844168</v>
+        <v>0.03065434067541395</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1442061979447276</v>
+        <v>0.07490557952035504</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05589232282811948</v>
+        <v>0.07789919646530208</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1437775054753715</v>
+        <v>0.07443120881671299</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08945900296595366</v>
+        <v>0.1239038837055589</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1437775054753715</v>
+        <v>0.07339946068271035</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0184304934730156</v>
+        <v>0.01898017658845945</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1445990219925951</v>
+        <v>0.04631001037382204</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0219594110785729</v>
+        <v>0.03074917906192078</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1458637404498394</v>
+        <v>0.07576656319300279</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05632245571826125</v>
+        <v>0.07798292485964067</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1454301204808355</v>
+        <v>0.07528673995253726</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08916779753143461</v>
+        <v>0.1246673155470318</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1454301204808355</v>
+        <v>0.07424313264458057</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01648039203855569</v>
+        <v>0.01900390466755485</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1462421926970564</v>
+        <v>0.04683626049170639</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02221500818856402</v>
+        <v>0.0305421665982514</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1475212829549512</v>
+        <v>0.07662754686565056</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05576733591836469</v>
+        <v>0.07796217355390953</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1470827354862995</v>
+        <v>0.07614227108836155</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08980025374134765</v>
+        <v>0.1241242350625314</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1470827354862995</v>
+        <v>0.07508680460645081</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01853445718632514</v>
+        <v>0.01902538488780642</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1478853634015177</v>
+        <v>0.04736251060959072</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02237616985582505</v>
+        <v>0.03053338344047954</v>
       </c>
       <c r="K155" t="n">
-        <v>0.149178825460063</v>
+        <v>0.07748853053829831</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0562258293038973</v>
+        <v>0.07763714137805933</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1487353504917636</v>
+        <v>0.07699780222418584</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08995455192474944</v>
+        <v>0.1247749481857512</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1487353504917636</v>
+        <v>0.07593047656832104</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01859232470483427</v>
+        <v>0.0190446147295907</v>
       </c>
       <c r="G156" t="n">
-        <v>0.149528534105979</v>
+        <v>0.04788876072747507</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02224244347776591</v>
+        <v>0.03052290974467893</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1508363679651748</v>
+        <v>0.07834951421094608</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05679680175032659</v>
+        <v>0.07760802716204068</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1503879654972276</v>
+        <v>0.07785333336001013</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09112887241069667</v>
+        <v>0.1249197608503847</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1503879654972276</v>
+        <v>0.07677414853019128</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01665363170477028</v>
+        <v>0.01906159167328426</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1511717048104403</v>
+        <v>0.04841501084535941</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02221337645179662</v>
+        <v>0.03061082566692333</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1524939104702867</v>
+        <v>0.07921049788359383</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05687911913311997</v>
+        <v>0.07787502973580429</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1520405805026917</v>
+        <v>0.07870886449583442</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09042139552824591</v>
+        <v>0.1241589789901253</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1520405805026917</v>
+        <v>0.07761782049206151</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01774897720323373</v>
+        <v>0.01907631319926363</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1528148755149016</v>
+        <v>0.04894126096324375</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02258876130860953</v>
+        <v>0.0307972113632865</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1541514529753985</v>
+        <v>0.08007148155624159</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05648692920924672</v>
+        <v>0.07723834792930084</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1536931955081557</v>
+        <v>0.07956439563165869</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09075482095590048</v>
+        <v>0.1244929085386664</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1536931955081557</v>
+        <v>0.07846149245393175</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0179010501411332</v>
+        <v>0.01908877678790539</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1544580462193629</v>
+        <v>0.04946751108112809</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02271102152597629</v>
+        <v>0.03058214698984214</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1558089954805103</v>
+        <v>0.08093246522888935</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05695320624655834</v>
+        <v>0.07779818057248095</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1553458105136198</v>
+        <v>0.080419926767483</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09184250216983331</v>
+        <v>0.1244218554297016</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1553458105136198</v>
+        <v>0.07930516441580199</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01809885585265134</v>
+        <v>0.01909897991958606</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1561012169238243</v>
+        <v>0.04999376119901243</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02260205959740082</v>
+        <v>0.03066571270266401</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1574665379856221</v>
+        <v>0.0817934489015371</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05758162114046436</v>
+        <v>0.07775472649529533</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1569984255190838</v>
+        <v>0.08127545790330729</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09279032901857659</v>
+        <v>0.1246461255969242</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1569984255190838</v>
+        <v>0.08014883637767221</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01933139967197079</v>
+        <v>0.01910692007468223</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1577443876282855</v>
+        <v>0.05052001131689678</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02294821254308518</v>
+        <v>0.03064798865782585</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1591240804907339</v>
+        <v>0.08265443257418487</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05873793740863484</v>
+        <v>0.07710818452769463</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1586510405245478</v>
+        <v>0.08213098903913156</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09364337002828149</v>
+        <v>0.1238660249740277</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1586510405245478</v>
+        <v>0.08099250833954245</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01858768693327419</v>
+        <v>0.01911259473357042</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1593875583327469</v>
+        <v>0.05104626143478112</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02343581738323154</v>
+        <v>0.03052905501140139</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1607816229958457</v>
+        <v>0.08351541624683263</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0592879185687398</v>
+        <v>0.07705875349962954</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1603036555300119</v>
+        <v>0.08298652017495585</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09514669372509926</v>
+        <v>0.1243818594947055</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1603036555300119</v>
+        <v>0.08183618030141268</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01885672297074418</v>
+        <v>0.0191160013766272</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1610307290372082</v>
+        <v>0.05157251155266546</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02355121113804196</v>
+        <v>0.03060899191946438</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1624391655009575</v>
+        <v>0.08437639991948039</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05999732813844927</v>
+        <v>0.07690663224105068</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1619562705354759</v>
+        <v>0.08384205131078014</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09574536863518129</v>
+        <v>0.1238939350926512</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1619562705354759</v>
+        <v>0.08267985226328291</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02012751311856342</v>
+        <v>0.01911713748422911</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1626738997416695</v>
+        <v>0.0520987616705498</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02398073082771851</v>
+        <v>0.03038787953808858</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1640967080060693</v>
+        <v>0.08523738359212815</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06043192963543323</v>
+        <v>0.07745201958190878</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1636088855409399</v>
+        <v>0.08469758244660443</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09748446328467864</v>
+        <v>0.1233025577015581</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1636088855409399</v>
+        <v>0.08352352422515315</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01938906271091453</v>
+        <v>0.01911713748422911</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1643170704461308</v>
+        <v>0.0520987616705498</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02431071347246332</v>
+        <v>0.03066579802334768</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1657542505111811</v>
+        <v>0.0860983672647759</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06155748657736165</v>
+        <v>0.07699511435215442</v>
       </c>
       <c r="M165" t="n">
-        <v>0.165261500546404</v>
+        <v>0.08555311358242872</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09890904619974267</v>
+        <v>0.1242080332551198</v>
       </c>
       <c r="O165" t="n">
-        <v>0.165261500546404</v>
+        <v>0.08436719618702339</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01863037708198018</v>
+        <v>0.01867324231166606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1659602411505921</v>
+        <v>0.05209849314208579</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02452749609247848</v>
+        <v>0.03044282753131544</v>
       </c>
       <c r="K166" t="n">
-        <v>0.167411793016293</v>
+        <v>0.08695935093742367</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0622397624819046</v>
+        <v>0.07703611538173838</v>
       </c>
       <c r="M166" t="n">
-        <v>0.166914115551868</v>
+        <v>0.08640864471825301</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09966418590652465</v>
+        <v>0.1234106676870296</v>
       </c>
       <c r="O166" t="n">
-        <v>0.166914115551868</v>
+        <v>0.08521086814889361</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01984049268489311</v>
+        <v>0.01823448947748516</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1676034118550534</v>
+        <v>0.05209822461362177</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02481741570796607</v>
+        <v>0.03061904821806564</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1690693355214048</v>
+        <v>0.08782033461007142</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06344452086673208</v>
+        <v>0.07687522150061124</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1685667305573321</v>
+        <v>0.08726417585407728</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1007949509311758</v>
+        <v>0.1230107669309809</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1685667305573321</v>
+        <v>0.08605454011076386</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01903032861346499</v>
+        <v>0.01780141783897575</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1692465825595147</v>
+        <v>0.05209795608515775</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0251677289373312</v>
+        <v>0.03029454023967199</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1707268780265166</v>
+        <v>0.08868131828271919</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06405164165273422</v>
+        <v>0.07691263153872371</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1702193455627961</v>
+        <v>0.08811970698990158</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1027690591721411</v>
+        <v>0.1235086369206673</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1702193455627961</v>
+        <v>0.08689821207263408</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02021542538646242</v>
+        <v>0.01737456625338929</v>
       </c>
       <c r="G169" t="n">
-        <v>0.170889753263976</v>
+        <v>0.05209768755669373</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02549858097714559</v>
+        <v>0.0305693837522082</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1723844205316284</v>
+        <v>0.08954230195536694</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0646293243749643</v>
+        <v>0.07704854432602642</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1718719605682602</v>
+        <v>0.08897523812572587</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1029959348669978</v>
+        <v>0.1226045835897823</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1718719605682602</v>
+        <v>0.08774188403450432</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02139613178777668</v>
+        <v>0.01695447357801463</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1725329239684373</v>
+        <v>0.05209741902822972</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02562366742617639</v>
+        <v>0.03034365891174805</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1740419630367402</v>
+        <v>0.0904032856280147</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0646928243322154</v>
+        <v>0.07718315869247011</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1735245755737242</v>
+        <v>0.08983076926155015</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1037000547139832</v>
+        <v>0.1234989128720193</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1735245755737242</v>
+        <v>0.08858555599637455</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01957279660129906</v>
+        <v>0.01654167867010375</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1741760946728986</v>
+        <v>0.0520971504997657</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02564342171526546</v>
+        <v>0.03051744587436528</v>
       </c>
       <c r="K171" t="n">
-        <v>0.175699505541852</v>
+        <v>0.09126426930066246</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06544322760875151</v>
+        <v>0.07651667346800539</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1751771905791882</v>
+        <v>0.09068630039737444</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1052831613047799</v>
+        <v>0.1233919307010716</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1751771905791882</v>
+        <v>0.08942922795824479</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01974576861092087</v>
+        <v>0.01613672038694491</v>
       </c>
       <c r="G172" t="n">
-        <v>0.17581926537736</v>
+        <v>0.05209688197130168</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02615827727525454</v>
+        <v>0.03039082479613361</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1773570480469638</v>
+        <v>0.09212525297331021</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06628162028883647</v>
+        <v>0.07654928748258291</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1768298055846522</v>
+        <v>0.09154183153319873</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1056469972310702</v>
+        <v>0.1227839430106327</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1768298055846522</v>
+        <v>0.09027289992011503</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02091539660053338</v>
+        <v>0.01574013758579075</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1774624360818212</v>
+        <v>0.05209661344283766</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02636866753698547</v>
+        <v>0.03016387583312681</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1790145905520756</v>
+        <v>0.09298623664595798</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06610908845673422</v>
+        <v>0.07698119956615337</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1784824205901163</v>
+        <v>0.09239736266902301</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1063933050845362</v>
+        <v>0.1226752557343962</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1784824205901163</v>
+        <v>0.09111657188198526</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02108202935402789</v>
+        <v>0.01535246912392881</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1791056067862826</v>
+        <v>0.05209634491437365</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02637502593130003</v>
+        <v>0.03043667914141857</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1806721330571875</v>
+        <v>0.09384722031860573</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06692671819670862</v>
+        <v>0.07681260854866748</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1801350355955803</v>
+        <v>0.0932528938048473</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1075238274568605</v>
+        <v>0.1224645688370842</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1801350355955803</v>
+        <v>0.09196024384385548</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02224601565529571</v>
+        <v>0.01497425385861251</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1807487774907439</v>
+        <v>0.05209607638590963</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02677778588904006</v>
+        <v>0.03030931487708267</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1823296755622993</v>
+        <v>0.0947082039912535</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0677355955930237</v>
+        <v>0.07614365776652346</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1817876506010444</v>
+        <v>0.09410842494067158</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1081403069397253</v>
+        <v>0.1223315192917808</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1817876506010444</v>
+        <v>0.09280391580572572</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02140770428822809</v>
+        <v>0.01460603064712858</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1823919481952052</v>
+        <v>0.05209580785744562</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02687738084104734</v>
+        <v>0.0301808655327117</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1839872180674111</v>
+        <v>0.09556918766390125</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06823680672994328</v>
+        <v>0.07626390702962374</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1834402656065084</v>
+        <v>0.09496395607649587</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1095444861248129</v>
+        <v>0.122772328645829</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1834402656065084</v>
+        <v>0.09364758776759595</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02056744403671637</v>
+        <v>0.01424833834673126</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1840351188996665</v>
+        <v>0.0520955393289816</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02687424421816369</v>
+        <v>0.0302459847412945</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1856447605725229</v>
+        <v>0.09643017133654901</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06863143769173125</v>
+        <v>0.07596691905362024</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1850928806119725</v>
+        <v>0.09581948721232016</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1092381076038058</v>
+        <v>0.1226901791565762</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1850928806119725</v>
+        <v>0.09449125972946619</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02172558368465181</v>
+        <v>0.01390171581470642</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1856782896041278</v>
+        <v>0.05209527080051758</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02706880945123087</v>
+        <v>0.03020456806818118</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1873023030776347</v>
+        <v>0.09729115500919677</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06902057456265162</v>
+        <v>0.07645476202545984</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1867454956174365</v>
+        <v>0.09667501834814445</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1103229139683862</v>
+        <v>0.1217882530813697</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1867454956174365</v>
+        <v>0.09533493169133643</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02188706800449397</v>
+        <v>0.01356670190830922</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1873214603085891</v>
+        <v>0.05209500227205356</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02756155931302323</v>
+        <v>0.02995744927983829</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1889598455827465</v>
+        <v>0.09815213868184453</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06930774078517207</v>
+        <v>0.07632950413208922</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1883981106229005</v>
+        <v>0.09753054948396873</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1117045584829845</v>
+        <v>0.1214697326775569</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1883981106229005</v>
+        <v>0.09617860365320666</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02205772647152564</v>
+        <v>0.01324383548482454</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1889646310130504</v>
+        <v>0.05209473374358955</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02766215093500039</v>
+        <v>0.0302054621427324</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1906173880878583</v>
+        <v>0.09901312235449229</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06962127769574869</v>
+        <v>0.07609321356045531</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1900507256283646</v>
+        <v>0.09838608061979302</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1122285140255491</v>
+        <v>0.1211378002024851</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1900507256283646</v>
+        <v>0.09702227561507688</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02223183609487496</v>
+        <v>0.01293365540150861</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1906078017175117</v>
+        <v>0.05209446521512553</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02797241690205753</v>
+        <v>0.02994944042333009</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1922749305929701</v>
+        <v>0.09987410602714004</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07065445591986583</v>
+        <v>0.07604795849750492</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1917033406338286</v>
+        <v>0.0992416117556173</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1134839835037658</v>
+        <v>0.1213956379135017</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1917033406338286</v>
+        <v>0.09786594757694712</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02240340538244953</v>
+        <v>0.0126367005156452</v>
       </c>
       <c r="G182" t="n">
-        <v>0.192250972421973</v>
+        <v>0.05209419668666151</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02808491163678666</v>
+        <v>0.02979021788809795</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1939324730980819</v>
+        <v>0.1007350896997878</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07078861844542705</v>
+        <v>0.0757958071301848</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1933559556392927</v>
+        <v>0.1000971428914416</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1137410322659905</v>
+        <v>0.121246428067954</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1933559556392927</v>
+        <v>0.09870961953881735</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02256644284215699</v>
+        <v>0.01235350968449767</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1938941431264343</v>
+        <v>0.05209392815819749</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02819218956177992</v>
+        <v>0.02982862830350251</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1955900156031938</v>
+        <v>0.1015960733724356</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07160510826033584</v>
+        <v>0.07533882764544186</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1950085706447567</v>
+        <v>0.1009526740272659</v>
       </c>
       <c r="N183" t="n">
-        <v>0.114469725660579</v>
+        <v>0.1205933529231895</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1950085706447567</v>
+        <v>0.09955329150068759</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02371495698190496</v>
+        <v>0.0120846217653306</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1955373138308956</v>
+        <v>0.05209365962973347</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02828680509962934</v>
+        <v>0.02996550543601041</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1972475581083055</v>
+        <v>0.1024570570450833</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07228526835249577</v>
+        <v>0.07537908823022285</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1966611856502208</v>
+        <v>0.1018082051630902</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1159401290358871</v>
+        <v>0.1209395947365553</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1966611856502208</v>
+        <v>0.1003969634625578</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02184295630960106</v>
+        <v>0.01183057561542595</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1971804845353569</v>
+        <v>0.05209339110126946</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02876131267292702</v>
+        <v>0.02980168305208819</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1989051006134174</v>
+        <v>0.1033180407177311</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07241044170981037</v>
+        <v>0.07531865707147462</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1983138006556848</v>
+        <v>0.1026637362989145</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1158223077402703</v>
+        <v>0.1207883357653989</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1983138006556848</v>
+        <v>0.1012406354244281</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02394444933315291</v>
+        <v>0.01159191009204296</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1988236552398183</v>
+        <v>0.05209312257280544</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02890826670426498</v>
+        <v>0.02963799491820243</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2005626431185292</v>
+        <v>0.1041790243903788</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07306197132018322</v>
+        <v>0.07495960235614393</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1999664156611488</v>
+        <v>0.1035192674347387</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1172863271220846</v>
+        <v>0.1204427582670676</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1999664156611488</v>
+        <v>0.1020843073862983</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02401564976221852</v>
+        <v>0.01136916405246228</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2004668259442796</v>
+        <v>0.05209285404434143</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02902022161623533</v>
+        <v>0.02967527480081969</v>
       </c>
       <c r="K187" t="n">
-        <v>0.202220185623641</v>
+        <v>0.1050400080630266</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07342120017151779</v>
+        <v>0.07510399227117773</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2016190306666129</v>
+        <v>0.104374798570563</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1171022525296857</v>
+        <v>0.1203060444989088</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2016190306666129</v>
+        <v>0.1029279793481685</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02207839003125012</v>
+        <v>0.01116287635394451</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2021099966487409</v>
+        <v>0.05209258551587741</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02900011834571013</v>
+        <v>0.02961435646640656</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2038777281287528</v>
+        <v>0.1059009917356744</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07331663753097617</v>
+        <v>0.07475389500352267</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2032716456720769</v>
+        <v>0.1052303297063873</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1180158262811207</v>
+        <v>0.1201813767182698</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2032716456720769</v>
+        <v>0.1037716513100388</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0231397460923396</v>
+        <v>0.0109735858537689</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2037531673532022</v>
+        <v>0.05209231698741339</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02887616783203992</v>
+        <v>0.02935607368142965</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2055352706338646</v>
+        <v>0.1067619754083221</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0731073752061199</v>
+        <v>0.07481137874012569</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2049242606775409</v>
+        <v>0.1060858608422116</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1180218595211347</v>
+        <v>0.1194719371824979</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2049242606775409</v>
+        <v>0.104615323271909</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02319969589598531</v>
+        <v>0.0107996310753437</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2053963380576635</v>
+        <v>0.05209204845894937</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02905050274455397</v>
+        <v>0.02950126021235545</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2071928131389764</v>
+        <v>0.1076229590809699</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07339378836467053</v>
+        <v>0.07447851166793357</v>
       </c>
       <c r="M190" t="n">
-        <v>0.206576875683005</v>
+        <v>0.1069413919780359</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1177209541957947</v>
+        <v>0.1188809081489406</v>
       </c>
       <c r="O190" t="n">
-        <v>0.206576875683005</v>
+        <v>0.1054589952337792</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02325821739268562</v>
+        <v>0.01062834887282518</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2070395087621248</v>
+        <v>0.05209177993048536</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0290230956825199</v>
+        <v>0.02935074982565061</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2088503556440882</v>
+        <v>0.1084839427536176</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07387580834629895</v>
+        <v>0.07425736197389307</v>
       </c>
       <c r="M191" t="n">
-        <v>0.208229490688469</v>
+        <v>0.1077969231138602</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1182130001415316</v>
+        <v>0.1192114718749452</v>
       </c>
       <c r="O191" t="n">
-        <v>0.208229490688469</v>
+        <v>0.1063026671956495</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02331528853293886</v>
+        <v>0.01045807776962258</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2086826794665861</v>
+        <v>0.05209151140202134</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02919391924520534</v>
+        <v>0.02920537628778168</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2105078981492</v>
+        <v>0.1093449264262654</v>
       </c>
       <c r="L192" t="n">
-        <v>0.074353366490676</v>
+        <v>0.07404999784495109</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2098821056939331</v>
+        <v>0.1086524542496845</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1192978871947771</v>
+        <v>0.1192668106178589</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2098821056939331</v>
+        <v>0.1071463391575197</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0223708872672434</v>
+        <v>0.01028935662301358</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2103258501710474</v>
+        <v>0.05209124287355732</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02916294603187794</v>
+        <v>0.02926597336521523</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2121654406543119</v>
+        <v>0.1102059100989132</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07432639413747252</v>
+        <v>0.07385848746805443</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2115347206993971</v>
+        <v>0.1095079853855088</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1184755051919622</v>
+        <v>0.1187500079945927</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2115347206993971</v>
+        <v>0.1079900111193899</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02442499154609758</v>
+        <v>0.01012272429026111</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2119690208755087</v>
+        <v>0.0520909743450933</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02933014864180529</v>
+        <v>0.02933337482441783</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2138229831594237</v>
+        <v>0.1110668937715609</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07399482262635948</v>
+        <v>0.07388481196145863</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2131873357048611</v>
+        <v>0.110363516521333</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1196457439695183</v>
+        <v>0.118247666223931</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2131873357048611</v>
+        <v>0.1088336830812602</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02247757931999973</v>
+        <v>0.009958719628642705</v>
       </c>
       <c r="G195" t="n">
-        <v>0.21361219157997</v>
+        <v>0.05209070581662929</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02959549967425505</v>
+        <v>0.02920685797568359</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2154805256645355</v>
+        <v>0.1119278774442087</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07445858329700769</v>
+        <v>0.0743201780867018</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2148399507103252</v>
+        <v>0.1112190476571573</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1190084933638768</v>
+        <v>0.118948576832426</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2148399507103252</v>
+        <v>0.1096773550431304</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02252862853944822</v>
+        <v>0.009797881495421497</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2152553622844313</v>
+        <v>0.05209043728816527</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0296589717284948</v>
+        <v>0.0292816008093357</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2171380681696473</v>
+        <v>0.1127888611168564</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07461760748908799</v>
+        <v>0.07405762670471397</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2164925657157892</v>
+        <v>0.1120745787929816</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1201636432114687</v>
+        <v>0.1183526378481655</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2164925657157892</v>
+        <v>0.1105210270050006</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0235781171549414</v>
+        <v>0.009640748747874774</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2168985329888927</v>
+        <v>0.05209016875970125</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02972053740379221</v>
+        <v>0.02935716281748026</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2187956106747591</v>
+        <v>0.1136498447895042</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07477182654227138</v>
+        <v>0.07409709154273497</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2181451807212532</v>
+        <v>0.1129301099288059</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1206110833487254</v>
+        <v>0.118459747299237</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2181451807212532</v>
+        <v>0.1113646989668709</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0226260231169776</v>
+        <v>0.009487860243269246</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2185417036933539</v>
+        <v>0.05208990023123724</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02968016929941486</v>
+        <v>0.02933351728299427</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2204531531798709</v>
+        <v>0.114510828462152</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07502117179622861</v>
+        <v>0.07353850632800457</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2197977957267173</v>
+        <v>0.1137856410646302</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1203507036120781</v>
+        <v>0.1182698032137282</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2197977957267173</v>
+        <v>0.1122083709287411</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02267232437605519</v>
+        <v>0.009339754838872005</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2201848743978153</v>
+        <v>0.05208963170277322</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02973784001463042</v>
+        <v>0.02921063748875469</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2221106956849827</v>
+        <v>0.1153718121347997</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07486557459063062</v>
+        <v>0.07408180478776258</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2214504107321813</v>
+        <v>0.1146411722004545</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1203823938379584</v>
+        <v>0.1179827036197267</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2214504107321813</v>
+        <v>0.1130520428906113</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02371699888267252</v>
+        <v>0.009196971391959775</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2218280451022766</v>
+        <v>0.05208936317430921</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02989352214870651</v>
+        <v>0.02908849671763848</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2237682381900945</v>
+        <v>0.1162327958074475</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0749049662651482</v>
+        <v>0.07342692064924883</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2231030257376454</v>
+        <v>0.1154967033362788</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1201060438627972</v>
+        <v>0.1180983465453203</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2231030257376454</v>
+        <v>0.1138957148524816</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02376002458732793</v>
+        <v>0.009060048759796623</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2234712158067379</v>
+        <v>0.05208909464584519</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02964718830091072</v>
+        <v>0.02926706825252266</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2254257806952064</v>
+        <v>0.1170937794800952</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07503927815945227</v>
+        <v>0.07397378763970308</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2247556407431094</v>
+        <v>0.116352234472103</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1204215435230261</v>
+        <v>0.1184166300185965</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2247556407431094</v>
+        <v>0.1147393868143518</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02280137944051974</v>
+        <v>0.008929525799658777</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2251143865111992</v>
+        <v>0.05208882611738117</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02989881107051072</v>
+        <v>0.02924632537628415</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2270833232003182</v>
+        <v>0.117954763152743</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07516844161321376</v>
+        <v>0.07332233948636513</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2264082557485735</v>
+        <v>0.1172077656079273</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1206287826550761</v>
+        <v>0.118337452067643</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2264082557485735</v>
+        <v>0.115583058776222</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02384104139274636</v>
+        <v>0.008805941368810834</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2267575572156605</v>
+        <v>0.05208855758891715</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03004836305677409</v>
+        <v>0.02922624137179994</v>
       </c>
       <c r="K203" t="n">
-        <v>0.22874086570543</v>
+        <v>0.1188157468253907</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07539238796610354</v>
+        <v>0.07347250991647478</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2280608707540375</v>
+        <v>0.1180632967437516</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1209276510953786</v>
+        <v>0.1176607107205473</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2280608707540375</v>
+        <v>0.1164267307380923</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0248789883945061</v>
+        <v>0.008689834324528446</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2284007279201218</v>
+        <v>0.05208828906045313</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0298958168589685</v>
+        <v>0.02900678952194702</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2303984082105418</v>
+        <v>0.1196767304980385</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07581104855779236</v>
+        <v>0.07362423265727186</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2297134857595015</v>
+        <v>0.1189188278795759</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1216180386803649</v>
+        <v>0.1172863040053972</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2297134857595015</v>
+        <v>0.1172704026999625</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02491519839629731</v>
+        <v>0.008581743524076854</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2300438986245831</v>
+        <v>0.05208802053198911</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03004114507636153</v>
+        <v>0.02908794310960232</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2320559507156536</v>
+        <v>0.1205377141706863</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07572435472795119</v>
+        <v>0.07347744143599616</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2313661007649656</v>
+        <v>0.1197743590154002</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1216998352464663</v>
+        <v>0.1180141299502803</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2313661007649656</v>
+        <v>0.1181140746618327</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02494964934861836</v>
+        <v>0.008482207824731018</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2316870693290444</v>
+        <v>0.0520877520035251</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03018432030822085</v>
+        <v>0.02896967541764284</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2337134932207654</v>
+        <v>0.121398697843334</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07613223781625092</v>
+        <v>0.07333206997988742</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2330187157704296</v>
+        <v>0.1206298901512245</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1214729306301141</v>
+        <v>0.1173440865832843</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2330187157704296</v>
+        <v>0.118957746623703</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02498231920196757</v>
+        <v>0.008391766083756899</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2333302400335057</v>
+        <v>0.05208748347506108</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02992531515381407</v>
+        <v>0.02905195972894557</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2353710357258772</v>
+        <v>0.1222596815159818</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07613462916236238</v>
+        <v>0.07338805201618553</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2346713307758936</v>
+        <v>0.1214854212870488</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1220372146677394</v>
+        <v>0.1170760719324968</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2346713307758936</v>
+        <v>0.1198014185855732</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0250131859068433</v>
+        <v>0.008310957158428695</v>
       </c>
       <c r="G208" t="n">
-        <v>0.234973410737967</v>
+        <v>0.05208721494659706</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0301641022124088</v>
+        <v>0.02903476932638746</v>
       </c>
       <c r="K208" t="n">
-        <v>0.237028578230989</v>
+        <v>0.1231206651886295</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0764314601059565</v>
+        <v>0.07344532127213024</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2363239457813577</v>
+        <v>0.1223409524228731</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1215925771957737</v>
+        <v>0.1174099840260054</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2363239457813577</v>
+        <v>0.1206450905474434</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02504222741374393</v>
+        <v>0.008240319906013184</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2366165814424283</v>
+        <v>0.05208694641813304</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03010065408327267</v>
+        <v>0.02901807749284546</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2386861207361008</v>
+        <v>0.1239816488612773</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07632266198670404</v>
+        <v>0.07330381147496134</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2379765607868217</v>
+        <v>0.1231964835586973</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1226389080506481</v>
+        <v>0.1171457208918977</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2379765607868217</v>
+        <v>0.1214887625093137</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02306942167316775</v>
+        <v>0.008180393183783712</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2382597521468897</v>
+        <v>0.05208667788966903</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03003494336567332</v>
+        <v>0.02880185751119661</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2403436632412126</v>
+        <v>0.1248426325339251</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07660816614427599</v>
+        <v>0.0734634563519187</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2396291757922858</v>
+        <v>0.1240520146945216</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1222760970687941</v>
+        <v>0.1173831805582616</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2396291757922858</v>
+        <v>0.1223324344711839</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02309474663561317</v>
+        <v>0.008131715849007931</v>
       </c>
       <c r="G211" t="n">
-        <v>0.239902922851351</v>
+        <v>0.05208640936120501</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03036694265887836</v>
+        <v>0.02888608266431779</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2420012057463245</v>
+        <v>0.1257036162065728</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07678790391834317</v>
+        <v>0.07312418963024198</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2412817907977498</v>
+        <v>0.1249075458303459</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1230040340866428</v>
+        <v>0.1175222610531844</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2412817907977498</v>
+        <v>0.1231761064330541</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02411818025157848</v>
+        <v>0.00809482675895825</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2415460935558123</v>
+        <v>0.052086140832741</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03019662456215542</v>
+        <v>0.02887072623508606</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2436587482514363</v>
+        <v>0.1265645998792206</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07666180664857647</v>
+        <v>0.07298594503717112</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2429344058032138</v>
+        <v>0.1257630769661702</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1222226089406256</v>
+        <v>0.116662860404754</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2429344058032138</v>
+        <v>0.1240197783949244</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02313970047156209</v>
+        <v>0.008070264770903342</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2431892642602735</v>
+        <v>0.05208587230427698</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03022396167477213</v>
+        <v>0.02875576150637835</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2453162907565481</v>
+        <v>0.1274255835518683</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07672980567464674</v>
+        <v>0.07334865629994589</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2445870208086779</v>
+        <v>0.1266186081019945</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1225317114671736</v>
+        <v>0.1171048766410579</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2445870208086779</v>
+        <v>0.1248634503567946</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02315928524606231</v>
+        <v>0.008058568742114552</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2448324349647349</v>
+        <v>0.05208560377581296</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03014892659599615</v>
+        <v>0.02874116176107162</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2469738332616599</v>
+        <v>0.1282865672245161</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07699183233622486</v>
+        <v>0.07271225714580601</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2462396358141419</v>
+        <v>0.1274741392378188</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1230312315027183</v>
+        <v>0.1176482077901838</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2462396358141419</v>
+        <v>0.1257071223186648</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02317691252557751</v>
+        <v>0.008058568742114552</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2464756056691962</v>
+        <v>0.05208560377581296</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03037149192509501</v>
+        <v>0.02902690028204284</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2486313757667717</v>
+        <v>0.1291475508971639</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07654781797298171</v>
+        <v>0.07297668130199134</v>
       </c>
       <c r="M215" t="n">
-        <v>0.247892250819606</v>
+        <v>0.1283296703736431</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1232210588836908</v>
+        <v>0.1168927518802194</v>
       </c>
       <c r="O215" t="n">
-        <v>0.247892250819606</v>
+        <v>0.1265507942805351</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02519256026060601</v>
+        <v>0.007805828159462222</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2481187763736575</v>
+        <v>0.05205564677762849</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03029163026133644</v>
+        <v>0.02871295035216903</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2502889182718835</v>
+        <v>0.1300085345698116</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07709769392458818</v>
+        <v>0.07274186249574169</v>
       </c>
       <c r="M216" t="n">
-        <v>0.24954486582507</v>
+        <v>0.1291852015094674</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1231010834465225</v>
+        <v>0.1176384069392521</v>
       </c>
       <c r="O216" t="n">
-        <v>0.24954486582507</v>
+        <v>0.1273944662424053</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0242062064016462</v>
+        <v>0.007556444233768805</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2497619470781188</v>
+        <v>0.05202568977944402</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03020931420398799</v>
+        <v>0.02899928525432713</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2519464607769953</v>
+        <v>0.1308695182424594</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07654139153071515</v>
+        <v>0.0729077344542968</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2511974808305341</v>
+        <v>0.1300407326452916</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1234711950276446</v>
+        <v>0.1175850709953699</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2511974808305341</v>
+        <v>0.1282381382042755</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02321782889919637</v>
+        <v>0.00731104090276273</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2514051177825801</v>
+        <v>0.05199573278125955</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03042451635231733</v>
+        <v>0.02878587827139409</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2536040032821071</v>
+        <v>0.1317305019151072</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07697884213103345</v>
+        <v>0.07287423090489653</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2528500958359981</v>
+        <v>0.1308962637811159</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1227312834634884</v>
+        <v>0.1163326420766603</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2528500958359981</v>
+        <v>0.1290818101661458</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02322740570375494</v>
+        <v>0.007070242104172411</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2530482884870414</v>
+        <v>0.05196577578307509</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03023720930559208</v>
+        <v>0.02897270268624694</v>
       </c>
       <c r="K219" t="n">
-        <v>0.255261545787219</v>
+        <v>0.1325914855877549</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07650997706521398</v>
+        <v>0.07304128557478071</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2545027108414621</v>
+        <v>0.1317517949169402</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1232812385904853</v>
+        <v>0.1172810182112108</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2545027108414621</v>
+        <v>0.129925482128016</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02323491476582019</v>
+        <v>0.006834671775726275</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2546914591915027</v>
+        <v>0.05193581878489062</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03034736566307983</v>
+        <v>0.02865973178176258</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2569190882923308</v>
+        <v>0.1334524692604027</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07723472767292761</v>
+        <v>0.07300883219118903</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2561553258469262</v>
+        <v>0.1326073260527645</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1231209502450664</v>
+        <v>0.1167300974271093</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2561553258469262</v>
+        <v>0.1307691540898862</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02524033403589054</v>
+        <v>0.00660495385515273</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2563346298959641</v>
+        <v>0.05190586178670615</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03025495802404826</v>
+        <v>0.02894693884081805</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2585766307974426</v>
+        <v>0.1343134529330504</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07685302529384522</v>
+        <v>0.07297680448136137</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2578079408523902</v>
+        <v>0.1334628571885888</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1232503082636632</v>
+        <v>0.1161797777524431</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2578079408523902</v>
+        <v>0.1316128260517565</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02324364146446427</v>
+        <v>0.006381712280180155</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2579778006004253</v>
+        <v>0.05187590478852168</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03035995898776493</v>
+        <v>0.02883429714629027</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2602341733025544</v>
+        <v>0.1351744366056982</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07656480126763768</v>
+        <v>0.07314513617253754</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2594605558578542</v>
+        <v>0.1343183883244131</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1237692024827068</v>
+        <v>0.1163299572153001</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2594605558578542</v>
+        <v>0.1324564980136267</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0232448150020398</v>
+        <v>0.00616557098853706</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2596209713048866</v>
+        <v>0.05184594779033721</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03056234115349754</v>
+        <v>0.02862177998105626</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2618917158076662</v>
+        <v>0.1360354202783459</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07716998693397586</v>
+        <v>0.07241376099195723</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2611131708633183</v>
+        <v>0.1351739194602374</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1230775227386284</v>
+        <v>0.1167805338437679</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2611131708633183</v>
+        <v>0.1333001699754969</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02521475273971026</v>
+        <v>0.005957153917951812</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2612641420093479</v>
+        <v>0.05181599079215274</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03054778111661005</v>
+        <v>0.02870936062799294</v>
       </c>
       <c r="K224" t="n">
-        <v>0.263549258312778</v>
+        <v>0.1368964039509937</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07661681274897694</v>
+        <v>0.07308261266686036</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2627657858687823</v>
+        <v>0.1360294505960616</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1228922062529994</v>
+        <v>0.1167314056659342</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2627657858687823</v>
+        <v>0.1341438419373672</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02312306178257852</v>
+        <v>0.005757085006152837</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2629073127138093</v>
+        <v>0.05178603379396827</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03036089356453237</v>
+        <v>0.02879701236997732</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2652068008178898</v>
+        <v>0.1377573876236415</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07647582327142816</v>
+        <v>0.07285162492448669</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2644184008742463</v>
+        <v>0.136884981731886</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1226055454081088</v>
+        <v>0.1163824707098865</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2644184008742463</v>
+        <v>0.1349875138992374</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02297654580742646</v>
+        <v>0.005565988190868558</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2645504834182706</v>
+        <v>0.0517560767957838</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03030357766016961</v>
+        <v>0.02868470848988636</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2668643433230016</v>
+        <v>0.1386183712962892</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07646031831658823</v>
+        <v>0.07272073149207597</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2660710158797104</v>
+        <v>0.1377405128677102</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1226388793838127</v>
+        <v>0.1170336270037125</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2660710158797104</v>
+        <v>0.1358311858611077</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02378207860048133</v>
+        <v>0.005384487409827381</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2661936541227319</v>
+        <v>0.05172611979759933</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02998437540051542</v>
+        <v>0.02867242227059705</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2685218858281134</v>
+        <v>0.139479354968937</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07549170228770305</v>
+        <v>0.07238986609686812</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2677236308851745</v>
+        <v>0.1385960440035345</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1207265509436528</v>
+        <v>0.1170847725754999</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2677236308851745</v>
+        <v>0.1366748578229779</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02254653394797031</v>
+        <v>0.005213206600757726</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2678368248271932</v>
+        <v>0.05169616279941486</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02961182878256335</v>
+        <v>0.02866012699498632</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2701794283332253</v>
+        <v>0.1403403386415847</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07489137958801861</v>
+        <v>0.0725589624661028</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2693762458906385</v>
+        <v>0.1394515751393588</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1199029028511703</v>
+        <v>0.1164358054533364</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2693762458906385</v>
+        <v>0.1375185297848481</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02427678563612065</v>
+        <v>0.00505276970138803</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2694799955316545</v>
+        <v>0.0516662058012304</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0292944798033071</v>
+        <v>0.02874779594593117</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2718369708383371</v>
+        <v>0.1412013223142325</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07428075462078074</v>
+        <v>0.07262795432701988</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2710288608961026</v>
+        <v>0.1403071062751831</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1188022778699068</v>
+        <v>0.1167866236653094</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2710288608961026</v>
+        <v>0.1383622017467183</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02197970745115961</v>
+        <v>0.004903800649446691</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2711231662361158</v>
+        <v>0.05163624880304593</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02914087045974026</v>
+        <v>0.02853540240630859</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2734945133434489</v>
+        <v>0.1420623059868802</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07338123178923536</v>
+        <v>0.07279677540685919</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2726814759015666</v>
+        <v>0.1411626374110074</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1170590187634037</v>
+        <v>0.1166371252395066</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2726814759015666</v>
+        <v>0.1392058737085886</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02166217317931438</v>
+        <v>0.004766923382662137</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2727663369405771</v>
+        <v>0.05160629180486146</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02865954274885642</v>
+        <v>0.02872291965899551</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2751520558485607</v>
+        <v>0.142923289659528</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07241421549662841</v>
+        <v>0.07236535943286046</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2743340909070306</v>
+        <v>0.1420181685468317</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1164074682952027</v>
+        <v>0.115687208204016</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2743340909070306</v>
+        <v>0.1400495456704588</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0223310566068122</v>
+        <v>0.004642761838762784</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2744095076450384</v>
+        <v>0.05157633480667699</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02805903866764924</v>
+        <v>0.02881032098686893</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2768095983536725</v>
+        <v>0.1437842733321758</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07110111014620571</v>
+        <v>0.07263364013226351</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2759867059124947</v>
+        <v>0.142873699682656</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1138819692288449</v>
+        <v>0.1166367705869248</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2759867059124947</v>
+        <v>0.140893217632329</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02199323151988029</v>
+        <v>0.004531939955477057</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2760526783494997</v>
+        <v>0.05154637780849253</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0278479002131123</v>
+        <v>0.02879758695253529</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2784671408587843</v>
+        <v>0.1446452570048235</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06996332014121329</v>
+        <v>0.07240161504154638</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2776393209179587</v>
+        <v>0.1437292308184802</v>
       </c>
       <c r="N233" t="n">
-        <v>0.112916864327872</v>
+        <v>0.1155861272080714</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2776393209179587</v>
+        <v>0.1417368895941993</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0216555717047459</v>
+        <v>0.004435081670533352</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2776958490539611</v>
+        <v>0.05151642081030805</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02743466938223925</v>
+        <v>0.02848488531906081</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2801246833638961</v>
+        <v>0.1455062406774713</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06952224988489686</v>
+        <v>0.07276976014562175</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2792919359234228</v>
+        <v>0.1445847619543045</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1111464963558253</v>
+        <v>0.1160359152927151</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2792919359234228</v>
+        <v>0.1425805615560695</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02032495094763623</v>
+        <v>0.004352810921660122</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2793390197584223</v>
+        <v>0.05148646381212358</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02712788817202372</v>
+        <v>0.02857229762970097</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2817822258690079</v>
+        <v>0.146367224350119</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06779930378050247</v>
+        <v>0.07273819079304883</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2809445509288868</v>
+        <v>0.1454402930901288</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1091052080762465</v>
+        <v>0.1158861526419458</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2809445509288868</v>
+        <v>0.1434242335179397</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02000824303477852</v>
+        <v>0.004285751646585775</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2809821904628837</v>
+        <v>0.05145650681393912</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0267360985794593</v>
+        <v>0.02855982620299501</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2834397683741198</v>
+        <v>0.1472282080227668</v>
       </c>
       <c r="L236" t="n">
-        <v>0.067015886231276</v>
+        <v>0.07200691273504548</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2825971659343509</v>
+        <v>0.1462958242259531</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1077273422526768</v>
+        <v>0.1165368481049907</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2825971659343509</v>
+        <v>0.14426790547981</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01971232175240002</v>
+        <v>0.004234527783038726</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2826253611673449</v>
+        <v>0.05142654981575465</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02616784260153962</v>
+        <v>0.02854747335748216</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2850973108792316</v>
+        <v>0.1480891916954146</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06589340164046331</v>
+        <v>0.0720759317228295</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2842497809398148</v>
+        <v>0.1471513553617774</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1064472416486579</v>
+        <v>0.1161880105310761</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2842497809398148</v>
+        <v>0.1451115774416802</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02044142990690567</v>
+        <v>0.004199763268747388</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2842685318718063</v>
+        <v>0.05139659281757018</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02583109758517813</v>
+        <v>0.02873524141170163</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2867548533843434</v>
+        <v>0.1489501753680623</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06575017343340894</v>
+        <v>0.0725452535076187</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2859023959452789</v>
+        <v>0.1480068864976017</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1047943056852642</v>
+        <v>0.1161396487694288</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2859023959452789</v>
+        <v>0.1459552494035505</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02017528848885698</v>
+        <v>0.004182082041440188</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2859117025762676</v>
+        <v>0.05136663581938571</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02540635023667058</v>
+        <v>0.02872313268419263</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2884123958894552</v>
+        <v>0.1498111590407101</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06463133022537729</v>
+        <v>0.07201488384063093</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2875550109507429</v>
+        <v>0.148862417633426</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1036804947675807</v>
+        <v>0.1160917716692754</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2875550109507429</v>
+        <v>0.1467989213654207</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02090813112223597</v>
+        <v>0.004179849612168295</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2875548732807289</v>
+        <v>0.05133667882120124</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02528035571047561</v>
+        <v>0.02871114949349439</v>
       </c>
       <c r="K240" t="n">
-        <v>0.290069938394567</v>
+        <v>0.1506721427133578</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06350934876098863</v>
+        <v>0.07258482847308387</v>
       </c>
       <c r="M240" t="n">
-        <v>0.289207625956207</v>
+        <v>0.1497179487692502</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1025616486057578</v>
+        <v>0.1157443880798428</v>
       </c>
       <c r="O240" t="n">
-        <v>0.289207625956207</v>
+        <v>0.1476425933272909</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02063994152278814</v>
+        <v>0.004180030863954</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2891980439851902</v>
+        <v>0.05130672182301677</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02505309377028561</v>
+        <v>0.02859929415814612</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2917274808996788</v>
+        <v>0.1515331263860056</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06308417833241783</v>
+        <v>0.07215509315619539</v>
       </c>
       <c r="M241" t="n">
-        <v>0.290860240961671</v>
+        <v>0.1505734799050745</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1007376858405151</v>
+        <v>0.1163975068503575</v>
       </c>
       <c r="O241" t="n">
-        <v>0.290860240961671</v>
+        <v>0.1484862652891611</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01837070340625904</v>
+        <v>0.004180714043761621</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2908412146896515</v>
+        <v>0.0512767648248323</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02442454417979294</v>
+        <v>0.02858756899668702</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2933850234047906</v>
+        <v>0.1523941100586534</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06225576823183995</v>
+        <v>0.07232568364118333</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2925128559671351</v>
+        <v>0.1514290110408988</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0998085251125721</v>
+        <v>0.1162511368300462</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2925128559671351</v>
+        <v>0.1493299372510314</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02010040048839417</v>
+        <v>0.004182233770272464</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2924843853941128</v>
+        <v>0.05124680782664783</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02439468670268993</v>
+        <v>0.02857597632765636</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2950425659099024</v>
+        <v>0.1532550937313011</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06142406775142986</v>
+        <v>0.07189660567926542</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2941654709725991</v>
+        <v>0.1522845421767231</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09777408506264867</v>
+        <v>0.1163052868681355</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2941654709725991</v>
+        <v>0.1501736092129016</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01882901648493908</v>
+        <v>0.004184924662167799</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2941275560985741</v>
+        <v>0.05121685082846337</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02406350110266897</v>
+        <v>0.02846451846959329</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2967001084150143</v>
+        <v>0.1541160774039489</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06018902618336266</v>
+        <v>0.07196786502165956</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2958180859780631</v>
+        <v>0.1531400733125474</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09743428433146412</v>
+        <v>0.1161599658138523</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2958180859780631</v>
+        <v>0.1510172811747719</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01855653511163926</v>
+        <v>0.004189121338128925</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2957707268030355</v>
+        <v>0.0511868938302789</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02373096714342239</v>
+        <v>0.02865319774103707</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2983576509201261</v>
+        <v>0.1549770610765966</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05935059281981317</v>
+        <v>0.0717394674195834</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2974707009835272</v>
+        <v>0.1539956044483717</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09578904155973822</v>
+        <v>0.1160151825164231</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2974707009835272</v>
+        <v>0.1518609531366421</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01828294008424026</v>
+        <v>0.004195158416837132</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2974138975074967</v>
+        <v>0.05115693683209442</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02329706458864253</v>
+        <v>0.02834201646052691</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3000151934252379</v>
+        <v>0.1558380447492444</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05860871695295639</v>
+        <v>0.07181141862425489</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2991233159889912</v>
+        <v>0.154851135584196</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09433827538819067</v>
+        <v>0.1150709458250746</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2991233159889912</v>
+        <v>0.1527046250985123</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0190082151184876</v>
+        <v>0.004203370516973691</v>
       </c>
       <c r="G247" t="n">
-        <v>0.299057068211958</v>
+        <v>0.05112697983390996</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0230617732020218</v>
+        <v>0.02853097694660199</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3016727359303497</v>
+        <v>0.1566990284218922</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05756334787496725</v>
+        <v>0.07208372438689173</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3007759309944553</v>
+        <v>0.1557066667200203</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09338190445754097</v>
+        <v>0.1154272645890335</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3007759309944553</v>
+        <v>0.1535482970603826</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01873234393012679</v>
+        <v>0.004214092257219887</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3007002389164193</v>
+        <v>0.05109702283572549</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02252507274725248</v>
+        <v>0.0285200815178016</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3033302784354615</v>
+        <v>0.1575600120945399</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05691443487802081</v>
+        <v>0.07195639045871177</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3024285459999193</v>
+        <v>0.1565621978558445</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09091984740850884</v>
+        <v>0.1153841476575265</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3024285459999193</v>
+        <v>0.1543919690222528</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01645531023490336</v>
+        <v>0.004227658256257018</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3023434096208806</v>
+        <v>0.05106706583754102</v>
       </c>
       <c r="J249" t="n">
-        <v>0.022286942988027</v>
+        <v>0.0283093324926649</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3049878209405733</v>
+        <v>0.1584209957671877</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05586192725429195</v>
+        <v>0.07232942259093286</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3040811610053833</v>
+        <v>0.1574177289916688</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08975202288181372</v>
+        <v>0.1155416038797802</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3040811610053833</v>
+        <v>0.155235640984123</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01717709774856285</v>
+        <v>0.004244403132766368</v>
       </c>
       <c r="G250" t="n">
-        <v>0.303986580325342</v>
+        <v>0.05103710883935655</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02174736368803766</v>
+        <v>0.02859873218973114</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3066453634456852</v>
+        <v>0.1592819794398354</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05530577429595565</v>
+        <v>0.07230282653477269</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3057337760108474</v>
+        <v>0.1582732601274931</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08927834951817543</v>
+        <v>0.1156996421050214</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3057337760108474</v>
+        <v>0.1560793129459933</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01689769018685076</v>
+        <v>0.004264661505429215</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3056297510298032</v>
+        <v>0.05100715184117208</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02150631461097685</v>
+        <v>0.0283882829275395</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3083029059507969</v>
+        <v>0.1601429631124832</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05454592529518687</v>
+        <v>0.07157660804144911</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3073863910163114</v>
+        <v>0.1591287912633174</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08679874595831349</v>
+        <v>0.1159582711824767</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3073863910163114</v>
+        <v>0.1569229849078635</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01761707126551262</v>
+        <v>0.004288767992926858</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3072729217342646</v>
+        <v>0.05097719484298761</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0210637755205369</v>
+        <v>0.02827798702462925</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3099604484559088</v>
+        <v>0.1610039467851309</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05328232954416059</v>
+        <v>0.07225077286217996</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3090390060217755</v>
+        <v>0.1599843223991417</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08661313084294758</v>
+        <v>0.1150174999613728</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3090390060217755</v>
+        <v>0.1577666568697337</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01733522470029396</v>
+        <v>0.004317057213940566</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3089160924387259</v>
+        <v>0.05094723784480314</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02071972618041018</v>
+        <v>0.02856784679953955</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3116179909610206</v>
+        <v>0.1618649304577787</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05241493633505173</v>
+        <v>0.07222532674818299</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3106916210272395</v>
+        <v>0.160839853534966</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0843214228127972</v>
+        <v>0.1148773372909363</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3106916210272395</v>
+        <v>0.158610328831604</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01605213420694032</v>
+        <v>0.004349863787151631</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3105592631431872</v>
+        <v>0.05091728084661867</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02047414635428903</v>
+        <v>0.02855786457080967</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3132755334661324</v>
+        <v>0.1627259141304264</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05194369496003531</v>
+        <v>0.07210027545067607</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3123442360327036</v>
+        <v>0.1616953846707903</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08382354050858215</v>
+        <v>0.115037792020394</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3123442360327036</v>
+        <v>0.1594540007934742</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01676778350119719</v>
+        <v>0.004387522331241345</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3122024338476485</v>
+        <v>0.05088732384843421</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02032701580586585</v>
+        <v>0.02824804265697878</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3149330759712441</v>
+        <v>0.1635868978030742</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05106855471128624</v>
+        <v>0.07157562472087692</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3139968510381676</v>
+        <v>0.1625509158066146</v>
       </c>
       <c r="N255" t="n">
-        <v>0.081719402571022</v>
+        <v>0.1151988729989726</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3139968510381676</v>
+        <v>0.1602976727553444</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01648215629881011</v>
+        <v>0.004430367464890998</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3138456045521098</v>
+        <v>0.05085736685024974</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01967831429883293</v>
+        <v>0.02853838337658611</v>
       </c>
       <c r="K256" t="n">
-        <v>0.316590618476356</v>
+        <v>0.164447881475722</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0499894648809795</v>
+        <v>0.07195138031000334</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3156494660436316</v>
+        <v>0.1634064469424389</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08010892764083621</v>
+        <v>0.1155605890758987</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3156494660436316</v>
+        <v>0.1611413447172147</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01619523631552461</v>
+        <v>0.004478733806781855</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3154887752565711</v>
+        <v>0.05082740985206527</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01932802159688267</v>
+        <v>0.0282288890481709</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3182481609814678</v>
+        <v>0.1653088651483697</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04950637476129002</v>
+        <v>0.07152754796927319</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3173020810490956</v>
+        <v>0.1642619780782631</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07919203435874456</v>
+        <v>0.1146229491003989</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3173020810490956</v>
+        <v>0.1619850166790849</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01390700726708619</v>
+        <v>0.004532955975595242</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3171319459610324</v>
+        <v>0.0507974528538808</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01897611746370742</v>
+        <v>0.02851956199027236</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3199057034865796</v>
+        <v>0.1661698488210175</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04801923364439278</v>
+        <v>0.07150413344990428</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3189546960545597</v>
+        <v>0.1651175092140874</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07796864136546672</v>
+        <v>0.1153859619216999</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3189546960545597</v>
+        <v>0.1628286886409551</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0136174528692404</v>
+        <v>0.004593368590012387</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3187751166654937</v>
+        <v>0.05076749585569633</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0187225816629995</v>
+        <v>0.02821040452142971</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3215632459916914</v>
+        <v>0.1670308324936653</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04782799082246278</v>
+        <v>0.07138114250311436</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3206073110600237</v>
+        <v>0.1659730403499117</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0760386673017221</v>
+        <v>0.1145496363890286</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3206073110600237</v>
+        <v>0.1636723606028254</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01532655683773276</v>
+        <v>0.004660306268714623</v>
       </c>
       <c r="G260" t="n">
-        <v>0.320418287369955</v>
+        <v>0.05073753885751186</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01826739395845134</v>
+        <v>0.02840141896018214</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3232207884968032</v>
+        <v>0.167891816166313</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04693259558767493</v>
+        <v>0.07175858088012124</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3222599260654878</v>
+        <v>0.166828571485736</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07420203080823057</v>
+        <v>0.1149139813516115</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3222599260654878</v>
+        <v>0.1645160325646956</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01503430288830879</v>
+        <v>0.004734103630383214</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3220614580744163</v>
+        <v>0.05070758185932739</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01801053411375519</v>
+        <v>0.02839260762506889</v>
       </c>
       <c r="K261" t="n">
-        <v>0.324878331001915</v>
+        <v>0.1687527998389608</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04583299723220421</v>
+        <v>0.07193645433214274</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3239125410709518</v>
+        <v>0.1676841026215603</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07315865052571152</v>
+        <v>0.1149790056586752</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3239125410709518</v>
+        <v>0.1653597045265658</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.014740674736714</v>
+        <v>0.004815095293699445</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3237046287788776</v>
+        <v>0.05067762486114293</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01765198189260349</v>
+        <v>0.0282839728346292</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3265358735070268</v>
+        <v>0.1696137835116086</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0448291450482256</v>
+        <v>0.07201476861039663</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3255651560764158</v>
+        <v>0.1685396337573846</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07240844509488464</v>
+        <v>0.1148447181594466</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3255651560764158</v>
+        <v>0.1662033764884361</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01244565609869393</v>
+        <v>0.004903615877344607</v>
       </c>
       <c r="G263" t="n">
-        <v>0.325347799483339</v>
+        <v>0.05064766786295846</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01719171705868858</v>
+        <v>0.02837551690740224</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3281934160121387</v>
+        <v>0.1704747671842563</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04382098832791403</v>
+        <v>0.07189352946610078</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3272177710818799</v>
+        <v>0.1693951648932089</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07075133315646975</v>
+        <v>0.1151111277031521</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3272177710818799</v>
+        <v>0.1670470484503063</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01314923068999411</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3269909701878003</v>
+        <v>0.05061771086477398</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01692971937570277</v>
+        <v>0.02826724216192725</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3298509585172504</v>
+        <v>0.171335750856904</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04300847636344446</v>
+        <v>0.07187274265047294</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3288703860873439</v>
+        <v>0.1702506960290331</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06938723335118613</v>
+        <v>0.1146782431390186</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3288703860873439</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1678907204121765</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05060455297003714</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005307533779257627</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05060482149850116</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005612219653747828</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05060509002696518</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005913980888327196</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05060535855542919</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006212740747878698</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05060562708389321</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006508422497259178</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05060589561235723</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006800949401351342</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05060616414082125</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007090244725012324</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05060643266928527</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007376231733124544</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05060670119774929</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007658833690545395</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0506069697262133</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007937973862157041</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05060723825467732</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008213575512817178</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05060750678314133</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008485561907407624</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05060777531160535</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008753856310786408</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05060804384006937</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009018381987835049</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05060831236853339</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009279062203411868</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0506085808969974</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009535820222398059</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05060884942546142</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009788579309652309</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05060911795392544</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01003726273005008</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05060938648238945</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01028179374846649</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05060965501085347</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01052209562976077</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05060992353931749</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0107580916388132</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05061019206778151</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01098970504048337</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05061046059624552</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01121685909965119</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05061072912470954</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01143947708117662</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05061099765317355</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01165779558505399</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05061126618163758</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01187361788683241</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05061153471010159</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01208718058650594</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05061180323856561</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01229840694893511</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05061207176702962</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01250722023899898</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05061234029549364</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0127135437215583</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05061260882395766</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01291730066149189</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05061287735242168</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01311841432366073</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0506131458808857</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01331680797293914</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05061341440934971</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01351240487420118</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05061368293781373</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01370512829230818</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05061395146627774</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01389490149213839</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05061421999474176</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01408164773855338</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05061448852320578</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01426529029643114</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0506147570516698</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01444575243063351</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05061502558013381</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01462295740603819</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05061529410859783</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01479682848750732</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05061556263706185</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.0149672889399183</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05061583116552587</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01513426202813355</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05061609969398988</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01529767101703022</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0506163682224539</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01545743917147101</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05061663675091792</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01561348975633272</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05061690527938194</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01576574603647841</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05061717380784595</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01591413127678457</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05061744233630997</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01605856874211456</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05061771086477398</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01605856874211456</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05060455297003714</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01619426261477687</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05063504702514965</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01632913116959902</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05066554108026215</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01646275446548666</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05069603513537466</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01659471256134542</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05072652919048716</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01672458551608094</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05075702324559966</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01685195338859886</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05078751730071216</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01697639623780481</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05081801135582466</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01709749412260442</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05084850541093717</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01721482710190334</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05087899946604967</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0173279752346072</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05090949352116218</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01743651857962165</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05093998757627468</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01754003719585231</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05097048163138718</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01763811114220482</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05100097568649969</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01773032047758483</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05103146974161219</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01781624526089795</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0510619637967247</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01789546555104984</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05109245785183719</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01796756140694613</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0511229519069497</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01803211288749246</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0511534459620622</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01808870005159446</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0511839400171747</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01813690295815776</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05121443407228721</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01817630166608801</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05124492812739971</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01820647623429084</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05127542218251221</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01822700672167191</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05130591623762472</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01823747318713682</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05133641029273722</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01823880014593438</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05136690434784973</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01823877325870123</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05139739840296223</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01823867191451479</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05142789245807473</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01823844647540616</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05145838651318724</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01823804730340648</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05148888056829974</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01823742476054688</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05151937462341225</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01823652920885848</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05154986867852475</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01823531101037241</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05158036273363725</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01823372052711981</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05161085678874975</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01823170812113178</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05164135084386225</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01822922415443948</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05167184489897476</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01822621898907403</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05170233895408726</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01822264298706654</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05173283300919976</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01821844651044815</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05176332706431227</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01821357992124999</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05179382111942477</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01820799358150319</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05182431517453728</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01820163785323887</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05185480922964978</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01819446309848816</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05188530328476228</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0181864196792822</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05191579733987478</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0181774579576521</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05194629139498728</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.018167528295629</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05197678545009979</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01815658105524402</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05200727950521229</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01814456659852829</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.0520377735603248</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01813143528751295</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0520682676154373</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01811713748422911</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.0520987616705498</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01811713748422911</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.0520987616705498</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01847822539625862</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0536811061717874</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01883210474226506</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05526345067302501</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01917862275424113</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.0568457951742626</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01951762666417954</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0584281396755002</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01984896370407299</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.0600104841767378</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02017248110591419</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06159282867797541</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02048802610169581</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06317517317921299</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02079544592341059</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0647575176804506</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0210945878030512</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06633986218168821</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02138529897261037</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06792220668292581</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02166742666408079</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.0695045511841634</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02194081810945514</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.071086895685401</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02220532054072616</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0726692401866386</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02246078118988654</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07425158468787621</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02270704728892896</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.0758339291891138</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02294396606984614</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07741627369035141</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02317138476463078</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.078998618191589</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02338915060527559</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08058096269282661</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02359711082377326</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08216330719406421</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02379511265211649</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08374565169530179</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02398300332229798</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08532799619653941</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02416063006631045</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08691034069777701</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02432784011614658</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08849268519901461</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02448448070379909</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.0900750297002522</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02463039906126067</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.0916573742014898</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02476544242052402</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09323971870272742</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02488945801358186</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09482206320396501</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02500229307242686</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.0964044077052026</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02510379482905176</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09798675220644021</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02519381051544924</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.0995690967076778</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02527218736361199</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1011514412089154</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02533877260553272</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.102733785710153</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02539341347320415</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1043161302113906</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02543595719861896</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1058984747126282</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02546625101376988</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1074808192138658</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02548951664563881</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1090631637151034</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02548949879010698</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.110645508216341</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02548619962813257</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1122278527175786</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02547748896000693</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1138101972188162</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02546377778154027</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1153925417200538</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02544547708854279</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1169748862212914</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02542299787682469</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.118557230722529</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02539675114219611</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1201395752237666</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02536714788046729</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1217219197250042</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02533459908744844</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1233042642262418</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02529951575894972</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1248866087274794</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02526230889078132</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.126468953228717</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02522338947875348</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1280512977299546</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02518316851867636</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1296336422311922</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02514205700636014</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1312159867324298</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02510018875824256</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1327983312336674</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02504524737945078</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.134380675734905</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02497351776589887</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1359630202361426</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02488927500877398</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1375453647373802</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02479679419926327</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1391277092386178</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02470035042855388</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1407100537398554</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02460421878783293</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.142292398241093</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02451267436828766</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1438747427423306</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02442999226110514</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1454570872435682</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02436044755747252</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1470394317448058</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02430831534857701</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1486217762460434</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02426934033846304</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02423274709495012</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1517864652485186</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02419830229599555</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1533688097497562</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02416586895103691</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1549511542509938</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02413531006951172</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1565334987522314</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02410648866085757</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.158115843253469</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02407926773451199</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1596981877547066</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02405351029991255</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1612805322559442</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02402907936649681</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1628628767571818</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02400583794370231</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1644452212584194</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02398364904096661</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.166027565759657</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.0239623756677273</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1676099102608946</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0239418808334219</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1691922547621322</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02392202754748798</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1707745992633698</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0239026788193631</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1723569437646074</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0238836976584848</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.173939288265845</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02386494707429067</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1755216327670826</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02384629007621822</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1771039772683202</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02382758967370505</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1786863217695578</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0238087088761887</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1802686662707954</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02378951069310671</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.181851010772033</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02377025937686278</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1834333552732706</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02375132978318856</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1850156997745082</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02373273382156622</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1865980442757458</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02371448338017668</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1881803887769834</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02369659034720081</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.189762733278221</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02367906661081952</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1913450777794586</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02366192405921369</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1929274222806962</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02364517458056423</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1945097667819338</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.023628830063052</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1960921112831714</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02361290239485789</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.197674455784409</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02359740346416282</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1992568002856466</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02358234515914767</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2008391447868842</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02356773936799332</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2024214892881218</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02355359797888067</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2040038337893594</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02353993287999061</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.205586178290597</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.023526755959504</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2071685227918346</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0235140791056018</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2087508672930722</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
